--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\z\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD438679-8C70-4DEC-B998-D26120D57A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E8B94D-0544-4D79-B0FE-5101E02B0071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="2993" windowWidth="17858" windowHeight="7259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="161">
   <si>
     <t>full_name</t>
   </si>
@@ -246,6 +246,279 @@
   </si>
   <si>
     <t>Abigail Auther</t>
+  </si>
+  <si>
+    <t>Cressida Nkunim Acquah</t>
+  </si>
+  <si>
+    <t>currently she can't walk well. Please assist her in walking</t>
+  </si>
+  <si>
+    <t>Edward Aquah</t>
+  </si>
+  <si>
+    <t>Irene Amponsah Essel</t>
+  </si>
+  <si>
+    <t>Workshop Technician</t>
+  </si>
+  <si>
+    <t>Ya 15/12 A</t>
+  </si>
+  <si>
+    <t>Christabel Arthur</t>
+  </si>
+  <si>
+    <t>Isaac Arthur</t>
+  </si>
+  <si>
+    <t>Elizabeth Afful</t>
+  </si>
+  <si>
+    <t>Barbar</t>
+  </si>
+  <si>
+    <t>Hairdressing</t>
+  </si>
+  <si>
+    <t>Emmanuel Kojo Yeboah Ampofo</t>
+  </si>
+  <si>
+    <t>a little bit difficult</t>
+  </si>
+  <si>
+    <t>Edward Yeboah Ampofo</t>
+  </si>
+  <si>
+    <t>Anna Sackey</t>
+  </si>
+  <si>
+    <t>Auto Mechanic</t>
+  </si>
+  <si>
+    <t>Administrative clerk</t>
+  </si>
+  <si>
+    <t>MH70/9</t>
+  </si>
+  <si>
+    <t>Nhyiraba Kwabena Arthur</t>
+  </si>
+  <si>
+    <t>kg1</t>
+  </si>
+  <si>
+    <t>Ebenezer Arthur</t>
+  </si>
+  <si>
+    <t>Victoria Nkrumah</t>
+  </si>
+  <si>
+    <t>Purchasing Clerk</t>
+  </si>
+  <si>
+    <t>BJ 284 KOFI KORMNCYE ST.</t>
+  </si>
+  <si>
+    <t>Jason Asare - Asiedu</t>
+  </si>
+  <si>
+    <t>Maxwell Asare - Asiedu</t>
+  </si>
+  <si>
+    <t>Nana Ekua Barkson</t>
+  </si>
+  <si>
+    <t>Public servant</t>
+  </si>
+  <si>
+    <t>Public Servant</t>
+  </si>
+  <si>
+    <t>Hannah Agboba</t>
+  </si>
+  <si>
+    <t>Nursery 1</t>
+  </si>
+  <si>
+    <t>Believer Agboba</t>
+  </si>
+  <si>
+    <t>Sandra Banatom</t>
+  </si>
+  <si>
+    <t>MD 619/9</t>
+  </si>
+  <si>
+    <t>Emmanuella Quaicoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Grace Egyir</t>
+  </si>
+  <si>
+    <t>MH 2/9</t>
+  </si>
+  <si>
+    <t>Emmanuel Abeiku</t>
+  </si>
+  <si>
+    <t>Henry Amoasie</t>
+  </si>
+  <si>
+    <t>Alex Amoasie</t>
+  </si>
+  <si>
+    <t>Agnes Yenu</t>
+  </si>
+  <si>
+    <t>Rewinder</t>
+  </si>
+  <si>
+    <t>Trader</t>
+  </si>
+  <si>
+    <t>Micheal Anakwah Kyei</t>
+  </si>
+  <si>
+    <t>Success Gate Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG 2 </t>
+  </si>
+  <si>
+    <t>Developmental Delay</t>
+  </si>
+  <si>
+    <t>Moses Anakwah Kyei</t>
+  </si>
+  <si>
+    <t>Bernice Anakwah Kyei</t>
+  </si>
+  <si>
+    <t>Heward Nana Nkaso Sule</t>
+  </si>
+  <si>
+    <t>Abraham Kofi Sule</t>
+  </si>
+  <si>
+    <t>Grace Oti - Adjei</t>
+  </si>
+  <si>
+    <t>Painter</t>
+  </si>
+  <si>
+    <t>315/10</t>
+  </si>
+  <si>
+    <t>Rebecca Okyere</t>
+  </si>
+  <si>
+    <t>creche</t>
+  </si>
+  <si>
+    <t>Thomas Okyere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janet Auther </t>
+  </si>
+  <si>
+    <t>494/9</t>
+  </si>
+  <si>
+    <t>Mikayla Yireh Adjei</t>
+  </si>
+  <si>
+    <t>Gari with beans</t>
+  </si>
+  <si>
+    <t>Peter Adjei</t>
+  </si>
+  <si>
+    <t>Lucy Adjei</t>
+  </si>
+  <si>
+    <t>Business man</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>MH 41/9</t>
+  </si>
+  <si>
+    <t>Pricsla Mensah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard Ahoto </t>
+  </si>
+  <si>
+    <t>Dunya Olivia</t>
+  </si>
+  <si>
+    <t>masonry</t>
+  </si>
+  <si>
+    <t>MD 623/9</t>
+  </si>
+  <si>
+    <t>Richiel Owusua Hammond</t>
+  </si>
+  <si>
+    <t>Vicent Hammond</t>
+  </si>
+  <si>
+    <t>Goodluck Solomon Asherow</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabina Esi Kumi </t>
+  </si>
+  <si>
+    <t>MH 13/9</t>
+  </si>
+  <si>
+    <t>Patrick K. Asare</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Lawrence Asare K.</t>
+  </si>
+  <si>
+    <t>Rosemond Asare</t>
+  </si>
+  <si>
+    <t>NS 10/30</t>
+  </si>
+  <si>
+    <t>Teaching</t>
+  </si>
+  <si>
+    <t>Kelvin Fiifi Sam</t>
+  </si>
+  <si>
+    <t>Rice Balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>Bright Kobina Sam</t>
+  </si>
+  <si>
+    <t>Margaret Sam</t>
+  </si>
+  <si>
+    <t>MH 67/9</t>
   </si>
 </sst>
 </file>
@@ -281,9 +554,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,15 +838,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.796875" customWidth="1"/>
     <col min="5" max="5" width="22.265625" customWidth="1"/>
     <col min="6" max="6" width="23.86328125" customWidth="1"/>
@@ -1031,6 +1306,835 @@
         <v>554246016</v>
       </c>
     </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43551</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9">
+        <v>203218292</v>
+      </c>
+      <c r="T9">
+        <v>546407893</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43536</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10">
+        <v>544622299</v>
+      </c>
+      <c r="T10">
+        <v>241651317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43486</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>241881382</v>
+      </c>
+      <c r="T11">
+        <v>547944744</v>
+      </c>
+      <c r="U11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <v>540750428</v>
+      </c>
+      <c r="T12">
+        <v>240127525</v>
+      </c>
+      <c r="U12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44390</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13">
+        <v>248450590</v>
+      </c>
+      <c r="T13">
+        <v>548086355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43582</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>542776117</v>
+      </c>
+      <c r="T14">
+        <v>556780997</v>
+      </c>
+      <c r="U14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42977</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15">
+        <v>246469841</v>
+      </c>
+      <c r="T15">
+        <v>244502858</v>
+      </c>
+      <c r="U15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44057</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" t="s">
+        <v>111</v>
+      </c>
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16">
+        <v>246645496</v>
+      </c>
+      <c r="T16">
+        <v>240778774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41923</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17">
+        <v>248675358</v>
+      </c>
+      <c r="T17">
+        <v>247790941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44796</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18">
+        <v>599634556</v>
+      </c>
+      <c r="T18">
+        <v>535220641</v>
+      </c>
+      <c r="U18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44890</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19">
+        <v>245864268</v>
+      </c>
+      <c r="T19">
+        <v>247823594</v>
+      </c>
+      <c r="U19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43652</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20">
+        <v>241208687</v>
+      </c>
+      <c r="T20">
+        <v>543279537</v>
+      </c>
+      <c r="U20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43980</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21">
+        <v>532729761</v>
+      </c>
+      <c r="T21">
+        <v>256701567</v>
+      </c>
+      <c r="U21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42673</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22">
+        <v>244423888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42691</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42832</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24">
+        <v>245766735</v>
+      </c>
+      <c r="T24">
+        <v>245702914</v>
+      </c>
+      <c r="U24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25">
+        <v>248178775</v>
+      </c>
+      <c r="T25">
+        <v>550234225</v>
+      </c>
+      <c r="U25" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E8B94D-0544-4D79-B0FE-5101E02B0071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BBB144-3E35-4060-BC7C-30032A52BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="2993" windowWidth="17858" windowHeight="7259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="952" yWindow="98" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="192">
   <si>
     <t>full_name</t>
   </si>
@@ -519,6 +519,99 @@
   </si>
   <si>
     <t>MH 67/9</t>
+  </si>
+  <si>
+    <t>Justice K. Amoanyi</t>
+  </si>
+  <si>
+    <t>Christopher Amoanyi</t>
+  </si>
+  <si>
+    <t>Lydia Donkoh</t>
+  </si>
+  <si>
+    <t>64/10 NSUSOSOSO</t>
+  </si>
+  <si>
+    <t>Petra Esinam Ahiable</t>
+  </si>
+  <si>
+    <t>Sebastian Kwesi Ahiable</t>
+  </si>
+  <si>
+    <t>Theresa Ofori Adjei</t>
+  </si>
+  <si>
+    <t>Typist</t>
+  </si>
+  <si>
+    <t>NS 241/10</t>
+  </si>
+  <si>
+    <t>Emmanuel Mawuli Kwesi Ahiable</t>
+  </si>
+  <si>
+    <t>Elvis Saviour Kobina Mintah</t>
+  </si>
+  <si>
+    <t>Blessed Assurance Prep. School</t>
+  </si>
+  <si>
+    <t>Benedict Kwesi Mintah</t>
+  </si>
+  <si>
+    <t>Sarah Gyasi</t>
+  </si>
+  <si>
+    <t>MD 36/9</t>
+  </si>
+  <si>
+    <t>Eugene Paul Arhin Mintah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Meshack Ofosu</t>
+  </si>
+  <si>
+    <t>Apostolic Complex</t>
+  </si>
+  <si>
+    <t>Solomon Ofosu</t>
+  </si>
+  <si>
+    <t>Theresa Amoh</t>
+  </si>
+  <si>
+    <t>MH 56/9</t>
+  </si>
+  <si>
+    <t>Emmanuel Annan</t>
+  </si>
+  <si>
+    <t>Joseph Annan</t>
+  </si>
+  <si>
+    <t>Mary Arthur</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>MH 63/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josephine Dadzie </t>
+  </si>
+  <si>
+    <t>Felix Dadzie</t>
+  </si>
+  <si>
+    <t>Elizabeth Dadzie</t>
+  </si>
+  <si>
+    <t>MH 40/9</t>
   </si>
 </sst>
 </file>
@@ -838,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2135,6 +2228,409 @@
         <v>160</v>
       </c>
     </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42695</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26">
+        <v>245424585</v>
+      </c>
+      <c r="T26">
+        <v>247566924</v>
+      </c>
+      <c r="U26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41794</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <v>245980902</v>
+      </c>
+      <c r="T27">
+        <v>245272449</v>
+      </c>
+      <c r="U27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43093</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <v>245980902</v>
+      </c>
+      <c r="T28">
+        <v>245272449</v>
+      </c>
+      <c r="U28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>543784758</v>
+      </c>
+      <c r="T29">
+        <v>243307643</v>
+      </c>
+      <c r="U29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42564</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>173</v>
+      </c>
+      <c r="N30" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30">
+        <v>543784758</v>
+      </c>
+      <c r="T30">
+        <v>243307643</v>
+      </c>
+      <c r="U30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>180</v>
+      </c>
+      <c r="N31" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31">
+        <v>595670927</v>
+      </c>
+      <c r="T31">
+        <v>553491903</v>
+      </c>
+      <c r="U31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42289</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>184</v>
+      </c>
+      <c r="N32" t="s">
+        <v>185</v>
+      </c>
+      <c r="O32" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32">
+        <v>547068449</v>
+      </c>
+      <c r="T32">
+        <v>547068449</v>
+      </c>
+      <c r="U32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42839</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N33" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33">
+        <v>244730682</v>
+      </c>
+      <c r="T33">
+        <v>249341294</v>
+      </c>
+      <c r="U33" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BBB144-3E35-4060-BC7C-30032A52BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E36B4-7783-43C0-8E39-896E5B684E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="952" yWindow="98" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1066,7 +1066,7 @@
         <v>26</v>
       </c>
       <c r="S2">
-        <v>249891601</v>
+        <v>535039521</v>
       </c>
       <c r="T2">
         <v>5414805333</v>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E36B4-7783-43C0-8E39-896E5B684E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA72B12F-0DC9-4A68-A2EE-304A76661120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="952" yWindow="98" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,10 +647,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1065,8 +1068,8 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="S2">
-        <v>535039521</v>
+      <c r="S2" s="3">
+        <v>249891601</v>
       </c>
       <c r="T2">
         <v>5414805333</v>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA72B12F-0DC9-4A68-A2EE-304A76661120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524451CD-29D5-4B20-B1D9-06ABE4F92F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="952" yWindow="98" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="270">
   <si>
     <t>full_name</t>
   </si>
@@ -612,6 +612,240 @@
   </si>
   <si>
     <t>MH 40/9</t>
+  </si>
+  <si>
+    <t>Dorinda Abena N. A.</t>
+  </si>
+  <si>
+    <t>C.A.C</t>
+  </si>
+  <si>
+    <t>Groundnut soup</t>
+  </si>
+  <si>
+    <t>Eye Problem</t>
+  </si>
+  <si>
+    <t>Richard Acquah</t>
+  </si>
+  <si>
+    <t>Grace Nyame</t>
+  </si>
+  <si>
+    <t>House Keeping</t>
+  </si>
+  <si>
+    <t>NS 215/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayden Amon Quaye </t>
+  </si>
+  <si>
+    <t>Leaders Complex Academy</t>
+  </si>
+  <si>
+    <t>All foods containging beans(Soy bean, koose bean, black eyed bean… etc) and plantain)</t>
+  </si>
+  <si>
+    <t>Isaac Opare Quaye</t>
+  </si>
+  <si>
+    <t>Anita Acheampong</t>
+  </si>
+  <si>
+    <t>Police Officer</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>MH 27/9</t>
+  </si>
+  <si>
+    <t>Ann Ofosu</t>
+  </si>
+  <si>
+    <t>Theresa Ofosu</t>
+  </si>
+  <si>
+    <t>MH 519/14</t>
+  </si>
+  <si>
+    <t>Erica Appea-Apreku Owiredu</t>
+  </si>
+  <si>
+    <t>First Centuary Prep. Sch.</t>
+  </si>
+  <si>
+    <t>Seth Appea-Apreku Owiredu</t>
+  </si>
+  <si>
+    <t>Irene Appea-Apreku Owiredu</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>MD 640/9</t>
+  </si>
+  <si>
+    <t>Twerenyame Boakye Gyan Sekyere</t>
+  </si>
+  <si>
+    <t>Edmund Kofi Gyan Sekyere</t>
+  </si>
+  <si>
+    <t>Joana Gyan Sekyere</t>
+  </si>
+  <si>
+    <t>Casual Worker</t>
+  </si>
+  <si>
+    <t>Business Woman</t>
+  </si>
+  <si>
+    <t>MD 646/9</t>
+  </si>
+  <si>
+    <t>Daniel Adu Ampofo</t>
+  </si>
+  <si>
+    <t>He is a pre-term child and needs extra care</t>
+  </si>
+  <si>
+    <t>MH 70/9</t>
+  </si>
+  <si>
+    <t>Juliana Opamfowa Sam Arthur</t>
+  </si>
+  <si>
+    <t>Jacob Randy Dickson</t>
+  </si>
+  <si>
+    <t>Esther Brew</t>
+  </si>
+  <si>
+    <t>Teader</t>
+  </si>
+  <si>
+    <t>WA 14/31</t>
+  </si>
+  <si>
+    <t>Fred Nshyraba Obeng</t>
+  </si>
+  <si>
+    <t>Blesed Little</t>
+  </si>
+  <si>
+    <t>too much papper</t>
+  </si>
+  <si>
+    <t>Emmanuel Obeng</t>
+  </si>
+  <si>
+    <t>Gifty Aidoo</t>
+  </si>
+  <si>
+    <t>HC 846</t>
+  </si>
+  <si>
+    <t>Chief Amoanyi Quansah</t>
+  </si>
+  <si>
+    <t>NS 64/10</t>
+  </si>
+  <si>
+    <t>Gabriel Anti Dadzie</t>
+  </si>
+  <si>
+    <t>Raymond Dadzie</t>
+  </si>
+  <si>
+    <t>Lois Adu-Boahene</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Mildred Illyn Appah-Kum</t>
+  </si>
+  <si>
+    <t>Kojo Appah-Kum</t>
+  </si>
+  <si>
+    <t>Margaret Kuranchie</t>
+  </si>
+  <si>
+    <t>Accounts Officer</t>
+  </si>
+  <si>
+    <t>Maame Esi Ansekua Amoaku</t>
+  </si>
+  <si>
+    <t>Jeff Amoaku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Amoaku </t>
+  </si>
+  <si>
+    <t>Banker</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Prince Ganyo</t>
+  </si>
+  <si>
+    <t>QueensKings Academy</t>
+  </si>
+  <si>
+    <t>Jollof rice and Shito</t>
+  </si>
+  <si>
+    <t>Alex Gyanyo</t>
+  </si>
+  <si>
+    <t>Deborah Gurah</t>
+  </si>
+  <si>
+    <t>27/14</t>
+  </si>
+  <si>
+    <t>Christabel Arkoh</t>
+  </si>
+  <si>
+    <t>Marygold</t>
+  </si>
+  <si>
+    <t>Ebenezer Arkoh</t>
+  </si>
+  <si>
+    <t>Victoria Nyame</t>
+  </si>
+  <si>
+    <t>Neriah Nana Efya Bassoah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no  </t>
+  </si>
+  <si>
+    <t>Patrick Bassoah</t>
+  </si>
+  <si>
+    <t>Dorithy Quaye</t>
+  </si>
+  <si>
+    <t>MD 656/9</t>
+  </si>
+  <si>
+    <t>Michealina Ganyo</t>
+  </si>
+  <si>
+    <t>class 2</t>
+  </si>
+  <si>
+    <t>Erica Ganyo</t>
   </si>
 </sst>
 </file>
@@ -934,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1555,10 +1789,10 @@
         <v>26</v>
       </c>
       <c r="S11">
-        <v>241881382</v>
+        <v>241861382</v>
       </c>
       <c r="T11">
-        <v>547944744</v>
+        <v>547944747</v>
       </c>
       <c r="U11" t="s">
         <v>87</v>
@@ -2632,6 +2866,916 @@
       </c>
       <c r="U33" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44495</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" t="s">
+        <v>197</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34">
+        <v>532416380</v>
+      </c>
+      <c r="T34">
+        <v>543108512</v>
+      </c>
+      <c r="U34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43950</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>203</v>
+      </c>
+      <c r="N35" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35">
+        <v>597661016</v>
+      </c>
+      <c r="T35">
+        <v>501213049</v>
+      </c>
+      <c r="U35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44383</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" t="s">
+        <v>209</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36">
+        <v>595670927</v>
+      </c>
+      <c r="T36">
+        <v>553491903</v>
+      </c>
+      <c r="U36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43524</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>213</v>
+      </c>
+      <c r="N37" t="s">
+        <v>214</v>
+      </c>
+      <c r="O37" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37">
+        <v>244678226</v>
+      </c>
+      <c r="T37">
+        <v>208455305</v>
+      </c>
+      <c r="U37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44364</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>218</v>
+      </c>
+      <c r="N38" t="s">
+        <v>219</v>
+      </c>
+      <c r="O38" t="s">
+        <v>220</v>
+      </c>
+      <c r="P38" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38">
+        <v>243352028</v>
+      </c>
+      <c r="T38">
+        <v>243088742</v>
+      </c>
+      <c r="U38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44627</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" t="s">
+        <v>26</v>
+      </c>
+      <c r="S39">
+        <v>241861382</v>
+      </c>
+      <c r="T39">
+        <v>547944747</v>
+      </c>
+      <c r="U39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44430</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N40" t="s">
+        <v>228</v>
+      </c>
+      <c r="O40" t="s">
+        <v>186</v>
+      </c>
+      <c r="P40" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40">
+        <v>555101040</v>
+      </c>
+      <c r="T40">
+        <v>537150359</v>
+      </c>
+      <c r="U40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43839</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>234</v>
+      </c>
+      <c r="N41" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41">
+        <v>554845413</v>
+      </c>
+      <c r="T41">
+        <v>256786281</v>
+      </c>
+      <c r="U41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44661</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" t="s">
+        <v>163</v>
+      </c>
+      <c r="O42" t="s">
+        <v>154</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42">
+        <v>245424585</v>
+      </c>
+      <c r="T42">
+        <v>247566924</v>
+      </c>
+      <c r="U42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44459</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>240</v>
+      </c>
+      <c r="N43" t="s">
+        <v>241</v>
+      </c>
+      <c r="O43" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43">
+        <v>244446781</v>
+      </c>
+      <c r="T43">
+        <v>249251741</v>
+      </c>
+      <c r="U43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44414</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>244</v>
+      </c>
+      <c r="N44" t="s">
+        <v>245</v>
+      </c>
+      <c r="O44" t="s">
+        <v>246</v>
+      </c>
+      <c r="P44" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44">
+        <v>246364382</v>
+      </c>
+      <c r="T44">
+        <v>242830458</v>
+      </c>
+      <c r="U44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45025</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>248</v>
+      </c>
+      <c r="N45" t="s">
+        <v>249</v>
+      </c>
+      <c r="O45" t="s">
+        <v>250</v>
+      </c>
+      <c r="P45" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45">
+        <v>245902055</v>
+      </c>
+      <c r="T45">
+        <v>557566068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43792</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s">
+        <v>254</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>255</v>
+      </c>
+      <c r="N46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46">
+        <v>538984324</v>
+      </c>
+      <c r="T46">
+        <v>531766425</v>
+      </c>
+      <c r="U46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43785</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>260</v>
+      </c>
+      <c r="N47" t="s">
+        <v>261</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" t="s">
+        <v>26</v>
+      </c>
+      <c r="S47">
+        <v>549821786</v>
+      </c>
+      <c r="T47">
+        <v>256242568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44687</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>264</v>
+      </c>
+      <c r="N48" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48">
+        <v>247633503</v>
+      </c>
+      <c r="T48">
+        <v>241690416</v>
+      </c>
+      <c r="U48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42797</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>254</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>255</v>
+      </c>
+      <c r="N49" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" t="s">
+        <v>26</v>
+      </c>
+      <c r="S49">
+        <v>538984324</v>
+      </c>
+      <c r="T49">
+        <v>531766425</v>
+      </c>
+      <c r="U49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44663</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>255</v>
+      </c>
+      <c r="N50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50">
+        <v>538984324</v>
+      </c>
+      <c r="T50">
+        <v>531766425</v>
+      </c>
+      <c r="U50" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEF0B5-ACA8-4598-9E88-CE206E34F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BC790-4754-45ED-8030-A495D1D3DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7253" yWindow="2348" windowWidth="17857" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1418" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="321">
   <si>
     <t>full_name</t>
   </si>
@@ -861,6 +861,144 @@
   </si>
   <si>
     <t>class 6</t>
+  </si>
+  <si>
+    <t>Dennis Marfo</t>
+  </si>
+  <si>
+    <t>Salvation Army</t>
+  </si>
+  <si>
+    <t>asthmatic</t>
+  </si>
+  <si>
+    <t>Benjamin Marfo</t>
+  </si>
+  <si>
+    <t>Comfort Sackey</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>Perpetual Koomson</t>
+  </si>
+  <si>
+    <t>Lawrence Amaning</t>
+  </si>
+  <si>
+    <t>fufu</t>
+  </si>
+  <si>
+    <t>Stomach and Headache</t>
+  </si>
+  <si>
+    <t>Ben Amaning</t>
+  </si>
+  <si>
+    <t>Selina Gyan</t>
+  </si>
+  <si>
+    <t>Maison</t>
+  </si>
+  <si>
+    <t>NS 227/10</t>
+  </si>
+  <si>
+    <t>Samuel Koomsoon</t>
+  </si>
+  <si>
+    <t>Perpetual Sakyi</t>
+  </si>
+  <si>
+    <t>Tailor</t>
+  </si>
+  <si>
+    <t>Getrude Asare Acquah</t>
+  </si>
+  <si>
+    <t>Randy Asare</t>
+  </si>
+  <si>
+    <t>Sheila Baiden</t>
+  </si>
+  <si>
+    <t>Ansah Blessing</t>
+  </si>
+  <si>
+    <t>Isaac Ansah</t>
+  </si>
+  <si>
+    <t>Ellen Ansah</t>
+  </si>
+  <si>
+    <t>Steel Bender</t>
+  </si>
+  <si>
+    <t>Aseda sekyere Afful</t>
+  </si>
+  <si>
+    <t>Benjamin Afful</t>
+  </si>
+  <si>
+    <t>Sabina Afful</t>
+  </si>
+  <si>
+    <t>CO-0030-7172</t>
+  </si>
+  <si>
+    <t>Christiana Sam</t>
+  </si>
+  <si>
+    <t>Beans and Gari</t>
+  </si>
+  <si>
+    <t>Alfred Sam</t>
+  </si>
+  <si>
+    <t>Joana Quainoo</t>
+  </si>
+  <si>
+    <t>De - Clerk Abban</t>
+  </si>
+  <si>
+    <t>Bright FM Abban</t>
+  </si>
+  <si>
+    <t>Theresa Ackom</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>NS 292/10</t>
+  </si>
+  <si>
+    <t>Elvis F. Bruno</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>CO-0015-0520</t>
+  </si>
+  <si>
+    <t>Mariam Maame Yaba Bruno</t>
+  </si>
+  <si>
+    <t>Assemblies of God</t>
+  </si>
+  <si>
+    <t>Emmanuel Bruno</t>
+  </si>
+  <si>
+    <t>Mabel Ekwam Bruno</t>
+  </si>
+  <si>
+    <t>Building Contractor</t>
+  </si>
+  <si>
+    <t>Frank Anno Bruno</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="P53" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3887,6 +4025,604 @@
         <v>252</v>
       </c>
     </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42239</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>276</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s">
+        <v>283</v>
+      </c>
+      <c r="K50" t="s">
+        <v>37</v>
+      </c>
+      <c r="L50" t="s">
+        <v>277</v>
+      </c>
+      <c r="N50" t="s">
+        <v>278</v>
+      </c>
+      <c r="O50" t="s">
+        <v>279</v>
+      </c>
+      <c r="P50" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>109</v>
+      </c>
+      <c r="R50" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50">
+        <v>549605899</v>
+      </c>
+      <c r="U50">
+        <v>534014247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43231</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" t="s">
+        <v>289</v>
+      </c>
+      <c r="O51" t="s">
+        <v>290</v>
+      </c>
+      <c r="P51" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>109</v>
+      </c>
+      <c r="R51" t="s">
+        <v>26</v>
+      </c>
+      <c r="S51" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51">
+        <v>244077227</v>
+      </c>
+      <c r="U51">
+        <v>245173168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42088</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L52" t="s">
+        <v>284</v>
+      </c>
+      <c r="N52" t="s">
+        <v>285</v>
+      </c>
+      <c r="O52" t="s">
+        <v>286</v>
+      </c>
+      <c r="P52" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>109</v>
+      </c>
+      <c r="R52" t="s">
+        <v>26</v>
+      </c>
+      <c r="S52" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52">
+        <v>207900244</v>
+      </c>
+      <c r="U52">
+        <v>599397215</v>
+      </c>
+      <c r="V52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43085</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" t="s">
+        <v>293</v>
+      </c>
+      <c r="O53" t="s">
+        <v>294</v>
+      </c>
+      <c r="P53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>109</v>
+      </c>
+      <c r="R53" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" t="s">
+        <v>26</v>
+      </c>
+      <c r="T53">
+        <v>243043900</v>
+      </c>
+      <c r="U53">
+        <v>549370765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>153</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" t="s">
+        <v>296</v>
+      </c>
+      <c r="O54" t="s">
+        <v>297</v>
+      </c>
+      <c r="P54" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>217</v>
+      </c>
+      <c r="R54" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54">
+        <v>533254698</v>
+      </c>
+      <c r="U54">
+        <v>546589599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43310</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s">
+        <v>153</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" t="s">
+        <v>300</v>
+      </c>
+      <c r="O55" t="s">
+        <v>301</v>
+      </c>
+      <c r="P55" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55">
+        <v>249220522</v>
+      </c>
+      <c r="U55">
+        <v>241246842</v>
+      </c>
+      <c r="V55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>304</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" t="s">
+        <v>305</v>
+      </c>
+      <c r="O56" t="s">
+        <v>306</v>
+      </c>
+      <c r="P56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>109</v>
+      </c>
+      <c r="R56" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" t="s">
+        <v>26</v>
+      </c>
+      <c r="T56">
+        <v>246861527</v>
+      </c>
+      <c r="U56">
+        <v>558286552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43452</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57" t="s">
+        <v>153</v>
+      </c>
+      <c r="N57" t="s">
+        <v>308</v>
+      </c>
+      <c r="O57" t="s">
+        <v>309</v>
+      </c>
+      <c r="P57" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57">
+        <v>246532233</v>
+      </c>
+      <c r="U57">
+        <v>247792191</v>
+      </c>
+      <c r="V57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
+        <v>317</v>
+      </c>
+      <c r="O58" t="s">
+        <v>318</v>
+      </c>
+      <c r="P58" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>109</v>
+      </c>
+      <c r="R58" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" t="s">
+        <v>26</v>
+      </c>
+      <c r="T58">
+        <v>246951455</v>
+      </c>
+      <c r="U58">
+        <v>242684572</v>
+      </c>
+      <c r="V58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43008</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>316</v>
+      </c>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
+        <v>317</v>
+      </c>
+      <c r="O59" t="s">
+        <v>318</v>
+      </c>
+      <c r="P59" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" t="s">
+        <v>26</v>
+      </c>
+      <c r="S59" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59">
+        <v>246951455</v>
+      </c>
+      <c r="U59">
+        <v>242684572</v>
+      </c>
+      <c r="V59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44912</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>316</v>
+      </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
+        <v>317</v>
+      </c>
+      <c r="O60" t="s">
+        <v>318</v>
+      </c>
+      <c r="P60" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>25</v>
+      </c>
+      <c r="R60" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" t="s">
+        <v>26</v>
+      </c>
+      <c r="T60">
+        <v>246951455</v>
+      </c>
+      <c r="U60">
+        <v>242684572</v>
+      </c>
+      <c r="V60" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BC790-4754-45ED-8030-A495D1D3DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E61E1-178E-4755-A6FD-41C91AE1670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1418" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="345">
   <si>
     <t>full_name</t>
   </si>
@@ -999,6 +999,78 @@
   </si>
   <si>
     <t>Frank Anno Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lydia Nana Esi Ayim </t>
+  </si>
+  <si>
+    <t>class 5</t>
+  </si>
+  <si>
+    <t>twinkle star day care</t>
+  </si>
+  <si>
+    <t>Christopher Kwesi Ayim</t>
+  </si>
+  <si>
+    <t>Martha Yaa Ayim</t>
+  </si>
+  <si>
+    <t>C0-0004-7545</t>
+  </si>
+  <si>
+    <t>Ekua Affoa</t>
+  </si>
+  <si>
+    <t>C0-0030-7172</t>
+  </si>
+  <si>
+    <t>Clara Nyamevor</t>
+  </si>
+  <si>
+    <t>Joseph Nyamevor</t>
+  </si>
+  <si>
+    <t>Jennifer Owusu</t>
+  </si>
+  <si>
+    <t>dress seller</t>
+  </si>
+  <si>
+    <t>MD 366/9</t>
+  </si>
+  <si>
+    <t>Elsa Adwoa Sem Dadzie</t>
+  </si>
+  <si>
+    <t>Indomie, Pork</t>
+  </si>
+  <si>
+    <t>Lois Dadzie</t>
+  </si>
+  <si>
+    <t>Poultry Farmer</t>
+  </si>
+  <si>
+    <t>NS 241-10</t>
+  </si>
+  <si>
+    <t>Nafiisah Salisu</t>
+  </si>
+  <si>
+    <t>Salisu</t>
+  </si>
+  <si>
+    <t>Salamatu</t>
+  </si>
+  <si>
+    <t>Hamdallah Osman Pelpuo</t>
+  </si>
+  <si>
+    <t>Osman Pelpuo</t>
+  </si>
+  <si>
+    <t>Beatrice Agyemang</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P53" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4623,6 +4695,309 @@
         <v>314</v>
       </c>
     </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>42540</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>323</v>
+      </c>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" t="s">
+        <v>324</v>
+      </c>
+      <c r="O61" t="s">
+        <v>325</v>
+      </c>
+      <c r="P61" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>150</v>
+      </c>
+      <c r="R61" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" t="s">
+        <v>26</v>
+      </c>
+      <c r="T61">
+        <v>549223419</v>
+      </c>
+      <c r="U61">
+        <v>547981198</v>
+      </c>
+      <c r="V61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44839</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" t="s">
+        <v>300</v>
+      </c>
+      <c r="O62" t="s">
+        <v>301</v>
+      </c>
+      <c r="P62" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>109</v>
+      </c>
+      <c r="R62" t="s">
+        <v>26</v>
+      </c>
+      <c r="S62" t="s">
+        <v>26</v>
+      </c>
+      <c r="T62">
+        <v>249220522</v>
+      </c>
+      <c r="U62">
+        <v>241246842</v>
+      </c>
+      <c r="V62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>329</v>
+      </c>
+      <c r="B63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43831</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" t="s">
+        <v>330</v>
+      </c>
+      <c r="O63" t="s">
+        <v>331</v>
+      </c>
+      <c r="P63" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>332</v>
+      </c>
+      <c r="R63" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" t="s">
+        <v>26</v>
+      </c>
+      <c r="T63">
+        <v>248076761</v>
+      </c>
+      <c r="U63">
+        <v>551424325</v>
+      </c>
+      <c r="V63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44017</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>335</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" t="s">
+        <v>235</v>
+      </c>
+      <c r="O64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P64" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>337</v>
+      </c>
+      <c r="R64" t="s">
+        <v>26</v>
+      </c>
+      <c r="S64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T64">
+        <v>244446781</v>
+      </c>
+      <c r="U64">
+        <v>249251741</v>
+      </c>
+      <c r="V64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>339</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43774</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" t="s">
+        <v>340</v>
+      </c>
+      <c r="O65" t="s">
+        <v>341</v>
+      </c>
+      <c r="R65" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65">
+        <v>242715514</v>
+      </c>
+      <c r="U65">
+        <v>553488520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>323</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O66" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66">
+        <v>552503776</v>
+      </c>
+      <c r="U66">
+        <v>246922004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E61E1-178E-4755-A6FD-41C91AE1670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECF90FF-66BB-43EA-BBE8-B76F5F9B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1418" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="357">
   <si>
     <t>full_name</t>
   </si>
@@ -437,24 +437,12 @@
     <t>MH 41/9</t>
   </si>
   <si>
-    <t>Pricsla Mensah</t>
-  </si>
-  <si>
     <t xml:space="preserve">kg2 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bernard Ahoto </t>
-  </si>
-  <si>
-    <t>Dunya Olivia</t>
-  </si>
-  <si>
     <t>masonry</t>
   </si>
   <si>
-    <t>MD 623/9</t>
-  </si>
-  <si>
     <t>Richiel Owusua Hammond</t>
   </si>
   <si>
@@ -1071,6 +1059,54 @@
   </si>
   <si>
     <t>Beatrice Agyemang</t>
+  </si>
+  <si>
+    <t>Felix K. Asamoah</t>
+  </si>
+  <si>
+    <t>Shantel Akosua Boakye Nyamekye</t>
+  </si>
+  <si>
+    <t>Ekua Ofori Boahene</t>
+  </si>
+  <si>
+    <t>Prince Obuakoh Okyere</t>
+  </si>
+  <si>
+    <t>Juliet Biney</t>
+  </si>
+  <si>
+    <t>Naah Shelly Tetteh</t>
+  </si>
+  <si>
+    <t>Wisdom Donkoh</t>
+  </si>
+  <si>
+    <t>Raynard Donkoh</t>
+  </si>
+  <si>
+    <t>Obrengpong Adriel</t>
+  </si>
+  <si>
+    <t>Samuel Dickson Arthur</t>
+  </si>
+  <si>
+    <t>Henry Adamtey</t>
+  </si>
+  <si>
+    <t>Anabel Mensah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kojo Prah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg 2 </t>
+  </si>
+  <si>
+    <t>Moses Dazie</t>
+  </si>
+  <si>
+    <t>Naadom Yeboah</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1427,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1548,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1823,10 +1859,10 @@
         <v>26</v>
       </c>
       <c r="T7">
+        <v>554246016</v>
+      </c>
+      <c r="U7">
         <v>541473757</v>
-      </c>
-      <c r="U7">
-        <v>554246016</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -1834,7 +1870,7 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1893,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1946,7 +1982,7 @@
         <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -2005,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -2058,7 +2094,7 @@
         <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2108,7 +2144,7 @@
         <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -2158,7 +2194,7 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -2208,7 +2244,7 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -2258,7 +2294,7 @@
         <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2367,7 +2403,7 @@
         <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -2420,7 +2456,7 @@
         <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -2462,10 +2498,10 @@
         <v>26</v>
       </c>
       <c r="T19">
+        <v>543279537</v>
+      </c>
+      <c r="U19">
         <v>241208687</v>
-      </c>
-      <c r="U19">
-        <v>543279537</v>
       </c>
       <c r="V19" t="s">
         <v>132</v>
@@ -2473,23 +2509,20 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>43980</v>
+        <v>42673</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -2500,17 +2533,8 @@
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
         <v>136</v>
       </c>
-      <c r="P20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>46</v>
-      </c>
       <c r="R20" t="s">
         <v>26</v>
       </c>
@@ -2518,51 +2542,48 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>532729761</v>
-      </c>
-      <c r="U20">
-        <v>256701567</v>
-      </c>
-      <c r="V20" t="s">
-        <v>138</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42691</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42673</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" t="s">
         <v>140</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>244423888</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -2570,31 +2591,37 @@
         <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1">
-        <v>42691</v>
+      <c r="D22" s="2">
+        <v>42832</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
       <c r="H22" t="s">
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
       </c>
+      <c r="N22" t="s">
+        <v>143</v>
+      </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="P22" t="s">
+        <v>146</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
@@ -2602,46 +2629,49 @@
       <c r="S22" t="s">
         <v>26</v>
       </c>
+      <c r="T22">
+        <v>245766735</v>
+      </c>
+      <c r="U22">
+        <v>245702914</v>
+      </c>
       <c r="V22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="2">
-        <v>42832</v>
+      <c r="D23" s="1">
+        <v>42202</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" t="s">
-        <v>146</v>
-      </c>
       <c r="H23" t="s">
         <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
-      </c>
-      <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
@@ -2650,42 +2680,42 @@
         <v>26</v>
       </c>
       <c r="T23">
-        <v>245766735</v>
+        <v>248178775</v>
       </c>
       <c r="U23">
-        <v>245702914</v>
+        <v>550234225</v>
       </c>
       <c r="V23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>42202</v>
+        <v>42695</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
       <c r="H24" t="s">
         <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
         <v>154</v>
@@ -2693,6 +2723,12 @@
       <c r="O24" t="s">
         <v>155</v>
       </c>
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>109</v>
+      </c>
       <c r="R24" t="s">
         <v>26</v>
       </c>
@@ -2700,10 +2736,10 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>248178775</v>
+        <v>245424585</v>
       </c>
       <c r="U24">
-        <v>550234225</v>
+        <v>247566924</v>
       </c>
       <c r="V24" t="s">
         <v>156</v>
@@ -2714,19 +2750,19 @@
         <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>42695</v>
+        <v>41794</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
         <v>37</v>
@@ -2744,10 +2780,10 @@
         <v>159</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="Q25" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
@@ -2756,34 +2792,31 @@
         <v>26</v>
       </c>
       <c r="T25">
-        <v>245424585</v>
+        <v>245980902</v>
       </c>
       <c r="U25">
-        <v>247566924</v>
+        <v>245272449</v>
       </c>
       <c r="V25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>41794</v>
+        <v>43093</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
       <c r="H26" t="s">
         <v>37</v>
       </c>
@@ -2794,16 +2827,16 @@
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2818,25 +2851,28 @@
         <v>245272449</v>
       </c>
       <c r="V26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>43093</v>
+        <v>43165</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
       <c r="H27" t="s">
         <v>37</v>
       </c>
@@ -2847,16 +2883,10 @@
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
-      </c>
-      <c r="P27" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2865,33 +2895,33 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>245980902</v>
+        <v>543784758</v>
       </c>
       <c r="U27">
-        <v>245272449</v>
+        <v>243307643</v>
       </c>
       <c r="V27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="1">
-        <v>43165</v>
+        <v>42564</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
         <v>37</v>
@@ -2899,14 +2929,17 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
+      <c r="J28" t="s">
+        <v>169</v>
+      </c>
       <c r="K28" t="s">
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2921,27 +2954,27 @@
         <v>243307643</v>
       </c>
       <c r="V28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1">
-        <v>42564</v>
+        <v>43499</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H29" t="s">
         <v>37</v>
@@ -2949,17 +2982,20 @@
       <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>172</v>
+      </c>
+      <c r="O29" t="s">
         <v>173</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" t="s">
-        <v>170</v>
+      <c r="P29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>25</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2968,33 +3004,33 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>543784758</v>
+        <v>595670927</v>
       </c>
       <c r="U29">
-        <v>243307643</v>
+        <v>553491903</v>
       </c>
       <c r="V29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="1">
-        <v>43499</v>
+        <v>42289</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
-        <v>175</v>
+      <c r="G30" t="s">
+        <v>122</v>
       </c>
       <c r="H30" t="s">
         <v>37</v>
@@ -3012,10 +3048,10 @@
         <v>177</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -3024,34 +3060,31 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>595670927</v>
+        <v>547068449</v>
       </c>
       <c r="U30">
-        <v>553491903</v>
+        <v>547068449</v>
       </c>
       <c r="V30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1">
-        <v>42289</v>
+        <v>42839</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="G31" t="s">
-        <v>122</v>
-      </c>
       <c r="H31" t="s">
         <v>37</v>
       </c>
@@ -3062,17 +3095,11 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O31" t="s">
-        <v>181</v>
-      </c>
-      <c r="P31" t="s">
         <v>182</v>
       </c>
-      <c r="Q31" t="s">
-        <v>109</v>
-      </c>
       <c r="R31" t="s">
         <v>26</v>
       </c>
@@ -3080,10 +3107,10 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>547068449</v>
+        <v>244730682</v>
       </c>
       <c r="U31">
-        <v>547068449</v>
+        <v>249341294</v>
       </c>
       <c r="V31" t="s">
         <v>183</v>
@@ -3094,31 +3121,49 @@
         <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>42839</v>
+        <v>44495</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>186</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>187</v>
       </c>
       <c r="N32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O32" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>190</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -3127,63 +3172,60 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>244730682</v>
+        <v>532416380</v>
       </c>
       <c r="U32">
-        <v>249341294</v>
+        <v>543108512</v>
       </c>
       <c r="V32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>44495</v>
+        <v>43950</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="Q33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -3192,93 +3234,90 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>532416380</v>
+        <v>597661016</v>
       </c>
       <c r="U33">
-        <v>543108512</v>
+        <v>501213049</v>
       </c>
       <c r="V33" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>43950</v>
+        <v>44383</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="O34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34">
+        <v>595670927</v>
+      </c>
+      <c r="U34">
+        <v>553491903</v>
+      </c>
+      <c r="V34" t="s">
         <v>202</v>
-      </c>
-      <c r="R34" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34">
-        <v>597661016</v>
-      </c>
-      <c r="U34">
-        <v>501213049</v>
-      </c>
-      <c r="V34" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>44383</v>
+        <v>43524</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
+      <c r="F35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
       <c r="H35" t="s">
         <v>37</v>
       </c>
@@ -3289,16 +3328,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="O35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3307,36 +3346,33 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>595670927</v>
+        <v>244678226</v>
       </c>
       <c r="U35">
-        <v>553491903</v>
+        <v>208455305</v>
       </c>
       <c r="V35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>43524</v>
+        <v>44364</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="F36" t="s">
-        <v>208</v>
-      </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
         <v>37</v>
@@ -3348,16 +3384,16 @@
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="Q36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3366,27 +3402,27 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>244678226</v>
+        <v>243352028</v>
       </c>
       <c r="U36">
-        <v>208455305</v>
+        <v>243088742</v>
       </c>
       <c r="V36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>44364</v>
+        <v>44627</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
@@ -3400,76 +3436,76 @@
       <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="K37" t="s">
-        <v>21</v>
+      <c r="M37" t="s">
+        <v>216</v>
       </c>
       <c r="N37" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="O37" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="Q37" t="s">
+        <v>82</v>
+      </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37">
+        <v>241861382</v>
+      </c>
+      <c r="U37">
+        <v>547944747</v>
+      </c>
+      <c r="V37" t="s">
         <v>217</v>
-      </c>
-      <c r="R37" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37" t="s">
-        <v>26</v>
-      </c>
-      <c r="T37">
-        <v>243352028</v>
-      </c>
-      <c r="U37">
-        <v>243088742</v>
-      </c>
-      <c r="V37" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44430</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
         <v>219</v>
       </c>
-      <c r="B38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="1">
-        <v>44627</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>220</v>
       </c>
-      <c r="N38" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" t="s">
-        <v>80</v>
-      </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="Q38" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3478,54 +3514,54 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>241861382</v>
+        <v>555101040</v>
       </c>
       <c r="U38">
-        <v>547944747</v>
+        <v>537150359</v>
       </c>
       <c r="V38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
         <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>44430</v>
+        <v>43839</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>224</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O39" t="s">
-        <v>224</v>
-      </c>
-      <c r="P39" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3534,90 +3570,87 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>555101040</v>
+        <v>554845413</v>
       </c>
       <c r="U39">
-        <v>537150359</v>
+        <v>256786281</v>
       </c>
       <c r="V39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>43839</v>
+        <v>44661</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>227</v>
       </c>
       <c r="G40" t="s">
         <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
       </c>
       <c r="N40" t="s">
+        <v>154</v>
+      </c>
+      <c r="O40" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40">
+        <v>245424585</v>
+      </c>
+      <c r="U40">
+        <v>247566924</v>
+      </c>
+      <c r="V40" t="s">
         <v>229</v>
-      </c>
-      <c r="O40" t="s">
-        <v>230</v>
-      </c>
-      <c r="R40" t="s">
-        <v>26</v>
-      </c>
-      <c r="S40" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40">
-        <v>554845413</v>
-      </c>
-      <c r="U40">
-        <v>256786281</v>
-      </c>
-      <c r="V40" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>44661</v>
+        <v>44459</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
-      <c r="G41" t="s">
-        <v>96</v>
-      </c>
       <c r="H41" t="s">
         <v>37</v>
       </c>
@@ -3628,16 +3661,13 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="O41" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3646,13 +3676,13 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>245424585</v>
+        <v>244446781</v>
       </c>
       <c r="U41">
-        <v>247566924</v>
+        <v>249251741</v>
       </c>
       <c r="V41" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
@@ -3660,13 +3690,13 @@
         <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>44459</v>
+        <v>44414</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -3689,6 +3719,9 @@
       <c r="P42" t="s">
         <v>237</v>
       </c>
+      <c r="Q42" t="s">
+        <v>237</v>
+      </c>
       <c r="R42" t="s">
         <v>26</v>
       </c>
@@ -3696,13 +3729,13 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>244446781</v>
+        <v>246364382</v>
       </c>
       <c r="U42">
-        <v>249251741</v>
+        <v>242830458</v>
       </c>
       <c r="V42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
@@ -3710,22 +3743,28 @@
         <v>238</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>44414</v>
+        <v>45025</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
+      <c r="G43" t="s">
+        <v>122</v>
+      </c>
       <c r="H43" t="s">
         <v>37</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>169</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -3740,7 +3779,7 @@
         <v>241</v>
       </c>
       <c r="Q43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3749,57 +3788,54 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>246364382</v>
+        <v>245902055</v>
       </c>
       <c r="U43">
-        <v>242830458</v>
-      </c>
-      <c r="V43" t="s">
-        <v>165</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1">
-        <v>45025</v>
+        <v>43792</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
-      <c r="G44" t="s">
-        <v>122</v>
+      <c r="F44" t="s">
+        <v>244</v>
       </c>
       <c r="H44" t="s">
         <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O44" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="Q44" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3808,51 +3844,54 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>245902055</v>
+        <v>538984324</v>
       </c>
       <c r="U44">
-        <v>557566068</v>
+        <v>531766425</v>
+      </c>
+      <c r="V44" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>43792</v>
+        <v>43785</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="s">
         <v>25</v>
@@ -3864,13 +3903,10 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>538984324</v>
+        <v>549821786</v>
       </c>
       <c r="U45">
-        <v>531766425</v>
-      </c>
-      <c r="V45" t="s">
-        <v>252</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
@@ -3878,25 +3914,22 @@
         <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>43785</v>
+        <v>44687</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" t="s">
         <v>254</v>
-      </c>
-      <c r="G46" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" t="s">
-        <v>21</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3910,12 +3943,6 @@
       <c r="O46" t="s">
         <v>256</v>
       </c>
-      <c r="P46" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>25</v>
-      </c>
       <c r="R46" t="s">
         <v>26</v>
       </c>
@@ -3923,45 +3950,60 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>549821786</v>
+        <v>247633503</v>
       </c>
       <c r="U46">
-        <v>256242568</v>
+        <v>241690416</v>
+      </c>
+      <c r="V46" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>44687</v>
+        <v>42797</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
+      <c r="F47" t="s">
+        <v>244</v>
+      </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J47" t="s">
+        <v>245</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="O47" t="s">
-        <v>260</v>
+        <v>247</v>
+      </c>
+      <c r="P47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>25</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3970,18 +4012,18 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>247633503</v>
+        <v>538984324</v>
       </c>
       <c r="U47">
-        <v>241690416</v>
+        <v>531766425</v>
       </c>
       <c r="V47" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s">
         <v>263</v>
@@ -3990,34 +4032,28 @@
         <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>42797</v>
+        <v>44663</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="F48" t="s">
-        <v>248</v>
-      </c>
       <c r="G48" t="s">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O48" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P48" t="s">
         <v>40</v>
@@ -4038,48 +4074,54 @@
         <v>531766425</v>
       </c>
       <c r="V48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>44663</v>
+        <v>42239</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
-      <c r="G49" t="s">
-        <v>96</v>
+      <c r="F49" t="s">
+        <v>272</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>153</v>
+        <v>101</v>
+      </c>
+      <c r="J49" t="s">
+        <v>279</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L49" t="s">
+        <v>273</v>
       </c>
       <c r="N49" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="P49" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4088,57 +4130,48 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>538984324</v>
+        <v>549605899</v>
       </c>
       <c r="U49">
-        <v>531766425</v>
-      </c>
-      <c r="V49" t="s">
-        <v>252</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>42239</v>
+        <v>43231</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
-      <c r="F50" t="s">
-        <v>276</v>
-      </c>
       <c r="H50" t="s">
         <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="K50" t="s">
-        <v>37</v>
-      </c>
-      <c r="L50" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="O50" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q50" t="s">
         <v>109</v>
@@ -4150,48 +4183,51 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>549605899</v>
+        <v>244077227</v>
       </c>
       <c r="U50">
-        <v>534014247</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="1">
-        <v>43231</v>
+        <v>42088</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I51" t="s">
         <v>37</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L51" t="s">
+        <v>280</v>
       </c>
       <c r="N51" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O51" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q51" t="s">
         <v>109</v>
@@ -4203,51 +4239,51 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>244077227</v>
+        <v>207900244</v>
       </c>
       <c r="U51">
-        <v>245173168</v>
+        <v>599397215</v>
+      </c>
+      <c r="V51" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>42088</v>
+        <v>43085</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
-      </c>
-      <c r="L52" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O52" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P52" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="Q52" t="s">
         <v>109</v>
@@ -4259,27 +4295,24 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>207900244</v>
+        <v>243043900</v>
       </c>
       <c r="U52">
-        <v>599397215</v>
-      </c>
-      <c r="V52" t="s">
-        <v>288</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>43085</v>
+        <v>43108</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
@@ -4288,25 +4321,22 @@
         <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
       </c>
       <c r="N53" t="s">
+        <v>292</v>
+      </c>
+      <c r="O53" t="s">
         <v>293</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>294</v>
       </c>
-      <c r="P53" t="s">
-        <v>109</v>
-      </c>
       <c r="Q53" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4315,10 +4345,10 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>243043900</v>
+        <v>533254698</v>
       </c>
       <c r="U53">
-        <v>549370765</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
@@ -4326,22 +4356,25 @@
         <v>295</v>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>43108</v>
+        <v>43310</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
@@ -4353,22 +4386,25 @@
         <v>297</v>
       </c>
       <c r="P54" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54">
+        <v>249220522</v>
+      </c>
+      <c r="U54">
+        <v>241246842</v>
+      </c>
+      <c r="V54" t="s">
         <v>298</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>217</v>
-      </c>
-      <c r="R54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S54" t="s">
-        <v>26</v>
-      </c>
-      <c r="T54">
-        <v>533254698</v>
-      </c>
-      <c r="U54">
-        <v>546589599</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
@@ -4376,40 +4412,40 @@
         <v>299</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>43310</v>
+        <v>43170</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="F55" t="s">
-        <v>111</v>
-      </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>153</v>
+        <v>37</v>
+      </c>
+      <c r="J55" t="s">
+        <v>300</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4418,13 +4454,10 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>249220522</v>
+        <v>246861527</v>
       </c>
       <c r="U55">
-        <v>241246842</v>
-      </c>
-      <c r="V55" t="s">
-        <v>302</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
@@ -4432,40 +4465,40 @@
         <v>303</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>43170</v>
+        <v>43452</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
         <v>37</v>
       </c>
       <c r="J56" t="s">
+        <v>138</v>
+      </c>
+      <c r="K56" t="s">
+        <v>149</v>
+      </c>
+      <c r="N56" t="s">
         <v>304</v>
       </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>305</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>306</v>
       </c>
-      <c r="P56" t="s">
-        <v>137</v>
-      </c>
       <c r="Q56" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4474,24 +4507,27 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>246861527</v>
+        <v>246532233</v>
       </c>
       <c r="U56">
-        <v>558286552</v>
+        <v>247792191</v>
+      </c>
+      <c r="V56" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>43452</v>
+        <v>43118</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
@@ -4500,78 +4536,75 @@
         <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O57" t="s">
+        <v>314</v>
+      </c>
+      <c r="P57" t="s">
         <v>309</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
+        <v>109</v>
+      </c>
+      <c r="R57" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57">
+        <v>246951455</v>
+      </c>
+      <c r="U57">
+        <v>242684572</v>
+      </c>
+      <c r="V57" t="s">
         <v>310</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>25</v>
-      </c>
-      <c r="R57" t="s">
-        <v>26</v>
-      </c>
-      <c r="S57" t="s">
-        <v>26</v>
-      </c>
-      <c r="T57">
-        <v>246532233</v>
-      </c>
-      <c r="U57">
-        <v>247792191</v>
-      </c>
-      <c r="V57" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>43118</v>
+        <v>43008</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
+      <c r="F58" t="s">
+        <v>312</v>
+      </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
       </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
       <c r="N58" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O58" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P58" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q58" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4586,27 +4619,27 @@
         <v>242684572</v>
       </c>
       <c r="V58" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>43008</v>
+        <v>44912</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
         <v>37</v>
@@ -4615,13 +4648,13 @@
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O59" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P59" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q59" t="s">
         <v>25</v>
@@ -4639,45 +4672,48 @@
         <v>242684572</v>
       </c>
       <c r="V59" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42540</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>319</v>
+      </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
         <v>320</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="1">
-        <v>44912</v>
-      </c>
-      <c r="E60" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" t="s">
-        <v>316</v>
-      </c>
-      <c r="H60" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" t="s">
-        <v>317</v>
-      </c>
       <c r="O60" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P60" t="s">
-        <v>319</v>
+        <v>146</v>
       </c>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4686,34 +4722,31 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>246951455</v>
+        <v>549223419</v>
       </c>
       <c r="U60">
-        <v>242684572</v>
+        <v>547981198</v>
       </c>
       <c r="V60" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>42540</v>
+        <v>44839</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="F61" t="s">
-        <v>323</v>
-      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
@@ -4724,51 +4757,51 @@
         <v>21</v>
       </c>
       <c r="N61" t="s">
+        <v>296</v>
+      </c>
+      <c r="O61" t="s">
+        <v>297</v>
+      </c>
+      <c r="P61" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>109</v>
+      </c>
+      <c r="R61" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" t="s">
+        <v>26</v>
+      </c>
+      <c r="T61">
+        <v>249220522</v>
+      </c>
+      <c r="U61">
+        <v>241246842</v>
+      </c>
+      <c r="V61" t="s">
         <v>324</v>
-      </c>
-      <c r="O61" t="s">
-        <v>325</v>
-      </c>
-      <c r="P61" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>150</v>
-      </c>
-      <c r="R61" t="s">
-        <v>26</v>
-      </c>
-      <c r="S61" t="s">
-        <v>26</v>
-      </c>
-      <c r="T61">
-        <v>549223419</v>
-      </c>
-      <c r="U61">
-        <v>547981198</v>
-      </c>
-      <c r="V61" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>44839</v>
+        <v>43831</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
@@ -4777,16 +4810,16 @@
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="O62" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="P62" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Q62" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4795,51 +4828,57 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>249220522</v>
+        <v>248076761</v>
       </c>
       <c r="U62">
-        <v>241246842</v>
+        <v>551424325</v>
       </c>
       <c r="V62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>43831</v>
+        <v>44017</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
+      <c r="F63" t="s">
+        <v>63</v>
+      </c>
       <c r="H63" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J63" t="s">
+        <v>331</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="O63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P63" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="Q63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4848,56 +4887,35 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>248076761</v>
+        <v>244446781</v>
       </c>
       <c r="U63">
-        <v>551424325</v>
+        <v>249251741</v>
       </c>
       <c r="V63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>44017</v>
+        <v>43774</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" t="s">
-        <v>335</v>
-      </c>
-      <c r="K64" t="s">
-        <v>21</v>
-      </c>
       <c r="N64" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="O64" t="s">
-        <v>336</v>
-      </c>
-      <c r="P64" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q64" t="s">
         <v>337</v>
       </c>
       <c r="R64" t="s">
@@ -4907,36 +4925,45 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>244446781</v>
+        <v>242715514</v>
       </c>
       <c r="U64">
-        <v>249251741</v>
-      </c>
-      <c r="V64" t="s">
-        <v>338</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>338</v>
+      </c>
+      <c r="B65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
         <v>339</v>
       </c>
-      <c r="B65" t="s">
-        <v>268</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="1">
-        <v>43774</v>
-      </c>
-      <c r="E65" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>340</v>
       </c>
-      <c r="O65" t="s">
-        <v>341</v>
+      <c r="Q65" t="s">
+        <v>32</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4945,57 +4972,325 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>242715514</v>
+        <v>552503776</v>
       </c>
       <c r="U65">
-        <v>553488520</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>44112</v>
+        <v>36558</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="F66" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" t="s">
-        <v>37</v>
-      </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66">
+        <v>543357761</v>
+      </c>
+      <c r="U66">
+        <v>543357761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>342</v>
+      </c>
+      <c r="B67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T67">
+        <v>530376302</v>
+      </c>
+      <c r="U67">
+        <v>530376302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>343</v>
       </c>
-      <c r="O66" t="s">
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T68">
+        <v>559610656</v>
+      </c>
+      <c r="U68">
+        <v>559610656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>344</v>
       </c>
-      <c r="Q66" t="s">
-        <v>32</v>
-      </c>
-      <c r="R66" t="s">
-        <v>26</v>
-      </c>
-      <c r="S66" t="s">
-        <v>26</v>
-      </c>
-      <c r="T66">
-        <v>552503776</v>
-      </c>
-      <c r="U66">
-        <v>246922004</v>
+      <c r="B69" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T69">
+        <v>540901838</v>
+      </c>
+      <c r="U69">
+        <v>540901838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T70">
+        <v>554246016</v>
+      </c>
+      <c r="U70">
+        <v>541473757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T71">
+        <v>256503657</v>
+      </c>
+      <c r="U71">
+        <v>256503657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>347</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T72">
+        <v>240256100</v>
+      </c>
+      <c r="U72">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T73">
+        <v>240256100</v>
+      </c>
+      <c r="U73">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T74">
+        <v>557544883</v>
+      </c>
+      <c r="U74">
+        <v>557544883</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>350</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T75">
+        <v>540750426</v>
+      </c>
+      <c r="U75">
+        <v>540750426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T76">
+        <v>205669296</v>
+      </c>
+      <c r="U76">
+        <v>205669296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T77">
+        <v>246898922</v>
+      </c>
+      <c r="U77">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T78">
+        <v>246898922</v>
+      </c>
+      <c r="U78">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="T79">
+        <v>244730682</v>
+      </c>
+      <c r="U79">
+        <v>244730682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="T80">
+        <v>546312435</v>
+      </c>
+      <c r="U80">
+        <v>546312435</v>
       </c>
     </row>
   </sheetData>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECF90FF-66BB-43EA-BBE8-B76F5F9B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A8C86-7E39-4B26-987C-68C66167177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1418" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="420">
   <si>
     <t>full_name</t>
   </si>
@@ -1103,10 +1103,199 @@
     <t xml:space="preserve">kg 2 </t>
   </si>
   <si>
-    <t>Moses Dazie</t>
-  </si>
-  <si>
     <t>Naadom Yeboah</t>
+  </si>
+  <si>
+    <t>Elvis Anobil</t>
+  </si>
+  <si>
+    <t>Kofi</t>
+  </si>
+  <si>
+    <t>Efe</t>
+  </si>
+  <si>
+    <t>Polaris Academy</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>He is G6PD deficient</t>
+  </si>
+  <si>
+    <t>he is not supposed to take drugs without prescription</t>
+  </si>
+  <si>
+    <t>Erica Ofosu Addo</t>
+  </si>
+  <si>
+    <t>Eric Addo</t>
+  </si>
+  <si>
+    <t>Lab Scientist</t>
+  </si>
+  <si>
+    <t>Theodore Addo</t>
+  </si>
+  <si>
+    <t>Mercy Otabil</t>
+  </si>
+  <si>
+    <t>Twinkle Star Day care</t>
+  </si>
+  <si>
+    <t>Isaac Otabil</t>
+  </si>
+  <si>
+    <t>Lydia Ayiah</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>WA /123/4</t>
+  </si>
+  <si>
+    <t>Acquah Princess</t>
+  </si>
+  <si>
+    <t>cocoyam, Beans, Akpole And Sugery foods</t>
+  </si>
+  <si>
+    <t>Abban</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>MH 93-9</t>
+  </si>
+  <si>
+    <t>Reginald Addo</t>
+  </si>
+  <si>
+    <t>Randy Otoo</t>
+  </si>
+  <si>
+    <t>Andy Otoo</t>
+  </si>
+  <si>
+    <t>Dress Seller</t>
+  </si>
+  <si>
+    <t>MD 633-9</t>
+  </si>
+  <si>
+    <t>Samuel Arthur</t>
+  </si>
+  <si>
+    <t>kg2</t>
+  </si>
+  <si>
+    <t>Richard Arthur</t>
+  </si>
+  <si>
+    <t>Polina Aidoo</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>CO-0031-1993</t>
+  </si>
+  <si>
+    <t>Joycelyn N. Amankwanor</t>
+  </si>
+  <si>
+    <t>Michael Nana Amankwanor</t>
+  </si>
+  <si>
+    <t>Charity Nkuma Amoaning</t>
+  </si>
+  <si>
+    <t>draughtsmanship</t>
+  </si>
+  <si>
+    <t>Hair Dresser</t>
+  </si>
+  <si>
+    <t>Donatella A. Amankwanor</t>
+  </si>
+  <si>
+    <t>Clara Yeboah</t>
+  </si>
+  <si>
+    <t>Foster Yeboah</t>
+  </si>
+  <si>
+    <t>Eunice Amaning</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>NS - 227 - 110</t>
+  </si>
+  <si>
+    <t>Nkumin Aheawa Odoom</t>
+  </si>
+  <si>
+    <t>Irene Kwaitoo</t>
+  </si>
+  <si>
+    <t>Facilitator</t>
+  </si>
+  <si>
+    <t>Ansah Kwesi</t>
+  </si>
+  <si>
+    <t>Bohyeba Aboagye Odoom</t>
+  </si>
+  <si>
+    <t>Estherline Ansah</t>
+  </si>
+  <si>
+    <t>Eric Ansah</t>
+  </si>
+  <si>
+    <t>Grace Ofori</t>
+  </si>
+  <si>
+    <t>self employed</t>
+  </si>
+  <si>
+    <t>Kofi Sika-pa Boateng</t>
+  </si>
+  <si>
+    <t>Dennis Kwakye Appianing</t>
+  </si>
+  <si>
+    <t>Matilda Ewudzie</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Emmanuella Asherow</t>
+  </si>
+  <si>
+    <t>Ebeneser K. Asherow</t>
+  </si>
+  <si>
+    <t>Kingsley Asare Acquah</t>
+  </si>
+  <si>
+    <t>Theresah Agyrey</t>
+  </si>
+  <si>
+    <t>Eba, Yellow rice</t>
+  </si>
+  <si>
+    <t>Emmanuel Agyrey</t>
+  </si>
+  <si>
+    <t>Rose Bermpong</t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="Q12" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1528,99 +1717,84 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="3">
-        <v>249891601</v>
+      <c r="T2">
+        <v>542199592</v>
       </c>
       <c r="U2">
-        <v>5414805333</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>44782</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M3" t="s">
+        <v>362</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>363</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
@@ -1629,33 +1803,36 @@
         <v>26</v>
       </c>
       <c r="T3">
-        <v>554885693</v>
+        <v>532461394</v>
       </c>
       <c r="U3">
-        <v>542738888</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>44922</v>
+        <v>43594</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
+      <c r="F4" t="s">
+        <v>359</v>
+      </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -1664,16 +1841,16 @@
         <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -1682,36 +1859,33 @@
         <v>26</v>
       </c>
       <c r="T4">
-        <v>243081535</v>
+        <v>532461394</v>
       </c>
       <c r="U4">
-        <v>544479394</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>44691</v>
+        <v>43788</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -1719,20 +1893,17 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="R5" t="s">
         <v>26</v>
@@ -1741,57 +1912,54 @@
         <v>26</v>
       </c>
       <c r="T5">
-        <v>543719591</v>
+        <v>245449031</v>
       </c>
       <c r="U5">
-        <v>541484405</v>
+        <v>545891190</v>
+      </c>
+      <c r="V5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>45040</v>
+        <v>42898</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>374</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="R6" t="s">
         <v>26</v>
@@ -1800,57 +1968,42 @@
         <v>26</v>
       </c>
       <c r="T6">
-        <v>548697421</v>
+        <v>249768747</v>
       </c>
       <c r="U6">
-        <v>549328229</v>
+        <v>245716161</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="1">
-        <v>45037</v>
+        <v>43408</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="R7" t="s">
         <v>26</v>
@@ -1859,30 +2012,33 @@
         <v>26</v>
       </c>
       <c r="T7">
-        <v>554246016</v>
+        <v>248076761</v>
       </c>
       <c r="U7">
-        <v>541473757</v>
+        <v>551424325</v>
+      </c>
+      <c r="V7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>43551</v>
+        <v>43518</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -1890,23 +2046,17 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>385</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="R8" t="s">
         <v>26</v>
@@ -1915,54 +2065,51 @@
         <v>26</v>
       </c>
       <c r="T8">
-        <v>203218292</v>
+        <v>249245434</v>
       </c>
       <c r="U8">
-        <v>546407893</v>
+        <v>558204488</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>43536</v>
+        <v>42467</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
+      <c r="F9" t="s">
+        <v>368</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>390</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="R9" t="s">
         <v>26</v>
@@ -1971,30 +2118,30 @@
         <v>26</v>
       </c>
       <c r="T9">
-        <v>544622299</v>
+        <v>247412669</v>
       </c>
       <c r="U9">
-        <v>241651317</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>43486</v>
+        <v>44295</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
-        <v>36</v>
+      <c r="F10" t="s">
+        <v>368</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -2002,23 +2149,17 @@
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="Q10" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
@@ -2027,36 +2168,30 @@
         <v>26</v>
       </c>
       <c r="T10">
-        <v>241861382</v>
+        <v>247412669</v>
       </c>
       <c r="U10">
-        <v>547944747</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>43214</v>
+        <v>42738</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -2065,13 +2200,16 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>397</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>398</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>109</v>
       </c>
       <c r="R11" t="s">
         <v>26</v>
@@ -2080,27 +2218,27 @@
         <v>26</v>
       </c>
       <c r="T11">
-        <v>540750428</v>
+        <v>545350088</v>
       </c>
       <c r="U11">
-        <v>240127525</v>
+        <v>246956426</v>
       </c>
       <c r="V11" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1">
-        <v>44390</v>
+        <v>43644</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -2114,17 +2252,11 @@
       <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="N12" t="s">
-        <v>91</v>
-      </c>
       <c r="O12" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" t="s">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="Q12" t="s">
-        <v>94</v>
+        <v>402</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
@@ -2133,83 +2265,62 @@
         <v>26</v>
       </c>
       <c r="T12">
-        <v>248450590</v>
+        <v>241656149</v>
       </c>
       <c r="U12">
-        <v>548086355</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>43582</v>
+        <v>42581</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
       <c r="T13">
-        <v>542776117</v>
+        <v>533254698</v>
       </c>
       <c r="U13">
-        <v>556780997</v>
-      </c>
-      <c r="V13" t="s">
-        <v>99</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
         <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>42977</v>
+        <v>42617</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
@@ -2217,11 +2328,11 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="N14" t="s">
-        <v>104</v>
-      </c>
       <c r="O14" t="s">
-        <v>102</v>
+        <v>401</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>402</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
@@ -2230,33 +2341,30 @@
         <v>26</v>
       </c>
       <c r="T14">
-        <v>246469841</v>
+        <v>241656149</v>
       </c>
       <c r="U14">
-        <v>244502858</v>
-      </c>
-      <c r="V14" t="s">
-        <v>103</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>44057</v>
+        <v>44968</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -2265,16 +2373,16 @@
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="Q15" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="R15" t="s">
         <v>26</v>
@@ -2283,54 +2391,48 @@
         <v>26</v>
       </c>
       <c r="T15">
-        <v>246645496</v>
+        <v>543469945</v>
       </c>
       <c r="U15">
-        <v>240778774</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>41923</v>
+        <v>44351</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>411</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>412</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2339,24 +2441,24 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>248675358</v>
+        <v>248754494</v>
       </c>
       <c r="U16">
-        <v>247790941</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>44796</v>
+        <v>44238</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -2371,16 +2473,16 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2389,51 +2491,54 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>599634556</v>
+        <v>245077487</v>
       </c>
       <c r="U17">
-        <v>535220641</v>
+        <v>543161188</v>
       </c>
       <c r="V17" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>44890</v>
+        <v>41372</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
-        <v>122</v>
+      <c r="H18" t="s">
+        <v>21</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
       <c r="K18" t="s">
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
@@ -2442,54 +2547,45 @@
         <v>26</v>
       </c>
       <c r="T18">
-        <v>245864268</v>
+        <v>243043900</v>
       </c>
       <c r="U18">
-        <v>247823594</v>
-      </c>
-      <c r="V18" t="s">
-        <v>125</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>43652</v>
+        <v>44084</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
-      </c>
-      <c r="P19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -2498,115 +2594,36 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>543279537</v>
+        <v>256596282</v>
       </c>
       <c r="U19">
-        <v>241208687</v>
-      </c>
-      <c r="V19" t="s">
-        <v>132</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42673</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
-        <v>136</v>
-      </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20">
-        <v>244423888</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42691</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" t="s">
-        <v>139</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V21" t="s">
-        <v>140</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2">
-        <v>42832</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44852</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
@@ -2615,13 +2632,16 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>25</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
@@ -2629,49 +2649,58 @@
       <c r="S22" t="s">
         <v>26</v>
       </c>
-      <c r="T22">
-        <v>245766735</v>
+      <c r="T22" s="3">
+        <v>249891601</v>
       </c>
       <c r="U22">
-        <v>245702914</v>
+        <v>5414805333</v>
       </c>
       <c r="V22" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>42202</v>
+        <v>44782</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" t="s">
         <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>151</v>
+        <v>39</v>
+      </c>
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>41</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
@@ -2680,33 +2709,30 @@
         <v>26</v>
       </c>
       <c r="T23">
-        <v>248178775</v>
+        <v>554885693</v>
       </c>
       <c r="U23">
-        <v>550234225</v>
-      </c>
-      <c r="V23" t="s">
-        <v>152</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>42695</v>
+        <v>44922</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
         <v>37</v>
@@ -2718,16 +2744,16 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2736,36 +2762,39 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>245424585</v>
+        <v>243081535</v>
       </c>
       <c r="U24">
-        <v>247566924</v>
+        <v>544479394</v>
       </c>
       <c r="V24" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>41794</v>
+        <v>44691</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2774,16 +2803,16 @@
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="Q25" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
@@ -2792,31 +2821,31 @@
         <v>26</v>
       </c>
       <c r="T25">
-        <v>245980902</v>
+        <v>543719591</v>
       </c>
       <c r="U25">
-        <v>245272449</v>
-      </c>
-      <c r="V25" t="s">
-        <v>161</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>43093</v>
+        <v>45040</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
       <c r="H26" t="s">
         <v>37</v>
       </c>
@@ -2824,19 +2853,25 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
       </c>
       <c r="N26" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="Q26" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2845,36 +2880,39 @@
         <v>26</v>
       </c>
       <c r="T26">
-        <v>245980902</v>
+        <v>548697421</v>
       </c>
       <c r="U26">
-        <v>245272449</v>
+        <v>549328229</v>
       </c>
       <c r="V26" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>43165</v>
+        <v>45037</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -2883,10 +2921,16 @@
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>166</v>
+        <v>65</v>
+      </c>
+      <c r="P27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>25</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2895,33 +2939,30 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>543784758</v>
+        <v>554246016</v>
       </c>
       <c r="U27">
-        <v>243307643</v>
-      </c>
-      <c r="V27" t="s">
-        <v>167</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>42564</v>
+        <v>43551</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>164</v>
+      <c r="G28" t="s">
+        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>37</v>
@@ -2929,17 +2970,23 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" t="s">
-        <v>169</v>
-      </c>
       <c r="K28" t="s">
         <v>21</v>
       </c>
+      <c r="M28" t="s">
+        <v>67</v>
+      </c>
       <c r="N28" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>69</v>
+      </c>
+      <c r="P28" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2948,36 +2995,36 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>543784758</v>
+        <v>203218292</v>
       </c>
       <c r="U28">
-        <v>243307643</v>
+        <v>546407893</v>
       </c>
       <c r="V28" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>43499</v>
+        <v>43536</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
-        <v>171</v>
+      <c r="G29" t="s">
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -2986,16 +3033,16 @@
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -3004,33 +3051,30 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>595670927</v>
+        <v>544622299</v>
       </c>
       <c r="U29">
-        <v>553491903</v>
-      </c>
-      <c r="V29" t="s">
-        <v>174</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="1">
-        <v>42289</v>
+        <v>43486</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
         <v>37</v>
@@ -3041,17 +3085,20 @@
       <c r="K30" t="s">
         <v>21</v>
       </c>
+      <c r="M30" t="s">
+        <v>78</v>
+      </c>
       <c r="N30" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="O30" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -3060,33 +3107,36 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>547068449</v>
+        <v>241861382</v>
       </c>
       <c r="U30">
-        <v>547068449</v>
+        <v>547944747</v>
       </c>
       <c r="V30" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>42839</v>
+        <v>43214</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -3095,10 +3145,13 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="O31" t="s">
-        <v>182</v>
+        <v>87</v>
+      </c>
+      <c r="P31" t="s">
+        <v>88</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3107,63 +3160,51 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>244730682</v>
+        <v>540750428</v>
       </c>
       <c r="U31">
-        <v>249341294</v>
+        <v>240127525</v>
       </c>
       <c r="V31" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1">
-        <v>44495</v>
+        <v>44390</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="F32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" t="s">
-        <v>122</v>
-      </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="Q32" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -3172,60 +3213,45 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>532416380</v>
+        <v>248450590</v>
       </c>
       <c r="U32">
-        <v>543108512</v>
-      </c>
-      <c r="V32" t="s">
-        <v>191</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>43950</v>
+        <v>43582</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
-        <v>193</v>
-      </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="O33" t="s">
-        <v>196</v>
-      </c>
-      <c r="P33" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -3234,33 +3260,36 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>597661016</v>
+        <v>542776117</v>
       </c>
       <c r="U33">
-        <v>501213049</v>
+        <v>556780997</v>
       </c>
       <c r="V33" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>44383</v>
+        <v>42977</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
@@ -3269,16 +3298,10 @@
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>201</v>
-      </c>
-      <c r="P34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3287,37 +3310,31 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>595670927</v>
+        <v>246469841</v>
       </c>
       <c r="U34">
-        <v>553491903</v>
+        <v>244502858</v>
       </c>
       <c r="V34" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
         <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>43524</v>
+        <v>44057</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="F35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" t="s">
-        <v>133</v>
-      </c>
       <c r="H35" t="s">
         <v>37</v>
       </c>
@@ -3328,16 +3345,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="O35" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="Q35" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3346,33 +3363,33 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>244678226</v>
+        <v>246645496</v>
       </c>
       <c r="U35">
-        <v>208455305</v>
-      </c>
-      <c r="V35" t="s">
-        <v>208</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>44364</v>
+        <v>41923</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
         <v>37</v>
@@ -3381,19 +3398,19 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>113</v>
       </c>
       <c r="N36" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="O36" t="s">
-        <v>211</v>
-      </c>
-      <c r="P36" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="Q36" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3402,54 +3419,48 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>243352028</v>
+        <v>248675358</v>
       </c>
       <c r="U36">
-        <v>243088742</v>
-      </c>
-      <c r="V36" t="s">
-        <v>214</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>44627</v>
+        <v>44796</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" t="s">
-        <v>122</v>
-      </c>
       <c r="H37" t="s">
         <v>37</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="M37" t="s">
-        <v>216</v>
+      <c r="K37" t="s">
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="Q37" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3458,36 +3469,33 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>241861382</v>
+        <v>599634556</v>
       </c>
       <c r="U37">
-        <v>547944747</v>
+        <v>535220641</v>
       </c>
       <c r="V37" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>44430</v>
+        <v>44890</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -3496,16 +3504,16 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="O38" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Q38" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3514,54 +3522,54 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>555101040</v>
+        <v>245864268</v>
       </c>
       <c r="U38">
-        <v>537150359</v>
+        <v>247823594</v>
       </c>
       <c r="V38" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>43839</v>
+        <v>43652</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
-      <c r="F39" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s">
         <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="O39" t="s">
-        <v>226</v>
+        <v>129</v>
+      </c>
+      <c r="P39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>131</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3570,34 +3578,31 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>554845413</v>
+        <v>543279537</v>
       </c>
       <c r="U39">
-        <v>256786281</v>
+        <v>241208687</v>
       </c>
       <c r="V39" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>44661</v>
+        <v>42673</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="G40" t="s">
-        <v>96</v>
-      </c>
       <c r="H40" t="s">
         <v>37</v>
       </c>
@@ -3608,16 +3613,7 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>154</v>
-      </c>
-      <c r="O40" t="s">
-        <v>155</v>
-      </c>
-      <c r="P40" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3626,27 +3622,21 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>245424585</v>
-      </c>
-      <c r="U40">
-        <v>247566924</v>
-      </c>
-      <c r="V40" t="s">
-        <v>229</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>44459</v>
+        <v>42691</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
@@ -3655,19 +3645,16 @@
         <v>37</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J41" t="s">
+        <v>138</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
       </c>
-      <c r="N41" t="s">
-        <v>231</v>
-      </c>
       <c r="O41" t="s">
-        <v>232</v>
-      </c>
-      <c r="P41" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3676,31 +3663,31 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>244446781</v>
-      </c>
-      <c r="U41">
-        <v>249251741</v>
+        <v>245077487</v>
       </c>
       <c r="V41" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="1">
-        <v>44414</v>
+        <v>34</v>
+      </c>
+      <c r="D42" s="2">
+        <v>42832</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
       <c r="H42" t="s">
         <v>37</v>
       </c>
@@ -3711,16 +3698,13 @@
         <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="O42" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3729,57 +3713,48 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>246364382</v>
+        <v>245766735</v>
       </c>
       <c r="U42">
-        <v>242830458</v>
+        <v>245702914</v>
       </c>
       <c r="V42" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>45025</v>
+        <v>42202</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="G43" t="s">
-        <v>122</v>
-      </c>
       <c r="H43" t="s">
         <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="O43" t="s">
-        <v>240</v>
-      </c>
-      <c r="P43" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3788,54 +3763,54 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>245902055</v>
+        <v>248178775</v>
       </c>
       <c r="U43">
-        <v>557566068</v>
+        <v>550234225</v>
+      </c>
+      <c r="V43" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="1">
-        <v>43792</v>
+        <v>42695</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
-        <v>244</v>
+      <c r="G44" t="s">
+        <v>142</v>
       </c>
       <c r="H44" t="s">
         <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="O44" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="P44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3844,39 +3819,36 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>538984324</v>
+        <v>245424585</v>
       </c>
       <c r="U44">
-        <v>531766425</v>
+        <v>247566924</v>
       </c>
       <c r="V44" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>43785</v>
+        <v>41794</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
-      <c r="F45" t="s">
-        <v>250</v>
-      </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3885,16 +3857,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="O45" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="P45" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3903,33 +3875,33 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>549821786</v>
+        <v>245980902</v>
       </c>
       <c r="U45">
-        <v>256242568</v>
+        <v>245272449</v>
+      </c>
+      <c r="V45" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1">
-        <v>44687</v>
+        <v>43093</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="G46" t="s">
-        <v>96</v>
-      </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3938,10 +3910,16 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="O46" t="s">
-        <v>256</v>
+        <v>159</v>
+      </c>
+      <c r="P46" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>160</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3950,60 +3928,48 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>247633503</v>
+        <v>245980902</v>
       </c>
       <c r="U46">
-        <v>241690416</v>
+        <v>245272449</v>
       </c>
       <c r="V46" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>42797</v>
+        <v>43165</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="O47" t="s">
-        <v>247</v>
-      </c>
-      <c r="P47" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -4012,54 +3978,51 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>538984324</v>
+        <v>543784758</v>
       </c>
       <c r="U47">
-        <v>531766425</v>
+        <v>243307643</v>
       </c>
       <c r="V47" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1">
-        <v>44663</v>
+        <v>42564</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="G48" t="s">
-        <v>96</v>
+      <c r="F48" t="s">
+        <v>164</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>169</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="O48" t="s">
-        <v>247</v>
-      </c>
-      <c r="P48" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -4068,60 +4031,54 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>538984324</v>
+        <v>543784758</v>
       </c>
       <c r="U48">
-        <v>531766425</v>
+        <v>243307643</v>
       </c>
       <c r="V48" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>42239</v>
+        <v>43499</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
-      </c>
-      <c r="J49" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L49" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="O49" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Q49" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4130,48 +4087,51 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>549605899</v>
+        <v>595670927</v>
       </c>
       <c r="U49">
-        <v>534014247</v>
+        <v>553491903</v>
+      </c>
+      <c r="V49" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>43231</v>
+        <v>42289</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="O50" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="P50" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="Q50" t="s">
         <v>109</v>
@@ -4183,54 +4143,45 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>244077227</v>
+        <v>547068449</v>
       </c>
       <c r="U50">
-        <v>245173168</v>
+        <v>547068449</v>
+      </c>
+      <c r="V50" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>42088</v>
+        <v>42839</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="O51" t="s">
-        <v>282</v>
-      </c>
-      <c r="P51" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4239,54 +4190,63 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>207900244</v>
+        <v>244730682</v>
       </c>
       <c r="U51">
-        <v>599397215</v>
+        <v>249341294</v>
       </c>
       <c r="V51" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>43085</v>
+        <v>44495</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
+      <c r="F52" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" t="s">
+        <v>122</v>
+      </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L52" t="s">
+        <v>187</v>
       </c>
       <c r="N52" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="O52" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="P52" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4295,48 +4255,60 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>243043900</v>
+        <v>532416380</v>
       </c>
       <c r="U52">
-        <v>549370765</v>
+        <v>543108512</v>
+      </c>
+      <c r="V52" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>43108</v>
+        <v>43950</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>149</v>
+        <v>101</v>
+      </c>
+      <c r="J53" t="s">
+        <v>194</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="O53" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="P53" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="Q53" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4345,48 +4317,48 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>533254698</v>
+        <v>597661016</v>
       </c>
       <c r="U53">
-        <v>546589599</v>
+        <v>501213049</v>
+      </c>
+      <c r="V53" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>43310</v>
+        <v>44383</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
-      <c r="F54" t="s">
-        <v>111</v>
-      </c>
       <c r="H54" t="s">
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="O54" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="P54" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Q54" t="s">
         <v>25</v>
@@ -4398,54 +4370,57 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>249220522</v>
+        <v>595670927</v>
       </c>
       <c r="U54">
-        <v>241246842</v>
+        <v>553491903</v>
       </c>
       <c r="V54" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>43170</v>
+        <v>43524</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
+      <c r="F55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="O55" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="P55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q55" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4454,51 +4429,54 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>246861527</v>
+        <v>244678226</v>
       </c>
       <c r="U55">
-        <v>558286552</v>
+        <v>208455305</v>
+      </c>
+      <c r="V55" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>43452</v>
+        <v>44364</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
+      <c r="G56" t="s">
+        <v>122</v>
+      </c>
       <c r="H56" t="s">
         <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="O56" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="P56" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4507,51 +4485,54 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>246532233</v>
+        <v>243352028</v>
       </c>
       <c r="U56">
-        <v>247792191</v>
+        <v>243088742</v>
       </c>
       <c r="V56" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>43118</v>
+        <v>44627</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
+      <c r="G57" t="s">
+        <v>122</v>
+      </c>
       <c r="H57" t="s">
         <v>37</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
       </c>
-      <c r="K57" t="s">
-        <v>21</v>
+      <c r="M57" t="s">
+        <v>216</v>
       </c>
       <c r="N57" t="s">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="O57" t="s">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="Q57" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4560,33 +4541,33 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>246951455</v>
+        <v>241861382</v>
       </c>
       <c r="U57">
-        <v>242684572</v>
+        <v>547944747</v>
       </c>
       <c r="V57" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>43008</v>
+        <v>44430</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
-      <c r="F58" t="s">
-        <v>312</v>
+      <c r="G58" t="s">
+        <v>96</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
@@ -4594,17 +4575,20 @@
       <c r="I58" t="s">
         <v>21</v>
       </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
       <c r="N58" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="O58" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="P58" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4613,51 +4597,54 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>246951455</v>
+        <v>555101040</v>
       </c>
       <c r="U58">
-        <v>242684572</v>
+        <v>537150359</v>
       </c>
       <c r="V58" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>44912</v>
+        <v>43839</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>312</v>
+        <v>223</v>
+      </c>
+      <c r="G59" t="s">
+        <v>96</v>
       </c>
       <c r="H59" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" t="s">
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="O59" t="s">
-        <v>314</v>
-      </c>
-      <c r="P59" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4666,33 +4653,33 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>246951455</v>
+        <v>554845413</v>
       </c>
       <c r="U59">
-        <v>242684572</v>
+        <v>256786281</v>
       </c>
       <c r="V59" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1">
-        <v>42540</v>
+        <v>44661</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="F60" t="s">
-        <v>319</v>
+      <c r="G60" t="s">
+        <v>96</v>
       </c>
       <c r="H60" t="s">
         <v>37</v>
@@ -4704,16 +4691,16 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="O60" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="P60" t="s">
         <v>146</v>
       </c>
       <c r="Q60" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4722,27 +4709,27 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>549223419</v>
+        <v>245424585</v>
       </c>
       <c r="U60">
-        <v>547981198</v>
+        <v>247566924</v>
       </c>
       <c r="V60" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>263</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1">
-        <v>44839</v>
+        <v>44459</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
@@ -4757,16 +4744,13 @@
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="O61" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="P61" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4775,33 +4759,33 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>249220522</v>
+        <v>244446781</v>
       </c>
       <c r="U61">
-        <v>241246842</v>
+        <v>249251741</v>
       </c>
       <c r="V61" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>43831</v>
+        <v>44414</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
@@ -4810,16 +4794,16 @@
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="O62" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="P62" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Q62" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4828,57 +4812,57 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>248076761</v>
+        <v>246364382</v>
       </c>
       <c r="U62">
-        <v>551424325</v>
+        <v>242830458</v>
       </c>
       <c r="V62" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>44017</v>
+        <v>45025</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
-      <c r="F63" t="s">
-        <v>63</v>
+      <c r="G63" t="s">
+        <v>122</v>
       </c>
       <c r="H63" t="s">
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>331</v>
+        <v>169</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="O63" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q63" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4887,36 +4871,54 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>244446781</v>
+        <v>245902055</v>
       </c>
       <c r="U63">
-        <v>249251741</v>
-      </c>
-      <c r="V63" t="s">
-        <v>334</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D64" s="1">
-        <v>43774</v>
+        <v>43792</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
+      <c r="F64" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>245</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
       <c r="N64" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="O64" t="s">
-        <v>337</v>
+        <v>247</v>
+      </c>
+      <c r="P64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>25</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4925,45 +4927,57 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>242715514</v>
+        <v>538984324</v>
       </c>
       <c r="U64">
-        <v>553488520</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+        <v>531766425</v>
+      </c>
+      <c r="V64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s">
         <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>44112</v>
+        <v>43785</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>319</v>
+        <v>250</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
       </c>
       <c r="H65" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
       </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
       <c r="N65" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="O65" t="s">
-        <v>340</v>
+        <v>252</v>
+      </c>
+      <c r="P65" t="s">
+        <v>31</v>
       </c>
       <c r="Q65" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4972,28 +4986,46 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>552503776</v>
+        <v>549821786</v>
       </c>
       <c r="U65">
-        <v>246922004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256242568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1">
-        <v>36558</v>
+        <v>44687</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
+      <c r="G66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" t="s">
+        <v>254</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>255</v>
+      </c>
+      <c r="O66" t="s">
+        <v>256</v>
+      </c>
       <c r="R66" t="s">
         <v>26</v>
       </c>
@@ -5001,295 +5033,1323 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>543357761</v>
+        <v>247633503</v>
       </c>
       <c r="U66">
-        <v>543357761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+        <v>241690416</v>
+      </c>
+      <c r="V66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>36558</v>
+        <v>42797</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s">
+        <v>245</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" t="s">
+        <v>246</v>
+      </c>
+      <c r="O67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>25</v>
+      </c>
+      <c r="R67" t="s">
+        <v>26</v>
+      </c>
+      <c r="S67" t="s">
+        <v>26</v>
       </c>
       <c r="T67">
-        <v>530376302</v>
+        <v>538984324</v>
       </c>
       <c r="U67">
-        <v>530376302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+        <v>531766425</v>
+      </c>
+      <c r="V67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="1">
-        <v>36558</v>
+        <v>44663</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>149</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" t="s">
+        <v>246</v>
+      </c>
+      <c r="O68" t="s">
+        <v>247</v>
+      </c>
+      <c r="P68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>25</v>
+      </c>
+      <c r="R68" t="s">
+        <v>26</v>
+      </c>
+      <c r="S68" t="s">
+        <v>26</v>
       </c>
       <c r="T68">
-        <v>559610656</v>
+        <v>538984324</v>
       </c>
       <c r="U68">
-        <v>559610656</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+        <v>531766425</v>
+      </c>
+      <c r="V68" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>36558</v>
+        <v>42239</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+      <c r="J69" t="s">
+        <v>279</v>
+      </c>
+      <c r="K69" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" t="s">
+        <v>273</v>
+      </c>
+      <c r="N69" t="s">
+        <v>274</v>
+      </c>
+      <c r="O69" t="s">
+        <v>275</v>
+      </c>
+      <c r="P69" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>109</v>
+      </c>
+      <c r="R69" t="s">
+        <v>26</v>
+      </c>
+      <c r="S69" t="s">
+        <v>26</v>
       </c>
       <c r="T69">
-        <v>540901838</v>
+        <v>549605899</v>
       </c>
       <c r="U69">
-        <v>540901838</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+        <v>534014247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43231</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" t="s">
+        <v>138</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" t="s">
+        <v>285</v>
+      </c>
+      <c r="O70" t="s">
+        <v>286</v>
+      </c>
+      <c r="P70" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>109</v>
+      </c>
+      <c r="R70" t="s">
+        <v>26</v>
+      </c>
+      <c r="S70" t="s">
+        <v>26</v>
+      </c>
+      <c r="T70">
+        <v>244077227</v>
+      </c>
+      <c r="U70">
+        <v>245173168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42088</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>149</v>
+      </c>
+      <c r="I71" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L71" t="s">
+        <v>280</v>
+      </c>
+      <c r="N71" t="s">
+        <v>281</v>
+      </c>
+      <c r="O71" t="s">
+        <v>282</v>
+      </c>
+      <c r="P71" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>109</v>
+      </c>
+      <c r="R71" t="s">
+        <v>26</v>
+      </c>
+      <c r="S71" t="s">
+        <v>26</v>
+      </c>
+      <c r="T71">
+        <v>207900244</v>
+      </c>
+      <c r="U71">
+        <v>599397215</v>
+      </c>
+      <c r="V71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="1">
-        <v>36558</v>
-      </c>
-      <c r="T70">
-        <v>554246016</v>
-      </c>
-      <c r="U70">
-        <v>541473757</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D72" s="1">
+        <v>43085</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>169</v>
+      </c>
+      <c r="K72" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" t="s">
+        <v>289</v>
+      </c>
+      <c r="O72" t="s">
+        <v>290</v>
+      </c>
+      <c r="P72" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>109</v>
+      </c>
+      <c r="R72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T72">
+        <v>243043900</v>
+      </c>
+      <c r="U72">
+        <v>549370765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="1">
-        <v>36558</v>
-      </c>
-      <c r="T71">
-        <v>256503657</v>
-      </c>
-      <c r="U71">
-        <v>256503657</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>347</v>
-      </c>
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="1">
-        <v>36558</v>
-      </c>
-      <c r="T72">
-        <v>240256100</v>
-      </c>
-      <c r="U72">
-        <v>240256100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>348</v>
-      </c>
-      <c r="B73" t="s">
-        <v>318</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
-      </c>
       <c r="D73" s="1">
-        <v>36558</v>
+        <v>43108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>149</v>
+      </c>
+      <c r="K73" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" t="s">
+        <v>292</v>
+      </c>
+      <c r="O73" t="s">
+        <v>293</v>
+      </c>
+      <c r="P73" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>213</v>
+      </c>
+      <c r="R73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" t="s">
+        <v>26</v>
       </c>
       <c r="T73">
-        <v>240256100</v>
+        <v>533254698</v>
       </c>
       <c r="U73">
-        <v>240256100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+        <v>546589599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>36558</v>
+        <v>43310</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>149</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" t="s">
+        <v>296</v>
+      </c>
+      <c r="O74" t="s">
+        <v>297</v>
+      </c>
+      <c r="P74" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74" t="s">
+        <v>26</v>
       </c>
       <c r="T74">
-        <v>557544883</v>
+        <v>249220522</v>
       </c>
       <c r="U74">
-        <v>557544883</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+        <v>241246842</v>
+      </c>
+      <c r="V74" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>36558</v>
+        <v>43170</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s">
+        <v>300</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" t="s">
+        <v>301</v>
+      </c>
+      <c r="O75" t="s">
+        <v>302</v>
+      </c>
+      <c r="P75" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>109</v>
+      </c>
+      <c r="R75" t="s">
+        <v>26</v>
+      </c>
+      <c r="S75" t="s">
+        <v>26</v>
       </c>
       <c r="T75">
-        <v>540750426</v>
+        <v>246861527</v>
       </c>
       <c r="U75">
-        <v>540750426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+        <v>558286552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="1">
-        <v>36558</v>
+        <v>43452</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" t="s">
+        <v>149</v>
+      </c>
+      <c r="N76" t="s">
+        <v>304</v>
+      </c>
+      <c r="O76" t="s">
+        <v>305</v>
+      </c>
+      <c r="P76" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76" t="s">
+        <v>26</v>
       </c>
       <c r="T76">
-        <v>205669296</v>
+        <v>246532233</v>
       </c>
       <c r="U76">
-        <v>205669296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+        <v>247792191</v>
+      </c>
+      <c r="V76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D77" s="1">
-        <v>36558</v>
+        <v>43118</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" t="s">
+        <v>313</v>
+      </c>
+      <c r="O77" t="s">
+        <v>314</v>
+      </c>
+      <c r="P77" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>109</v>
+      </c>
+      <c r="R77" t="s">
+        <v>26</v>
+      </c>
+      <c r="S77" t="s">
+        <v>26</v>
       </c>
       <c r="T77">
-        <v>246898922</v>
+        <v>246951455</v>
       </c>
       <c r="U77">
-        <v>246898922</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+        <v>242684572</v>
+      </c>
+      <c r="V77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>36558</v>
+        <v>43008</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>312</v>
+      </c>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" t="s">
+        <v>313</v>
+      </c>
+      <c r="O78" t="s">
+        <v>314</v>
+      </c>
+      <c r="P78" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" t="s">
+        <v>26</v>
+      </c>
+      <c r="S78" t="s">
+        <v>26</v>
       </c>
       <c r="T78">
-        <v>246898922</v>
+        <v>246951455</v>
       </c>
       <c r="U78">
-        <v>246898922</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+        <v>242684572</v>
+      </c>
+      <c r="V78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>36558</v>
+        <v>44912</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
+      <c r="F79" t="s">
+        <v>312</v>
+      </c>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" t="s">
+        <v>313</v>
+      </c>
+      <c r="O79" t="s">
+        <v>314</v>
+      </c>
+      <c r="P79" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>25</v>
+      </c>
+      <c r="R79" t="s">
+        <v>26</v>
+      </c>
+      <c r="S79" t="s">
+        <v>26</v>
+      </c>
       <c r="T79">
-        <v>244730682</v>
+        <v>246951455</v>
       </c>
       <c r="U79">
-        <v>244730682</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+        <v>242684572</v>
+      </c>
+      <c r="V79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="1">
+        <v>42540</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>319</v>
+      </c>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" t="s">
+        <v>320</v>
+      </c>
+      <c r="O80" t="s">
+        <v>321</v>
+      </c>
+      <c r="P80" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>146</v>
+      </c>
+      <c r="R80" t="s">
+        <v>26</v>
+      </c>
+      <c r="S80" t="s">
+        <v>26</v>
+      </c>
+      <c r="T80">
+        <v>549223419</v>
+      </c>
+      <c r="U80">
+        <v>547981198</v>
+      </c>
+      <c r="V80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44839</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" t="s">
+        <v>296</v>
+      </c>
+      <c r="O81" t="s">
+        <v>297</v>
+      </c>
+      <c r="P81" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>109</v>
+      </c>
+      <c r="R81" t="s">
+        <v>26</v>
+      </c>
+      <c r="S81" t="s">
+        <v>26</v>
+      </c>
+      <c r="T81">
+        <v>249220522</v>
+      </c>
+      <c r="U81">
+        <v>241246842</v>
+      </c>
+      <c r="V81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43831</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" t="s">
+        <v>326</v>
+      </c>
+      <c r="O82" t="s">
+        <v>327</v>
+      </c>
+      <c r="P82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>328</v>
+      </c>
+      <c r="R82" t="s">
+        <v>26</v>
+      </c>
+      <c r="S82" t="s">
+        <v>26</v>
+      </c>
+      <c r="T82">
+        <v>248076761</v>
+      </c>
+      <c r="U82">
+        <v>551424325</v>
+      </c>
+      <c r="V82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44017</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>331</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" t="s">
+        <v>231</v>
+      </c>
+      <c r="O83" t="s">
+        <v>332</v>
+      </c>
+      <c r="P83" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>333</v>
+      </c>
+      <c r="R83" t="s">
+        <v>26</v>
+      </c>
+      <c r="S83" t="s">
+        <v>26</v>
+      </c>
+      <c r="T83">
+        <v>244446781</v>
+      </c>
+      <c r="U83">
+        <v>249251741</v>
+      </c>
+      <c r="V83" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43774</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" t="s">
+        <v>336</v>
+      </c>
+      <c r="O84" t="s">
+        <v>337</v>
+      </c>
+      <c r="R84" t="s">
+        <v>26</v>
+      </c>
+      <c r="S84" t="s">
+        <v>26</v>
+      </c>
+      <c r="T84">
+        <v>242715514</v>
+      </c>
+      <c r="U84">
+        <v>553488520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>319</v>
+      </c>
+      <c r="H85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" t="s">
+        <v>339</v>
+      </c>
+      <c r="O85" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>32</v>
+      </c>
+      <c r="R85" t="s">
+        <v>26</v>
+      </c>
+      <c r="S85" t="s">
+        <v>26</v>
+      </c>
+      <c r="T85">
+        <v>552503776</v>
+      </c>
+      <c r="U85">
+        <v>246922004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="1">
         <v>36558</v>
       </c>
-      <c r="E80" t="s">
-        <v>26</v>
-      </c>
-      <c r="T80">
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="R86" t="s">
+        <v>26</v>
+      </c>
+      <c r="S86" t="s">
+        <v>26</v>
+      </c>
+      <c r="T86">
+        <v>543357761</v>
+      </c>
+      <c r="U86">
+        <v>543357761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T87">
+        <v>530376302</v>
+      </c>
+      <c r="U87">
+        <v>530376302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>343</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T88">
+        <v>559610656</v>
+      </c>
+      <c r="U88">
+        <v>559610656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T89">
+        <v>540901838</v>
+      </c>
+      <c r="U89">
+        <v>540901838</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T90">
+        <v>554246016</v>
+      </c>
+      <c r="U90">
+        <v>541473757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T91">
+        <v>256503657</v>
+      </c>
+      <c r="U91">
+        <v>256503657</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T92">
+        <v>240256100</v>
+      </c>
+      <c r="U92">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>348</v>
+      </c>
+      <c r="B93" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T93">
+        <v>240256100</v>
+      </c>
+      <c r="U93">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>349</v>
+      </c>
+      <c r="B94" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T94">
+        <v>557544883</v>
+      </c>
+      <c r="U94">
+        <v>557544883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>350</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T95">
+        <v>540750426</v>
+      </c>
+      <c r="U95">
+        <v>540750426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T96">
+        <v>205669296</v>
+      </c>
+      <c r="U96">
+        <v>205669296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>352</v>
+      </c>
+      <c r="B97" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T97">
+        <v>246898922</v>
+      </c>
+      <c r="U97">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T98">
+        <v>246898922</v>
+      </c>
+      <c r="U98">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>355</v>
+      </c>
+      <c r="B99" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="T99">
         <v>546312435</v>
       </c>
-      <c r="U80">
+      <c r="U99">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A8C86-7E39-4B26-987C-68C66167177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8008C090-4D7D-4F7C-8643-9E385ACE5321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1418" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="430">
   <si>
     <t>full_name</t>
   </si>
@@ -1296,6 +1296,36 @@
   </si>
   <si>
     <t>Rose Bermpong</t>
+  </si>
+  <si>
+    <t>Edward Mintah</t>
+  </si>
+  <si>
+    <t>Elizabeth Asamoah Larbi</t>
+  </si>
+  <si>
+    <t>Mildred Arkoh</t>
+  </si>
+  <si>
+    <t>George Yeboah</t>
+  </si>
+  <si>
+    <t>AGMS</t>
+  </si>
+  <si>
+    <t>Julia Yeboah</t>
+  </si>
+  <si>
+    <t>Emmanuel Pensah</t>
+  </si>
+  <si>
+    <t>Leticia Mensah</t>
+  </si>
+  <si>
+    <t>Dora Asamoah Larbi</t>
+  </si>
+  <si>
+    <t>Emmanuel Asamoah Larbi</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q12" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1717,84 +1747,72 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>43025</v>
+        <v>42207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="O2" t="s">
-        <v>358</v>
+        <v>427</v>
+      </c>
+      <c r="P2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
       <c r="T2">
-        <v>542199592</v>
+        <v>243774692</v>
       </c>
       <c r="U2">
-        <v>595947343</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>361</v>
-      </c>
-      <c r="M3" t="s">
-        <v>362</v>
-      </c>
       <c r="N3" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="O3" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="P3" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="Q3" t="s">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
@@ -1803,54 +1821,39 @@
         <v>26</v>
       </c>
       <c r="T3">
-        <v>532461394</v>
+        <v>243774692</v>
       </c>
       <c r="U3">
-        <v>548850124</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>43594</v>
+        <v>42989</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
       <c r="N4" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="O4" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="P4" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -1859,186 +1862,30 @@
         <v>26</v>
       </c>
       <c r="T4">
-        <v>532461394</v>
+        <v>243774692</v>
       </c>
       <c r="U4">
-        <v>548850124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43788</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5">
-        <v>245449031</v>
-      </c>
-      <c r="U5">
-        <v>545891190</v>
-      </c>
-      <c r="V5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42898</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>374</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>375</v>
-      </c>
-      <c r="O6" t="s">
-        <v>376</v>
-      </c>
-      <c r="P6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6">
-        <v>249768747</v>
-      </c>
-      <c r="U6">
-        <v>245716161</v>
-      </c>
-      <c r="V6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43408</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>380</v>
-      </c>
-      <c r="O7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>381</v>
-      </c>
-      <c r="R7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7">
-        <v>248076761</v>
-      </c>
-      <c r="U7">
-        <v>551424325</v>
-      </c>
-      <c r="V7" t="s">
-        <v>382</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>43518</v>
+        <v>42363</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>384</v>
+      <c r="F8" t="s">
+        <v>424</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -2046,14 +1893,17 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
       <c r="N8" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="O8" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P8" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="Q8" t="s">
         <v>109</v>
@@ -2065,33 +1915,33 @@
         <v>26</v>
       </c>
       <c r="T8">
-        <v>249245434</v>
+        <v>545350088</v>
       </c>
       <c r="U8">
-        <v>558204488</v>
+        <v>246956426</v>
       </c>
       <c r="V8" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>42467</v>
+        <v>36558</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -2099,17 +1949,20 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="O9" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P9" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q9" t="s">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="R9" t="s">
         <v>26</v>
@@ -2118,48 +1971,54 @@
         <v>26</v>
       </c>
       <c r="T9">
-        <v>247412669</v>
+        <v>545350088</v>
       </c>
       <c r="U9">
-        <v>245649230</v>
+        <v>246956426</v>
+      </c>
+      <c r="V9" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>44295</v>
+        <v>36558</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>368</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
       <c r="N10" t="s">
-        <v>390</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="P10" t="s">
-        <v>392</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
@@ -2168,95 +2027,92 @@
         <v>26</v>
       </c>
       <c r="T10">
-        <v>247412669</v>
+        <v>549821786</v>
       </c>
       <c r="U10">
-        <v>245649230</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>42738</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N11" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="O11" t="s">
-        <v>397</v>
-      </c>
-      <c r="P11" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>109</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11">
-        <v>545350088</v>
+        <v>542199592</v>
       </c>
       <c r="U11">
-        <v>246956426</v>
-      </c>
-      <c r="V11" t="s">
-        <v>399</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1">
-        <v>43644</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" t="s">
+        <v>360</v>
+      </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>361</v>
+      </c>
+      <c r="M12" t="s">
+        <v>362</v>
+      </c>
+      <c r="N12" t="s">
+        <v>364</v>
       </c>
       <c r="O12" t="s">
-        <v>401</v>
+        <v>363</v>
+      </c>
+      <c r="P12" t="s">
+        <v>315</v>
       </c>
       <c r="Q12" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
@@ -2265,74 +2121,107 @@
         <v>26</v>
       </c>
       <c r="T12">
-        <v>241656149</v>
+        <v>532461394</v>
       </c>
       <c r="U12">
-        <v>241656149</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>42581</v>
+        <v>43594</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
+      <c r="F13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" t="s">
+        <v>259</v>
+      </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
+      <c r="N13" t="s">
+        <v>364</v>
+      </c>
+      <c r="O13" t="s">
+        <v>363</v>
+      </c>
+      <c r="P13" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>365</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
       <c r="T13">
-        <v>533254698</v>
+        <v>532461394</v>
       </c>
       <c r="U13">
-        <v>546589599</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>42617</v>
+        <v>43788</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
+      <c r="F14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
+      <c r="N14" t="s">
+        <v>369</v>
       </c>
       <c r="O14" t="s">
-        <v>401</v>
+        <v>370</v>
+      </c>
+      <c r="P14" t="s">
+        <v>371</v>
       </c>
       <c r="Q14" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
@@ -2341,24 +2230,27 @@
         <v>26</v>
       </c>
       <c r="T14">
-        <v>241656149</v>
+        <v>245449031</v>
       </c>
       <c r="U14">
-        <v>241656149</v>
+        <v>545891190</v>
+      </c>
+      <c r="V14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>44968</v>
+        <v>42898</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -2367,22 +2259,25 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>374</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="O15" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="P15" t="s">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="Q15" t="s">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="R15" t="s">
         <v>26</v>
@@ -2391,48 +2286,42 @@
         <v>26</v>
       </c>
       <c r="T15">
-        <v>543469945</v>
+        <v>249768747</v>
       </c>
       <c r="U15">
-        <v>532807776</v>
+        <v>245716161</v>
+      </c>
+      <c r="V15" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>44351</v>
+        <v>43408</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
       <c r="N16" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="O16" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2441,45 +2330,48 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>248754494</v>
+        <v>248076761</v>
       </c>
       <c r="U16">
-        <v>593082381</v>
+        <v>551424325</v>
+      </c>
+      <c r="V16" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
-        <v>44238</v>
+        <v>43518</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
+      <c r="G17" t="s">
+        <v>384</v>
+      </c>
       <c r="H17" t="s">
         <v>37</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
       <c r="N17" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>386</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="Q17" t="s">
         <v>109</v>
@@ -2491,54 +2383,51 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>245077487</v>
+        <v>249245434</v>
       </c>
       <c r="U17">
-        <v>543161188</v>
+        <v>558204488</v>
       </c>
       <c r="V17" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>41372</v>
+        <v>42467</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
+      <c r="F18" t="s">
+        <v>368</v>
+      </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
       <c r="N18" t="s">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="O18" t="s">
-        <v>290</v>
+        <v>391</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>392</v>
       </c>
       <c r="Q18" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
@@ -2547,15 +2436,15 @@
         <v>26</v>
       </c>
       <c r="T18">
-        <v>243043900</v>
+        <v>247412669</v>
       </c>
       <c r="U18">
-        <v>549370765</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
         <v>269</v>
@@ -2564,28 +2453,31 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>44084</v>
+        <v>44295</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
+      <c r="F19" t="s">
+        <v>368</v>
+      </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="O19" t="s">
-        <v>419</v>
+        <v>391</v>
+      </c>
+      <c r="P19" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>393</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -2594,93 +2486,157 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>256596282</v>
+        <v>247412669</v>
       </c>
       <c r="U19">
-        <v>556006080</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D20" s="1"/>
+      <c r="A20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42738</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>396</v>
+      </c>
+      <c r="O20" t="s">
+        <v>397</v>
+      </c>
+      <c r="P20" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20">
+        <v>545350088</v>
+      </c>
+      <c r="U20">
+        <v>246956426</v>
+      </c>
+      <c r="V20" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D21" s="1"/>
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43644</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>402</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21">
+        <v>241656149</v>
+      </c>
+      <c r="U21">
+        <v>241656149</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>42581</v>
+      </c>
+      <c r="E22" t="s">
         <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22" s="3">
-        <v>249891601</v>
+      <c r="T22">
+        <v>533254698</v>
       </c>
       <c r="U22">
-        <v>5414805333</v>
-      </c>
-      <c r="V22" t="s">
-        <v>28</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>44782</v>
+        <v>42617</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
       <c r="H23" t="s">
         <v>37</v>
       </c>
@@ -2690,17 +2646,11 @@
       <c r="K23" t="s">
         <v>21</v>
       </c>
-      <c r="N23" t="s">
-        <v>38</v>
-      </c>
       <c r="O23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" t="s">
-        <v>40</v>
+        <v>401</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
@@ -2709,15 +2659,15 @@
         <v>26</v>
       </c>
       <c r="T23">
-        <v>554885693</v>
+        <v>241656149</v>
       </c>
       <c r="U23">
-        <v>542738888</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
@@ -2726,16 +2676,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>44922</v>
+        <v>44968</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2744,16 +2691,16 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>43</v>
+        <v>406</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>408</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2762,39 +2709,30 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>243081535</v>
+        <v>543469945</v>
       </c>
       <c r="U24">
-        <v>544479394</v>
-      </c>
-      <c r="V24" t="s">
-        <v>47</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>44691</v>
+        <v>44351</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2803,16 +2741,16 @@
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>411</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>46</v>
+        <v>412</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
@@ -2821,31 +2759,28 @@
         <v>26</v>
       </c>
       <c r="T25">
-        <v>543719591</v>
+        <v>248754494</v>
       </c>
       <c r="U25">
-        <v>541484405</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>45040</v>
+        <v>44238</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
       <c r="H26" t="s">
         <v>37</v>
       </c>
@@ -2853,25 +2788,19 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
+        <v>414</v>
       </c>
       <c r="O26" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="P26" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2880,57 +2809,54 @@
         <v>26</v>
       </c>
       <c r="T26">
-        <v>548697421</v>
+        <v>245077487</v>
       </c>
       <c r="U26">
-        <v>549328229</v>
+        <v>543161188</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>45037</v>
+        <v>41372</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
+      <c r="J27" t="s">
+        <v>169</v>
+      </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2939,54 +2865,45 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>554246016</v>
+        <v>243043900</v>
       </c>
       <c r="U27">
-        <v>541473757</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>43551</v>
+        <v>44084</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>417</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="N28" t="s">
-        <v>68</v>
+        <v>418</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2995,36 +2912,33 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>203218292</v>
+        <v>256596282</v>
       </c>
       <c r="U28">
-        <v>546407893</v>
-      </c>
-      <c r="V28" t="s">
-        <v>71</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
-        <v>43536</v>
+        <v>36558</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="G29" t="s">
-        <v>30</v>
+      <c r="F29" t="s">
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -3033,16 +2947,10 @@
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -3051,33 +2959,33 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>544622299</v>
+        <v>543784758</v>
       </c>
       <c r="U29">
-        <v>241651317</v>
+        <v>243307643</v>
+      </c>
+      <c r="V29" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>43486</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
+        <v>44852</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
@@ -3085,20 +2993,17 @@
       <c r="K30" t="s">
         <v>21</v>
       </c>
-      <c r="M30" t="s">
-        <v>78</v>
-      </c>
       <c r="N30" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="P30" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -3106,37 +3011,40 @@
       <c r="S30" t="s">
         <v>26</v>
       </c>
-      <c r="T30">
-        <v>241861382</v>
+      <c r="T30" s="3">
+        <v>249891601</v>
       </c>
       <c r="U30">
-        <v>547944747</v>
+        <v>5414805333</v>
       </c>
       <c r="V30" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>43214</v>
+        <v>44782</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -3145,13 +3053,16 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>41</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3160,31 +3071,31 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>540750428</v>
+        <v>554885693</v>
       </c>
       <c r="U31">
-        <v>240127525</v>
-      </c>
-      <c r="V31" t="s">
-        <v>89</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>44390</v>
+        <v>44922</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
@@ -3195,16 +3106,16 @@
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="Q32" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -3213,33 +3124,39 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>248450590</v>
+        <v>243081535</v>
       </c>
       <c r="U32">
-        <v>548086355</v>
+        <v>544479394</v>
+      </c>
+      <c r="V32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>43582</v>
+        <v>44691</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
         <v>21</v>
@@ -3248,10 +3165,16 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="P33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>46</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -3260,48 +3183,57 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>542776117</v>
+        <v>543719591</v>
       </c>
       <c r="U33">
-        <v>556780997</v>
-      </c>
-      <c r="V33" t="s">
-        <v>99</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>42977</v>
+        <v>45040</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" t="s">
+        <v>56</v>
       </c>
       <c r="N34" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>58</v>
+      </c>
+      <c r="P34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>60</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3310,33 +3242,39 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>246469841</v>
+        <v>548697421</v>
       </c>
       <c r="U34">
-        <v>244502858</v>
+        <v>549328229</v>
       </c>
       <c r="V34" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>44057</v>
+        <v>45037</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -3345,16 +3283,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="Q35" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3363,33 +3301,30 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>246645496</v>
+        <v>554246016</v>
       </c>
       <c r="U35">
-        <v>240778774</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1">
-        <v>41923</v>
+        <v>43551</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
         <v>37</v>
@@ -3398,16 +3333,19 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
+        <v>69</v>
+      </c>
+      <c r="P36" t="s">
+        <v>70</v>
       </c>
       <c r="Q36" t="s">
         <v>32</v>
@@ -3419,30 +3357,36 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>248675358</v>
+        <v>203218292</v>
       </c>
       <c r="U36">
-        <v>247790941</v>
+        <v>546407893</v>
+      </c>
+      <c r="V36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>44796</v>
+        <v>43536</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -3451,16 +3395,16 @@
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="O37" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3469,33 +3413,33 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>599634556</v>
+        <v>544622299</v>
       </c>
       <c r="U37">
-        <v>535220641</v>
-      </c>
-      <c r="V37" t="s">
-        <v>120</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>265</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
       </c>
       <c r="D38" s="1">
-        <v>44890</v>
+        <v>43486</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -3503,17 +3447,20 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
+      <c r="M38" t="s">
+        <v>78</v>
+      </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="O38" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="P38" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q38" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3522,54 +3469,51 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>245864268</v>
+        <v>241861382</v>
       </c>
       <c r="U38">
-        <v>247823594</v>
+        <v>547944747</v>
       </c>
       <c r="V38" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>43652</v>
+        <v>43214</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="O39" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3578,27 +3522,27 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>543279537</v>
+        <v>540750428</v>
       </c>
       <c r="U39">
-        <v>241208687</v>
+        <v>240127525</v>
       </c>
       <c r="V39" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>42673</v>
+        <v>44390</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -3613,7 +3557,16 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>136</v>
+        <v>91</v>
+      </c>
+      <c r="O40" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>94</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3622,39 +3575,45 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>244423888</v>
+        <v>248450590</v>
+      </c>
+      <c r="U40">
+        <v>548086355</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>42691</v>
+        <v>43582</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
+      <c r="G41" t="s">
+        <v>96</v>
+      </c>
       <c r="H41" t="s">
         <v>37</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
       </c>
+      <c r="N41" t="s">
+        <v>97</v>
+      </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3663,33 +3622,36 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>245077487</v>
+        <v>542776117</v>
+      </c>
+      <c r="U41">
+        <v>556780997</v>
       </c>
       <c r="V41" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
         <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="2">
-        <v>42832</v>
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42977</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -3698,13 +3660,10 @@
         <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="O42" t="s">
-        <v>144</v>
-      </c>
-      <c r="P42" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3713,27 +3672,27 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>245766735</v>
+        <v>246469841</v>
       </c>
       <c r="U42">
-        <v>245702914</v>
+        <v>244502858</v>
       </c>
       <c r="V42" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>42202</v>
+        <v>44057</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
@@ -3742,19 +3701,22 @@
         <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
-      </c>
-      <c r="J43" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="O43" t="s">
-        <v>151</v>
+        <v>107</v>
+      </c>
+      <c r="P43" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>109</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3763,18 +3725,15 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>248178775</v>
+        <v>246645496</v>
       </c>
       <c r="U43">
-        <v>550234225</v>
-      </c>
-      <c r="V43" t="s">
-        <v>152</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
         <v>267</v>
@@ -3783,13 +3742,16 @@
         <v>34</v>
       </c>
       <c r="D44" s="1">
-        <v>42695</v>
+        <v>41923</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H44" t="s">
         <v>37</v>
@@ -3798,20 +3760,20 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>113</v>
       </c>
       <c r="N44" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="O44" t="s">
-        <v>155</v>
-      </c>
-      <c r="P44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q44" t="s">
         <v>32</v>
       </c>
-      <c r="Q44" t="s">
-        <v>109</v>
-      </c>
       <c r="R44" t="s">
         <v>26</v>
       </c>
@@ -3819,34 +3781,28 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>245424585</v>
+        <v>248675358</v>
       </c>
       <c r="U44">
-        <v>247566924</v>
-      </c>
-      <c r="V44" t="s">
-        <v>156</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>41794</v>
+        <v>44796</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
-      <c r="G45" t="s">
-        <v>112</v>
-      </c>
       <c r="H45" t="s">
         <v>37</v>
       </c>
@@ -3857,16 +3813,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="O45" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="Q45" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3875,33 +3831,33 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>245980902</v>
+        <v>599634556</v>
       </c>
       <c r="U45">
-        <v>245272449</v>
+        <v>535220641</v>
       </c>
       <c r="V45" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
+        <v>263</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>43093</v>
+        <v>44890</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="H46" t="s">
-        <v>37</v>
+      <c r="G46" t="s">
+        <v>122</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3910,16 +3866,16 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="O46" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Q46" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3928,48 +3884,54 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>245980902</v>
+        <v>245864268</v>
       </c>
       <c r="U46">
-        <v>245272449</v>
+        <v>247823594</v>
       </c>
       <c r="V46" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>43165</v>
+        <v>43652</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
-      <c r="F47" t="s">
-        <v>164</v>
-      </c>
       <c r="H47" t="s">
         <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J47" t="s">
+        <v>127</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="O47" t="s">
-        <v>166</v>
+        <v>129</v>
+      </c>
+      <c r="P47" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>131</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3978,51 +3940,42 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>543784758</v>
+        <v>543279537</v>
       </c>
       <c r="U47">
-        <v>243307643</v>
+        <v>241208687</v>
       </c>
       <c r="V47" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>42564</v>
+        <v>42673</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="F48" t="s">
-        <v>164</v>
-      </c>
       <c r="H48" t="s">
         <v>37</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
-      <c r="J48" t="s">
-        <v>169</v>
-      </c>
       <c r="K48" t="s">
         <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>165</v>
-      </c>
-      <c r="O48" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -4031,54 +3984,39 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>543784758</v>
-      </c>
-      <c r="U48">
-        <v>243307643</v>
-      </c>
-      <c r="V48" t="s">
-        <v>167</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>43499</v>
+        <v>42691</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
-        <v>171</v>
-      </c>
       <c r="H49" t="s">
         <v>37</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>138</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
       </c>
-      <c r="N49" t="s">
-        <v>172</v>
-      </c>
       <c r="O49" t="s">
-        <v>173</v>
-      </c>
-      <c r="P49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4087,18 +4025,15 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>595670927</v>
-      </c>
-      <c r="U49">
-        <v>553491903</v>
+        <v>245077487</v>
       </c>
       <c r="V49" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
         <v>267</v>
@@ -4106,14 +4041,14 @@
       <c r="C50" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="1">
-        <v>42289</v>
+      <c r="D50" s="2">
+        <v>42832</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H50" t="s">
         <v>37</v>
@@ -4125,16 +4060,13 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="O50" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4143,27 +4075,27 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>547068449</v>
+        <v>245766735</v>
       </c>
       <c r="U50">
-        <v>547068449</v>
+        <v>245702914</v>
       </c>
       <c r="V50" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1">
-        <v>42839</v>
+        <v>42202</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -4172,16 +4104,19 @@
         <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J51" t="s">
+        <v>148</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O51" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4190,63 +4125,54 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>244730682</v>
+        <v>248178775</v>
       </c>
       <c r="U51">
-        <v>249341294</v>
+        <v>550234225</v>
       </c>
       <c r="V51" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1">
-        <v>44495</v>
+        <v>42695</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
-      <c r="F52" t="s">
-        <v>185</v>
-      </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H52" t="s">
         <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="O52" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q52" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4255,60 +4181,54 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>532416380</v>
+        <v>245424585</v>
       </c>
       <c r="U52">
-        <v>543108512</v>
+        <v>247566924</v>
       </c>
       <c r="V52" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>43950</v>
+        <v>41794</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
-      <c r="F53" t="s">
-        <v>193</v>
-      </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H53" t="s">
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
-      </c>
-      <c r="J53" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="O53" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="Q53" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4317,27 +4237,27 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>597661016</v>
+        <v>245980902</v>
       </c>
       <c r="U53">
-        <v>501213049</v>
+        <v>245272449</v>
       </c>
       <c r="V53" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>44383</v>
+        <v>43093</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -4352,16 +4272,16 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O54" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="P54" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4370,36 +4290,33 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>595670927</v>
+        <v>245980902</v>
       </c>
       <c r="U54">
-        <v>553491903</v>
+        <v>245272449</v>
       </c>
       <c r="V54" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>43524</v>
+        <v>43165</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>204</v>
-      </c>
-      <c r="G55" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="H55" t="s">
         <v>37</v>
@@ -4411,16 +4328,10 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="O55" t="s">
-        <v>206</v>
-      </c>
-      <c r="P55" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4429,33 +4340,33 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>244678226</v>
+        <v>543784758</v>
       </c>
       <c r="U55">
-        <v>208455305</v>
+        <v>243307643</v>
       </c>
       <c r="V55" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>44364</v>
+        <v>42564</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="G56" t="s">
-        <v>122</v>
+      <c r="F56" t="s">
+        <v>164</v>
       </c>
       <c r="H56" t="s">
         <v>37</v>
@@ -4463,20 +4374,17 @@
       <c r="I56" t="s">
         <v>21</v>
       </c>
+      <c r="J56" t="s">
+        <v>169</v>
+      </c>
       <c r="K56" t="s">
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="O56" t="s">
-        <v>211</v>
-      </c>
-      <c r="P56" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4485,33 +4393,33 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>243352028</v>
+        <v>543784758</v>
       </c>
       <c r="U56">
-        <v>243088742</v>
+        <v>243307643</v>
       </c>
       <c r="V56" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>44627</v>
+        <v>43499</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="G57" t="s">
-        <v>122</v>
+      <c r="F57" t="s">
+        <v>171</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
@@ -4519,20 +4427,20 @@
       <c r="I57" t="s">
         <v>21</v>
       </c>
-      <c r="M57" t="s">
-        <v>216</v>
+      <c r="K57" t="s">
+        <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="P57" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q57" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4541,33 +4449,33 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>241861382</v>
+        <v>595670927</v>
       </c>
       <c r="U57">
-        <v>547944747</v>
+        <v>553491903</v>
       </c>
       <c r="V57" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>44430</v>
+        <v>42289</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
@@ -4579,16 +4487,16 @@
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="O58" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="P58" t="s">
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4597,54 +4505,45 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>555101040</v>
+        <v>547068449</v>
       </c>
       <c r="U58">
-        <v>537150359</v>
+        <v>547068449</v>
       </c>
       <c r="V58" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>43839</v>
+        <v>42839</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="F59" t="s">
-        <v>223</v>
-      </c>
-      <c r="G59" t="s">
-        <v>96</v>
-      </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="O59" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4653,54 +4552,63 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>554845413</v>
+        <v>244730682</v>
       </c>
       <c r="U59">
-        <v>256786281</v>
+        <v>249341294</v>
       </c>
       <c r="V59" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
         <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1">
-        <v>44661</v>
+        <v>44495</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
+      <c r="F60" t="s">
+        <v>185</v>
+      </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H60" t="s">
         <v>37</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J60" t="s">
+        <v>186</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L60" t="s">
+        <v>187</v>
       </c>
       <c r="N60" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O60" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4709,48 +4617,60 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>245424585</v>
+        <v>532416380</v>
       </c>
       <c r="U60">
-        <v>247566924</v>
+        <v>543108512</v>
       </c>
       <c r="V60" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="1">
-        <v>44459</v>
+        <v>43950</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
+      <c r="F61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J61" t="s">
+        <v>194</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="O61" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>197</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>198</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4759,27 +4679,27 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>244446781</v>
+        <v>597661016</v>
       </c>
       <c r="U61">
-        <v>249251741</v>
+        <v>501213049</v>
       </c>
       <c r="V61" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>44414</v>
+        <v>44383</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
@@ -4794,16 +4714,16 @@
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="O62" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Q62" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4812,33 +4732,36 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>246364382</v>
+        <v>595670927</v>
       </c>
       <c r="U62">
-        <v>242830458</v>
+        <v>553491903</v>
       </c>
       <c r="V62" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>45025</v>
+        <v>43524</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
+      <c r="F63" t="s">
+        <v>204</v>
+      </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H63" t="s">
         <v>37</v>
@@ -4846,23 +4769,20 @@
       <c r="I63" t="s">
         <v>21</v>
       </c>
-      <c r="J63" t="s">
-        <v>169</v>
-      </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="O63" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="Q63" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4871,15 +4791,18 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>245902055</v>
+        <v>244678226</v>
       </c>
       <c r="U63">
-        <v>557566068</v>
+        <v>208455305</v>
+      </c>
+      <c r="V63" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
         <v>269</v>
@@ -4888,37 +4811,34 @@
         <v>34</v>
       </c>
       <c r="D64" s="1">
-        <v>43792</v>
+        <v>44364</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="F64" t="s">
-        <v>244</v>
+      <c r="G64" t="s">
+        <v>122</v>
       </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
         <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="O64" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="P64" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4927,57 +4847,54 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>538984324</v>
+        <v>243352028</v>
       </c>
       <c r="U64">
-        <v>531766425</v>
+        <v>243088742</v>
       </c>
       <c r="V64" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>43785</v>
+        <v>44627</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
-      <c r="F65" t="s">
-        <v>250</v>
-      </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
       </c>
-      <c r="K65" t="s">
-        <v>21</v>
+      <c r="M65" t="s">
+        <v>216</v>
       </c>
       <c r="N65" t="s">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="O65" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4986,24 +4903,27 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>549821786</v>
+        <v>241861382</v>
       </c>
       <c r="U65">
-        <v>256242568</v>
+        <v>547944747</v>
+      </c>
+      <c r="V65" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="1">
-        <v>44687</v>
+        <v>44430</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
@@ -5012,7 +4932,7 @@
         <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
@@ -5021,10 +4941,16 @@
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="O66" t="s">
-        <v>256</v>
+        <v>220</v>
+      </c>
+      <c r="P66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>221</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -5033,36 +4959,36 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>247633503</v>
+        <v>555101040</v>
       </c>
       <c r="U66">
-        <v>241690416</v>
+        <v>537150359</v>
       </c>
       <c r="V66" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>42797</v>
+        <v>43839</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
         <v>21</v>
@@ -5071,22 +4997,16 @@
         <v>37</v>
       </c>
       <c r="J67" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O67" t="s">
-        <v>247</v>
-      </c>
-      <c r="P67" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -5095,27 +5015,27 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>538984324</v>
+        <v>554845413</v>
       </c>
       <c r="U67">
-        <v>531766425</v>
+        <v>256786281</v>
       </c>
       <c r="V67" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
         <v>263</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>44663</v>
+        <v>44661</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
@@ -5124,22 +5044,22 @@
         <v>96</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I68" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="O68" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="P68" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Q68" t="s">
         <v>25</v>
@@ -5151,60 +5071,48 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>538984324</v>
+        <v>245424585</v>
       </c>
       <c r="U68">
-        <v>531766425</v>
+        <v>247566924</v>
       </c>
       <c r="V68" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>42239</v>
+        <v>44459</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
-      <c r="F69" t="s">
-        <v>272</v>
-      </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>37</v>
-      </c>
-      <c r="L69" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="O69" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="P69" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5213,51 +5121,51 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>549605899</v>
+        <v>244446781</v>
       </c>
       <c r="U69">
-        <v>534014247</v>
+        <v>249251741</v>
+      </c>
+      <c r="V69" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1">
-        <v>43231</v>
+        <v>44414</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
         <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="O70" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="P70" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="Q70" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5266,54 +5174,57 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>244077227</v>
+        <v>246364382</v>
       </c>
       <c r="U70">
-        <v>245173168</v>
+        <v>242830458</v>
+      </c>
+      <c r="V70" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>42088</v>
+        <v>45025</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
+      <c r="G71" t="s">
+        <v>122</v>
+      </c>
       <c r="H71" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="K71" t="s">
-        <v>101</v>
-      </c>
-      <c r="L71" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="O71" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="Q71" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5322,54 +5233,54 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>207900244</v>
+        <v>245902055</v>
       </c>
       <c r="U71">
-        <v>599397215</v>
-      </c>
-      <c r="V71" t="s">
-        <v>284</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>43085</v>
+        <v>43792</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
+      <c r="F72" t="s">
+        <v>244</v>
+      </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="K72" t="s">
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="O72" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="P72" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -5378,48 +5289,57 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>243043900</v>
+        <v>538984324</v>
       </c>
       <c r="U72">
-        <v>549370765</v>
+        <v>531766425</v>
+      </c>
+      <c r="V72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>43108</v>
+        <v>43785</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
+      <c r="F73" t="s">
+        <v>250</v>
+      </c>
+      <c r="G73" t="s">
+        <v>133</v>
+      </c>
       <c r="H73" t="s">
         <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="O73" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="P73" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="Q73" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5428,51 +5348,45 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>533254698</v>
+        <v>549821786</v>
       </c>
       <c r="U73">
-        <v>546589599</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>43310</v>
+        <v>44687</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
-      <c r="F74" t="s">
-        <v>111</v>
+      <c r="G74" t="s">
+        <v>96</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I74" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O74" t="s">
-        <v>297</v>
-      </c>
-      <c r="P74" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5481,31 +5395,37 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>249220522</v>
+        <v>247633503</v>
       </c>
       <c r="U74">
-        <v>241246842</v>
+        <v>241690416</v>
       </c>
       <c r="V74" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>43170</v>
+        <v>42797</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
+      <c r="F75" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" t="s">
+        <v>259</v>
+      </c>
       <c r="H75" t="s">
         <v>21</v>
       </c>
@@ -5513,22 +5433,22 @@
         <v>37</v>
       </c>
       <c r="J75" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="O75" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="P75" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Q75" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5537,48 +5457,51 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>246861527</v>
+        <v>538984324</v>
       </c>
       <c r="U75">
-        <v>558286552</v>
+        <v>531766425</v>
+      </c>
+      <c r="V75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
-        <v>43452</v>
+        <v>44663</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
       <c r="H76" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
-      </c>
-      <c r="J76" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="O76" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Q76" t="s">
         <v>25</v>
@@ -5590,18 +5513,18 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>246532233</v>
+        <v>538984324</v>
       </c>
       <c r="U76">
-        <v>247792191</v>
+        <v>531766425</v>
       </c>
       <c r="V76" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
         <v>265</v>
@@ -5610,28 +5533,37 @@
         <v>34</v>
       </c>
       <c r="D77" s="1">
-        <v>43118</v>
+        <v>42239</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
+      <c r="F77" t="s">
+        <v>272</v>
+      </c>
       <c r="H77" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J77" t="s">
+        <v>279</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L77" t="s">
+        <v>273</v>
       </c>
       <c r="N77" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="O77" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="P77" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="Q77" t="s">
         <v>109</v>
@@ -5643,18 +5575,15 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>246951455</v>
+        <v>549605899</v>
       </c>
       <c r="U77">
-        <v>242684572</v>
-      </c>
-      <c r="V77" t="s">
-        <v>310</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
         <v>265</v>
@@ -5663,31 +5592,34 @@
         <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>43008</v>
+        <v>43231</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
-      <c r="F78" t="s">
-        <v>312</v>
-      </c>
       <c r="H78" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s">
+        <v>138</v>
+      </c>
+      <c r="K78" t="s">
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O78" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="P78" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5696,51 +5628,54 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>246951455</v>
+        <v>244077227</v>
       </c>
       <c r="U78">
-        <v>242684572</v>
-      </c>
-      <c r="V78" t="s">
-        <v>310</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>44912</v>
+        <v>42088</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
-      <c r="F79" t="s">
-        <v>312</v>
-      </c>
       <c r="H79" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J79" t="s">
+        <v>138</v>
+      </c>
+      <c r="K79" t="s">
+        <v>101</v>
+      </c>
+      <c r="L79" t="s">
+        <v>280</v>
       </c>
       <c r="N79" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="O79" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="P79" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5749,54 +5684,54 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>246951455</v>
+        <v>207900244</v>
       </c>
       <c r="U79">
-        <v>242684572</v>
+        <v>599397215</v>
       </c>
       <c r="V79" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>42540</v>
+        <v>43085</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
-      <c r="F80" t="s">
-        <v>319</v>
-      </c>
       <c r="H80" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
         <v>21</v>
       </c>
+      <c r="J80" t="s">
+        <v>169</v>
+      </c>
       <c r="K80" t="s">
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="O80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="P80" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="Q80" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5805,51 +5740,48 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>549223419</v>
+        <v>243043900</v>
       </c>
       <c r="U80">
-        <v>547981198</v>
-      </c>
-      <c r="V80" t="s">
-        <v>322</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="1">
-        <v>44839</v>
+        <v>43108</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O81" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P81" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="Q81" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5858,51 +5790,51 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>249220522</v>
+        <v>533254698</v>
       </c>
       <c r="U81">
-        <v>241246842</v>
-      </c>
-      <c r="V81" t="s">
-        <v>324</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="1">
-        <v>43831</v>
+        <v>43310</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
       <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s">
         <v>149</v>
       </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="O82" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="P82" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Q82" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5911,57 +5843,54 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>248076761</v>
+        <v>249220522</v>
       </c>
       <c r="U82">
-        <v>551424325</v>
+        <v>241246842</v>
       </c>
       <c r="V82" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>44017</v>
+        <v>43170</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
-      <c r="F83" t="s">
-        <v>63</v>
-      </c>
       <c r="H83" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
         <v>37</v>
       </c>
       <c r="J83" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="O83" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="Q83" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5970,36 +5899,51 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>244446781</v>
+        <v>246861527</v>
       </c>
       <c r="U83">
-        <v>249251741</v>
-      </c>
-      <c r="V83" t="s">
-        <v>334</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
-        <v>43774</v>
+        <v>43452</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" t="s">
+        <v>149</v>
+      </c>
       <c r="N84" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="O84" t="s">
-        <v>337</v>
+        <v>305</v>
+      </c>
+      <c r="P84" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>25</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -6008,45 +5952,51 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>242715514</v>
+        <v>246532233</v>
       </c>
       <c r="U84">
-        <v>553488520</v>
+        <v>247792191</v>
+      </c>
+      <c r="V84" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="1">
-        <v>44112</v>
+        <v>43118</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
-      <c r="F85" t="s">
-        <v>319</v>
-      </c>
       <c r="H85" t="s">
         <v>37</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
       </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
       <c r="N85" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O85" t="s">
-        <v>340</v>
+        <v>314</v>
+      </c>
+      <c r="P85" t="s">
+        <v>309</v>
       </c>
       <c r="Q85" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -6055,28 +6005,52 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>552503776</v>
+        <v>246951455</v>
       </c>
       <c r="U85">
-        <v>246922004</v>
+        <v>242684572</v>
+      </c>
+      <c r="V85" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="1">
-        <v>36558</v>
+        <v>43008</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
+      <c r="F86" t="s">
+        <v>312</v>
+      </c>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" t="s">
+        <v>313</v>
+      </c>
+      <c r="O86" t="s">
+        <v>314</v>
+      </c>
+      <c r="P86" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>25</v>
+      </c>
       <c r="R86" t="s">
         <v>26</v>
       </c>
@@ -6084,158 +6058,377 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>543357761</v>
+        <v>246951455</v>
       </c>
       <c r="U86">
-        <v>543357761</v>
+        <v>242684572</v>
+      </c>
+      <c r="V86" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D87" s="1">
-        <v>36558</v>
+        <v>44912</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s">
+        <v>312</v>
+      </c>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" t="s">
+        <v>313</v>
+      </c>
+      <c r="O87" t="s">
+        <v>314</v>
+      </c>
+      <c r="P87" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>25</v>
+      </c>
+      <c r="R87" t="s">
+        <v>26</v>
+      </c>
+      <c r="S87" t="s">
+        <v>26</v>
       </c>
       <c r="T87">
-        <v>530376302</v>
+        <v>246951455</v>
       </c>
       <c r="U87">
-        <v>530376302</v>
+        <v>242684572</v>
+      </c>
+      <c r="V87" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>36558</v>
+        <v>42540</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>319</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" t="s">
+        <v>320</v>
+      </c>
+      <c r="O88" t="s">
+        <v>321</v>
+      </c>
+      <c r="P88" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>146</v>
+      </c>
+      <c r="R88" t="s">
+        <v>26</v>
+      </c>
+      <c r="S88" t="s">
+        <v>26</v>
       </c>
       <c r="T88">
-        <v>559610656</v>
+        <v>549223419</v>
       </c>
       <c r="U88">
-        <v>559610656</v>
+        <v>547981198</v>
+      </c>
+      <c r="V88" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>36558</v>
+        <v>44839</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" t="s">
+        <v>296</v>
+      </c>
+      <c r="O89" t="s">
+        <v>297</v>
+      </c>
+      <c r="P89" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>109</v>
+      </c>
+      <c r="R89" t="s">
+        <v>26</v>
+      </c>
+      <c r="S89" t="s">
+        <v>26</v>
       </c>
       <c r="T89">
-        <v>540901838</v>
+        <v>249220522</v>
       </c>
       <c r="U89">
-        <v>540901838</v>
+        <v>241246842</v>
+      </c>
+      <c r="V89" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>36558</v>
+        <v>43831</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>149</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" t="s">
+        <v>326</v>
+      </c>
+      <c r="O90" t="s">
+        <v>327</v>
+      </c>
+      <c r="P90" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>328</v>
+      </c>
+      <c r="R90" t="s">
+        <v>26</v>
+      </c>
+      <c r="S90" t="s">
+        <v>26</v>
       </c>
       <c r="T90">
-        <v>554246016</v>
+        <v>248076761</v>
       </c>
       <c r="U90">
-        <v>541473757</v>
+        <v>551424325</v>
+      </c>
+      <c r="V90" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>36558</v>
+        <v>44017</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" t="s">
+        <v>331</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" t="s">
+        <v>231</v>
+      </c>
+      <c r="O91" t="s">
+        <v>332</v>
+      </c>
+      <c r="P91" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>333</v>
+      </c>
+      <c r="R91" t="s">
+        <v>26</v>
+      </c>
+      <c r="S91" t="s">
+        <v>26</v>
       </c>
       <c r="T91">
-        <v>256503657</v>
+        <v>244446781</v>
       </c>
       <c r="U91">
-        <v>256503657</v>
+        <v>249251741</v>
+      </c>
+      <c r="V91" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>36558</v>
+        <v>43774</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" t="s">
+        <v>336</v>
+      </c>
+      <c r="O92" t="s">
+        <v>337</v>
+      </c>
+      <c r="R92" t="s">
+        <v>26</v>
+      </c>
+      <c r="S92" t="s">
+        <v>26</v>
       </c>
       <c r="T92">
-        <v>240256100</v>
+        <v>242715514</v>
       </c>
       <c r="U92">
-        <v>240256100</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C93" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="1">
-        <v>36558</v>
+        <v>44112</v>
+      </c>
+      <c r="E93" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" t="s">
+        <v>319</v>
+      </c>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" t="s">
+        <v>339</v>
+      </c>
+      <c r="O93" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93" t="s">
+        <v>26</v>
+      </c>
+      <c r="S93" t="s">
+        <v>26</v>
       </c>
       <c r="T93">
-        <v>240256100</v>
+        <v>552503776</v>
       </c>
       <c r="U93">
-        <v>240256100</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
         <v>34</v>
@@ -6243,99 +6436,108 @@
       <c r="D94" s="1">
         <v>36558</v>
       </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="R94" t="s">
+        <v>26</v>
+      </c>
+      <c r="S94" t="s">
+        <v>26</v>
+      </c>
       <c r="T94">
-        <v>557544883</v>
+        <v>543357761</v>
       </c>
       <c r="U94">
-        <v>557544883</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1">
         <v>36558</v>
       </c>
       <c r="T95">
-        <v>540750426</v>
+        <v>530376302</v>
       </c>
       <c r="U95">
-        <v>540750426</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1">
         <v>36558</v>
       </c>
       <c r="T96">
-        <v>205669296</v>
+        <v>559610656</v>
       </c>
       <c r="U96">
-        <v>205669296</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D97" s="1">
         <v>36558</v>
       </c>
       <c r="T97">
-        <v>246898922</v>
+        <v>540901838</v>
       </c>
       <c r="U97">
-        <v>246898922</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B98" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D98" s="1">
         <v>36558</v>
       </c>
       <c r="T98">
-        <v>246898922</v>
+        <v>554246016</v>
       </c>
       <c r="U98">
-        <v>246898922</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
@@ -6343,13 +6545,173 @@
       <c r="D99" s="1">
         <v>36558</v>
       </c>
-      <c r="E99" t="s">
-        <v>26</v>
-      </c>
       <c r="T99">
+        <v>256503657</v>
+      </c>
+      <c r="U99">
+        <v>256503657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T100">
+        <v>240256100</v>
+      </c>
+      <c r="U100">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" t="s">
+        <v>318</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T101">
+        <v>240256100</v>
+      </c>
+      <c r="U101">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T102">
+        <v>557544883</v>
+      </c>
+      <c r="U102">
+        <v>557544883</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>350</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T103">
+        <v>540750426</v>
+      </c>
+      <c r="U103">
+        <v>540750426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T104">
+        <v>205669296</v>
+      </c>
+      <c r="U104">
+        <v>205669296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T105">
+        <v>246898922</v>
+      </c>
+      <c r="U105">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" t="s">
+        <v>354</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T106">
+        <v>246898922</v>
+      </c>
+      <c r="U106">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>355</v>
+      </c>
+      <c r="B107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="T107">
         <v>546312435</v>
       </c>
-      <c r="U99">
+      <c r="U107">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8008C090-4D7D-4F7C-8643-9E385ACE5321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C25A928-5139-4D6C-8717-59199C9C886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1418" windowWidth="17858" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1343" yWindow="1418" windowWidth="17857" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="436">
   <si>
     <t>full_name</t>
   </si>
@@ -1326,6 +1326,24 @@
   </si>
   <si>
     <t>Emmanuel Asamoah Larbi</t>
+  </si>
+  <si>
+    <t>Caleb Adjei Mensah</t>
+  </si>
+  <si>
+    <t>banku</t>
+  </si>
+  <si>
+    <t>Fred Adjei Mensah</t>
+  </si>
+  <si>
+    <t>Victoria Rockson</t>
+  </si>
+  <si>
+    <t>Business Man</t>
+  </si>
+  <si>
+    <t>Ghanaina</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1747,28 +1765,34 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
-        <v>42207</v>
+        <v>45537</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>431</v>
+      </c>
       <c r="N2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="Q2" t="s">
         <v>109</v>
@@ -1777,68 +1801,27 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="T2">
-        <v>243774692</v>
+        <v>554700135</v>
       </c>
       <c r="U2">
-        <v>243774692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44524</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>426</v>
-      </c>
-      <c r="O3" t="s">
-        <v>427</v>
-      </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3">
-        <v>243774692</v>
-      </c>
-      <c r="U3">
-        <v>243774692</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>42989</v>
+        <v>42207</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1868,139 +1851,109 @@
         <v>243774692</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44524</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" t="s">
+        <v>427</v>
+      </c>
+      <c r="P5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>243774692</v>
+      </c>
+      <c r="U5">
+        <v>243774692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
         <v>267</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1">
-        <v>42363</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>424</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>396</v>
-      </c>
-      <c r="O8" t="s">
-        <v>397</v>
-      </c>
-      <c r="P8" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="D6" s="1">
+        <v>42989</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" t="s">
+        <v>427</v>
+      </c>
+      <c r="P6" t="s">
         <v>109</v>
       </c>
-      <c r="R8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8">
-        <v>545350088</v>
-      </c>
-      <c r="U8">
-        <v>246956426</v>
-      </c>
-      <c r="V8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>424</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>396</v>
-      </c>
-      <c r="O9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P9" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="Q6" t="s">
         <v>109</v>
       </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9">
-        <v>545350088</v>
-      </c>
-      <c r="U9">
-        <v>246956426</v>
-      </c>
-      <c r="V9" t="s">
-        <v>399</v>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6">
+        <v>243774692</v>
+      </c>
+      <c r="U6">
+        <v>243774692</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
-        <v>36558</v>
+        <v>42363</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -2009,16 +1962,16 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="O10" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
@@ -2027,92 +1980,110 @@
         <v>26</v>
       </c>
       <c r="T10">
-        <v>549821786</v>
+        <v>545350088</v>
       </c>
       <c r="U10">
-        <v>256242568</v>
+        <v>246956426</v>
+      </c>
+      <c r="V10" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>43025</v>
+        <v>36558</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="O11" t="s">
-        <v>358</v>
+        <v>397</v>
+      </c>
+      <c r="P11" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11">
-        <v>542199592</v>
+        <v>545350088</v>
       </c>
       <c r="U11">
-        <v>595947343</v>
+        <v>246956426</v>
+      </c>
+      <c r="V11" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>44294</v>
+        <v>36558</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" t="s">
-        <v>360</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>361</v>
-      </c>
-      <c r="M12" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="O12" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="P12" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
@@ -2121,15 +2092,15 @@
         <v>26</v>
       </c>
       <c r="T12">
-        <v>532461394</v>
+        <v>549821786</v>
       </c>
       <c r="U12">
-        <v>548850124</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
         <v>259</v>
@@ -2138,90 +2109,75 @@
         <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>43594</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="O13" t="s">
-        <v>363</v>
-      </c>
-      <c r="P13" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>365</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13">
-        <v>532461394</v>
+        <v>542199592</v>
       </c>
       <c r="U13">
-        <v>548850124</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>43788</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>361</v>
+      </c>
+      <c r="M14" t="s">
+        <v>362</v>
       </c>
       <c r="N14" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O14" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P14" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="Q14" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
@@ -2230,54 +2186,54 @@
         <v>26</v>
       </c>
       <c r="T14">
-        <v>245449031</v>
+        <v>532461394</v>
       </c>
       <c r="U14">
-        <v>545891190</v>
-      </c>
-      <c r="V14" t="s">
-        <v>372</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
-        <v>42898</v>
+        <v>43594</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="s">
+        <v>259</v>
+      </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>374</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O15" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="Q15" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="R15" t="s">
         <v>26</v>
@@ -2286,42 +2242,51 @@
         <v>26</v>
       </c>
       <c r="T15">
-        <v>249768747</v>
+        <v>532461394</v>
       </c>
       <c r="U15">
-        <v>245716161</v>
-      </c>
-      <c r="V15" t="s">
-        <v>377</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>43408</v>
+        <v>43788</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
+      <c r="F16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
       <c r="N16" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="O16" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="Q16" t="s">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2330,51 +2295,54 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>248076761</v>
+        <v>245449031</v>
       </c>
       <c r="U16">
-        <v>551424325</v>
+        <v>545891190</v>
       </c>
       <c r="V16" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>43518</v>
+        <v>42898</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>384</v>
-      </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17" t="s">
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="O17" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P17" t="s">
-        <v>387</v>
+        <v>178</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2383,51 +2351,42 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>249245434</v>
+        <v>249768747</v>
       </c>
       <c r="U17">
-        <v>558204488</v>
+        <v>245716161</v>
       </c>
       <c r="V17" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>42467</v>
+        <v>43408</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
       <c r="N18" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="O18" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="P18" t="s">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
@@ -2436,30 +2395,33 @@
         <v>26</v>
       </c>
       <c r="T18">
-        <v>247412669</v>
+        <v>248076761</v>
       </c>
       <c r="U18">
-        <v>245649230</v>
+        <v>551424325</v>
+      </c>
+      <c r="V18" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>44295</v>
+        <v>43518</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>368</v>
+      <c r="G19" t="s">
+        <v>384</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2468,16 +2430,16 @@
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O19" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P19" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q19" t="s">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -2486,48 +2448,51 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>247412669</v>
+        <v>249245434</v>
       </c>
       <c r="U19">
-        <v>245649230</v>
+        <v>558204488</v>
+      </c>
+      <c r="V19" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>42738</v>
+        <v>42467</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
+      <c r="F20" t="s">
+        <v>368</v>
+      </c>
       <c r="H20" t="s">
         <v>37</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
       <c r="N20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O20" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P20" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q20" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="R20" t="s">
         <v>26</v>
@@ -2536,45 +2501,48 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>545350088</v>
+        <v>247412669</v>
       </c>
       <c r="U20">
-        <v>246956426</v>
-      </c>
-      <c r="V20" t="s">
-        <v>399</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>43644</v>
+        <v>44295</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
+      <c r="F21" t="s">
+        <v>368</v>
+      </c>
       <c r="H21" t="s">
         <v>37</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="K21" t="s">
-        <v>21</v>
+      <c r="N21" t="s">
+        <v>390</v>
       </c>
       <c r="O21" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="P21" t="s">
+        <v>392</v>
       </c>
       <c r="Q21" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="R21" t="s">
         <v>26</v>
@@ -2583,56 +2551,77 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>241656149</v>
+        <v>247412669</v>
       </c>
       <c r="U21">
-        <v>241656149</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>42581</v>
+        <v>42738</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
       </c>
+      <c r="N22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O22" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
       <c r="T22">
-        <v>533254698</v>
+        <v>545350088</v>
       </c>
       <c r="U22">
-        <v>546589599</v>
+        <v>246956426</v>
+      </c>
+      <c r="V22" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>42617</v>
+        <v>43644</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -2667,16 +2656,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>44968</v>
+        <v>42581</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -2685,54 +2674,36 @@
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="N24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O24" t="s">
-        <v>407</v>
-      </c>
-      <c r="P24" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>408</v>
-      </c>
-      <c r="R24" t="s">
-        <v>26</v>
-      </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
       <c r="T24">
-        <v>543469945</v>
+        <v>533254698</v>
       </c>
       <c r="U24">
-        <v>532807776</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>44351</v>
+        <v>42617</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2740,17 +2711,11 @@
       <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="N25" t="s">
-        <v>410</v>
-      </c>
       <c r="O25" t="s">
-        <v>411</v>
-      </c>
-      <c r="P25" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="Q25" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
@@ -2759,30 +2724,30 @@
         <v>26</v>
       </c>
       <c r="T25">
-        <v>248754494</v>
+        <v>241656149</v>
       </c>
       <c r="U25">
-        <v>593082381</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>44238</v>
+        <v>44968</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -2791,16 +2756,16 @@
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="Q26" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2809,54 +2774,48 @@
         <v>26</v>
       </c>
       <c r="T26">
-        <v>245077487</v>
+        <v>543469945</v>
       </c>
       <c r="U26">
-        <v>543161188</v>
-      </c>
-      <c r="V26" t="s">
-        <v>140</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>41372</v>
+        <v>44351</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s">
-        <v>169</v>
-      </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
       <c r="O27" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="P27" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2865,15 +2824,15 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>243043900</v>
+        <v>248754494</v>
       </c>
       <c r="U27">
-        <v>549370765</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
         <v>269</v>
@@ -2882,28 +2841,31 @@
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>44084</v>
+        <v>44238</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O28" t="s">
-        <v>419</v>
+        <v>139</v>
+      </c>
+      <c r="P28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>109</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2912,45 +2874,54 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>256596282</v>
+        <v>245077487</v>
       </c>
       <c r="U28">
-        <v>556006080</v>
+        <v>543161188</v>
+      </c>
+      <c r="V28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1">
-        <v>36558</v>
+        <v>41372</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
-        <v>164</v>
-      </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
+      <c r="J29" t="s">
+        <v>169</v>
+      </c>
       <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>166</v>
+        <v>290</v>
+      </c>
+      <c r="P29" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>109</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2959,51 +2930,45 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>543784758</v>
+        <v>243043900</v>
       </c>
       <c r="U29">
-        <v>243307643</v>
-      </c>
-      <c r="V29" t="s">
-        <v>167</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>44084</v>
+      </c>
+      <c r="E30" t="s">
         <v>26</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>417</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N30" t="s">
-        <v>22</v>
+        <v>418</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>25</v>
+        <v>419</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -3011,19 +2976,16 @@
       <c r="S30" t="s">
         <v>26</v>
       </c>
-      <c r="T30" s="3">
-        <v>249891601</v>
+      <c r="T30">
+        <v>256596282</v>
       </c>
       <c r="U30">
-        <v>5414805333</v>
-      </c>
-      <c r="V30" t="s">
-        <v>28</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>420</v>
       </c>
       <c r="B31" t="s">
         <v>263</v>
@@ -3032,16 +2994,13 @@
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>44782</v>
+        <v>36558</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
         <v>37</v>
@@ -3053,16 +3012,10 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3071,15 +3024,18 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>554885693</v>
+        <v>543784758</v>
       </c>
       <c r="U31">
-        <v>542738888</v>
+        <v>243307643</v>
+      </c>
+      <c r="V31" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
@@ -3088,16 +3044,13 @@
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>44922</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
+        <v>44852</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -3106,16 +3059,16 @@
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -3123,40 +3076,40 @@
       <c r="S32" t="s">
         <v>26</v>
       </c>
-      <c r="T32">
-        <v>243081535</v>
+      <c r="T32" s="3">
+        <v>249891601</v>
       </c>
       <c r="U32">
-        <v>544479394</v>
+        <v>5414805333</v>
       </c>
       <c r="V32" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>44691</v>
+        <v>44782</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
         <v>21</v>
@@ -3165,16 +3118,16 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -3183,15 +3136,15 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>543719591</v>
+        <v>554885693</v>
       </c>
       <c r="U33">
-        <v>541484405</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
@@ -3200,13 +3153,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>45040</v>
+        <v>44922</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
@@ -3215,25 +3168,19 @@
         <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M34" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q34" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3242,18 +3189,18 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>548697421</v>
+        <v>243081535</v>
       </c>
       <c r="U34">
-        <v>549328229</v>
+        <v>544479394</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
@@ -3262,16 +3209,16 @@
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>45037</v>
+        <v>44691</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -3283,16 +3230,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3301,24 +3248,24 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>554246016</v>
+        <v>543719591</v>
       </c>
       <c r="U35">
-        <v>541473757</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1">
-        <v>43551</v>
+        <v>45040</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -3333,22 +3280,25 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
       </c>
       <c r="M36" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P36" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q36" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3357,33 +3307,36 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>203218292</v>
+        <v>548697421</v>
       </c>
       <c r="U36">
-        <v>546407893</v>
+        <v>549328229</v>
       </c>
       <c r="V36" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>43536</v>
+        <v>45037</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
         <v>21</v>
@@ -3395,16 +3348,16 @@
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P37" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Q37" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3413,24 +3366,24 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>544622299</v>
+        <v>554246016</v>
       </c>
       <c r="U37">
-        <v>241651317</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>43486</v>
+        <v>43551</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -3448,19 +3401,19 @@
         <v>21</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N38" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q38" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3469,33 +3422,33 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>241861382</v>
+        <v>203218292</v>
       </c>
       <c r="U38">
-        <v>547944747</v>
+        <v>546407893</v>
       </c>
       <c r="V38" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>43214</v>
+        <v>43536</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
         <v>21</v>
@@ -3507,13 +3460,16 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>76</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3522,31 +3478,31 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>540750428</v>
+        <v>544622299</v>
       </c>
       <c r="U39">
-        <v>240127525</v>
-      </c>
-      <c r="V39" t="s">
-        <v>89</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>44390</v>
+        <v>43486</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
       <c r="H40" t="s">
         <v>37</v>
       </c>
@@ -3556,17 +3512,20 @@
       <c r="K40" t="s">
         <v>21</v>
       </c>
+      <c r="M40" t="s">
+        <v>78</v>
+      </c>
       <c r="N40" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O40" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q40" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3575,33 +3534,36 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>248450590</v>
+        <v>241861382</v>
       </c>
       <c r="U40">
-        <v>548086355</v>
+        <v>547944747</v>
+      </c>
+      <c r="V40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>43582</v>
+        <v>43214</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -3610,10 +3572,13 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="P41" t="s">
+        <v>88</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3622,36 +3587,33 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>542776117</v>
+        <v>540750428</v>
       </c>
       <c r="U41">
-        <v>556780997</v>
+        <v>240127525</v>
       </c>
       <c r="V41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1">
-        <v>42977</v>
+        <v>44390</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="G42" t="s">
-        <v>96</v>
-      </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -3660,10 +3622,16 @@
         <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O42" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="P42" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>94</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3672,31 +3640,31 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>246469841</v>
+        <v>248450590</v>
       </c>
       <c r="U42">
-        <v>244502858</v>
-      </c>
-      <c r="V42" t="s">
-        <v>103</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>44057</v>
+        <v>43582</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
+      <c r="G43" t="s">
+        <v>96</v>
+      </c>
       <c r="H43" t="s">
         <v>37</v>
       </c>
@@ -3707,16 +3675,10 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
-      </c>
-      <c r="P43" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3725,54 +3687,48 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>246645496</v>
+        <v>542776117</v>
       </c>
       <c r="U43">
-        <v>240778774</v>
+        <v>556780997</v>
+      </c>
+      <c r="V43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
         <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>41923</v>
+        <v>42977</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
       <c r="G44" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>37</v>
-      </c>
-      <c r="M44" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="O44" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3781,24 +3737,27 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>248675358</v>
+        <v>246469841</v>
       </c>
       <c r="U44">
-        <v>247790941</v>
+        <v>244502858</v>
+      </c>
+      <c r="V44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>44796</v>
+        <v>44057</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
@@ -3813,16 +3772,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3831,51 +3790,54 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>599634556</v>
+        <v>246645496</v>
       </c>
       <c r="U45">
-        <v>535220641</v>
-      </c>
-      <c r="V45" t="s">
-        <v>120</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>267</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
       </c>
       <c r="D46" s="1">
-        <v>44890</v>
+        <v>41923</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>113</v>
       </c>
       <c r="N46" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P46" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3884,27 +3846,24 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>245864268</v>
+        <v>248675358</v>
       </c>
       <c r="U46">
-        <v>247823594</v>
-      </c>
-      <c r="V46" t="s">
-        <v>125</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>43652</v>
+        <v>44796</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -3913,25 +3872,22 @@
         <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q47" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3940,33 +3896,33 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>543279537</v>
+        <v>599634556</v>
       </c>
       <c r="U47">
-        <v>241208687</v>
+        <v>535220641</v>
       </c>
       <c r="V47" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>42673</v>
+        <v>44890</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="H48" t="s">
-        <v>37</v>
+      <c r="G48" t="s">
+        <v>122</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
@@ -3975,7 +3931,16 @@
         <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="O48" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>25</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3984,21 +3949,27 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>244423888</v>
+        <v>245864268</v>
+      </c>
+      <c r="U48">
+        <v>247823594</v>
+      </c>
+      <c r="V48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>42691</v>
+        <v>43652</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
@@ -4010,13 +3981,22 @@
         <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
       </c>
+      <c r="N49" t="s">
+        <v>128</v>
+      </c>
       <c r="O49" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="P49" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>131</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4025,31 +4005,31 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>245077487</v>
+        <v>543279537</v>
+      </c>
+      <c r="U49">
+        <v>241208687</v>
       </c>
       <c r="V49" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
         <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="2">
-        <v>42832</v>
+        <v>20</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42673</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
-      <c r="G50" t="s">
-        <v>142</v>
-      </c>
       <c r="H50" t="s">
         <v>37</v>
       </c>
@@ -4060,13 +4040,7 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>143</v>
-      </c>
-      <c r="O50" t="s">
-        <v>144</v>
-      </c>
-      <c r="P50" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4075,27 +4049,21 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>245766735</v>
-      </c>
-      <c r="U50">
-        <v>245702914</v>
-      </c>
-      <c r="V50" t="s">
-        <v>145</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="1">
-        <v>42202</v>
+        <v>42691</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -4104,19 +4072,16 @@
         <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K51" t="s">
-        <v>149</v>
-      </c>
-      <c r="N51" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="O51" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4125,18 +4090,15 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>248178775</v>
-      </c>
-      <c r="U51">
-        <v>550234225</v>
+        <v>245077487</v>
       </c>
       <c r="V51" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
         <v>267</v>
@@ -4144,8 +4106,8 @@
       <c r="C52" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="1">
-        <v>42695</v>
+      <c r="D52" s="2">
+        <v>42832</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -4163,16 +4125,13 @@
         <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="O52" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4181,54 +4140,48 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>245424585</v>
+        <v>245766735</v>
       </c>
       <c r="U52">
-        <v>247566924</v>
+        <v>245702914</v>
       </c>
       <c r="V52" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
         <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>41794</v>
+        <v>42202</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
-      <c r="G53" t="s">
-        <v>112</v>
-      </c>
       <c r="H53" t="s">
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J53" t="s">
+        <v>148</v>
       </c>
       <c r="K53" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N53" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O53" t="s">
-        <v>159</v>
-      </c>
-      <c r="P53" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4237,18 +4190,18 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>245980902</v>
+        <v>248178775</v>
       </c>
       <c r="U53">
-        <v>245272449</v>
+        <v>550234225</v>
       </c>
       <c r="V53" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>267</v>
@@ -4257,11 +4210,14 @@
         <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>43093</v>
+        <v>42695</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
+      <c r="G54" t="s">
+        <v>142</v>
+      </c>
       <c r="H54" t="s">
         <v>37</v>
       </c>
@@ -4272,16 +4228,16 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P54" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="Q54" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4290,33 +4246,33 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>245980902</v>
+        <v>245424585</v>
       </c>
       <c r="U54">
-        <v>245272449</v>
+        <v>247566924</v>
       </c>
       <c r="V54" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>43165</v>
+        <v>41794</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="F55" t="s">
-        <v>164</v>
+      <c r="G55" t="s">
+        <v>112</v>
       </c>
       <c r="H55" t="s">
         <v>37</v>
@@ -4328,10 +4284,16 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O55" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P55" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>160</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4340,18 +4302,18 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U55">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V55" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
         <v>267</v>
@@ -4360,31 +4322,31 @@
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>42564</v>
+        <v>43093</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="F56" t="s">
-        <v>164</v>
-      </c>
       <c r="H56" t="s">
         <v>37</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
       </c>
-      <c r="J56" t="s">
-        <v>169</v>
-      </c>
       <c r="K56" t="s">
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O56" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P56" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>160</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4393,33 +4355,33 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U56">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V56" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>43499</v>
+        <v>43165</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
@@ -4431,16 +4393,10 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O57" t="s">
-        <v>173</v>
-      </c>
-      <c r="P57" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4449,18 +4405,18 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>595670927</v>
+        <v>543784758</v>
       </c>
       <c r="U57">
-        <v>553491903</v>
+        <v>243307643</v>
       </c>
       <c r="V57" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
         <v>267</v>
@@ -4469,13 +4425,13 @@
         <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>42289</v>
+        <v>42564</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
-      <c r="G58" t="s">
-        <v>122</v>
+      <c r="F58" t="s">
+        <v>164</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
@@ -4483,20 +4439,17 @@
       <c r="I58" t="s">
         <v>21</v>
       </c>
+      <c r="J58" t="s">
+        <v>169</v>
+      </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O58" t="s">
-        <v>177</v>
-      </c>
-      <c r="P58" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4505,31 +4458,34 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>547068449</v>
+        <v>543784758</v>
       </c>
       <c r="U58">
-        <v>547068449</v>
+        <v>243307643</v>
       </c>
       <c r="V58" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>42839</v>
+        <v>43499</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
       <c r="H59" t="s">
         <v>37</v>
       </c>
@@ -4540,10 +4496,16 @@
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O59" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="P59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>25</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4552,33 +4514,30 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>244730682</v>
+        <v>595670927</v>
       </c>
       <c r="U59">
-        <v>249341294</v>
+        <v>553491903</v>
       </c>
       <c r="V59" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1">
-        <v>44495</v>
+        <v>42289</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
-      </c>
-      <c r="F60" t="s">
-        <v>185</v>
       </c>
       <c r="G60" t="s">
         <v>122</v>
@@ -4587,28 +4546,22 @@
         <v>37</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>37</v>
-      </c>
-      <c r="L60" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="O60" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="Q60" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4617,60 +4570,45 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>532416380</v>
+        <v>547068449</v>
       </c>
       <c r="U60">
-        <v>543108512</v>
+        <v>547068449</v>
       </c>
       <c r="V60" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>43950</v>
+        <v>42839</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="F61" t="s">
-        <v>193</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>101</v>
-      </c>
-      <c r="J61" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O61" t="s">
-        <v>196</v>
-      </c>
-      <c r="P61" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4679,51 +4617,63 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>597661016</v>
+        <v>244730682</v>
       </c>
       <c r="U61">
-        <v>501213049</v>
+        <v>249341294</v>
       </c>
       <c r="V61" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>44383</v>
+        <v>44495</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
       </c>
+      <c r="F62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" t="s">
+        <v>122</v>
+      </c>
       <c r="H62" t="s">
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L62" t="s">
+        <v>187</v>
       </c>
       <c r="N62" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O62" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="P62" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4732,57 +4682,60 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>595670927</v>
+        <v>532416380</v>
       </c>
       <c r="U62">
-        <v>553491903</v>
+        <v>543108512</v>
       </c>
       <c r="V62" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1">
-        <v>43524</v>
+        <v>43950</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s">
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J63" t="s">
+        <v>194</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O63" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P63" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="Q63" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4791,34 +4744,31 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>244678226</v>
+        <v>597661016</v>
       </c>
       <c r="U63">
-        <v>208455305</v>
+        <v>501213049</v>
       </c>
       <c r="V63" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>44364</v>
+        <v>44383</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="G64" t="s">
-        <v>122</v>
-      </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
@@ -4829,16 +4779,16 @@
         <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="O64" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Q64" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4847,33 +4797,36 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>243352028</v>
+        <v>595670927</v>
       </c>
       <c r="U64">
-        <v>243088742</v>
+        <v>553491903</v>
       </c>
       <c r="V64" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>44627</v>
+        <v>43524</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
+      <c r="F65" t="s">
+        <v>204</v>
+      </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
         <v>37</v>
@@ -4881,20 +4834,20 @@
       <c r="I65" t="s">
         <v>21</v>
       </c>
-      <c r="M65" t="s">
-        <v>216</v>
+      <c r="K65" t="s">
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="O65" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="P65" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="Q65" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4903,33 +4856,33 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>241861382</v>
+        <v>244678226</v>
       </c>
       <c r="U65">
-        <v>547944747</v>
+        <v>208455305</v>
       </c>
       <c r="V65" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>44430</v>
+        <v>44364</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H66" t="s">
         <v>37</v>
@@ -4941,16 +4894,16 @@
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O66" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="Q66" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -4959,54 +4912,54 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>555101040</v>
+        <v>243352028</v>
       </c>
       <c r="U66">
-        <v>537150359</v>
+        <v>243088742</v>
       </c>
       <c r="V66" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>43839</v>
+        <v>44627</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
-      <c r="F67" t="s">
-        <v>223</v>
-      </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" t="s">
-        <v>224</v>
-      </c>
-      <c r="K67" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>216</v>
       </c>
       <c r="N67" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="O67" t="s">
-        <v>226</v>
+        <v>80</v>
+      </c>
+      <c r="P67" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>82</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -5015,27 +4968,27 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>554845413</v>
+        <v>241861382</v>
       </c>
       <c r="U67">
-        <v>256786281</v>
+        <v>547944747</v>
       </c>
       <c r="V67" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1">
-        <v>44661</v>
+        <v>44430</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
@@ -5053,16 +5006,16 @@
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="O68" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="P68" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -5071,48 +5024,54 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>245424585</v>
+        <v>555101040</v>
       </c>
       <c r="U68">
-        <v>247566924</v>
+        <v>537150359</v>
       </c>
       <c r="V68" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>44459</v>
+        <v>43839</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
+      <c r="F69" t="s">
+        <v>223</v>
+      </c>
+      <c r="G69" t="s">
+        <v>96</v>
+      </c>
       <c r="H69" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J69" t="s">
+        <v>224</v>
       </c>
       <c r="K69" t="s">
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O69" t="s">
-        <v>232</v>
-      </c>
-      <c r="P69" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5121,31 +5080,34 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>244446781</v>
+        <v>554845413</v>
       </c>
       <c r="U69">
-        <v>249251741</v>
+        <v>256786281</v>
       </c>
       <c r="V69" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1">
-        <v>44414</v>
+        <v>44661</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
@@ -5156,16 +5118,16 @@
         <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="O70" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="Q70" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5174,57 +5136,48 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>246364382</v>
+        <v>245424585</v>
       </c>
       <c r="U70">
-        <v>242830458</v>
+        <v>247566924</v>
       </c>
       <c r="V70" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1">
-        <v>45025</v>
+        <v>44459</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
-      <c r="G71" t="s">
-        <v>122</v>
-      </c>
       <c r="H71" t="s">
         <v>37</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
       </c>
-      <c r="J71" t="s">
-        <v>169</v>
-      </c>
       <c r="K71" t="s">
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O71" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5233,54 +5186,51 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>245902055</v>
+        <v>244446781</v>
       </c>
       <c r="U71">
-        <v>557566068</v>
+        <v>249251741</v>
+      </c>
+      <c r="V71" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
         <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1">
-        <v>43792</v>
+        <v>44414</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="F72" t="s">
-        <v>244</v>
-      </c>
       <c r="H72" t="s">
         <v>37</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O72" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -5289,57 +5239,57 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>538984324</v>
+        <v>246364382</v>
       </c>
       <c r="U72">
-        <v>531766425</v>
+        <v>242830458</v>
       </c>
       <c r="V72" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>43785</v>
+        <v>45025</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
-      <c r="F73" t="s">
-        <v>250</v>
-      </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
       </c>
+      <c r="J73" t="s">
+        <v>169</v>
+      </c>
       <c r="K73" t="s">
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O73" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P73" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5348,45 +5298,54 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>549821786</v>
+        <v>245902055</v>
       </c>
       <c r="U73">
-        <v>256242568</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D74" s="1">
-        <v>44687</v>
+        <v>43792</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
-      <c r="G74" t="s">
-        <v>96</v>
+      <c r="F74" t="s">
+        <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>245</v>
       </c>
       <c r="K74" t="s">
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O74" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="P74" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>25</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5395,57 +5354,54 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>247633503</v>
+        <v>538984324</v>
       </c>
       <c r="U74">
-        <v>241690416</v>
+        <v>531766425</v>
       </c>
       <c r="V74" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>42797</v>
+        <v>43785</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="H75" t="s">
         <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O75" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q75" t="s">
         <v>25</v>
@@ -5457,18 +5413,15 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>538984324</v>
+        <v>549821786</v>
       </c>
       <c r="U75">
-        <v>531766425</v>
-      </c>
-      <c r="V75" t="s">
-        <v>248</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B76" t="s">
         <v>263</v>
@@ -5477,7 +5430,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="1">
-        <v>44663</v>
+        <v>44687</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
@@ -5486,25 +5439,19 @@
         <v>96</v>
       </c>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I76" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O76" t="s">
-        <v>247</v>
-      </c>
-      <c r="P76" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5513,60 +5460,60 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>538984324</v>
+        <v>247633503</v>
       </c>
       <c r="U76">
-        <v>531766425</v>
+        <v>241690416</v>
       </c>
       <c r="V76" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>42239</v>
+        <v>42797</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="G77" t="s">
+        <v>259</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J77" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="K77" t="s">
-        <v>37</v>
-      </c>
-      <c r="L77" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O77" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Q77" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5575,51 +5522,54 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>549605899</v>
+        <v>538984324</v>
       </c>
       <c r="U77">
-        <v>534014247</v>
+        <v>531766425</v>
+      </c>
+      <c r="V77" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>43231</v>
+        <v>44663</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
       <c r="H78" t="s">
         <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="O78" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Q78" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5628,15 +5578,18 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>244077227</v>
+        <v>538984324</v>
       </c>
       <c r="U78">
-        <v>245173168</v>
+        <v>531766425</v>
+      </c>
+      <c r="V78" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s">
         <v>265</v>
@@ -5645,34 +5598,37 @@
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>42088</v>
+        <v>42239</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
+      <c r="F79" t="s">
+        <v>272</v>
+      </c>
       <c r="H79" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J79" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="K79" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="L79" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N79" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O79" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q79" t="s">
         <v>109</v>
@@ -5684,27 +5640,24 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>207900244</v>
+        <v>549605899</v>
       </c>
       <c r="U79">
-        <v>599397215</v>
-      </c>
-      <c r="V79" t="s">
-        <v>284</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s">
         <v>265</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1">
-        <v>43085</v>
+        <v>43231</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
@@ -5713,22 +5666,22 @@
         <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J80" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O80" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P80" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="Q80" t="s">
         <v>109</v>
@@ -5740,48 +5693,54 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>243043900</v>
+        <v>244077227</v>
       </c>
       <c r="U80">
-        <v>549370765</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s">
         <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1">
-        <v>43108</v>
+        <v>42088</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I81" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J81" t="s">
+        <v>138</v>
       </c>
       <c r="K81" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L81" t="s">
+        <v>280</v>
       </c>
       <c r="N81" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O81" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P81" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q81" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5790,15 +5749,18 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>533254698</v>
+        <v>207900244</v>
       </c>
       <c r="U81">
-        <v>546589599</v>
+        <v>599397215</v>
+      </c>
+      <c r="V81" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
         <v>265</v>
@@ -5807,34 +5769,34 @@
         <v>20</v>
       </c>
       <c r="D82" s="1">
-        <v>43310</v>
+        <v>43085</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
-      <c r="F82" t="s">
-        <v>111</v>
-      </c>
       <c r="H82" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>169</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O82" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P82" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5843,18 +5805,15 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>249220522</v>
+        <v>243043900</v>
       </c>
       <c r="U82">
-        <v>241246842</v>
-      </c>
-      <c r="V82" t="s">
-        <v>298</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
         <v>265</v>
@@ -5863,7 +5822,7 @@
         <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>43170</v>
+        <v>43108</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
@@ -5872,25 +5831,22 @@
         <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
-      </c>
-      <c r="J83" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O83" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P83" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="Q83" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5899,48 +5855,48 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>246861527</v>
+        <v>533254698</v>
       </c>
       <c r="U83">
-        <v>558286552</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s">
         <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>43452</v>
+        <v>43310</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
       <c r="H84" t="s">
         <v>37</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
-      </c>
-      <c r="J84" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K84" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O84" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P84" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="Q84" t="s">
         <v>25</v>
@@ -5952,48 +5908,51 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>246532233</v>
+        <v>249220522</v>
       </c>
       <c r="U84">
-        <v>247792191</v>
+        <v>241246842</v>
       </c>
       <c r="V84" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
         <v>265</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>43118</v>
+        <v>43170</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
       <c r="H85" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J85" t="s">
+        <v>300</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="O85" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P85" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="Q85" t="s">
         <v>109</v>
@@ -6005,18 +5964,15 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>246951455</v>
+        <v>246861527</v>
       </c>
       <c r="U85">
-        <v>242684572</v>
-      </c>
-      <c r="V85" t="s">
-        <v>310</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
         <v>265</v>
@@ -6025,28 +5981,31 @@
         <v>34</v>
       </c>
       <c r="D86" s="1">
-        <v>43008</v>
+        <v>43452</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
-      <c r="F86" t="s">
-        <v>312</v>
-      </c>
       <c r="H86" t="s">
         <v>37</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J86" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" t="s">
+        <v>149</v>
       </c>
       <c r="N86" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O86" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P86" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q86" t="s">
         <v>25</v>
@@ -6058,38 +6017,38 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>246951455</v>
+        <v>246532233</v>
       </c>
       <c r="U86">
-        <v>242684572</v>
+        <v>247792191</v>
       </c>
       <c r="V86" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="1">
-        <v>44912</v>
+        <v>43118</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
-      <c r="F87" t="s">
-        <v>312</v>
-      </c>
       <c r="H87" t="s">
         <v>37</v>
       </c>
       <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="N87" t="s">
@@ -6099,10 +6058,10 @@
         <v>314</v>
       </c>
       <c r="P87" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R87" t="s">
         <v>26</v>
@@ -6122,22 +6081,22 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D88" s="1">
-        <v>42540</v>
+        <v>43008</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H88" t="s">
         <v>37</v>
@@ -6145,20 +6104,17 @@
       <c r="I88" t="s">
         <v>21</v>
       </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
       <c r="N88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P88" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="Q88" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -6167,51 +6123,51 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>549223419</v>
+        <v>246951455</v>
       </c>
       <c r="U88">
-        <v>547981198</v>
+        <v>242684572</v>
       </c>
       <c r="V88" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D89" s="1">
-        <v>44839</v>
+        <v>44912</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
+      <c r="F89" t="s">
+        <v>312</v>
+      </c>
       <c r="H89" t="s">
         <v>37</v>
       </c>
       <c r="I89" t="s">
         <v>21</v>
       </c>
-      <c r="K89" t="s">
-        <v>21</v>
-      </c>
       <c r="N89" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="O89" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="P89" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="Q89" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -6220,33 +6176,36 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>249220522</v>
+        <v>246951455</v>
       </c>
       <c r="U89">
-        <v>241246842</v>
+        <v>242684572</v>
       </c>
       <c r="V89" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>43831</v>
+        <v>42540</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
+      <c r="F90" t="s">
+        <v>319</v>
+      </c>
       <c r="H90" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I90" t="s">
         <v>21</v>
@@ -6255,16 +6214,16 @@
         <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O90" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P90" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Q90" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="R90" t="s">
         <v>26</v>
@@ -6273,57 +6232,51 @@
         <v>26</v>
       </c>
       <c r="T90">
-        <v>248076761</v>
+        <v>549223419</v>
       </c>
       <c r="U90">
-        <v>551424325</v>
+        <v>547981198</v>
       </c>
       <c r="V90" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>44017</v>
+        <v>44839</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="F91" t="s">
-        <v>63</v>
-      </c>
       <c r="H91" t="s">
         <v>37</v>
       </c>
       <c r="I91" t="s">
-        <v>37</v>
-      </c>
-      <c r="J91" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
         <v>21</v>
       </c>
       <c r="N91" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="O91" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="Q91" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -6332,36 +6285,51 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>244446781</v>
+        <v>249220522</v>
       </c>
       <c r="U91">
-        <v>249251741</v>
+        <v>241246842</v>
       </c>
       <c r="V91" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>43774</v>
+        <v>43831</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
+      <c r="H92" t="s">
+        <v>149</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
       <c r="N92" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O92" t="s">
-        <v>337</v>
+        <v>327</v>
+      </c>
+      <c r="P92" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>328</v>
       </c>
       <c r="R92" t="s">
         <v>26</v>
@@ -6370,45 +6338,57 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>242715514</v>
+        <v>248076761</v>
       </c>
       <c r="U92">
-        <v>553488520</v>
+        <v>551424325</v>
+      </c>
+      <c r="V92" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>44112</v>
+        <v>44017</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H93" t="s">
         <v>37</v>
       </c>
       <c r="I93" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" t="s">
+        <v>331</v>
+      </c>
+      <c r="K93" t="s">
         <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="O93" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+      <c r="P93" t="s">
+        <v>233</v>
       </c>
       <c r="Q93" t="s">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="R93" t="s">
         <v>26</v>
@@ -6417,28 +6397,37 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>552503776</v>
+        <v>244446781</v>
       </c>
       <c r="U93">
-        <v>246922004</v>
+        <v>249251741</v>
+      </c>
+      <c r="V93" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B94" t="s">
         <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>36558</v>
+        <v>43774</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
+      <c r="N94" t="s">
+        <v>336</v>
+      </c>
+      <c r="O94" t="s">
+        <v>337</v>
+      </c>
       <c r="R94" t="s">
         <v>26</v>
       </c>
@@ -6446,78 +6435,114 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>543357761</v>
+        <v>242715514</v>
       </c>
       <c r="U94">
-        <v>543357761</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B95" t="s">
         <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D95" s="1">
-        <v>36558</v>
+        <v>44112</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" t="s">
+        <v>319</v>
+      </c>
+      <c r="H95" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" t="s">
+        <v>339</v>
+      </c>
+      <c r="O95" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>32</v>
+      </c>
+      <c r="R95" t="s">
+        <v>26</v>
+      </c>
+      <c r="S95" t="s">
+        <v>26</v>
       </c>
       <c r="T95">
-        <v>530376302</v>
+        <v>552503776</v>
       </c>
       <c r="U95">
-        <v>530376302</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B96" t="s">
         <v>264</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1">
         <v>36558</v>
       </c>
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+      <c r="R96" t="s">
+        <v>26</v>
+      </c>
+      <c r="S96" t="s">
+        <v>26</v>
+      </c>
       <c r="T96">
-        <v>559610656</v>
+        <v>543357761</v>
       </c>
       <c r="U96">
-        <v>559610656</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B97" t="s">
         <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1">
         <v>36558</v>
       </c>
       <c r="T97">
-        <v>540901838</v>
+        <v>530376302</v>
       </c>
       <c r="U97">
-        <v>540901838</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -6526,78 +6551,78 @@
         <v>36558</v>
       </c>
       <c r="T98">
-        <v>554246016</v>
+        <v>559610656</v>
       </c>
       <c r="U98">
-        <v>541473757</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D99" s="1">
         <v>36558</v>
       </c>
       <c r="T99">
-        <v>256503657</v>
+        <v>540901838</v>
       </c>
       <c r="U99">
-        <v>256503657</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1">
         <v>36558</v>
       </c>
       <c r="T100">
-        <v>240256100</v>
+        <v>554246016</v>
       </c>
       <c r="U100">
-        <v>240256100</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1">
         <v>36558</v>
       </c>
       <c r="T101">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
       <c r="U101">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B102" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
         <v>34</v>
@@ -6606,18 +6631,18 @@
         <v>36558</v>
       </c>
       <c r="T102">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
       <c r="U102">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="C103" t="s">
         <v>34</v>
@@ -6626,18 +6651,18 @@
         <v>36558</v>
       </c>
       <c r="T103">
-        <v>540750426</v>
+        <v>240256100</v>
       </c>
       <c r="U103">
-        <v>540750426</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C104" t="s">
         <v>34</v>
@@ -6646,38 +6671,38 @@
         <v>36558</v>
       </c>
       <c r="T104">
-        <v>205669296</v>
+        <v>557544883</v>
       </c>
       <c r="U104">
-        <v>205669296</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D105" s="1">
         <v>36558</v>
       </c>
       <c r="T105">
-        <v>246898922</v>
+        <v>540750426</v>
       </c>
       <c r="U105">
-        <v>246898922</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
         <v>34</v>
@@ -6686,18 +6711,18 @@
         <v>36558</v>
       </c>
       <c r="T106">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
       <c r="U106">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
@@ -6705,13 +6730,53 @@
       <c r="D107" s="1">
         <v>36558</v>
       </c>
-      <c r="E107" t="s">
-        <v>26</v>
-      </c>
       <c r="T107">
+        <v>246898922</v>
+      </c>
+      <c r="U107">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" t="s">
+        <v>354</v>
+      </c>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T108">
+        <v>246898922</v>
+      </c>
+      <c r="U108">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>355</v>
+      </c>
+      <c r="B109" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="T109">
         <v>546312435</v>
       </c>
-      <c r="U107">
+      <c r="U109">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C25A928-5139-4D6C-8717-59199C9C886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C97AD-BC65-4984-9310-7BE670A62FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1343" yWindow="1418" windowWidth="17857" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="453">
   <si>
     <t>full_name</t>
   </si>
@@ -1344,6 +1344,57 @@
   </si>
   <si>
     <t>Ghanaina</t>
+  </si>
+  <si>
+    <t>Kenzel Opare Addo</t>
+  </si>
+  <si>
+    <t>He can't feed himself. Food must be fed by someone</t>
+  </si>
+  <si>
+    <t>Richard Kojo Addo</t>
+  </si>
+  <si>
+    <t>Eva Appia Quaye</t>
+  </si>
+  <si>
+    <t>MD 659/9</t>
+  </si>
+  <si>
+    <t>Mary Andoh</t>
+  </si>
+  <si>
+    <t>blessed Assurance</t>
+  </si>
+  <si>
+    <t>Enock Adoh</t>
+  </si>
+  <si>
+    <t>Millicent Oduro</t>
+  </si>
+  <si>
+    <t>Aseda Essandoah</t>
+  </si>
+  <si>
+    <t>Samuel Adu-Marboah</t>
+  </si>
+  <si>
+    <t>Anita Adu-Marboah</t>
+  </si>
+  <si>
+    <t>Welder</t>
+  </si>
+  <si>
+    <t>MD 512-9</t>
+  </si>
+  <si>
+    <t>Comfort Adu-Yeboah</t>
+  </si>
+  <si>
+    <t>Abok Memorial school</t>
+  </si>
+  <si>
+    <t>Nyame Adu Kontor</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1765,34 +1816,43 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>45537</v>
+        <v>44632</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
+      <c r="F2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>431</v>
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="O2" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P2" t="s">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
         <v>109</v>
@@ -1801,42 +1861,98 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="T2">
-        <v>554700135</v>
+        <v>249221660</v>
       </c>
       <c r="U2">
-        <v>540329706</v>
+        <v>531739740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44846</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>446</v>
+      </c>
+      <c r="O3" t="s">
+        <v>447</v>
+      </c>
+      <c r="P3" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>371</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
+        <v>249428289</v>
+      </c>
+      <c r="U3">
+        <v>542364261</v>
+      </c>
+      <c r="V3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>42207</v>
+        <v>42776</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
+      <c r="F4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
       <c r="N4" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="O4" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="Q4" t="s">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -1845,130 +1961,236 @@
         <v>26</v>
       </c>
       <c r="T4">
-        <v>243774692</v>
+        <v>249428289</v>
       </c>
       <c r="U4">
-        <v>243774692</v>
+        <v>542364261</v>
+      </c>
+      <c r="V4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>44524</v>
+        <v>43309</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
       <c r="N5" t="s">
+        <v>446</v>
+      </c>
+      <c r="O5" t="s">
+        <v>447</v>
+      </c>
+      <c r="P5" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>371</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>249428289</v>
+      </c>
+      <c r="U5">
+        <v>542364261</v>
+      </c>
+      <c r="V5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>437</v>
+      </c>
+      <c r="N7" t="s">
+        <v>438</v>
+      </c>
+      <c r="O7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>242</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7">
+        <v>548045399</v>
+      </c>
+      <c r="U7">
+        <v>537571044</v>
+      </c>
+      <c r="V7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45537</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>431</v>
+      </c>
+      <c r="N8" t="s">
+        <v>432</v>
+      </c>
+      <c r="O8" t="s">
+        <v>433</v>
+      </c>
+      <c r="P8" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>435</v>
+      </c>
+      <c r="T8">
+        <v>554700135</v>
+      </c>
+      <c r="U8">
+        <v>540329706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
         <v>426</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O9" t="s">
         <v>427</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P9" t="s">
         <v>109</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q9" t="s">
         <v>109</v>
       </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5">
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9">
         <v>243774692</v>
       </c>
-      <c r="U5">
-        <v>243774692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42989</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>426</v>
-      </c>
-      <c r="O6" t="s">
-        <v>427</v>
-      </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6">
-        <v>243774692</v>
-      </c>
-      <c r="U6">
+      <c r="U9">
         <v>243774692</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>42363</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>424</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
       <c r="N10" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O10" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P10" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
         <v>109</v>
@@ -1980,51 +2202,36 @@
         <v>26</v>
       </c>
       <c r="T10">
-        <v>545350088</v>
+        <v>243774692</v>
       </c>
       <c r="U10">
-        <v>246956426</v>
-      </c>
-      <c r="V10" t="s">
-        <v>399</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>36558</v>
+        <v>42989</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
-        <v>424</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
       <c r="N11" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O11" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P11" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="Q11" t="s">
         <v>109</v>
@@ -2036,36 +2243,33 @@
         <v>26</v>
       </c>
       <c r="T11">
-        <v>545350088</v>
+        <v>243774692</v>
       </c>
       <c r="U11">
-        <v>246956426</v>
-      </c>
-      <c r="V11" t="s">
-        <v>399</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
-        <v>36558</v>
+        <v>42363</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -2074,16 +2278,16 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="O12" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
@@ -2092,92 +2296,110 @@
         <v>26</v>
       </c>
       <c r="T12">
-        <v>549821786</v>
+        <v>545350088</v>
       </c>
       <c r="U12">
-        <v>256242568</v>
+        <v>246956426</v>
+      </c>
+      <c r="V12" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>43025</v>
+        <v>36558</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>424</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="O13" t="s">
-        <v>358</v>
+        <v>397</v>
+      </c>
+      <c r="P13" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13">
-        <v>542199592</v>
+        <v>545350088</v>
       </c>
       <c r="U13">
-        <v>595947343</v>
+        <v>246956426</v>
+      </c>
+      <c r="V13" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>44294</v>
+        <v>36558</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" t="s">
-        <v>360</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>361</v>
-      </c>
-      <c r="M14" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="O14" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="P14" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
@@ -2186,15 +2408,15 @@
         <v>26</v>
       </c>
       <c r="T14">
-        <v>532461394</v>
+        <v>549821786</v>
       </c>
       <c r="U14">
-        <v>548850124</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>259</v>
@@ -2203,90 +2425,75 @@
         <v>34</v>
       </c>
       <c r="D15" s="1">
-        <v>43594</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" t="s">
-        <v>259</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N15" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="O15" t="s">
-        <v>363</v>
-      </c>
-      <c r="P15" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>365</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S15" t="s">
         <v>26</v>
       </c>
       <c r="T15">
-        <v>532461394</v>
+        <v>542199592</v>
       </c>
       <c r="U15">
-        <v>548850124</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>43788</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>361</v>
+      </c>
+      <c r="M16" t="s">
+        <v>362</v>
       </c>
       <c r="N16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O16" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P16" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="Q16" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2295,54 +2502,54 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>245449031</v>
+        <v>532461394</v>
       </c>
       <c r="U16">
-        <v>545891190</v>
-      </c>
-      <c r="V16" t="s">
-        <v>372</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
-        <v>42898</v>
+        <v>43594</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
+      <c r="F17" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" t="s">
+        <v>259</v>
+      </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s">
-        <v>374</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O17" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="Q17" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2351,42 +2558,51 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>249768747</v>
+        <v>532461394</v>
       </c>
       <c r="U17">
-        <v>245716161</v>
-      </c>
-      <c r="V17" t="s">
-        <v>377</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>43408</v>
+        <v>43788</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
+      <c r="F18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
       <c r="N18" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="O18" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="Q18" t="s">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
@@ -2395,51 +2611,54 @@
         <v>26</v>
       </c>
       <c r="T18">
-        <v>248076761</v>
+        <v>245449031</v>
       </c>
       <c r="U18">
-        <v>551424325</v>
+        <v>545891190</v>
       </c>
       <c r="V18" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>43518</v>
+        <v>42898</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" t="s">
-        <v>384</v>
-      </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>374</v>
+      </c>
+      <c r="K19" t="s">
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="O19" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P19" t="s">
-        <v>387</v>
+        <v>178</v>
       </c>
       <c r="Q19" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -2448,51 +2667,42 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>249245434</v>
+        <v>249768747</v>
       </c>
       <c r="U19">
-        <v>558204488</v>
+        <v>245716161</v>
       </c>
       <c r="V19" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>42467</v>
+        <v>43408</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>368</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
       <c r="N20" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="O20" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="P20" t="s">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="R20" t="s">
         <v>26</v>
@@ -2501,30 +2711,33 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>247412669</v>
+        <v>248076761</v>
       </c>
       <c r="U20">
-        <v>245649230</v>
+        <v>551424325</v>
+      </c>
+      <c r="V20" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>44295</v>
+        <v>43518</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
-        <v>368</v>
+      <c r="G21" t="s">
+        <v>384</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2533,16 +2746,16 @@
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O21" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P21" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q21" t="s">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="R21" t="s">
         <v>26</v>
@@ -2551,48 +2764,51 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>247412669</v>
+        <v>249245434</v>
       </c>
       <c r="U21">
-        <v>245649230</v>
+        <v>558204488</v>
+      </c>
+      <c r="V21" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>42738</v>
+        <v>42467</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
+      <c r="F22" t="s">
+        <v>368</v>
+      </c>
       <c r="H22" t="s">
         <v>37</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
       <c r="N22" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O22" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P22" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q22" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
@@ -2601,45 +2817,48 @@
         <v>26</v>
       </c>
       <c r="T22">
-        <v>545350088</v>
+        <v>247412669</v>
       </c>
       <c r="U22">
-        <v>246956426</v>
-      </c>
-      <c r="V22" t="s">
-        <v>399</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>43644</v>
+        <v>44295</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
+      <c r="F23" t="s">
+        <v>368</v>
+      </c>
       <c r="H23" t="s">
         <v>37</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="K23" t="s">
-        <v>21</v>
+      <c r="N23" t="s">
+        <v>390</v>
       </c>
       <c r="O23" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="P23" t="s">
+        <v>392</v>
       </c>
       <c r="Q23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
@@ -2648,56 +2867,77 @@
         <v>26</v>
       </c>
       <c r="T23">
-        <v>241656149</v>
+        <v>247412669</v>
       </c>
       <c r="U23">
-        <v>241656149</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>42581</v>
+        <v>42738</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
       </c>
+      <c r="N24" t="s">
+        <v>396</v>
+      </c>
+      <c r="O24" t="s">
+        <v>397</v>
+      </c>
+      <c r="P24" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>109</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
       <c r="T24">
-        <v>533254698</v>
+        <v>545350088</v>
       </c>
       <c r="U24">
-        <v>546589599</v>
+        <v>246956426</v>
+      </c>
+      <c r="V24" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>42617</v>
+        <v>43644</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -2732,16 +2972,16 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>44968</v>
+        <v>42581</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -2750,54 +2990,36 @@
         <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="N26" t="s">
-        <v>406</v>
-      </c>
-      <c r="O26" t="s">
-        <v>407</v>
-      </c>
-      <c r="P26" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>408</v>
-      </c>
-      <c r="R26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
       <c r="T26">
-        <v>543469945</v>
+        <v>533254698</v>
       </c>
       <c r="U26">
-        <v>532807776</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>44351</v>
+        <v>42617</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -2805,17 +3027,11 @@
       <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="N27" t="s">
-        <v>410</v>
-      </c>
       <c r="O27" t="s">
-        <v>411</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="Q27" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2824,30 +3040,30 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>248754494</v>
+        <v>241656149</v>
       </c>
       <c r="U27">
-        <v>593082381</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>44238</v>
+        <v>44968</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
@@ -2856,16 +3072,16 @@
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2874,54 +3090,48 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>245077487</v>
+        <v>543469945</v>
       </c>
       <c r="U28">
-        <v>543161188</v>
-      </c>
-      <c r="V28" t="s">
-        <v>140</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1">
-        <v>41372</v>
+        <v>44351</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="J29" t="s">
-        <v>169</v>
-      </c>
       <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
       <c r="O29" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="P29" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2930,15 +3140,15 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>243043900</v>
+        <v>248754494</v>
       </c>
       <c r="U29">
-        <v>549370765</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B30" t="s">
         <v>269</v>
@@ -2947,28 +3157,31 @@
         <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>44084</v>
+        <v>44238</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" t="s">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O30" t="s">
-        <v>419</v>
+        <v>139</v>
+      </c>
+      <c r="P30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>109</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -2977,45 +3190,54 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>256596282</v>
+        <v>245077487</v>
       </c>
       <c r="U30">
-        <v>556006080</v>
+        <v>543161188</v>
+      </c>
+      <c r="V30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>36558</v>
+        <v>41372</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
+      <c r="J31" t="s">
+        <v>169</v>
+      </c>
       <c r="K31" t="s">
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="O31" t="s">
-        <v>166</v>
+        <v>290</v>
+      </c>
+      <c r="P31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>109</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3024,51 +3246,45 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>543784758</v>
+        <v>243043900</v>
       </c>
       <c r="U31">
-        <v>243307643</v>
-      </c>
-      <c r="V31" t="s">
-        <v>167</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E32" s="1" t="s">
+        <v>44084</v>
+      </c>
+      <c r="E32" t="s">
         <v>26</v>
       </c>
       <c r="H32" t="s">
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>417</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>418</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>25</v>
+        <v>419</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -3076,19 +3292,16 @@
       <c r="S32" t="s">
         <v>26</v>
       </c>
-      <c r="T32" s="3">
-        <v>249891601</v>
+      <c r="T32">
+        <v>256596282</v>
       </c>
       <c r="U32">
-        <v>5414805333</v>
-      </c>
-      <c r="V32" t="s">
-        <v>28</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>420</v>
       </c>
       <c r="B33" t="s">
         <v>263</v>
@@ -3097,16 +3310,13 @@
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>44782</v>
+        <v>36558</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
@@ -3118,16 +3328,10 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -3136,15 +3340,18 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>554885693</v>
+        <v>543784758</v>
       </c>
       <c r="U33">
-        <v>542738888</v>
+        <v>243307643</v>
+      </c>
+      <c r="V33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
@@ -3153,16 +3360,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>44922</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
+        <v>44852</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
@@ -3171,16 +3375,16 @@
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3188,40 +3392,40 @@
       <c r="S34" t="s">
         <v>26</v>
       </c>
-      <c r="T34">
-        <v>243081535</v>
+      <c r="T34" s="3">
+        <v>249891601</v>
       </c>
       <c r="U34">
-        <v>544479394</v>
+        <v>5414805333</v>
       </c>
       <c r="V34" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>44691</v>
+        <v>44782</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -3230,16 +3434,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3248,15 +3452,15 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>543719591</v>
+        <v>554885693</v>
       </c>
       <c r="U35">
-        <v>541484405</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>122</v>
@@ -3265,13 +3469,13 @@
         <v>20</v>
       </c>
       <c r="D36" s="1">
-        <v>45040</v>
+        <v>44922</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
         <v>37</v>
@@ -3280,25 +3484,19 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
-      </c>
-      <c r="L36" t="s">
-        <v>55</v>
-      </c>
-      <c r="M36" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q36" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3307,18 +3505,18 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>548697421</v>
+        <v>243081535</v>
       </c>
       <c r="U36">
-        <v>549328229</v>
+        <v>544479394</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>122</v>
@@ -3327,16 +3525,16 @@
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>45037</v>
+        <v>44691</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
         <v>21</v>
@@ -3348,16 +3546,16 @@
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3366,24 +3564,24 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>554246016</v>
+        <v>543719591</v>
       </c>
       <c r="U37">
-        <v>541473757</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>43551</v>
+        <v>45040</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -3398,22 +3596,25 @@
         <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>55</v>
       </c>
       <c r="M38" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N38" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q38" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3422,33 +3623,36 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>203218292</v>
+        <v>548697421</v>
       </c>
       <c r="U38">
-        <v>546407893</v>
+        <v>549328229</v>
       </c>
       <c r="V38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>43536</v>
+        <v>45037</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s">
         <v>21</v>
@@ -3460,16 +3664,16 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Q39" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3478,24 +3682,24 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>544622299</v>
+        <v>554246016</v>
       </c>
       <c r="U39">
-        <v>241651317</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>43486</v>
+        <v>43551</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -3513,19 +3717,19 @@
         <v>21</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N40" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q40" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3534,33 +3738,33 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>241861382</v>
+        <v>203218292</v>
       </c>
       <c r="U40">
-        <v>547944747</v>
+        <v>546407893</v>
       </c>
       <c r="V40" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>43214</v>
+        <v>43536</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>21</v>
@@ -3572,13 +3776,16 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>76</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3587,31 +3794,31 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>540750428</v>
+        <v>544622299</v>
       </c>
       <c r="U41">
-        <v>240127525</v>
-      </c>
-      <c r="V41" t="s">
-        <v>89</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="1">
-        <v>44390</v>
+        <v>43486</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
       <c r="H42" t="s">
         <v>37</v>
       </c>
@@ -3621,17 +3828,20 @@
       <c r="K42" t="s">
         <v>21</v>
       </c>
+      <c r="M42" t="s">
+        <v>78</v>
+      </c>
       <c r="N42" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O42" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="P42" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q42" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3640,33 +3850,36 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>248450590</v>
+        <v>241861382</v>
       </c>
       <c r="U42">
-        <v>548086355</v>
+        <v>547944747</v>
+      </c>
+      <c r="V42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>43582</v>
+        <v>43214</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -3675,10 +3888,13 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O43" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="P43" t="s">
+        <v>88</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3687,36 +3903,33 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>542776117</v>
+        <v>540750428</v>
       </c>
       <c r="U43">
-        <v>556780997</v>
+        <v>240127525</v>
       </c>
       <c r="V43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1">
-        <v>42977</v>
+        <v>44390</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
-      <c r="G44" t="s">
-        <v>96</v>
-      </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3725,10 +3938,16 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O44" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="P44" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>94</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3737,31 +3956,31 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>246469841</v>
+        <v>248450590</v>
       </c>
       <c r="U44">
-        <v>244502858</v>
-      </c>
-      <c r="V44" t="s">
-        <v>103</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>44057</v>
+        <v>43582</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
+      <c r="G45" t="s">
+        <v>96</v>
+      </c>
       <c r="H45" t="s">
         <v>37</v>
       </c>
@@ -3772,16 +3991,10 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O45" t="s">
-        <v>107</v>
-      </c>
-      <c r="P45" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3790,54 +4003,48 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>246645496</v>
+        <v>542776117</v>
       </c>
       <c r="U45">
-        <v>240778774</v>
+        <v>556780997</v>
+      </c>
+      <c r="V45" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
         <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>41923</v>
+        <v>42977</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="F46" t="s">
-        <v>111</v>
-      </c>
       <c r="G46" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="O46" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3846,24 +4053,27 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>248675358</v>
+        <v>246469841</v>
       </c>
       <c r="U46">
-        <v>247790941</v>
+        <v>244502858</v>
+      </c>
+      <c r="V46" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>44796</v>
+        <v>44057</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -3878,16 +4088,16 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O47" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P47" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3896,51 +4106,54 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>599634556</v>
+        <v>246645496</v>
       </c>
       <c r="U47">
-        <v>535220641</v>
-      </c>
-      <c r="V47" t="s">
-        <v>120</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
       <c r="D48" s="1">
-        <v>44890</v>
+        <v>41923</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
       <c r="G48" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>113</v>
       </c>
       <c r="N48" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P48" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3949,27 +4162,24 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>245864268</v>
+        <v>248675358</v>
       </c>
       <c r="U48">
-        <v>247823594</v>
-      </c>
-      <c r="V48" t="s">
-        <v>125</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>43652</v>
+        <v>44796</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
@@ -3978,25 +4188,22 @@
         <v>37</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O49" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q49" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4005,33 +4212,33 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>543279537</v>
+        <v>599634556</v>
       </c>
       <c r="U49">
-        <v>241208687</v>
+        <v>535220641</v>
       </c>
       <c r="V49" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>42673</v>
+        <v>44890</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
-      <c r="H50" t="s">
-        <v>37</v>
+      <c r="G50" t="s">
+        <v>122</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -4040,7 +4247,16 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4049,21 +4265,27 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>244423888</v>
+        <v>245864268</v>
+      </c>
+      <c r="U50">
+        <v>247823594</v>
+      </c>
+      <c r="V50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>42691</v>
+        <v>43652</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -4075,13 +4297,22 @@
         <v>37</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
       </c>
+      <c r="N51" t="s">
+        <v>128</v>
+      </c>
       <c r="O51" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="P51" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>131</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4090,31 +4321,31 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>245077487</v>
+        <v>543279537</v>
+      </c>
+      <c r="U51">
+        <v>241208687</v>
       </c>
       <c r="V51" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
         <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="2">
-        <v>42832</v>
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42673</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
-      <c r="G52" t="s">
-        <v>142</v>
-      </c>
       <c r="H52" t="s">
         <v>37</v>
       </c>
@@ -4125,13 +4356,7 @@
         <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>143</v>
-      </c>
-      <c r="O52" t="s">
-        <v>144</v>
-      </c>
-      <c r="P52" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4140,27 +4365,21 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>245766735</v>
-      </c>
-      <c r="U52">
-        <v>245702914</v>
-      </c>
-      <c r="V52" t="s">
-        <v>145</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>42202</v>
+        <v>42691</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
@@ -4169,19 +4388,16 @@
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
-      </c>
-      <c r="N53" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="O53" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4190,18 +4406,15 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>248178775</v>
-      </c>
-      <c r="U53">
-        <v>550234225</v>
+        <v>245077487</v>
       </c>
       <c r="V53" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
         <v>267</v>
@@ -4209,8 +4422,8 @@
       <c r="C54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="1">
-        <v>42695</v>
+      <c r="D54" s="2">
+        <v>42832</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -4228,16 +4441,13 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="O54" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4246,54 +4456,48 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>245424585</v>
+        <v>245766735</v>
       </c>
       <c r="U54">
-        <v>247566924</v>
+        <v>245702914</v>
       </c>
       <c r="V54" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
         <v>270</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>41794</v>
+        <v>42202</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="G55" t="s">
-        <v>112</v>
-      </c>
       <c r="H55" t="s">
         <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J55" t="s">
+        <v>148</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N55" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O55" t="s">
-        <v>159</v>
-      </c>
-      <c r="P55" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4302,18 +4506,18 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>245980902</v>
+        <v>248178775</v>
       </c>
       <c r="U55">
-        <v>245272449</v>
+        <v>550234225</v>
       </c>
       <c r="V55" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
         <v>267</v>
@@ -4322,11 +4526,14 @@
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>43093</v>
+        <v>42695</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
+      <c r="G56" t="s">
+        <v>142</v>
+      </c>
       <c r="H56" t="s">
         <v>37</v>
       </c>
@@ -4337,16 +4544,16 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P56" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="Q56" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4355,33 +4562,33 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>245980902</v>
+        <v>245424585</v>
       </c>
       <c r="U56">
-        <v>245272449</v>
+        <v>247566924</v>
       </c>
       <c r="V56" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1">
-        <v>43165</v>
+        <v>41794</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="F57" t="s">
-        <v>164</v>
+      <c r="G57" t="s">
+        <v>112</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
@@ -4393,10 +4600,16 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O57" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P57" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>160</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4405,18 +4618,18 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U57">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V57" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
         <v>267</v>
@@ -4425,31 +4638,31 @@
         <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>42564</v>
+        <v>43093</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
-      <c r="F58" t="s">
-        <v>164</v>
-      </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
       </c>
-      <c r="J58" t="s">
-        <v>169</v>
-      </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O58" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P58" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>160</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4458,33 +4671,33 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U58">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V58" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>43499</v>
+        <v>43165</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H59" t="s">
         <v>37</v>
@@ -4496,16 +4709,10 @@
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O59" t="s">
-        <v>173</v>
-      </c>
-      <c r="P59" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4514,18 +4721,18 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>595670927</v>
+        <v>543784758</v>
       </c>
       <c r="U59">
-        <v>553491903</v>
+        <v>243307643</v>
       </c>
       <c r="V59" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
         <v>267</v>
@@ -4534,13 +4741,13 @@
         <v>34</v>
       </c>
       <c r="D60" s="1">
-        <v>42289</v>
+        <v>42564</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="G60" t="s">
-        <v>122</v>
+      <c r="F60" t="s">
+        <v>164</v>
       </c>
       <c r="H60" t="s">
         <v>37</v>
@@ -4548,20 +4755,17 @@
       <c r="I60" t="s">
         <v>21</v>
       </c>
+      <c r="J60" t="s">
+        <v>169</v>
+      </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O60" t="s">
-        <v>177</v>
-      </c>
-      <c r="P60" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4570,31 +4774,34 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>547068449</v>
+        <v>543784758</v>
       </c>
       <c r="U60">
-        <v>547068449</v>
+        <v>243307643</v>
       </c>
       <c r="V60" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1">
-        <v>42839</v>
+        <v>43499</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
@@ -4605,10 +4812,16 @@
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O61" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="P61" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>25</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4617,33 +4830,30 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>244730682</v>
+        <v>595670927</v>
       </c>
       <c r="U61">
-        <v>249341294</v>
+        <v>553491903</v>
       </c>
       <c r="V61" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D62" s="1">
-        <v>44495</v>
+        <v>42289</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
-      </c>
-      <c r="F62" t="s">
-        <v>185</v>
       </c>
       <c r="G62" t="s">
         <v>122</v>
@@ -4652,28 +4862,22 @@
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>37</v>
-      </c>
-      <c r="L62" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="O62" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P62" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="Q62" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4682,60 +4886,45 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>532416380</v>
+        <v>547068449</v>
       </c>
       <c r="U62">
-        <v>543108512</v>
+        <v>547068449</v>
       </c>
       <c r="V62" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>43950</v>
+        <v>42839</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
-      <c r="F63" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
       <c r="H63" t="s">
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>101</v>
-      </c>
-      <c r="J63" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O63" t="s">
-        <v>196</v>
-      </c>
-      <c r="P63" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4744,51 +4933,63 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>597661016</v>
+        <v>244730682</v>
       </c>
       <c r="U63">
-        <v>501213049</v>
+        <v>249341294</v>
       </c>
       <c r="V63" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>44383</v>
+        <v>44495</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
+      <c r="F64" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" t="s">
+        <v>122</v>
+      </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>186</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L64" t="s">
+        <v>187</v>
       </c>
       <c r="N64" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O64" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="P64" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4797,57 +4998,60 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>595670927</v>
+        <v>532416380</v>
       </c>
       <c r="U64">
-        <v>553491903</v>
+        <v>543108512</v>
       </c>
       <c r="V64" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>43524</v>
+        <v>43950</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H65" t="s">
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>194</v>
       </c>
       <c r="K65" t="s">
         <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O65" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P65" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="Q65" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4856,34 +5060,31 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>244678226</v>
+        <v>597661016</v>
       </c>
       <c r="U65">
-        <v>208455305</v>
+        <v>501213049</v>
       </c>
       <c r="V65" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1">
-        <v>44364</v>
+        <v>44383</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="G66" t="s">
-        <v>122</v>
-      </c>
       <c r="H66" t="s">
         <v>37</v>
       </c>
@@ -4894,16 +5095,16 @@
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="O66" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Q66" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -4912,33 +5113,36 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>243352028</v>
+        <v>595670927</v>
       </c>
       <c r="U66">
-        <v>243088742</v>
+        <v>553491903</v>
       </c>
       <c r="V66" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>44627</v>
+        <v>43524</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
+      <c r="F67" t="s">
+        <v>204</v>
+      </c>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4946,20 +5150,20 @@
       <c r="I67" t="s">
         <v>21</v>
       </c>
-      <c r="M67" t="s">
-        <v>216</v>
+      <c r="K67" t="s">
+        <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="O67" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="P67" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="Q67" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -4968,33 +5172,33 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>241861382</v>
+        <v>244678226</v>
       </c>
       <c r="U67">
-        <v>547944747</v>
+        <v>208455305</v>
       </c>
       <c r="V67" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>44430</v>
+        <v>44364</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
@@ -5006,16 +5210,16 @@
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O68" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="Q68" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -5024,54 +5228,54 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>555101040</v>
+        <v>243352028</v>
       </c>
       <c r="U68">
-        <v>537150359</v>
+        <v>243088742</v>
       </c>
       <c r="V68" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>43839</v>
+        <v>44627</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
-      <c r="F69" t="s">
-        <v>223</v>
-      </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" t="s">
-        <v>224</v>
-      </c>
-      <c r="K69" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="M69" t="s">
+        <v>216</v>
       </c>
       <c r="N69" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="O69" t="s">
-        <v>226</v>
+        <v>80</v>
+      </c>
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>82</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5080,27 +5284,27 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>554845413</v>
+        <v>241861382</v>
       </c>
       <c r="U69">
-        <v>256786281</v>
+        <v>547944747</v>
       </c>
       <c r="V69" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1">
-        <v>44661</v>
+        <v>44430</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
@@ -5118,16 +5322,16 @@
         <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="O70" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="P70" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5136,48 +5340,54 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>245424585</v>
+        <v>555101040</v>
       </c>
       <c r="U70">
-        <v>247566924</v>
+        <v>537150359</v>
       </c>
       <c r="V70" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="1">
-        <v>44459</v>
+        <v>43839</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
+      <c r="F71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" t="s">
+        <v>96</v>
+      </c>
       <c r="H71" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J71" t="s">
+        <v>224</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O71" t="s">
-        <v>232</v>
-      </c>
-      <c r="P71" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5186,31 +5396,34 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>244446781</v>
+        <v>554845413</v>
       </c>
       <c r="U71">
-        <v>249251741</v>
+        <v>256786281</v>
       </c>
       <c r="V71" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>44414</v>
+        <v>44661</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
       <c r="H72" t="s">
         <v>37</v>
       </c>
@@ -5221,16 +5434,16 @@
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="O72" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="Q72" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -5239,57 +5452,48 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>246364382</v>
+        <v>245424585</v>
       </c>
       <c r="U72">
-        <v>242830458</v>
+        <v>247566924</v>
       </c>
       <c r="V72" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D73" s="1">
-        <v>45025</v>
+        <v>44459</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
-      <c r="G73" t="s">
-        <v>122</v>
-      </c>
       <c r="H73" t="s">
         <v>37</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
       </c>
-      <c r="J73" t="s">
-        <v>169</v>
-      </c>
       <c r="K73" t="s">
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O73" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5298,54 +5502,51 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>245902055</v>
+        <v>244446781</v>
       </c>
       <c r="U73">
-        <v>557566068</v>
+        <v>249251741</v>
+      </c>
+      <c r="V73" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
         <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>43792</v>
+        <v>44414</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
-      <c r="F74" t="s">
-        <v>244</v>
-      </c>
       <c r="H74" t="s">
         <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O74" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="P74" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5354,57 +5555,57 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>538984324</v>
+        <v>246364382</v>
       </c>
       <c r="U74">
-        <v>531766425</v>
+        <v>242830458</v>
       </c>
       <c r="V74" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>43785</v>
+        <v>45025</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
-      <c r="F75" t="s">
-        <v>250</v>
-      </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
       </c>
+      <c r="J75" t="s">
+        <v>169</v>
+      </c>
       <c r="K75" t="s">
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O75" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P75" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5413,45 +5614,54 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>549821786</v>
+        <v>245902055</v>
       </c>
       <c r="U75">
-        <v>256242568</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D76" s="1">
-        <v>44687</v>
+        <v>43792</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
-      <c r="G76" t="s">
-        <v>96</v>
+      <c r="F76" t="s">
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J76" t="s">
+        <v>245</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O76" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="P76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>25</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5460,57 +5670,54 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>247633503</v>
+        <v>538984324</v>
       </c>
       <c r="U76">
-        <v>241690416</v>
+        <v>531766425</v>
       </c>
       <c r="V76" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>42797</v>
+        <v>43785</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
-      </c>
-      <c r="J77" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O77" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q77" t="s">
         <v>25</v>
@@ -5522,18 +5729,15 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>538984324</v>
+        <v>549821786</v>
       </c>
       <c r="U77">
-        <v>531766425</v>
-      </c>
-      <c r="V77" t="s">
-        <v>248</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B78" t="s">
         <v>263</v>
@@ -5542,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>44663</v>
+        <v>44687</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
@@ -5551,25 +5755,19 @@
         <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I78" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O78" t="s">
-        <v>247</v>
-      </c>
-      <c r="P78" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5578,60 +5776,60 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>538984324</v>
+        <v>247633503</v>
       </c>
       <c r="U78">
-        <v>531766425</v>
+        <v>241690416</v>
       </c>
       <c r="V78" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>42239</v>
+        <v>42797</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="G79" t="s">
+        <v>259</v>
       </c>
       <c r="H79" t="s">
         <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J79" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="K79" t="s">
-        <v>37</v>
-      </c>
-      <c r="L79" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O79" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Q79" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5640,51 +5838,54 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>549605899</v>
+        <v>538984324</v>
       </c>
       <c r="U79">
-        <v>534014247</v>
+        <v>531766425</v>
+      </c>
+      <c r="V79" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>43231</v>
+        <v>44663</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
       <c r="H80" t="s">
         <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="O80" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="P80" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Q80" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5693,15 +5894,18 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>244077227</v>
+        <v>538984324</v>
       </c>
       <c r="U80">
-        <v>245173168</v>
+        <v>531766425</v>
+      </c>
+      <c r="V80" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
         <v>265</v>
@@ -5710,34 +5914,37 @@
         <v>34</v>
       </c>
       <c r="D81" s="1">
-        <v>42088</v>
+        <v>42239</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
+      <c r="F81" t="s">
+        <v>272</v>
+      </c>
       <c r="H81" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J81" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="K81" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="L81" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N81" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O81" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q81" t="s">
         <v>109</v>
@@ -5749,27 +5956,24 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>207900244</v>
+        <v>549605899</v>
       </c>
       <c r="U81">
-        <v>599397215</v>
-      </c>
-      <c r="V81" t="s">
-        <v>284</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B82" t="s">
         <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D82" s="1">
-        <v>43085</v>
+        <v>43231</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
@@ -5778,22 +5982,22 @@
         <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J82" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O82" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P82" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="Q82" t="s">
         <v>109</v>
@@ -5805,48 +6009,54 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>243043900</v>
+        <v>244077227</v>
       </c>
       <c r="U82">
-        <v>549370765</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B83" t="s">
         <v>265</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D83" s="1">
-        <v>43108</v>
+        <v>42088</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I83" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>138</v>
       </c>
       <c r="K83" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L83" t="s">
+        <v>280</v>
       </c>
       <c r="N83" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O83" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q83" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5855,15 +6065,18 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>533254698</v>
+        <v>207900244</v>
       </c>
       <c r="U83">
-        <v>546589599</v>
+        <v>599397215</v>
+      </c>
+      <c r="V83" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
         <v>265</v>
@@ -5872,34 +6085,34 @@
         <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>43310</v>
+        <v>43085</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
-      <c r="F84" t="s">
-        <v>111</v>
-      </c>
       <c r="H84" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>169</v>
       </c>
       <c r="K84" t="s">
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O84" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P84" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -5908,18 +6121,15 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>249220522</v>
+        <v>243043900</v>
       </c>
       <c r="U84">
-        <v>241246842</v>
-      </c>
-      <c r="V84" t="s">
-        <v>298</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s">
         <v>265</v>
@@ -5928,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>43170</v>
+        <v>43108</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
@@ -5937,25 +6147,22 @@
         <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O85" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P85" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="Q85" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -5964,48 +6171,48 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>246861527</v>
+        <v>533254698</v>
       </c>
       <c r="U85">
-        <v>558286552</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
         <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>43452</v>
+        <v>43310</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
       <c r="H86" t="s">
         <v>37</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K86" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N86" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O86" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P86" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="Q86" t="s">
         <v>25</v>
@@ -6017,48 +6224,51 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>246532233</v>
+        <v>249220522</v>
       </c>
       <c r="U86">
-        <v>247792191</v>
+        <v>241246842</v>
       </c>
       <c r="V86" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s">
         <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>43118</v>
+        <v>43170</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
       <c r="H87" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J87" t="s">
+        <v>300</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="O87" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P87" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="Q87" t="s">
         <v>109</v>
@@ -6070,18 +6280,15 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>246951455</v>
+        <v>246861527</v>
       </c>
       <c r="U87">
-        <v>242684572</v>
-      </c>
-      <c r="V87" t="s">
-        <v>310</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
         <v>265</v>
@@ -6090,28 +6297,31 @@
         <v>34</v>
       </c>
       <c r="D88" s="1">
-        <v>43008</v>
+        <v>43452</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
-      <c r="F88" t="s">
-        <v>312</v>
-      </c>
       <c r="H88" t="s">
         <v>37</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J88" t="s">
+        <v>138</v>
+      </c>
+      <c r="K88" t="s">
+        <v>149</v>
       </c>
       <c r="N88" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O88" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P88" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q88" t="s">
         <v>25</v>
@@ -6123,38 +6333,38 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>246951455</v>
+        <v>246532233</v>
       </c>
       <c r="U88">
-        <v>242684572</v>
+        <v>247792191</v>
       </c>
       <c r="V88" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="1">
-        <v>44912</v>
+        <v>43118</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
-      <c r="F89" t="s">
-        <v>312</v>
-      </c>
       <c r="H89" t="s">
         <v>37</v>
       </c>
       <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
@@ -6164,10 +6374,10 @@
         <v>314</v>
       </c>
       <c r="P89" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -6187,22 +6397,22 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D90" s="1">
-        <v>42540</v>
+        <v>43008</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H90" t="s">
         <v>37</v>
@@ -6210,20 +6420,17 @@
       <c r="I90" t="s">
         <v>21</v>
       </c>
-      <c r="K90" t="s">
-        <v>21</v>
-      </c>
       <c r="N90" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P90" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="Q90" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="R90" t="s">
         <v>26</v>
@@ -6232,51 +6439,51 @@
         <v>26</v>
       </c>
       <c r="T90">
-        <v>549223419</v>
+        <v>246951455</v>
       </c>
       <c r="U90">
-        <v>547981198</v>
+        <v>242684572</v>
       </c>
       <c r="V90" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D91" s="1">
-        <v>44839</v>
+        <v>44912</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
+      <c r="F91" t="s">
+        <v>312</v>
+      </c>
       <c r="H91" t="s">
         <v>37</v>
       </c>
       <c r="I91" t="s">
         <v>21</v>
       </c>
-      <c r="K91" t="s">
-        <v>21</v>
-      </c>
       <c r="N91" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="O91" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="P91" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="Q91" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -6285,33 +6492,36 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>249220522</v>
+        <v>246951455</v>
       </c>
       <c r="U91">
-        <v>241246842</v>
+        <v>242684572</v>
       </c>
       <c r="V91" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>43831</v>
+        <v>42540</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
+      <c r="F92" t="s">
+        <v>319</v>
+      </c>
       <c r="H92" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I92" t="s">
         <v>21</v>
@@ -6320,16 +6530,16 @@
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O92" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P92" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Q92" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="R92" t="s">
         <v>26</v>
@@ -6338,57 +6548,51 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>248076761</v>
+        <v>549223419</v>
       </c>
       <c r="U92">
-        <v>551424325</v>
+        <v>547981198</v>
       </c>
       <c r="V92" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>44017</v>
+        <v>44839</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
-      <c r="F93" t="s">
-        <v>63</v>
-      </c>
       <c r="H93" t="s">
         <v>37</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
-      </c>
-      <c r="J93" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
         <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="O93" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="Q93" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="R93" t="s">
         <v>26</v>
@@ -6397,36 +6601,51 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>244446781</v>
+        <v>249220522</v>
       </c>
       <c r="U93">
-        <v>249251741</v>
+        <v>241246842</v>
       </c>
       <c r="V93" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>43774</v>
+        <v>43831</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
+      <c r="H94" t="s">
+        <v>149</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
       <c r="N94" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O94" t="s">
-        <v>337</v>
+        <v>327</v>
+      </c>
+      <c r="P94" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>328</v>
       </c>
       <c r="R94" t="s">
         <v>26</v>
@@ -6435,45 +6654,57 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>242715514</v>
+        <v>248076761</v>
       </c>
       <c r="U94">
-        <v>553488520</v>
+        <v>551424325</v>
+      </c>
+      <c r="V94" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>44112</v>
+        <v>44017</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H95" t="s">
         <v>37</v>
       </c>
       <c r="I95" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" t="s">
+        <v>331</v>
+      </c>
+      <c r="K95" t="s">
         <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="O95" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+      <c r="P95" t="s">
+        <v>233</v>
       </c>
       <c r="Q95" t="s">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6482,28 +6713,37 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>552503776</v>
+        <v>244446781</v>
       </c>
       <c r="U95">
-        <v>246922004</v>
+        <v>249251741</v>
+      </c>
+      <c r="V95" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
         <v>264</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1">
-        <v>36558</v>
+        <v>43774</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
+      <c r="N96" t="s">
+        <v>336</v>
+      </c>
+      <c r="O96" t="s">
+        <v>337</v>
+      </c>
       <c r="R96" t="s">
         <v>26</v>
       </c>
@@ -6511,78 +6751,114 @@
         <v>26</v>
       </c>
       <c r="T96">
-        <v>543357761</v>
+        <v>242715514</v>
       </c>
       <c r="U96">
-        <v>543357761</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B97" t="s">
         <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D97" s="1">
-        <v>36558</v>
+        <v>44112</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" t="s">
+        <v>339</v>
+      </c>
+      <c r="O97" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>32</v>
+      </c>
+      <c r="R97" t="s">
+        <v>26</v>
+      </c>
+      <c r="S97" t="s">
+        <v>26</v>
       </c>
       <c r="T97">
-        <v>530376302</v>
+        <v>552503776</v>
       </c>
       <c r="U97">
-        <v>530376302</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B98" t="s">
         <v>264</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1">
         <v>36558</v>
       </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="R98" t="s">
+        <v>26</v>
+      </c>
+      <c r="S98" t="s">
+        <v>26</v>
+      </c>
       <c r="T98">
-        <v>559610656</v>
+        <v>543357761</v>
       </c>
       <c r="U98">
-        <v>559610656</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s">
         <v>269</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D99" s="1">
         <v>36558</v>
       </c>
       <c r="T99">
-        <v>540901838</v>
+        <v>530376302</v>
       </c>
       <c r="U99">
-        <v>540901838</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
@@ -6591,78 +6867,78 @@
         <v>36558</v>
       </c>
       <c r="T100">
-        <v>554246016</v>
+        <v>559610656</v>
       </c>
       <c r="U100">
-        <v>541473757</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D101" s="1">
         <v>36558</v>
       </c>
       <c r="T101">
-        <v>256503657</v>
+        <v>540901838</v>
       </c>
       <c r="U101">
-        <v>256503657</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1">
         <v>36558</v>
       </c>
       <c r="T102">
-        <v>240256100</v>
+        <v>554246016</v>
       </c>
       <c r="U102">
-        <v>240256100</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B103" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
         <v>36558</v>
       </c>
       <c r="T103">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
       <c r="U103">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C104" t="s">
         <v>34</v>
@@ -6671,18 +6947,18 @@
         <v>36558</v>
       </c>
       <c r="T104">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
       <c r="U104">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="C105" t="s">
         <v>34</v>
@@ -6691,18 +6967,18 @@
         <v>36558</v>
       </c>
       <c r="T105">
-        <v>540750426</v>
+        <v>240256100</v>
       </c>
       <c r="U105">
-        <v>540750426</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
         <v>34</v>
@@ -6711,38 +6987,38 @@
         <v>36558</v>
       </c>
       <c r="T106">
-        <v>205669296</v>
+        <v>557544883</v>
       </c>
       <c r="U106">
-        <v>205669296</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D107" s="1">
         <v>36558</v>
       </c>
       <c r="T107">
-        <v>246898922</v>
+        <v>540750426</v>
       </c>
       <c r="U107">
-        <v>246898922</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
         <v>34</v>
@@ -6751,18 +7027,18 @@
         <v>36558</v>
       </c>
       <c r="T108">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
       <c r="U108">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -6770,13 +7046,53 @@
       <c r="D109" s="1">
         <v>36558</v>
       </c>
-      <c r="E109" t="s">
-        <v>26</v>
-      </c>
       <c r="T109">
+        <v>246898922</v>
+      </c>
+      <c r="U109">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>353</v>
+      </c>
+      <c r="B110" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T110">
+        <v>246898922</v>
+      </c>
+      <c r="U110">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E111" t="s">
+        <v>26</v>
+      </c>
+      <c r="T111">
         <v>546312435</v>
       </c>
-      <c r="U109">
+      <c r="U111">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C97AD-BC65-4984-9310-7BE670A62FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176DEB3-7C08-4116-824A-1E418DB9A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1343" yWindow="1418" windowWidth="17857" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="459">
   <si>
     <t>full_name</t>
   </si>
@@ -1395,6 +1395,24 @@
   </si>
   <si>
     <t>Nyame Adu Kontor</t>
+  </si>
+  <si>
+    <t>Blessing Offei</t>
+  </si>
+  <si>
+    <t>EMMA AIDOO</t>
+  </si>
+  <si>
+    <t>Albert Aidoo</t>
+  </si>
+  <si>
+    <t>phil thomson</t>
+  </si>
+  <si>
+    <t>pep</t>
+  </si>
+  <si>
+    <t>0246875311s</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1816,299 +1834,126 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44632</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>443</v>
-      </c>
-      <c r="O2" t="s">
-        <v>444</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="T2">
-        <v>249221660</v>
+        <v>246875311</v>
       </c>
       <c r="U2">
-        <v>531739740</v>
+        <v>246875311</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44846</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>446</v>
-      </c>
-      <c r="O3" t="s">
-        <v>447</v>
-      </c>
-      <c r="P3" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>371</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="T3">
-        <v>249428289</v>
+        <v>246875311</v>
       </c>
       <c r="U3">
-        <v>542364261</v>
-      </c>
-      <c r="V3" t="s">
-        <v>449</v>
+        <v>246875311</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4">
+        <v>246875311</v>
+      </c>
+      <c r="U4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>42776</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>446</v>
-      </c>
-      <c r="O4" t="s">
-        <v>447</v>
-      </c>
-      <c r="P4" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>371</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4">
-        <v>249428289</v>
-      </c>
-      <c r="U4">
-        <v>542364261</v>
-      </c>
-      <c r="V4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43309</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>446</v>
-      </c>
-      <c r="O5" t="s">
-        <v>447</v>
-      </c>
-      <c r="P5" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>371</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5">
-        <v>249428289</v>
-      </c>
-      <c r="U5">
-        <v>542364261</v>
-      </c>
-      <c r="V5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45131</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>437</v>
-      </c>
-      <c r="N7" t="s">
-        <v>438</v>
-      </c>
-      <c r="O7" t="s">
-        <v>439</v>
-      </c>
-      <c r="P7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>242</v>
-      </c>
-      <c r="R7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7">
-        <v>548045399</v>
-      </c>
-      <c r="U7">
-        <v>537571044</v>
-      </c>
-      <c r="V7" t="s">
-        <v>440</v>
+      <c r="D6" s="1">
+        <v>37327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6">
+        <v>598580720</v>
+      </c>
+      <c r="U6">
+        <v>598580720</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>45537</v>
+        <v>44632</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
+      <c r="F8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>431</v>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="O8" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P8" t="s">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
         <v>109</v>
@@ -2117,42 +1962,48 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="T8">
-        <v>554700135</v>
+        <v>249221660</v>
       </c>
       <c r="U8">
-        <v>540329706</v>
+        <v>531739740</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>42207</v>
+        <v>44846</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="O9" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="R9" t="s">
         <v>26</v>
@@ -2161,39 +2012,48 @@
         <v>26</v>
       </c>
       <c r="T9">
-        <v>243774692</v>
+        <v>249428289</v>
       </c>
       <c r="U9">
-        <v>243774692</v>
+        <v>542364261</v>
+      </c>
+      <c r="V9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>44524</v>
+        <v>42776</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
+      <c r="F10" t="s">
+        <v>451</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
       <c r="N10" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="O10" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="Q10" t="s">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
@@ -2202,39 +2062,48 @@
         <v>26</v>
       </c>
       <c r="T10">
-        <v>243774692</v>
+        <v>249428289</v>
       </c>
       <c r="U10">
-        <v>243774692</v>
+        <v>542364261</v>
+      </c>
+      <c r="V10" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>42989</v>
+        <v>43309</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
       <c r="N11" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="O11" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="R11" t="s">
         <v>26</v>
@@ -2243,86 +2112,33 @@
         <v>26</v>
       </c>
       <c r="T11">
-        <v>243774692</v>
+        <v>249428289</v>
       </c>
       <c r="U11">
-        <v>243774692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>42363</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>424</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>396</v>
-      </c>
-      <c r="O12" t="s">
-        <v>397</v>
-      </c>
-      <c r="P12" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12">
-        <v>545350088</v>
-      </c>
-      <c r="U12">
-        <v>246956426</v>
-      </c>
-      <c r="V12" t="s">
-        <v>399</v>
+        <v>542364261</v>
+      </c>
+      <c r="V11" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>36558</v>
+        <v>45131</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
-        <v>424</v>
+      <c r="G13" t="s">
+        <v>122</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
@@ -2333,17 +2149,20 @@
       <c r="K13" t="s">
         <v>21</v>
       </c>
+      <c r="M13" t="s">
+        <v>437</v>
+      </c>
       <c r="N13" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="O13" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="P13" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="Q13" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="R13" t="s">
         <v>26</v>
@@ -2352,148 +2171,130 @@
         <v>26</v>
       </c>
       <c r="T13">
-        <v>545350088</v>
+        <v>548045399</v>
       </c>
       <c r="U13">
-        <v>246956426</v>
+        <v>537571044</v>
       </c>
       <c r="V13" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>36558</v>
+        <v>45537</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
       <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>431</v>
       </c>
       <c r="N14" t="s">
-        <v>251</v>
+        <v>432</v>
       </c>
       <c r="O14" t="s">
-        <v>252</v>
+        <v>433</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>434</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="T14">
-        <v>549821786</v>
+        <v>554700135</v>
       </c>
       <c r="U14">
-        <v>256242568</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>43025</v>
+        <v>42207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="O15" t="s">
-        <v>358</v>
+        <v>427</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
       <c r="S15" t="s">
         <v>26</v>
       </c>
       <c r="T15">
-        <v>542199592</v>
+        <v>243774692</v>
       </c>
       <c r="U15">
-        <v>595947343</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>359</v>
-      </c>
-      <c r="G16" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>361</v>
-      </c>
-      <c r="M16" t="s">
-        <v>362</v>
-      </c>
       <c r="N16" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="O16" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="P16" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="Q16" t="s">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2502,54 +2303,39 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>532461394</v>
+        <v>243774692</v>
       </c>
       <c r="U16">
-        <v>548850124</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="1">
-        <v>43594</v>
+        <v>42989</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
-        <v>359</v>
-      </c>
-      <c r="G17" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
       <c r="N17" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="O17" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="P17" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2558,48 +2344,48 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>532461394</v>
+        <v>243774692</v>
       </c>
       <c r="U17">
-        <v>548850124</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>43788</v>
+        <v>42363</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G18" t="s">
-        <v>264</v>
+        <v>424</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
       <c r="N18" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="O18" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="P18" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
@@ -2611,54 +2397,54 @@
         <v>26</v>
       </c>
       <c r="T18">
-        <v>245449031</v>
+        <v>545350088</v>
       </c>
       <c r="U18">
-        <v>545891190</v>
+        <v>246956426</v>
       </c>
       <c r="V18" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>42898</v>
+        <v>36558</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
+      <c r="F19" t="s">
+        <v>424</v>
+      </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>374</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="O19" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>398</v>
       </c>
       <c r="Q19" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -2667,42 +2453,54 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>249768747</v>
+        <v>545350088</v>
       </c>
       <c r="U19">
-        <v>245716161</v>
+        <v>246956426</v>
       </c>
       <c r="V19" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>43408</v>
+        <v>36558</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
       <c r="N20" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="O20" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="R20" t="s">
         <v>26</v>
@@ -2711,104 +2509,92 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>248076761</v>
+        <v>549821786</v>
       </c>
       <c r="U20">
-        <v>551424325</v>
-      </c>
-      <c r="V20" t="s">
-        <v>382</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>43518</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>384</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N21" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="O21" t="s">
-        <v>386</v>
-      </c>
-      <c r="P21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>109</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S21" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>249245434</v>
+        <v>542199592</v>
       </c>
       <c r="U21">
-        <v>558204488</v>
-      </c>
-      <c r="V21" t="s">
-        <v>388</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>42467</v>
+        <v>44294</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>368</v>
+        <v>359</v>
+      </c>
+      <c r="G22" t="s">
+        <v>360</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>361</v>
+      </c>
+      <c r="M22" t="s">
+        <v>362</v>
       </c>
       <c r="N22" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="O22" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="P22" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="Q22" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
@@ -2817,48 +2603,54 @@
         <v>26</v>
       </c>
       <c r="T22">
-        <v>247412669</v>
+        <v>532461394</v>
       </c>
       <c r="U22">
-        <v>245649230</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>44295</v>
+        <v>43594</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>368</v>
+        <v>359</v>
+      </c>
+      <c r="G23" t="s">
+        <v>259</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
       <c r="N23" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="O23" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="P23" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="Q23" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
@@ -2867,45 +2659,48 @@
         <v>26</v>
       </c>
       <c r="T23">
-        <v>247412669</v>
+        <v>532461394</v>
       </c>
       <c r="U23">
-        <v>245649230</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>42738</v>
+        <v>43788</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
+      <c r="F24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" t="s">
+        <v>264</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
       <c r="N24" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="O24" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="P24" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="Q24" t="s">
         <v>109</v>
@@ -2917,45 +2712,54 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>545350088</v>
+        <v>245449031</v>
       </c>
       <c r="U24">
-        <v>246956426</v>
+        <v>545891190</v>
       </c>
       <c r="V24" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>43644</v>
+        <v>42898</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>374</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
       </c>
+      <c r="N25" t="s">
+        <v>375</v>
+      </c>
       <c r="O25" t="s">
-        <v>401</v>
+        <v>376</v>
+      </c>
+      <c r="P25" t="s">
+        <v>178</v>
       </c>
       <c r="Q25" t="s">
-        <v>402</v>
+        <v>178</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
@@ -2964,74 +2768,95 @@
         <v>26</v>
       </c>
       <c r="T25">
-        <v>241656149</v>
+        <v>249768747</v>
       </c>
       <c r="U25">
-        <v>241656149</v>
+        <v>245716161</v>
+      </c>
+      <c r="V25" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>42581</v>
+        <v>43408</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
+      <c r="N26" t="s">
+        <v>380</v>
+      </c>
+      <c r="O26" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>381</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
       </c>
       <c r="T26">
-        <v>533254698</v>
+        <v>248076761</v>
       </c>
       <c r="U26">
-        <v>546589599</v>
+        <v>551424325</v>
+      </c>
+      <c r="V26" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>42617</v>
+        <v>43518</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
       <c r="H27" t="s">
         <v>37</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="K27" t="s">
-        <v>21</v>
+      <c r="N27" t="s">
+        <v>385</v>
       </c>
       <c r="O27" t="s">
-        <v>401</v>
+        <v>386</v>
+      </c>
+      <c r="P27" t="s">
+        <v>387</v>
       </c>
       <c r="Q27" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -3040,48 +2865,51 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>241656149</v>
+        <v>249245434</v>
       </c>
       <c r="U27">
-        <v>241656149</v>
+        <v>558204488</v>
+      </c>
+      <c r="V27" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>44968</v>
+        <v>42467</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
+      <c r="F28" t="s">
+        <v>368</v>
+      </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
       <c r="N28" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="O28" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P28" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="Q28" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -3090,48 +2918,48 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>543469945</v>
+        <v>247412669</v>
       </c>
       <c r="U28">
-        <v>532807776</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>44351</v>
+        <v>44295</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
       <c r="N29" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="O29" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="P29" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="Q29" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -3140,24 +2968,24 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>248754494</v>
+        <v>247412669</v>
       </c>
       <c r="U29">
-        <v>593082381</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>44238</v>
+        <v>42738</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -3172,13 +3000,13 @@
         <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>397</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>398</v>
       </c>
       <c r="Q30" t="s">
         <v>109</v>
@@ -3190,54 +3018,45 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>245077487</v>
+        <v>545350088</v>
       </c>
       <c r="U30">
-        <v>543161188</v>
+        <v>246956426</v>
       </c>
       <c r="V30" t="s">
-        <v>140</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>41372</v>
+        <v>43644</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
-      <c r="J31" t="s">
-        <v>169</v>
-      </c>
       <c r="K31" t="s">
         <v>21</v>
       </c>
-      <c r="N31" t="s">
-        <v>289</v>
-      </c>
       <c r="O31" t="s">
-        <v>290</v>
-      </c>
-      <c r="P31" t="s">
-        <v>109</v>
+        <v>401</v>
       </c>
       <c r="Q31" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3246,24 +3065,24 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>243043900</v>
+        <v>241656149</v>
       </c>
       <c r="U31">
-        <v>549370765</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1">
-        <v>44084</v>
+        <v>42581</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -3274,50 +3093,32 @@
       <c r="I32" t="s">
         <v>37</v>
       </c>
-      <c r="J32" t="s">
-        <v>417</v>
-      </c>
       <c r="K32" t="s">
-        <v>149</v>
-      </c>
-      <c r="N32" t="s">
-        <v>418</v>
-      </c>
-      <c r="O32" t="s">
-        <v>419</v>
-      </c>
-      <c r="R32" t="s">
-        <v>26</v>
-      </c>
-      <c r="S32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="T32">
-        <v>256596282</v>
+        <v>533254698</v>
       </c>
       <c r="U32">
-        <v>556006080</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>36558</v>
+        <v>42617</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
-        <v>164</v>
-      </c>
       <c r="H33" t="s">
         <v>37</v>
       </c>
@@ -3327,11 +3128,11 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="N33" t="s">
-        <v>165</v>
-      </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>401</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>402</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -3340,18 +3141,15 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>543784758</v>
+        <v>241656149</v>
       </c>
       <c r="U33">
-        <v>243307643</v>
-      </c>
-      <c r="V33" t="s">
-        <v>167</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
@@ -3360,9 +3158,9 @@
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E34" s="1" t="s">
+        <v>44968</v>
+      </c>
+      <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="H34" t="s">
@@ -3375,16 +3173,16 @@
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>408</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>408</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3392,40 +3190,31 @@
       <c r="S34" t="s">
         <v>26</v>
       </c>
-      <c r="T34" s="3">
-        <v>249891601</v>
+      <c r="T34">
+        <v>543469945</v>
       </c>
       <c r="U34">
-        <v>5414805333</v>
-      </c>
-      <c r="V34" t="s">
-        <v>28</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>409</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>44782</v>
+        <v>44351</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -3434,16 +3223,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q35" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3452,31 +3241,28 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>554885693</v>
+        <v>248754494</v>
       </c>
       <c r="U35">
-        <v>542738888</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1">
-        <v>44922</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
       <c r="H36" t="s">
         <v>37</v>
       </c>
@@ -3487,16 +3273,16 @@
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>43</v>
+        <v>414</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Q36" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3505,57 +3291,54 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>243081535</v>
+        <v>245077487</v>
       </c>
       <c r="U36">
-        <v>544479394</v>
+        <v>543161188</v>
       </c>
       <c r="V36" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>415</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>44691</v>
+        <v>41372</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
       <c r="H37" t="s">
         <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
+      <c r="J37" t="s">
+        <v>169</v>
+      </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="Q37" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3564,57 +3347,45 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>543719591</v>
+        <v>243043900</v>
       </c>
       <c r="U37">
-        <v>541484405</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>416</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>45040</v>
+        <v>44084</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>417</v>
       </c>
       <c r="K38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="N38" t="s">
-        <v>57</v>
+        <v>418</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>60</v>
+        <v>419</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3623,39 +3394,33 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>548697421</v>
+        <v>256596282</v>
       </c>
       <c r="U38">
-        <v>549328229</v>
-      </c>
-      <c r="V38" t="s">
-        <v>61</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>45037</v>
+        <v>36558</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -3664,16 +3429,10 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3682,33 +3441,33 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>554246016</v>
+        <v>543784758</v>
       </c>
       <c r="U39">
-        <v>541473757</v>
+        <v>243307643</v>
+      </c>
+      <c r="V39" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>43551</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
+        <v>44852</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -3716,20 +3475,17 @@
       <c r="K40" t="s">
         <v>21</v>
       </c>
-      <c r="M40" t="s">
-        <v>67</v>
-      </c>
       <c r="N40" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="P40" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="Q40" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3737,37 +3493,40 @@
       <c r="S40" t="s">
         <v>26</v>
       </c>
-      <c r="T40">
-        <v>203218292</v>
+      <c r="T40" s="3">
+        <v>249891601</v>
       </c>
       <c r="U40">
-        <v>546407893</v>
+        <v>5414805333</v>
       </c>
       <c r="V40" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>43536</v>
+        <v>44782</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -3776,16 +3535,16 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="P41" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Q41" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3794,30 +3553,30 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>544622299</v>
+        <v>554885693</v>
       </c>
       <c r="U41">
-        <v>241651317</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>43486</v>
+        <v>44922</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
         <v>37</v>
@@ -3828,20 +3587,17 @@
       <c r="K42" t="s">
         <v>21</v>
       </c>
-      <c r="M42" t="s">
-        <v>78</v>
-      </c>
       <c r="N42" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="Q42" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3850,33 +3606,36 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>241861382</v>
+        <v>243081535</v>
       </c>
       <c r="U42">
-        <v>547944747</v>
+        <v>544479394</v>
       </c>
       <c r="V42" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>43214</v>
+        <v>44691</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s">
         <v>21</v>
@@ -3888,13 +3647,16 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>46</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3903,31 +3665,31 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>540750428</v>
+        <v>543719591</v>
       </c>
       <c r="U43">
-        <v>240127525</v>
-      </c>
-      <c r="V43" t="s">
-        <v>89</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>44390</v>
+        <v>45040</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
       <c r="H44" t="s">
         <v>37</v>
       </c>
@@ -3935,19 +3697,25 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" t="s">
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="O44" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="P44" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="Q44" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3956,33 +3724,39 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>248450590</v>
+        <v>548697421</v>
       </c>
       <c r="U44">
-        <v>548086355</v>
+        <v>549328229</v>
+      </c>
+      <c r="V44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>43582</v>
+        <v>45037</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3991,10 +3765,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="O45" t="s">
-        <v>98</v>
+        <v>65</v>
+      </c>
+      <c r="P45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>25</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -4003,36 +3783,33 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>542776117</v>
+        <v>554246016</v>
       </c>
       <c r="U45">
-        <v>556780997</v>
-      </c>
-      <c r="V45" t="s">
-        <v>99</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>42977</v>
+        <v>43551</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -4040,11 +3817,20 @@
       <c r="K46" t="s">
         <v>21</v>
       </c>
+      <c r="M46" t="s">
+        <v>67</v>
+      </c>
       <c r="N46" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="O46" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="P46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>32</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -4053,33 +3839,36 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>246469841</v>
+        <v>203218292</v>
       </c>
       <c r="U46">
-        <v>244502858</v>
+        <v>546407893</v>
       </c>
       <c r="V46" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>44057</v>
+        <v>43536</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -4088,16 +3877,16 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="O47" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Q47" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -4106,33 +3895,30 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>246645496</v>
+        <v>544622299</v>
       </c>
       <c r="U47">
-        <v>240778774</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="1">
-        <v>41923</v>
+        <v>43486</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="F48" t="s">
-        <v>111</v>
-      </c>
       <c r="G48" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
         <v>37</v>
@@ -4141,19 +3927,22 @@
         <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M48" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="N48" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="O48" t="s">
-        <v>115</v>
+        <v>80</v>
+      </c>
+      <c r="P48" t="s">
+        <v>81</v>
       </c>
       <c r="Q48" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -4162,30 +3951,36 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>248675358</v>
+        <v>241861382</v>
       </c>
       <c r="U48">
-        <v>247790941</v>
+        <v>547944747</v>
+      </c>
+      <c r="V48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>44796</v>
+        <v>43214</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -4194,16 +3989,13 @@
         <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="O49" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4212,33 +4004,33 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>599634556</v>
+        <v>540750428</v>
       </c>
       <c r="U49">
-        <v>535220641</v>
+        <v>240127525</v>
       </c>
       <c r="V49" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>268</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>44890</v>
+        <v>44390</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
-      <c r="G50" t="s">
-        <v>122</v>
+      <c r="H50" t="s">
+        <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -4247,16 +4039,16 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O50" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="Q50" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4265,54 +4057,45 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>245864268</v>
+        <v>248450590</v>
       </c>
       <c r="U50">
-        <v>247823594</v>
-      </c>
-      <c r="V50" t="s">
-        <v>125</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>43652</v>
+        <v>43582</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
       <c r="H51" t="s">
         <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="O51" t="s">
-        <v>129</v>
-      </c>
-      <c r="P51" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4321,18 +4104,18 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>543279537</v>
+        <v>542776117</v>
       </c>
       <c r="U51">
-        <v>241208687</v>
+        <v>556780997</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
         <v>267</v>
@@ -4341,13 +4124,16 @@
         <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>42673</v>
+        <v>42977</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
+      <c r="G52" t="s">
+        <v>96</v>
+      </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -4356,7 +4142,10 @@
         <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>136</v>
+        <v>104</v>
+      </c>
+      <c r="O52" t="s">
+        <v>102</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4365,21 +4154,27 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>244423888</v>
+        <v>246469841</v>
+      </c>
+      <c r="U52">
+        <v>244502858</v>
+      </c>
+      <c r="V52" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>42691</v>
+        <v>44057</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
@@ -4388,16 +4183,22 @@
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
       </c>
+      <c r="N53" t="s">
+        <v>106</v>
+      </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>107</v>
+      </c>
+      <c r="P53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>109</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4406,15 +4207,15 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>245077487</v>
-      </c>
-      <c r="V53" t="s">
-        <v>140</v>
+        <v>246645496</v>
+      </c>
+      <c r="U53">
+        <v>240778774</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
         <v>267</v>
@@ -4422,14 +4223,17 @@
       <c r="C54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="2">
-        <v>42832</v>
+      <c r="D54" s="1">
+        <v>41923</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
       <c r="G54" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H54" t="s">
         <v>37</v>
@@ -4438,16 +4242,19 @@
         <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M54" t="s">
+        <v>113</v>
       </c>
       <c r="N54" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="O54" t="s">
-        <v>144</v>
-      </c>
-      <c r="P54" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>32</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4456,27 +4263,24 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>245766735</v>
+        <v>248675358</v>
       </c>
       <c r="U54">
-        <v>245702914</v>
-      </c>
-      <c r="V54" t="s">
-        <v>145</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>42202</v>
+        <v>44796</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
@@ -4485,19 +4289,22 @@
         <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="O55" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="P55" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>25</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4506,36 +4313,33 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>248178775</v>
+        <v>599634556</v>
       </c>
       <c r="U55">
-        <v>550234225</v>
+        <v>535220641</v>
       </c>
       <c r="V55" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
+        <v>263</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>42695</v>
+        <v>44890</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -4544,16 +4348,16 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="O56" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q56" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4562,54 +4366,54 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>245424585</v>
+        <v>245864268</v>
       </c>
       <c r="U56">
-        <v>247566924</v>
+        <v>247823594</v>
       </c>
       <c r="V56" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="1">
-        <v>41794</v>
+        <v>43652</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="G57" t="s">
-        <v>112</v>
-      </c>
       <c r="H57" t="s">
         <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J57" t="s">
+        <v>127</v>
       </c>
       <c r="K57" t="s">
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="O57" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="Q57" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4618,27 +4422,27 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>245980902</v>
+        <v>543279537</v>
       </c>
       <c r="U57">
-        <v>245272449</v>
+        <v>241208687</v>
       </c>
       <c r="V57" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
         <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>43093</v>
+        <v>42673</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
@@ -4653,16 +4457,7 @@
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>158</v>
-      </c>
-      <c r="O58" t="s">
-        <v>159</v>
-      </c>
-      <c r="P58" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4671,48 +4466,39 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>245980902</v>
-      </c>
-      <c r="U58">
-        <v>245272449</v>
-      </c>
-      <c r="V58" t="s">
-        <v>161</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>43165</v>
+        <v>42691</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="F59" t="s">
-        <v>164</v>
-      </c>
       <c r="H59" t="s">
         <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>138</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
       </c>
-      <c r="N59" t="s">
-        <v>165</v>
-      </c>
       <c r="O59" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4721,18 +4507,15 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>543784758</v>
-      </c>
-      <c r="U59">
-        <v>243307643</v>
+        <v>245077487</v>
       </c>
       <c r="V59" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
         <v>267</v>
@@ -4740,14 +4523,14 @@
       <c r="C60" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="1">
-        <v>42564</v>
+      <c r="D60" s="2">
+        <v>42832</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="F60" t="s">
-        <v>164</v>
+      <c r="G60" t="s">
+        <v>142</v>
       </c>
       <c r="H60" t="s">
         <v>37</v>
@@ -4755,17 +4538,17 @@
       <c r="I60" t="s">
         <v>21</v>
       </c>
-      <c r="J60" t="s">
-        <v>169</v>
-      </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O60" t="s">
-        <v>166</v>
+        <v>144</v>
+      </c>
+      <c r="P60" t="s">
+        <v>146</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4774,54 +4557,48 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>543784758</v>
+        <v>245766735</v>
       </c>
       <c r="U60">
-        <v>243307643</v>
+        <v>245702914</v>
       </c>
       <c r="V60" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="1">
-        <v>43499</v>
+        <v>42202</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="F61" t="s">
-        <v>171</v>
-      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J61" t="s">
+        <v>148</v>
       </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N61" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="O61" t="s">
-        <v>173</v>
-      </c>
-      <c r="P61" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4830,18 +4607,18 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>595670927</v>
+        <v>248178775</v>
       </c>
       <c r="U61">
-        <v>553491903</v>
+        <v>550234225</v>
       </c>
       <c r="V61" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
         <v>267</v>
@@ -4850,13 +4627,13 @@
         <v>34</v>
       </c>
       <c r="D62" s="1">
-        <v>42289</v>
+        <v>42695</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H62" t="s">
         <v>37</v>
@@ -4868,13 +4645,13 @@
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="O62" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="Q62" t="s">
         <v>109</v>
@@ -4886,31 +4663,34 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>547068449</v>
+        <v>245424585</v>
       </c>
       <c r="U62">
-        <v>547068449</v>
+        <v>247566924</v>
       </c>
       <c r="V62" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>42839</v>
+        <v>41794</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
+      <c r="G63" t="s">
+        <v>112</v>
+      </c>
       <c r="H63" t="s">
         <v>37</v>
       </c>
@@ -4921,10 +4701,16 @@
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O63" t="s">
-        <v>182</v>
+        <v>159</v>
+      </c>
+      <c r="P63" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>160</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4933,63 +4719,51 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>244730682</v>
+        <v>245980902</v>
       </c>
       <c r="U63">
-        <v>249341294</v>
+        <v>245272449</v>
       </c>
       <c r="V63" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D64" s="1">
-        <v>44495</v>
+        <v>43093</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="F64" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" t="s">
-        <v>122</v>
-      </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>37</v>
-      </c>
-      <c r="L64" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="O64" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="Q64" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4998,60 +4772,48 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>532416380</v>
+        <v>245980902</v>
       </c>
       <c r="U64">
-        <v>543108512</v>
+        <v>245272449</v>
       </c>
       <c r="V64" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>43950</v>
+        <v>43165</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="H65" t="s">
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-      <c r="J65" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
         <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="O65" t="s">
-        <v>196</v>
-      </c>
-      <c r="P65" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -5060,51 +4822,51 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>597661016</v>
+        <v>543784758</v>
       </c>
       <c r="U65">
-        <v>501213049</v>
+        <v>243307643</v>
       </c>
       <c r="V65" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>44383</v>
+        <v>42564</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
+      <c r="F66" t="s">
+        <v>164</v>
+      </c>
       <c r="H66" t="s">
         <v>37</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
       </c>
+      <c r="J66" t="s">
+        <v>169</v>
+      </c>
       <c r="K66" t="s">
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O66" t="s">
-        <v>201</v>
-      </c>
-      <c r="P66" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -5113,36 +4875,33 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>595670927</v>
+        <v>543784758</v>
       </c>
       <c r="U66">
-        <v>553491903</v>
+        <v>243307643</v>
       </c>
       <c r="V66" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>43524</v>
+        <v>43499</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
-      </c>
-      <c r="G67" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -5154,16 +4913,16 @@
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="O67" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="P67" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="Q67" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -5172,27 +4931,27 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>244678226</v>
+        <v>595670927</v>
       </c>
       <c r="U67">
-        <v>208455305</v>
+        <v>553491903</v>
       </c>
       <c r="V67" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>44364</v>
+        <v>42289</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
@@ -5210,16 +4969,16 @@
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="O68" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="Q68" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -5228,54 +4987,45 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>243352028</v>
+        <v>547068449</v>
       </c>
       <c r="U68">
-        <v>243088742</v>
+        <v>547068449</v>
       </c>
       <c r="V68" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D69" s="1">
-        <v>44627</v>
+        <v>42839</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
-      <c r="G69" t="s">
-        <v>122</v>
-      </c>
       <c r="H69" t="s">
         <v>37</v>
       </c>
       <c r="I69" t="s">
         <v>21</v>
       </c>
-      <c r="M69" t="s">
-        <v>216</v>
+      <c r="K69" t="s">
+        <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="O69" t="s">
-        <v>80</v>
-      </c>
-      <c r="P69" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5284,54 +5034,63 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>241861382</v>
+        <v>244730682</v>
       </c>
       <c r="U69">
-        <v>547944747</v>
+        <v>249341294</v>
       </c>
       <c r="V69" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="1">
-        <v>44430</v>
+        <v>44495</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
+      <c r="F70" t="s">
+        <v>185</v>
+      </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J70" t="s">
+        <v>186</v>
       </c>
       <c r="K70" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L70" t="s">
+        <v>187</v>
       </c>
       <c r="N70" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="O70" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="Q70" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5340,18 +5099,18 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>555101040</v>
+        <v>532416380</v>
       </c>
       <c r="U70">
-        <v>537150359</v>
+        <v>543108512</v>
       </c>
       <c r="V70" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
         <v>268</v>
@@ -5360,34 +5119,40 @@
         <v>34</v>
       </c>
       <c r="D71" s="1">
-        <v>43839</v>
+        <v>43950</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J71" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="O71" t="s">
-        <v>226</v>
+        <v>196</v>
+      </c>
+      <c r="P71" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>198</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5396,34 +5161,31 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>554845413</v>
+        <v>597661016</v>
       </c>
       <c r="U71">
-        <v>256786281</v>
+        <v>501213049</v>
       </c>
       <c r="V71" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1">
-        <v>44661</v>
+        <v>44383</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="G72" t="s">
-        <v>96</v>
-      </c>
       <c r="H72" t="s">
         <v>37</v>
       </c>
@@ -5434,13 +5196,13 @@
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O72" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="P72" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="s">
         <v>25</v>
@@ -5452,31 +5214,37 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>245424585</v>
+        <v>595670927</v>
       </c>
       <c r="U72">
-        <v>247566924</v>
+        <v>553491903</v>
       </c>
       <c r="V72" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>44459</v>
+        <v>43524</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
+      <c r="F73" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" t="s">
+        <v>133</v>
+      </c>
       <c r="H73" t="s">
         <v>37</v>
       </c>
@@ -5487,13 +5255,16 @@
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="O73" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>131</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>207</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5502,31 +5273,34 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>244446781</v>
+        <v>244678226</v>
       </c>
       <c r="U73">
-        <v>249251741</v>
+        <v>208455305</v>
       </c>
       <c r="V73" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D74" s="1">
-        <v>44414</v>
+        <v>44364</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
+      <c r="G74" t="s">
+        <v>122</v>
+      </c>
       <c r="H74" t="s">
         <v>37</v>
       </c>
@@ -5537,16 +5311,16 @@
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="O74" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="Q74" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5555,27 +5329,27 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>246364382</v>
+        <v>243352028</v>
       </c>
       <c r="U74">
-        <v>242830458</v>
+        <v>243088742</v>
       </c>
       <c r="V74" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D75" s="1">
-        <v>45025</v>
+        <v>44627</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
@@ -5589,23 +5363,20 @@
       <c r="I75" t="s">
         <v>21</v>
       </c>
-      <c r="J75" t="s">
-        <v>169</v>
-      </c>
-      <c r="K75" t="s">
-        <v>21</v>
+      <c r="M75" t="s">
+        <v>216</v>
       </c>
       <c r="N75" t="s">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="O75" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="Q75" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5614,54 +5385,54 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>245902055</v>
+        <v>241861382</v>
       </c>
       <c r="U75">
-        <v>557566068</v>
+        <v>547944747</v>
+      </c>
+      <c r="V75" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
-        <v>43792</v>
+        <v>44430</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
-      <c r="F76" t="s">
-        <v>244</v>
+      <c r="G76" t="s">
+        <v>96</v>
       </c>
       <c r="H76" t="s">
         <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
-      </c>
-      <c r="J76" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="O76" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="P76" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5670,57 +5441,54 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>538984324</v>
+        <v>555101040</v>
       </c>
       <c r="U76">
-        <v>531766425</v>
+        <v>537150359</v>
       </c>
       <c r="V76" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D77" s="1">
-        <v>43785</v>
+        <v>43839</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J77" t="s">
+        <v>224</v>
       </c>
       <c r="K77" t="s">
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="O77" t="s">
-        <v>252</v>
-      </c>
-      <c r="P77" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5729,24 +5497,27 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>549821786</v>
+        <v>554845413</v>
       </c>
       <c r="U77">
-        <v>256242568</v>
+        <v>256786281</v>
+      </c>
+      <c r="V77" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
         <v>263</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>44687</v>
+        <v>44661</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
@@ -5755,7 +5526,7 @@
         <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -5764,10 +5535,16 @@
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="O78" t="s">
-        <v>256</v>
+        <v>155</v>
+      </c>
+      <c r="P78" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>25</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5776,60 +5553,48 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>247633503</v>
+        <v>245424585</v>
       </c>
       <c r="U78">
-        <v>241690416</v>
+        <v>247566924</v>
       </c>
       <c r="V78" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>42797</v>
+        <v>44459</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
-      <c r="F79" t="s">
-        <v>244</v>
-      </c>
-      <c r="G79" t="s">
-        <v>259</v>
-      </c>
       <c r="H79" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
         <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="O79" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="P79" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5838,54 +5603,51 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>538984324</v>
+        <v>244446781</v>
       </c>
       <c r="U79">
-        <v>531766425</v>
+        <v>249251741</v>
       </c>
       <c r="V79" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>44663</v>
+        <v>44414</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I80" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O80" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="P80" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5894,60 +5656,57 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>538984324</v>
+        <v>246364382</v>
       </c>
       <c r="U80">
-        <v>531766425</v>
+        <v>242830458</v>
       </c>
       <c r="V80" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1">
-        <v>42239</v>
+        <v>45025</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
-      <c r="F81" t="s">
-        <v>272</v>
+      <c r="G81" t="s">
+        <v>122</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I81" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s">
-        <v>37</v>
-      </c>
-      <c r="L81" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="O81" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="Q81" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5956,51 +5715,54 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>549605899</v>
+        <v>245902055</v>
       </c>
       <c r="U81">
-        <v>534014247</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="1">
-        <v>43231</v>
+        <v>43792</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
+      <c r="F82" t="s">
+        <v>244</v>
+      </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I82" t="s">
         <v>37</v>
       </c>
       <c r="J82" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="O82" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Q82" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -6009,54 +5771,57 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>244077227</v>
+        <v>538984324</v>
       </c>
       <c r="U82">
-        <v>245173168</v>
+        <v>531766425</v>
+      </c>
+      <c r="V82" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>42088</v>
+        <v>43785</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
+      <c r="F83" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>133</v>
+      </c>
       <c r="H83" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
-      </c>
-      <c r="J83" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>101</v>
-      </c>
-      <c r="L83" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="O83" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="Q83" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -6065,54 +5830,45 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>207900244</v>
+        <v>549821786</v>
       </c>
       <c r="U83">
-        <v>599397215</v>
-      </c>
-      <c r="V83" t="s">
-        <v>284</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>43085</v>
+        <v>44687</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I84" t="s">
         <v>21</v>
       </c>
-      <c r="J84" t="s">
-        <v>169</v>
-      </c>
       <c r="K84" t="s">
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="O84" t="s">
-        <v>290</v>
-      </c>
-      <c r="P84" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -6121,48 +5877,60 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>243043900</v>
+        <v>247633503</v>
       </c>
       <c r="U84">
-        <v>549370765</v>
+        <v>241690416</v>
+      </c>
+      <c r="V84" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>43108</v>
+        <v>42797</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
+      <c r="F85" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" t="s">
+        <v>259</v>
+      </c>
       <c r="H85" t="s">
         <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J85" t="s">
+        <v>245</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="O85" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="P85" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="Q85" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -6171,33 +5939,36 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>533254698</v>
+        <v>538984324</v>
       </c>
       <c r="U85">
-        <v>546589599</v>
+        <v>531766425</v>
+      </c>
+      <c r="V85" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>43310</v>
+        <v>44663</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
-      <c r="F86" t="s">
-        <v>111</v>
+      <c r="G86" t="s">
+        <v>96</v>
       </c>
       <c r="H86" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I86" t="s">
         <v>149</v>
@@ -6206,13 +5977,13 @@
         <v>21</v>
       </c>
       <c r="N86" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="O86" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="P86" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Q86" t="s">
         <v>25</v>
@@ -6224,51 +5995,57 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>249220522</v>
+        <v>538984324</v>
       </c>
       <c r="U86">
-        <v>241246842</v>
+        <v>531766425</v>
       </c>
       <c r="V86" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="B87" t="s">
         <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D87" s="1">
-        <v>43170</v>
+        <v>42239</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
+      <c r="F87" t="s">
+        <v>272</v>
+      </c>
       <c r="H87" t="s">
         <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J87" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="K87" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L87" t="s">
+        <v>273</v>
       </c>
       <c r="N87" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="O87" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="P87" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="Q87" t="s">
         <v>109</v>
@@ -6280,15 +6057,15 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>246861527</v>
+        <v>549605899</v>
       </c>
       <c r="U87">
-        <v>558286552</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
         <v>265</v>
@@ -6297,13 +6074,13 @@
         <v>34</v>
       </c>
       <c r="D88" s="1">
-        <v>43452</v>
+        <v>43231</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
         <v>37</v>
@@ -6312,19 +6089,19 @@
         <v>138</v>
       </c>
       <c r="K88" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="O88" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -6333,18 +6110,15 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>246532233</v>
+        <v>244077227</v>
       </c>
       <c r="U88">
-        <v>247792191</v>
-      </c>
-      <c r="V88" t="s">
-        <v>307</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="B89" t="s">
         <v>265</v>
@@ -6353,28 +6127,34 @@
         <v>34</v>
       </c>
       <c r="D89" s="1">
-        <v>43118</v>
+        <v>42088</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J89" t="s">
+        <v>138</v>
       </c>
       <c r="K89" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L89" t="s">
+        <v>280</v>
       </c>
       <c r="N89" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="O89" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="P89" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="Q89" t="s">
         <v>109</v>
@@ -6386,51 +6166,54 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>246951455</v>
+        <v>207900244</v>
       </c>
       <c r="U89">
-        <v>242684572</v>
+        <v>599397215</v>
       </c>
       <c r="V89" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
         <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>43008</v>
+        <v>43085</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
-      <c r="F90" t="s">
-        <v>312</v>
-      </c>
       <c r="H90" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
         <v>21</v>
       </c>
+      <c r="J90" t="s">
+        <v>169</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
       <c r="N90" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="O90" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="P90" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R90" t="s">
         <v>26</v>
@@ -6439,51 +6222,48 @@
         <v>26</v>
       </c>
       <c r="T90">
-        <v>246951455</v>
+        <v>243043900</v>
       </c>
       <c r="U90">
-        <v>242684572</v>
-      </c>
-      <c r="V90" t="s">
-        <v>310</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>44912</v>
+        <v>43108</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="F91" t="s">
-        <v>312</v>
-      </c>
       <c r="H91" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
+        <v>149</v>
+      </c>
+      <c r="K91" t="s">
         <v>21</v>
       </c>
       <c r="N91" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="O91" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="P91" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -6492,54 +6272,51 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>246951455</v>
+        <v>533254698</v>
       </c>
       <c r="U91">
-        <v>242684572</v>
-      </c>
-      <c r="V91" t="s">
-        <v>310</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>42540</v>
+        <v>43310</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="H92" t="s">
         <v>37</v>
       </c>
       <c r="I92" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="K92" t="s">
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O92" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="P92" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q92" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="R92" t="s">
         <v>26</v>
@@ -6548,45 +6325,48 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>549223419</v>
+        <v>249220522</v>
       </c>
       <c r="U92">
-        <v>547981198</v>
+        <v>241246842</v>
       </c>
       <c r="V92" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>44839</v>
+        <v>43170</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J93" t="s">
+        <v>300</v>
       </c>
       <c r="K93" t="s">
         <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O93" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P93" t="s">
         <v>134</v>
@@ -6601,51 +6381,51 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>249220522</v>
+        <v>246861527</v>
       </c>
       <c r="U93">
-        <v>241246842</v>
-      </c>
-      <c r="V93" t="s">
-        <v>324</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D94" s="1">
-        <v>43831</v>
+        <v>43452</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
       <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" t="s">
         <v>149</v>
       </c>
-      <c r="I94" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" t="s">
-        <v>21</v>
-      </c>
       <c r="N94" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="O94" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="P94" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Q94" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="R94" t="s">
         <v>26</v>
@@ -6654,57 +6434,51 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>248076761</v>
+        <v>246532233</v>
       </c>
       <c r="U94">
-        <v>551424325</v>
+        <v>247792191</v>
       </c>
       <c r="V94" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D95" s="1">
-        <v>44017</v>
+        <v>43118</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
       </c>
-      <c r="F95" t="s">
-        <v>63</v>
-      </c>
       <c r="H95" t="s">
         <v>37</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
-      </c>
-      <c r="J95" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
         <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="O95" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="Q95" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6713,36 +6487,51 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>244446781</v>
+        <v>246951455</v>
       </c>
       <c r="U95">
-        <v>249251741</v>
+        <v>242684572</v>
       </c>
       <c r="V95" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1">
-        <v>43774</v>
+        <v>43008</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
+      <c r="F96" t="s">
+        <v>312</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
       <c r="N96" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="O96" t="s">
-        <v>337</v>
+        <v>314</v>
+      </c>
+      <c r="P96" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>25</v>
       </c>
       <c r="R96" t="s">
         <v>26</v>
@@ -6751,74 +6540,107 @@
         <v>26</v>
       </c>
       <c r="T96">
-        <v>242715514</v>
+        <v>246951455</v>
       </c>
       <c r="U96">
-        <v>553488520</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+        <v>242684572</v>
+      </c>
+      <c r="V96" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="1">
-        <v>44112</v>
+        <v>44912</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
       </c>
       <c r="F97" t="s">
+        <v>312</v>
+      </c>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" t="s">
+        <v>313</v>
+      </c>
+      <c r="O97" t="s">
+        <v>314</v>
+      </c>
+      <c r="P97" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>25</v>
+      </c>
+      <c r="R97" t="s">
+        <v>26</v>
+      </c>
+      <c r="S97" t="s">
+        <v>26</v>
+      </c>
+      <c r="T97">
+        <v>246951455</v>
+      </c>
+      <c r="U97">
+        <v>242684572</v>
+      </c>
+      <c r="V97" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42540</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" t="s">
         <v>319</v>
       </c>
-      <c r="H97" t="s">
-        <v>37</v>
-      </c>
-      <c r="I97" t="s">
-        <v>21</v>
-      </c>
-      <c r="N97" t="s">
-        <v>339</v>
-      </c>
-      <c r="O97" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>32</v>
-      </c>
-      <c r="R97" t="s">
-        <v>26</v>
-      </c>
-      <c r="S97" t="s">
-        <v>26</v>
-      </c>
-      <c r="T97">
-        <v>552503776</v>
-      </c>
-      <c r="U97">
-        <v>246922004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>341</v>
-      </c>
-      <c r="B98" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E98" t="s">
-        <v>26</v>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" t="s">
+        <v>320</v>
+      </c>
+      <c r="O98" t="s">
+        <v>321</v>
+      </c>
+      <c r="P98" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>146</v>
       </c>
       <c r="R98" t="s">
         <v>26</v>
@@ -6827,118 +6649,268 @@
         <v>26</v>
       </c>
       <c r="T98">
-        <v>543357761</v>
+        <v>549223419</v>
       </c>
       <c r="U98">
-        <v>543357761</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+        <v>547981198</v>
+      </c>
+      <c r="V98" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="1">
-        <v>36558</v>
+        <v>44839</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" t="s">
+        <v>296</v>
+      </c>
+      <c r="O99" t="s">
+        <v>297</v>
+      </c>
+      <c r="P99" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>109</v>
+      </c>
+      <c r="R99" t="s">
+        <v>26</v>
+      </c>
+      <c r="S99" t="s">
+        <v>26</v>
       </c>
       <c r="T99">
-        <v>530376302</v>
+        <v>249220522</v>
       </c>
       <c r="U99">
-        <v>530376302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+        <v>241246842</v>
+      </c>
+      <c r="V99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="1">
-        <v>36558</v>
+        <v>43831</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s">
+        <v>149</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" t="s">
+        <v>326</v>
+      </c>
+      <c r="O100" t="s">
+        <v>327</v>
+      </c>
+      <c r="P100" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>328</v>
+      </c>
+      <c r="R100" t="s">
+        <v>26</v>
+      </c>
+      <c r="S100" t="s">
+        <v>26</v>
       </c>
       <c r="T100">
-        <v>559610656</v>
+        <v>248076761</v>
       </c>
       <c r="U100">
-        <v>559610656</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+        <v>551424325</v>
+      </c>
+      <c r="V100" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>36558</v>
+        <v>44017</v>
+      </c>
+      <c r="E101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s">
+        <v>331</v>
+      </c>
+      <c r="K101" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" t="s">
+        <v>231</v>
+      </c>
+      <c r="O101" t="s">
+        <v>332</v>
+      </c>
+      <c r="P101" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>333</v>
+      </c>
+      <c r="R101" t="s">
+        <v>26</v>
+      </c>
+      <c r="S101" t="s">
+        <v>26</v>
       </c>
       <c r="T101">
-        <v>540901838</v>
+        <v>244446781</v>
       </c>
       <c r="U101">
-        <v>540901838</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+        <v>249251741</v>
+      </c>
+      <c r="V101" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C102" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>36558</v>
+        <v>43774</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" t="s">
+        <v>336</v>
+      </c>
+      <c r="O102" t="s">
+        <v>337</v>
+      </c>
+      <c r="R102" t="s">
+        <v>26</v>
+      </c>
+      <c r="S102" t="s">
+        <v>26</v>
       </c>
       <c r="T102">
-        <v>554246016</v>
+        <v>242715514</v>
       </c>
       <c r="U102">
-        <v>541473757</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+        <v>553488520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D103" s="1">
-        <v>36558</v>
+        <v>44112</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" t="s">
+        <v>319</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" t="s">
+        <v>339</v>
+      </c>
+      <c r="O103" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>32</v>
+      </c>
+      <c r="R103" t="s">
+        <v>26</v>
+      </c>
+      <c r="S103" t="s">
+        <v>26</v>
       </c>
       <c r="T103">
-        <v>256503657</v>
+        <v>552503776</v>
       </c>
       <c r="U103">
-        <v>256503657</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+        <v>246922004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
         <v>34</v>
@@ -6946,59 +6918,68 @@
       <c r="D104" s="1">
         <v>36558</v>
       </c>
+      <c r="E104" t="s">
+        <v>26</v>
+      </c>
+      <c r="R104" t="s">
+        <v>26</v>
+      </c>
+      <c r="S104" t="s">
+        <v>26</v>
+      </c>
       <c r="T104">
-        <v>240256100</v>
+        <v>543357761</v>
       </c>
       <c r="U104">
-        <v>240256100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+        <v>543357761</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D105" s="1">
         <v>36558</v>
       </c>
       <c r="T105">
-        <v>240256100</v>
+        <v>530376302</v>
       </c>
       <c r="U105">
-        <v>240256100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+        <v>530376302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D106" s="1">
         <v>36558</v>
       </c>
       <c r="T106">
-        <v>557544883</v>
+        <v>559610656</v>
       </c>
       <c r="U106">
-        <v>557544883</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+        <v>559610656</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
         <v>34</v>
@@ -7007,38 +6988,38 @@
         <v>36558</v>
       </c>
       <c r="T107">
-        <v>540750426</v>
+        <v>540901838</v>
       </c>
       <c r="U107">
-        <v>540750426</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+        <v>540901838</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D108" s="1">
         <v>36558</v>
       </c>
       <c r="T108">
-        <v>205669296</v>
+        <v>554246016</v>
       </c>
       <c r="U108">
-        <v>205669296</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+        <v>541473757</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -7047,18 +7028,18 @@
         <v>36558</v>
       </c>
       <c r="T109">
-        <v>246898922</v>
+        <v>256503657</v>
       </c>
       <c r="U109">
-        <v>246898922</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256503657</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B110" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
         <v>34</v>
@@ -7067,32 +7048,152 @@
         <v>36558</v>
       </c>
       <c r="T110">
-        <v>246898922</v>
+        <v>240256100</v>
       </c>
       <c r="U110">
-        <v>246898922</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D111" s="1">
         <v>36558</v>
       </c>
-      <c r="E111" t="s">
-        <v>26</v>
-      </c>
       <c r="T111">
+        <v>240256100</v>
+      </c>
+      <c r="U111">
+        <v>240256100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T112">
+        <v>557544883</v>
+      </c>
+      <c r="U112">
+        <v>557544883</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>350</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T113">
+        <v>540750426</v>
+      </c>
+      <c r="U113">
+        <v>540750426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T114">
+        <v>205669296</v>
+      </c>
+      <c r="U114">
+        <v>205669296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T115">
+        <v>246898922</v>
+      </c>
+      <c r="U115">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>353</v>
+      </c>
+      <c r="B116" t="s">
+        <v>354</v>
+      </c>
+      <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T116">
+        <v>246898922</v>
+      </c>
+      <c r="U116">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>355</v>
+      </c>
+      <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="T117">
         <v>546312435</v>
       </c>
-      <c r="U111">
+      <c r="U117">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176DEB3-7C08-4116-824A-1E418DB9A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A4E28-36E7-48F4-B17A-300EC84B3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1343" yWindow="727" windowWidth="17857" windowHeight="9383" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="459">
   <si>
     <t>full_name</t>
   </si>
@@ -1412,7 +1412,7 @@
     <t>pep</t>
   </si>
   <si>
-    <t>0246875311s</t>
+    <t>king kong</t>
   </si>
 </sst>
 </file>
@@ -1735,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1834,10 +1834,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
       <c r="T2">
         <v>246875311</v>
@@ -1848,11 +1851,29 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>266</v>
       </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
       <c r="T3">
         <v>246875311</v>
       </c>
@@ -1862,148 +1883,97 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37289</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
       <c r="T4">
         <v>246875311</v>
       </c>
-      <c r="U4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="U4">
+        <v>246875311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5">
+        <v>246875311</v>
+      </c>
+      <c r="U5">
+        <v>246875311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>453</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>269</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>37327</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7">
         <v>598580720</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>598580720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44632</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>443</v>
-      </c>
-      <c r="O8" t="s">
-        <v>444</v>
-      </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>109</v>
-      </c>
-      <c r="R8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8">
-        <v>249221660</v>
-      </c>
-      <c r="U8">
-        <v>531739740</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>44846</v>
+        <v>44632</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
-        <v>138</v>
+      <c r="F9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P9" t="s">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>371</v>
+        <v>109</v>
       </c>
       <c r="R9" t="s">
         <v>26</v>
@@ -2012,33 +1982,30 @@
         <v>26</v>
       </c>
       <c r="T9">
-        <v>249428289</v>
+        <v>249221660</v>
       </c>
       <c r="U9">
-        <v>542364261</v>
-      </c>
-      <c r="V9" t="s">
-        <v>449</v>
+        <v>531739740</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>42776</v>
+        <v>44846</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>451</v>
+      <c r="J10" t="s">
+        <v>138</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -2073,22 +2040,22 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>43309</v>
+        <v>42776</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" t="s">
-        <v>138</v>
+      <c r="F11" t="s">
+        <v>451</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -2121,68 +2088,59 @@
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>437</v>
-      </c>
-      <c r="N13" t="s">
-        <v>438</v>
-      </c>
-      <c r="O13" t="s">
-        <v>439</v>
-      </c>
-      <c r="P13" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>242</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13">
-        <v>548045399</v>
-      </c>
-      <c r="U13">
-        <v>537571044</v>
-      </c>
-      <c r="V13" t="s">
-        <v>440</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>446</v>
+      </c>
+      <c r="O12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>371</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12">
+        <v>249428289</v>
+      </c>
+      <c r="U12">
+        <v>542364261</v>
+      </c>
+      <c r="V12" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -2191,66 +2149,84 @@
         <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>45537</v>
+        <v>45131</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>431</v>
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>437</v>
       </c>
       <c r="N14" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O14" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P14" t="s">
         <v>434</v>
       </c>
       <c r="Q14" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="T14">
-        <v>554700135</v>
+        <v>548045399</v>
       </c>
       <c r="U14">
-        <v>540329706</v>
+        <v>537571044</v>
+      </c>
+      <c r="V14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
-        <v>42207</v>
+        <v>45537</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>431</v>
+      </c>
       <c r="N15" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="Q15" t="s">
         <v>109</v>
@@ -2259,27 +2235,27 @@
         <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="T15">
-        <v>243774692</v>
+        <v>554700135</v>
       </c>
       <c r="U15">
-        <v>243774692</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>44524</v>
+        <v>42207</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -2311,16 +2287,16 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>42989</v>
+        <v>44524</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -2352,7 +2328,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
         <v>267</v>
@@ -2361,31 +2337,19 @@
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>42363</v>
+        <v>42989</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>424</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
       <c r="N18" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O18" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P18" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
@@ -2397,27 +2361,24 @@
         <v>26</v>
       </c>
       <c r="T18">
-        <v>545350088</v>
+        <v>243774692</v>
       </c>
       <c r="U18">
-        <v>246956426</v>
-      </c>
-      <c r="V18" t="s">
-        <v>399</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>36558</v>
+        <v>42363</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -2464,10 +2425,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -2479,10 +2440,10 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -2491,16 +2452,16 @@
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="O20" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="Q20" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R20" t="s">
         <v>26</v>
@@ -2509,118 +2470,109 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>549821786</v>
+        <v>545350088</v>
       </c>
       <c r="U20">
-        <v>256242568</v>
+        <v>246956426</v>
+      </c>
+      <c r="V20" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>43025</v>
+        <v>36558</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="O21" t="s">
-        <v>358</v>
+        <v>252</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
       <c r="S21" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>542199592</v>
+        <v>549821786</v>
       </c>
       <c r="U21">
-        <v>595947343</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>44294</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" t="s">
-        <v>361</v>
-      </c>
-      <c r="M22" t="s">
-        <v>362</v>
+        <v>43025</v>
       </c>
       <c r="N22" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="O22" t="s">
-        <v>363</v>
-      </c>
-      <c r="P22" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>365</v>
-      </c>
-      <c r="R22" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S22" t="s">
         <v>26</v>
       </c>
       <c r="T22">
-        <v>532461394</v>
+        <v>542199592</v>
       </c>
       <c r="U22">
-        <v>548850124</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>43594</v>
+        <v>44294</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -2629,16 +2581,25 @@
         <v>359</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" t="s">
+        <v>362</v>
       </c>
       <c r="N23" t="s">
         <v>364</v>
@@ -2667,25 +2628,25 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>43788</v>
+        <v>43594</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G24" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
@@ -2693,17 +2654,20 @@
       <c r="I24" t="s">
         <v>21</v>
       </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
       <c r="N24" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O24" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P24" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="Q24" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2712,54 +2676,51 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>245449031</v>
+        <v>532461394</v>
       </c>
       <c r="U24">
-        <v>545891190</v>
-      </c>
-      <c r="V24" t="s">
-        <v>372</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>42898</v>
+        <v>43788</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
+      <c r="F25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" t="s">
+        <v>264</v>
+      </c>
       <c r="H25" t="s">
         <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s">
-        <v>374</v>
-      </c>
-      <c r="K25" t="s">
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O25" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="Q25" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
@@ -2768,42 +2729,54 @@
         <v>26</v>
       </c>
       <c r="T25">
-        <v>249768747</v>
+        <v>245449031</v>
       </c>
       <c r="U25">
-        <v>245716161</v>
+        <v>545891190</v>
       </c>
       <c r="V25" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>43408</v>
+        <v>42898</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>374</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
       <c r="N26" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O26" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="Q26" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2812,51 +2785,42 @@
         <v>26</v>
       </c>
       <c r="T26">
-        <v>248076761</v>
+        <v>249768747</v>
       </c>
       <c r="U26">
-        <v>551424325</v>
+        <v>245716161</v>
       </c>
       <c r="V26" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>43518</v>
+        <v>43408</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
-        <v>384</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
       <c r="N27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O27" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="P27" t="s">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2865,33 +2829,33 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>249245434</v>
+        <v>248076761</v>
       </c>
       <c r="U27">
-        <v>558204488</v>
+        <v>551424325</v>
       </c>
       <c r="V27" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
-        <v>42467</v>
+        <v>43518</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>368</v>
+      <c r="G28" t="s">
+        <v>384</v>
       </c>
       <c r="H28" t="s">
         <v>37</v>
@@ -2900,16 +2864,16 @@
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O28" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q28" t="s">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2918,24 +2882,27 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>247412669</v>
+        <v>249245434</v>
       </c>
       <c r="U28">
-        <v>245649230</v>
+        <v>558204488</v>
+      </c>
+      <c r="V28" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>44295</v>
+        <v>42467</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -2976,40 +2943,40 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>42738</v>
+        <v>44295</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
+      <c r="F30" t="s">
+        <v>368</v>
+      </c>
       <c r="H30" t="s">
         <v>37</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
       <c r="N30" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O30" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P30" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -3018,27 +2985,24 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>545350088</v>
+        <v>247412669</v>
       </c>
       <c r="U30">
-        <v>246956426</v>
-      </c>
-      <c r="V30" t="s">
-        <v>399</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B31" t="s">
         <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1">
-        <v>43644</v>
+        <v>42738</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -3052,11 +3016,17 @@
       <c r="K31" t="s">
         <v>21</v>
       </c>
+      <c r="N31" t="s">
+        <v>396</v>
+      </c>
       <c r="O31" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="P31" t="s">
+        <v>398</v>
       </c>
       <c r="Q31" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3065,47 +3035,62 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>241656149</v>
+        <v>545350088</v>
       </c>
       <c r="U31">
-        <v>241656149</v>
+        <v>246956426</v>
+      </c>
+      <c r="V31" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="1">
-        <v>42581</v>
+        <v>43644</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
       </c>
+      <c r="O32" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>402</v>
+      </c>
+      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
       <c r="T32">
-        <v>533254698</v>
+        <v>241656149</v>
       </c>
       <c r="U32">
-        <v>546589599</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B33" t="s">
         <v>267</v>
@@ -3114,57 +3099,45 @@
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>42617</v>
+        <v>42581</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="O33" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>402</v>
-      </c>
-      <c r="R33" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" t="s">
-        <v>26</v>
-      </c>
       <c r="T33">
-        <v>241656149</v>
+        <v>533254698</v>
       </c>
       <c r="U33">
-        <v>241656149</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
-        <v>44968</v>
+        <v>42617</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
@@ -3172,17 +3145,11 @@
       <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="N34" t="s">
-        <v>406</v>
-      </c>
       <c r="O34" t="s">
-        <v>407</v>
-      </c>
-      <c r="P34" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q34" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3191,30 +3158,30 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>543469945</v>
+        <v>241656149</v>
       </c>
       <c r="U34">
-        <v>532807776</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>44351</v>
+        <v>44968</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -3223,16 +3190,16 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O35" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P35" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="Q35" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3241,30 +3208,30 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>248754494</v>
+        <v>543469945</v>
       </c>
       <c r="U35">
-        <v>593082381</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>44238</v>
+        <v>44351</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
@@ -3273,16 +3240,16 @@
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>411</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="Q36" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3291,51 +3258,45 @@
         <v>26</v>
       </c>
       <c r="T36">
-        <v>245077487</v>
+        <v>248754494</v>
       </c>
       <c r="U36">
-        <v>543161188</v>
-      </c>
-      <c r="V36" t="s">
-        <v>140</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>41372</v>
+        <v>44238</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="J37" t="s">
-        <v>169</v>
-      </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="O37" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="P37" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="Q37" t="s">
         <v>109</v>
@@ -3347,24 +3308,27 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>243043900</v>
+        <v>245077487</v>
       </c>
       <c r="U37">
-        <v>549370765</v>
+        <v>543161188</v>
+      </c>
+      <c r="V37" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
-        <v>44084</v>
+        <v>41372</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -3373,19 +3337,25 @@
         <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>417</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>418</v>
+        <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>419</v>
+        <v>290</v>
+      </c>
+      <c r="P38" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>109</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3394,45 +3364,45 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>256596282</v>
+        <v>243043900</v>
       </c>
       <c r="U38">
-        <v>556006080</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>36558</v>
+        <v>44084</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
-      <c r="F39" t="s">
-        <v>164</v>
-      </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>417</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N39" t="s">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="O39" t="s">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3441,33 +3411,33 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>543784758</v>
+        <v>256596282</v>
       </c>
       <c r="U39">
-        <v>243307643</v>
-      </c>
-      <c r="V39" t="s">
-        <v>167</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>420</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>36558</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -3476,16 +3446,10 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3493,40 +3457,34 @@
       <c r="S40" t="s">
         <v>26</v>
       </c>
-      <c r="T40" s="3">
-        <v>249891601</v>
+      <c r="T40">
+        <v>543784758</v>
       </c>
       <c r="U40">
-        <v>5414805333</v>
+        <v>243307643</v>
       </c>
       <c r="V40" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>44782</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
+        <v>44852</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -3535,16 +3493,16 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O41" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="P41" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q41" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3552,31 +3510,37 @@
       <c r="S41" t="s">
         <v>26</v>
       </c>
-      <c r="T41">
-        <v>554885693</v>
+      <c r="T41" s="3">
+        <v>249891601</v>
       </c>
       <c r="U41">
-        <v>542738888</v>
+        <v>5414805333</v>
+      </c>
+      <c r="V41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1">
-        <v>44922</v>
+        <v>44782</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
         <v>37</v>
@@ -3588,16 +3552,16 @@
         <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3606,39 +3570,33 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>243081535</v>
+        <v>554885693</v>
       </c>
       <c r="U42">
-        <v>544479394</v>
-      </c>
-      <c r="V42" t="s">
-        <v>47</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>44691</v>
+        <v>44922</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -3647,13 +3605,13 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q43" t="s">
         <v>46</v>
@@ -3665,57 +3623,57 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>543719591</v>
+        <v>243081535</v>
       </c>
       <c r="U43">
-        <v>541484405</v>
+        <v>544479394</v>
+      </c>
+      <c r="V43" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1">
-        <v>45040</v>
+        <v>44691</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>37</v>
-      </c>
-      <c r="L44" t="s">
-        <v>55</v>
-      </c>
-      <c r="M44" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q44" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3724,57 +3682,57 @@
         <v>26</v>
       </c>
       <c r="T44">
-        <v>548697421</v>
+        <v>543719591</v>
       </c>
       <c r="U44">
-        <v>549328229</v>
-      </c>
-      <c r="V44" t="s">
-        <v>61</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
-      </c>
-      <c r="F45" t="s">
-        <v>63</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" t="s">
+        <v>56</v>
       </c>
       <c r="N45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3783,33 +3741,39 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>554246016</v>
+        <v>548697421</v>
       </c>
       <c r="U45">
-        <v>541473757</v>
+        <v>549328229</v>
+      </c>
+      <c r="V45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1">
-        <v>43551</v>
+        <v>45037</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>63</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3817,20 +3781,17 @@
       <c r="K46" t="s">
         <v>21</v>
       </c>
-      <c r="M46" t="s">
-        <v>67</v>
-      </c>
       <c r="N46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q46" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3839,36 +3800,33 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>203218292</v>
+        <v>554246016</v>
       </c>
       <c r="U46">
-        <v>546407893</v>
-      </c>
-      <c r="V46" t="s">
-        <v>71</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>43536</v>
+        <v>43551</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3876,17 +3834,20 @@
       <c r="K47" t="s">
         <v>21</v>
       </c>
+      <c r="M47" t="s">
+        <v>67</v>
+      </c>
       <c r="N47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q47" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3895,33 +3856,36 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>544622299</v>
+        <v>203218292</v>
       </c>
       <c r="U47">
-        <v>241651317</v>
+        <v>546407893</v>
+      </c>
+      <c r="V47" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>43486</v>
+        <v>43536</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
@@ -3929,20 +3893,17 @@
       <c r="K48" t="s">
         <v>21</v>
       </c>
-      <c r="M48" t="s">
-        <v>78</v>
-      </c>
       <c r="N48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3951,18 +3912,15 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>241861382</v>
+        <v>544622299</v>
       </c>
       <c r="U48">
-        <v>547944747</v>
-      </c>
-      <c r="V48" t="s">
-        <v>83</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>265</v>
@@ -3971,16 +3929,16 @@
         <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>43214</v>
+        <v>43486</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -3988,14 +3946,20 @@
       <c r="K49" t="s">
         <v>21</v>
       </c>
+      <c r="M49" t="s">
+        <v>78</v>
+      </c>
       <c r="N49" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P49" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>82</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4004,33 +3968,36 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>540750428</v>
+        <v>241861382</v>
       </c>
       <c r="U49">
-        <v>240127525</v>
+        <v>547944747</v>
       </c>
       <c r="V49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>44390</v>
+        <v>43214</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -4039,16 +4006,13 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4057,31 +4021,31 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>248450590</v>
+        <v>540750428</v>
       </c>
       <c r="U50">
-        <v>548086355</v>
+        <v>240127525</v>
+      </c>
+      <c r="V50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1">
-        <v>43582</v>
+        <v>44390</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
-      <c r="G51" t="s">
-        <v>96</v>
-      </c>
       <c r="H51" t="s">
         <v>37</v>
       </c>
@@ -4092,10 +4056,16 @@
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O51" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="P51" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>94</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4104,27 +4074,24 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>542776117</v>
+        <v>248450590</v>
       </c>
       <c r="U51">
-        <v>556780997</v>
-      </c>
-      <c r="V51" t="s">
-        <v>99</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>42977</v>
+        <v>43582</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -4133,7 +4100,7 @@
         <v>96</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -4142,10 +4109,10 @@
         <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4154,33 +4121,36 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>246469841</v>
+        <v>542776117</v>
       </c>
       <c r="U52">
-        <v>244502858</v>
+        <v>556780997</v>
       </c>
       <c r="V52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>44057</v>
+        <v>42977</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
       <c r="H53" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -4189,16 +4159,10 @@
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O53" t="s">
-        <v>107</v>
-      </c>
-      <c r="P53" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4207,34 +4171,31 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>246645496</v>
+        <v>246469841</v>
       </c>
       <c r="U53">
-        <v>240778774</v>
+        <v>244502858</v>
+      </c>
+      <c r="V53" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>41923</v>
+        <v>44057</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
-      <c r="F54" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" t="s">
-        <v>112</v>
-      </c>
       <c r="H54" t="s">
         <v>37</v>
       </c>
@@ -4242,19 +4203,19 @@
         <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O54" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="P54" t="s">
+        <v>108</v>
       </c>
       <c r="Q54" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4263,28 +4224,34 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>248675358</v>
+        <v>246645496</v>
       </c>
       <c r="U54">
-        <v>247790941</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>44796</v>
+        <v>41923</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
       <c r="H55" t="s">
         <v>37</v>
       </c>
@@ -4292,19 +4259,19 @@
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M55" t="s">
+        <v>113</v>
       </c>
       <c r="N55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O55" t="s">
-        <v>118</v>
-      </c>
-      <c r="P55" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4313,33 +4280,30 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>599634556</v>
+        <v>248675358</v>
       </c>
       <c r="U55">
-        <v>535220641</v>
-      </c>
-      <c r="V55" t="s">
-        <v>120</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>44890</v>
+        <v>44796</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="G56" t="s">
-        <v>122</v>
+      <c r="H56" t="s">
+        <v>37</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -4348,13 +4312,13 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O56" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Q56" t="s">
         <v>25</v>
@@ -4366,54 +4330,51 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>245864268</v>
+        <v>599634556</v>
       </c>
       <c r="U56">
-        <v>247823594</v>
+        <v>535220641</v>
       </c>
       <c r="V56" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
-      </c>
-      <c r="C57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="1">
-        <v>43652</v>
+        <v>44890</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="H57" t="s">
-        <v>37</v>
+      <c r="G57" t="s">
+        <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="Q57" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4422,27 +4383,27 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>543279537</v>
+        <v>245864268</v>
       </c>
       <c r="U57">
-        <v>241208687</v>
+        <v>247823594</v>
       </c>
       <c r="V57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>42673</v>
+        <v>43652</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
@@ -4451,13 +4412,25 @@
         <v>37</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J58" t="s">
+        <v>127</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="O58" t="s">
+        <v>129</v>
+      </c>
+      <c r="P58" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>131</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4466,21 +4439,27 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>244423888</v>
+        <v>543279537</v>
+      </c>
+      <c r="U58">
+        <v>241208687</v>
+      </c>
+      <c r="V58" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
         <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>42691</v>
+        <v>42673</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
@@ -4489,16 +4468,13 @@
         <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
       </c>
-      <c r="O59" t="s">
-        <v>139</v>
+      <c r="N59" t="s">
+        <v>136</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4507,15 +4483,12 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>245077487</v>
-      </c>
-      <c r="V59" t="s">
-        <v>140</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
         <v>267</v>
@@ -4523,32 +4496,26 @@
       <c r="C60" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="2">
-        <v>42832</v>
+      <c r="D60" s="1">
+        <v>42691</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="G60" t="s">
-        <v>142</v>
-      </c>
       <c r="H60" t="s">
         <v>37</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J60" t="s">
+        <v>138</v>
       </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
-      <c r="N60" t="s">
-        <v>143</v>
-      </c>
       <c r="O60" t="s">
-        <v>144</v>
-      </c>
-      <c r="P60" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4557,48 +4524,48 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>245766735</v>
-      </c>
-      <c r="U60">
-        <v>245702914</v>
+        <v>245077487</v>
       </c>
       <c r="V60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="1">
-        <v>42202</v>
+      <c r="D61" s="2">
+        <v>42832</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
+      <c r="G61" t="s">
+        <v>142</v>
+      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>101</v>
-      </c>
-      <c r="J61" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O61" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="P61" t="s">
+        <v>146</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4607,54 +4574,48 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>248178775</v>
+        <v>245766735</v>
       </c>
       <c r="U61">
-        <v>550234225</v>
+        <v>245702914</v>
       </c>
       <c r="V61" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="1">
-        <v>42695</v>
+        <v>42202</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
       </c>
-      <c r="G62" t="s">
-        <v>142</v>
-      </c>
       <c r="H62" t="s">
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J62" t="s">
+        <v>148</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O62" t="s">
-        <v>155</v>
-      </c>
-      <c r="P62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4663,33 +4624,33 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>245424585</v>
+        <v>248178775</v>
       </c>
       <c r="U62">
-        <v>247566924</v>
+        <v>550234225</v>
       </c>
       <c r="V62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1">
-        <v>41794</v>
+        <v>42695</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="H63" t="s">
         <v>37</v>
@@ -4701,16 +4662,16 @@
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P63" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4719,30 +4680,33 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>245980902</v>
+        <v>245424585</v>
       </c>
       <c r="U63">
-        <v>245272449</v>
+        <v>247566924</v>
       </c>
       <c r="V63" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>43093</v>
+        <v>41794</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>112</v>
       </c>
       <c r="H64" t="s">
         <v>37</v>
@@ -4783,23 +4747,20 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>43165</v>
+        <v>43093</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
-      <c r="F65" t="s">
-        <v>164</v>
-      </c>
       <c r="H65" t="s">
         <v>37</v>
       </c>
@@ -4810,10 +4771,16 @@
         <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P65" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>160</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4822,27 +4789,27 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U65">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V65" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>42564</v>
+        <v>43165</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
@@ -4856,9 +4823,6 @@
       <c r="I66" t="s">
         <v>21</v>
       </c>
-      <c r="J66" t="s">
-        <v>169</v>
-      </c>
       <c r="K66" t="s">
         <v>21</v>
       </c>
@@ -4886,22 +4850,22 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>43499</v>
+        <v>42564</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4909,20 +4873,17 @@
       <c r="I67" t="s">
         <v>21</v>
       </c>
+      <c r="J67" t="s">
+        <v>169</v>
+      </c>
       <c r="K67" t="s">
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O67" t="s">
-        <v>173</v>
-      </c>
-      <c r="P67" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -4931,33 +4892,33 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>595670927</v>
+        <v>543784758</v>
       </c>
       <c r="U67">
-        <v>553491903</v>
+        <v>243307643</v>
       </c>
       <c r="V67" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>42289</v>
+        <v>43499</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
       </c>
-      <c r="G68" t="s">
-        <v>122</v>
+      <c r="F68" t="s">
+        <v>171</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
@@ -4969,16 +4930,16 @@
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O68" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Q68" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -4987,31 +4948,34 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>547068449</v>
+        <v>595670927</v>
       </c>
       <c r="U68">
-        <v>547068449</v>
+        <v>553491903</v>
       </c>
       <c r="V68" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
         <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>42839</v>
+        <v>42289</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
+      <c r="G69" t="s">
+        <v>122</v>
+      </c>
       <c r="H69" t="s">
         <v>37</v>
       </c>
@@ -5022,10 +4986,16 @@
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O69" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="P69" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>109</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5034,63 +5004,45 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>244730682</v>
+        <v>547068449</v>
       </c>
       <c r="U69">
-        <v>249341294</v>
+        <v>547068449</v>
       </c>
       <c r="V69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="1">
-        <v>44495</v>
+        <v>42839</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
-      <c r="F70" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70" t="s">
-        <v>122</v>
-      </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>37</v>
-      </c>
-      <c r="L70" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O70" t="s">
-        <v>189</v>
-      </c>
-      <c r="P70" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5099,60 +5051,63 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>532416380</v>
+        <v>244730682</v>
       </c>
       <c r="U70">
-        <v>543108512</v>
+        <v>249341294</v>
       </c>
       <c r="V70" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>43950</v>
+        <v>44495</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L71" t="s">
+        <v>187</v>
       </c>
       <c r="N71" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O71" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="Q71" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5161,51 +5116,60 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>597661016</v>
+        <v>532416380</v>
       </c>
       <c r="U71">
-        <v>501213049</v>
+        <v>543108512</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
         <v>268</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>44383</v>
+        <v>43950</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
+      <c r="F72" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
       <c r="H72" t="s">
         <v>37</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>194</v>
       </c>
       <c r="K72" t="s">
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O72" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -5214,37 +5178,31 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>595670927</v>
+        <v>597661016</v>
       </c>
       <c r="U72">
-        <v>553491903</v>
+        <v>501213049</v>
       </c>
       <c r="V72" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>43524</v>
+        <v>44383</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
-      <c r="F73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" t="s">
-        <v>133</v>
-      </c>
       <c r="H73" t="s">
         <v>37</v>
       </c>
@@ -5255,16 +5213,16 @@
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="O73" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P73" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="Q73" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5273,33 +5231,36 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>244678226</v>
+        <v>595670927</v>
       </c>
       <c r="U73">
-        <v>208455305</v>
+        <v>553491903</v>
       </c>
       <c r="V73" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>44364</v>
+        <v>43524</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
+      <c r="F74" t="s">
+        <v>204</v>
+      </c>
       <c r="G74" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
         <v>37</v>
@@ -5311,16 +5272,16 @@
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="Q74" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5329,27 +5290,27 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>243352028</v>
+        <v>244678226</v>
       </c>
       <c r="U74">
-        <v>243088742</v>
+        <v>208455305</v>
       </c>
       <c r="V74" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C75" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="1">
-        <v>44627</v>
+        <v>44364</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
@@ -5363,20 +5324,20 @@
       <c r="I75" t="s">
         <v>21</v>
       </c>
-      <c r="M75" t="s">
-        <v>216</v>
+      <c r="K75" t="s">
+        <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="O75" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="P75" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="Q75" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5385,33 +5346,33 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>241861382</v>
+        <v>243352028</v>
       </c>
       <c r="U75">
-        <v>547944747</v>
+        <v>243088742</v>
       </c>
       <c r="V75" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D76" s="1">
-        <v>44430</v>
+        <v>44627</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H76" t="s">
         <v>37</v>
@@ -5419,20 +5380,20 @@
       <c r="I76" t="s">
         <v>21</v>
       </c>
-      <c r="K76" t="s">
-        <v>21</v>
+      <c r="M76" t="s">
+        <v>216</v>
       </c>
       <c r="N76" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="O76" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="Q76" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5441,54 +5402,54 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>555101040</v>
+        <v>241861382</v>
       </c>
       <c r="U76">
-        <v>537150359</v>
+        <v>547944747</v>
       </c>
       <c r="V76" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>43839</v>
+        <v>44430</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
-      </c>
-      <c r="F77" t="s">
-        <v>223</v>
       </c>
       <c r="G77" t="s">
         <v>96</v>
       </c>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
-      </c>
-      <c r="J77" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O77" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="P77" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>221</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5497,54 +5458,54 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>554845413</v>
+        <v>555101040</v>
       </c>
       <c r="U77">
-        <v>256786281</v>
+        <v>537150359</v>
       </c>
       <c r="V77" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>44661</v>
+        <v>43839</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>223</v>
       </c>
       <c r="G78" t="s">
         <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J78" t="s">
+        <v>224</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="O78" t="s">
-        <v>155</v>
-      </c>
-      <c r="P78" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5553,18 +5514,18 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>245424585</v>
+        <v>554845413</v>
       </c>
       <c r="U78">
-        <v>247566924</v>
+        <v>256786281</v>
       </c>
       <c r="V78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
         <v>263</v>
@@ -5573,11 +5534,14 @@
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>44459</v>
+        <v>44661</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
       <c r="H79" t="s">
         <v>37</v>
       </c>
@@ -5588,13 +5552,16 @@
         <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="O79" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>146</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>25</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5603,27 +5570,27 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>244446781</v>
+        <v>245424585</v>
       </c>
       <c r="U79">
-        <v>249251741</v>
+        <v>247566924</v>
       </c>
       <c r="V79" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1">
-        <v>44414</v>
+        <v>44459</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
@@ -5638,16 +5605,13 @@
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O80" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5656,10 +5620,10 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>246364382</v>
+        <v>244446781</v>
       </c>
       <c r="U80">
-        <v>242830458</v>
+        <v>249251741</v>
       </c>
       <c r="V80" t="s">
         <v>161</v>
@@ -5667,46 +5631,40 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="1">
-        <v>45025</v>
+        <v>44414</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
-      <c r="G81" t="s">
-        <v>122</v>
-      </c>
       <c r="H81" t="s">
         <v>37</v>
       </c>
       <c r="I81" t="s">
         <v>21</v>
       </c>
-      <c r="J81" t="s">
-        <v>169</v>
-      </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O81" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q81" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5715,54 +5673,57 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>245902055</v>
+        <v>246364382</v>
       </c>
       <c r="U81">
-        <v>557566068</v>
+        <v>242830458</v>
+      </c>
+      <c r="V81" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D82" s="1">
-        <v>43792</v>
+        <v>45025</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
-      <c r="F82" t="s">
-        <v>244</v>
+      <c r="G82" t="s">
+        <v>122</v>
       </c>
       <c r="H82" t="s">
         <v>37</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O82" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P82" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5771,54 +5732,51 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>538984324</v>
+        <v>245902055</v>
       </c>
       <c r="U82">
-        <v>531766425</v>
-      </c>
-      <c r="V82" t="s">
-        <v>248</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
         <v>269</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D83" s="1">
-        <v>43785</v>
+        <v>43792</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>250</v>
-      </c>
-      <c r="G83" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>245</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O83" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P83" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q83" t="s">
         <v>25</v>
@@ -5830,33 +5788,39 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>549821786</v>
+        <v>538984324</v>
       </c>
       <c r="U83">
-        <v>256242568</v>
+        <v>531766425</v>
+      </c>
+      <c r="V83" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>44687</v>
+        <v>43785</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
+      <c r="F84" t="s">
+        <v>250</v>
+      </c>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
         <v>21</v>
@@ -5865,10 +5829,16 @@
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O84" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="P84" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>25</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -5877,60 +5847,45 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>247633503</v>
+        <v>549821786</v>
       </c>
       <c r="U84">
-        <v>241690416</v>
-      </c>
-      <c r="V84" t="s">
-        <v>257</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>42797</v>
+        <v>44687</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
-      <c r="F85" t="s">
-        <v>244</v>
-      </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O85" t="s">
-        <v>247</v>
-      </c>
-      <c r="P85" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -5939,39 +5894,45 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>538984324</v>
+        <v>247633503</v>
       </c>
       <c r="U85">
-        <v>531766425</v>
+        <v>241690416</v>
       </c>
       <c r="V85" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>44663</v>
+        <v>42797</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
+      <c r="F86" t="s">
+        <v>244</v>
+      </c>
       <c r="G86" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="H86" t="s">
         <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J86" t="s">
+        <v>245</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
@@ -6006,49 +5967,43 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>42239</v>
+        <v>44663</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
-      <c r="F87" t="s">
-        <v>272</v>
+      <c r="G87" t="s">
+        <v>96</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>101</v>
-      </c>
-      <c r="J87" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="K87" t="s">
-        <v>37</v>
-      </c>
-      <c r="L87" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O87" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Q87" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R87" t="s">
         <v>26</v>
@@ -6057,15 +6012,18 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>549605899</v>
+        <v>538984324</v>
       </c>
       <c r="U87">
-        <v>534014247</v>
+        <v>531766425</v>
+      </c>
+      <c r="V87" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
         <v>265</v>
@@ -6074,31 +6032,37 @@
         <v>34</v>
       </c>
       <c r="D88" s="1">
-        <v>43231</v>
+        <v>42239</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
+      <c r="F88" t="s">
+        <v>272</v>
+      </c>
       <c r="H88" t="s">
         <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J88" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="K88" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L88" t="s">
+        <v>273</v>
       </c>
       <c r="N88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O88" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Q88" t="s">
         <v>109</v>
@@ -6110,15 +6074,15 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>244077227</v>
+        <v>549605899</v>
       </c>
       <c r="U88">
-        <v>245173168</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
         <v>265</v>
@@ -6127,13 +6091,13 @@
         <v>34</v>
       </c>
       <c r="D89" s="1">
-        <v>42088</v>
+        <v>43231</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
         <v>37</v>
@@ -6142,19 +6106,16 @@
         <v>138</v>
       </c>
       <c r="K89" t="s">
-        <v>101</v>
-      </c>
-      <c r="L89" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O89" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q89" t="s">
         <v>109</v>
@@ -6166,51 +6127,51 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>207900244</v>
+        <v>244077227</v>
       </c>
       <c r="U89">
-        <v>599397215</v>
-      </c>
-      <c r="V89" t="s">
-        <v>284</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
         <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D90" s="1">
-        <v>43085</v>
+        <v>42088</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J90" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="K90" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L90" t="s">
+        <v>280</v>
       </c>
       <c r="N90" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O90" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P90" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="Q90" t="s">
         <v>109</v>
@@ -6222,15 +6183,18 @@
         <v>26</v>
       </c>
       <c r="T90">
-        <v>243043900</v>
+        <v>207900244</v>
       </c>
       <c r="U90">
-        <v>549370765</v>
+        <v>599397215</v>
+      </c>
+      <c r="V90" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
         <v>265</v>
@@ -6239,7 +6203,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>43108</v>
+        <v>43085</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
@@ -6248,22 +6212,25 @@
         <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>169</v>
       </c>
       <c r="K91" t="s">
         <v>21</v>
       </c>
       <c r="N91" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O91" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P91" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="Q91" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -6272,15 +6239,15 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>533254698</v>
+        <v>243043900</v>
       </c>
       <c r="U91">
-        <v>546589599</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B92" t="s">
         <v>265</v>
@@ -6289,16 +6256,13 @@
         <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>43310</v>
+        <v>43108</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
-      <c r="F92" t="s">
-        <v>111</v>
-      </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I92" t="s">
         <v>149</v>
@@ -6307,16 +6271,16 @@
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O92" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P92" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R92" t="s">
         <v>26</v>
@@ -6325,18 +6289,15 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>249220522</v>
+        <v>533254698</v>
       </c>
       <c r="U92">
-        <v>241246842</v>
-      </c>
-      <c r="V92" t="s">
-        <v>298</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B93" t="s">
         <v>265</v>
@@ -6345,34 +6306,34 @@
         <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>43170</v>
+        <v>43310</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
-      </c>
-      <c r="J93" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="K93" t="s">
         <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P93" t="s">
         <v>134</v>
       </c>
       <c r="Q93" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R93" t="s">
         <v>26</v>
@@ -6381,51 +6342,54 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>246861527</v>
+        <v>249220522</v>
       </c>
       <c r="U93">
-        <v>558286552</v>
+        <v>241246842</v>
+      </c>
+      <c r="V93" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B94" t="s">
         <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>43452</v>
+        <v>43170</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
         <v>37</v>
       </c>
       <c r="J94" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="K94" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O94" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R94" t="s">
         <v>26</v>
@@ -6434,18 +6398,15 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>246532233</v>
+        <v>246861527</v>
       </c>
       <c r="U94">
-        <v>247792191</v>
-      </c>
-      <c r="V94" t="s">
-        <v>307</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B95" t="s">
         <v>265</v>
@@ -6454,7 +6415,7 @@
         <v>34</v>
       </c>
       <c r="D95" s="1">
-        <v>43118</v>
+        <v>43452</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -6463,22 +6424,25 @@
         <v>37</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J95" t="s">
+        <v>138</v>
       </c>
       <c r="K95" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N95" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O95" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q95" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6487,18 +6451,18 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>246951455</v>
+        <v>246532233</v>
       </c>
       <c r="U95">
-        <v>242684572</v>
+        <v>247792191</v>
       </c>
       <c r="V95" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B96" t="s">
         <v>265</v>
@@ -6507,18 +6471,18 @@
         <v>34</v>
       </c>
       <c r="D96" s="1">
-        <v>43008</v>
+        <v>43118</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
-      <c r="F96" t="s">
-        <v>312</v>
-      </c>
       <c r="H96" t="s">
         <v>37</v>
       </c>
       <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
         <v>21</v>
       </c>
       <c r="N96" t="s">
@@ -6528,10 +6492,10 @@
         <v>314</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R96" t="s">
         <v>26</v>
@@ -6551,16 +6515,16 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="1">
-        <v>44912</v>
+        <v>43008</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
@@ -6604,22 +6568,22 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1">
-        <v>42540</v>
+        <v>44912</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H98" t="s">
         <v>37</v>
@@ -6627,20 +6591,17 @@
       <c r="I98" t="s">
         <v>21</v>
       </c>
-      <c r="K98" t="s">
-        <v>21</v>
-      </c>
       <c r="N98" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P98" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="Q98" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="R98" t="s">
         <v>26</v>
@@ -6649,31 +6610,34 @@
         <v>26</v>
       </c>
       <c r="T98">
-        <v>549223419</v>
+        <v>246951455</v>
       </c>
       <c r="U98">
-        <v>547981198</v>
+        <v>242684572</v>
       </c>
       <c r="V98" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="1">
-        <v>44839</v>
+        <v>42540</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
       </c>
+      <c r="F99" t="s">
+        <v>319</v>
+      </c>
       <c r="H99" t="s">
         <v>37</v>
       </c>
@@ -6684,16 +6648,16 @@
         <v>21</v>
       </c>
       <c r="N99" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="O99" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="P99" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q99" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -6702,33 +6666,33 @@
         <v>26</v>
       </c>
       <c r="T99">
-        <v>249220522</v>
+        <v>549223419</v>
       </c>
       <c r="U99">
-        <v>241246842</v>
+        <v>547981198</v>
       </c>
       <c r="V99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="1">
-        <v>43831</v>
+        <v>44839</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I100" t="s">
         <v>21</v>
@@ -6737,16 +6701,16 @@
         <v>21</v>
       </c>
       <c r="N100" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="O100" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="P100" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Q100" t="s">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -6755,57 +6719,51 @@
         <v>26</v>
       </c>
       <c r="T100">
-        <v>248076761</v>
+        <v>249220522</v>
       </c>
       <c r="U100">
-        <v>551424325</v>
+        <v>241246842</v>
       </c>
       <c r="V100" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>44017</v>
+        <v>43831</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
       </c>
-      <c r="F101" t="s">
-        <v>63</v>
-      </c>
       <c r="H101" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I101" t="s">
-        <v>37</v>
-      </c>
-      <c r="J101" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
         <v>21</v>
       </c>
       <c r="N101" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="O101" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="Q101" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="R101" t="s">
         <v>26</v>
@@ -6814,18 +6772,18 @@
         <v>26</v>
       </c>
       <c r="T101">
-        <v>244446781</v>
+        <v>248076761</v>
       </c>
       <c r="U101">
-        <v>249251741</v>
+        <v>551424325</v>
       </c>
       <c r="V101" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B102" t="s">
         <v>264</v>
@@ -6834,16 +6792,37 @@
         <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>43774</v>
+        <v>44017</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
       </c>
+      <c r="F102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s">
+        <v>37</v>
+      </c>
+      <c r="J102" t="s">
+        <v>331</v>
+      </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
       <c r="N102" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="O102" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="P102" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>333</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -6852,45 +6831,36 @@
         <v>26</v>
       </c>
       <c r="T102">
-        <v>242715514</v>
+        <v>244446781</v>
       </c>
       <c r="U102">
-        <v>553488520</v>
+        <v>249251741</v>
+      </c>
+      <c r="V102" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>44112</v>
+        <v>43774</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
       </c>
-      <c r="F103" t="s">
-        <v>319</v>
-      </c>
-      <c r="H103" t="s">
-        <v>37</v>
-      </c>
-      <c r="I103" t="s">
-        <v>21</v>
-      </c>
       <c r="N103" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O103" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -6899,28 +6869,46 @@
         <v>26</v>
       </c>
       <c r="T103">
-        <v>552503776</v>
+        <v>242715514</v>
       </c>
       <c r="U103">
-        <v>246922004</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="1">
-        <v>36558</v>
+        <v>44112</v>
       </c>
       <c r="E104" t="s">
         <v>26</v>
       </c>
+      <c r="F104" t="s">
+        <v>319</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" t="s">
+        <v>339</v>
+      </c>
+      <c r="O104" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>32</v>
+      </c>
       <c r="R104" t="s">
         <v>26</v>
       </c>
@@ -6928,38 +6916,47 @@
         <v>26</v>
       </c>
       <c r="T104">
-        <v>543357761</v>
+        <v>552503776</v>
       </c>
       <c r="U104">
-        <v>543357761</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D105" s="1">
         <v>36558</v>
       </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+      <c r="R105" t="s">
+        <v>26</v>
+      </c>
+      <c r="S105" t="s">
+        <v>26</v>
+      </c>
       <c r="T105">
-        <v>530376302</v>
+        <v>543357761</v>
       </c>
       <c r="U105">
-        <v>530376302</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
@@ -6968,58 +6965,58 @@
         <v>36558</v>
       </c>
       <c r="T106">
-        <v>559610656</v>
+        <v>530376302</v>
       </c>
       <c r="U106">
-        <v>559610656</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D107" s="1">
         <v>36558</v>
       </c>
       <c r="T107">
-        <v>540901838</v>
+        <v>559610656</v>
       </c>
       <c r="U107">
-        <v>540901838</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s">
         <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D108" s="1">
         <v>36558</v>
       </c>
       <c r="T108">
-        <v>554246016</v>
+        <v>540901838</v>
       </c>
       <c r="U108">
-        <v>541473757</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -7028,38 +7025,38 @@
         <v>36558</v>
       </c>
       <c r="T109">
-        <v>256503657</v>
+        <v>554246016</v>
       </c>
       <c r="U109">
-        <v>256503657</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D110" s="1">
         <v>36558</v>
       </c>
       <c r="T110">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
       <c r="U110">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C111" t="s">
         <v>34</v>
@@ -7076,10 +7073,10 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
@@ -7088,18 +7085,18 @@
         <v>36558</v>
       </c>
       <c r="T112">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
       <c r="U112">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
@@ -7108,15 +7105,15 @@
         <v>36558</v>
       </c>
       <c r="T113">
-        <v>540750426</v>
+        <v>557544883</v>
       </c>
       <c r="U113">
-        <v>540750426</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s">
         <v>122</v>
@@ -7128,41 +7125,41 @@
         <v>36558</v>
       </c>
       <c r="T114">
-        <v>205669296</v>
+        <v>540750426</v>
       </c>
       <c r="U114">
-        <v>205669296</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D115" s="1">
         <v>36558</v>
       </c>
       <c r="T115">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
       <c r="U115">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1">
         <v>36558</v>
@@ -7176,24 +7173,44 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D117" s="1">
         <v>36558</v>
       </c>
-      <c r="E117" t="s">
-        <v>26</v>
-      </c>
       <c r="T117">
+        <v>246898922</v>
+      </c>
+      <c r="U117">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" t="s">
+        <v>270</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="T118">
         <v>546312435</v>
       </c>
-      <c r="U117">
+      <c r="U118">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A4E28-36E7-48F4-B17A-300EC84B3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97253C60-F8FE-4EBF-938E-D662256EFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1343" yWindow="727" windowWidth="17857" windowHeight="9383" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1148" yWindow="1418" windowWidth="17857" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="456">
   <si>
     <t>full_name</t>
   </si>
@@ -1400,19 +1400,10 @@
     <t>Blessing Offei</t>
   </si>
   <si>
-    <t>EMMA AIDOO</t>
-  </si>
-  <si>
-    <t>Albert Aidoo</t>
-  </si>
-  <si>
-    <t>phil thomson</t>
-  </si>
-  <si>
-    <t>pep</t>
-  </si>
-  <si>
-    <t>king kong</t>
+    <t>Cailo</t>
+  </si>
+  <si>
+    <t>Florence Osam Bentil</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q2" activeCellId="1" sqref="U2 Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1834,51 +1825,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
       <c r="T2">
-        <v>246875311</v>
+        <v>539868288</v>
       </c>
       <c r="U2">
-        <v>246875311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3">
-        <v>246875311</v>
-      </c>
-      <c r="U3">
-        <v>246875311</v>
+        <v>539868288</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -1886,27 +1851,19 @@
         <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37289</v>
       </c>
       <c r="T4">
-        <v>246875311</v>
+        <v>543661177</v>
       </c>
       <c r="U4">
-        <v>246875311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B5" t="s">
-        <v>266</v>
-      </c>
-      <c r="T5">
-        <v>246875311</v>
-      </c>
-      <c r="U5">
-        <v>246875311</v>
+        <v>543661177</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97253C60-F8FE-4EBF-938E-D662256EFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D835F6E-6614-4059-A9E4-169BAA523146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1148" yWindow="1418" windowWidth="17857" windowHeight="9382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="468">
   <si>
     <t>full_name</t>
   </si>
@@ -1373,37 +1373,73 @@
     <t>Millicent Oduro</t>
   </si>
   <si>
+    <t>Samuel Adu-Marboah</t>
+  </si>
+  <si>
+    <t>Anita Adu-Marboah</t>
+  </si>
+  <si>
+    <t>Welder</t>
+  </si>
+  <si>
+    <t>MD 512-9</t>
+  </si>
+  <si>
+    <t>Nyame Adu Kontor</t>
+  </si>
+  <si>
+    <t>Priscilla Mensah</t>
+  </si>
+  <si>
+    <t>Annabelle Esaawa Mensah</t>
+  </si>
+  <si>
+    <t>Nana Kojo Prah Mensah</t>
+  </si>
+  <si>
+    <t>Moses Dadzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244730682	</t>
+  </si>
+  <si>
     <t>Aseda Essandoah</t>
   </si>
   <si>
-    <t>Samuel Adu-Marboah</t>
-  </si>
-  <si>
-    <t>Anita Adu-Marboah</t>
-  </si>
-  <si>
-    <t>Welder</t>
-  </si>
-  <si>
-    <t>MD 512-9</t>
-  </si>
-  <si>
     <t>Comfort Adu-Yeboah</t>
   </si>
   <si>
-    <t>Abok Memorial school</t>
-  </si>
-  <si>
-    <t>Nyame Adu Kontor</t>
+    <t xml:space="preserve">0249428289	</t>
+  </si>
+  <si>
+    <t>Nyamekye Adu Kontor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class 3	</t>
   </si>
   <si>
     <t>Blessing Offei</t>
   </si>
   <si>
+    <t xml:space="preserve">0598580720	</t>
+  </si>
+  <si>
+    <t>Kojo Appianing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0248754494	</t>
+  </si>
+  <si>
+    <t>kelvin Nyarko</t>
+  </si>
+  <si>
+    <t>Florence Osam Bentil</t>
+  </si>
+  <si>
     <t>Cailo</t>
   </si>
   <si>
-    <t>Florence Osam Bentil</t>
+    <t xml:space="preserve">0543661177	</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q2" activeCellId="1" sqref="U2 Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1825,365 +1861,208 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>37289</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="T2">
-        <v>539868288</v>
+        <v>256701567</v>
       </c>
       <c r="U2">
-        <v>539868288</v>
+        <v>532729761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="T3">
+        <v>246898922</v>
+      </c>
+      <c r="U3">
+        <v>246898922</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4">
+        <v>246898922</v>
+      </c>
+      <c r="U4">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5">
+        <v>244730682</v>
+      </c>
+      <c r="U5" t="s">
         <v>454</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" t="s">
         <v>122</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37289</v>
-      </c>
-      <c r="T4">
-        <v>543661177</v>
-      </c>
-      <c r="U4">
-        <v>543661177</v>
+      <c r="T6">
+        <v>249428289</v>
+      </c>
+      <c r="U6">
+        <v>542364261</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>37327</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7">
-        <v>598580720</v>
+        <v>267</v>
+      </c>
+      <c r="T7" t="s">
+        <v>457</v>
       </c>
       <c r="U7">
-        <v>598580720</v>
+        <v>542364261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>459</v>
+      </c>
+      <c r="T8">
+        <v>249428289</v>
+      </c>
+      <c r="U8">
+        <v>542364261</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44632</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>443</v>
-      </c>
-      <c r="O9" t="s">
-        <v>444</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>109</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9">
-        <v>249221660</v>
+        <v>269</v>
+      </c>
+      <c r="T9" t="s">
+        <v>461</v>
       </c>
       <c r="U9">
-        <v>531739740</v>
+        <v>598580720</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44846</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>446</v>
-      </c>
-      <c r="O10" t="s">
-        <v>447</v>
-      </c>
-      <c r="P10" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>371</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10">
-        <v>249428289</v>
-      </c>
-      <c r="U10">
-        <v>542364261</v>
-      </c>
-      <c r="V10" t="s">
-        <v>449</v>
+        <v>269</v>
+      </c>
+      <c r="T10" t="s">
+        <v>463</v>
+      </c>
+      <c r="U10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42776</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>451</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>446</v>
-      </c>
-      <c r="O11" t="s">
-        <v>447</v>
-      </c>
-      <c r="P11" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>371</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="T11">
-        <v>249428289</v>
-      </c>
-      <c r="U11">
-        <v>542364261</v>
-      </c>
-      <c r="V11" t="s">
-        <v>449</v>
+        <v>247838486</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43309</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>446</v>
-      </c>
-      <c r="O12" t="s">
-        <v>447</v>
-      </c>
-      <c r="P12" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>371</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="T12">
-        <v>249428289</v>
+        <v>539868288</v>
       </c>
       <c r="U12">
-        <v>542364261</v>
-      </c>
-      <c r="V12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B14" t="s">
+        <v>539868288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" t="s">
-        <v>437</v>
-      </c>
-      <c r="N14" t="s">
-        <v>438</v>
-      </c>
-      <c r="O14" t="s">
-        <v>439</v>
-      </c>
-      <c r="P14" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>242</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14">
-        <v>548045399</v>
-      </c>
-      <c r="U14">
-        <v>537571044</v>
-      </c>
-      <c r="V14" t="s">
-        <v>440</v>
+      <c r="T13" t="s">
+        <v>467</v>
+      </c>
+      <c r="U13">
+        <v>543661177</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>45537</v>
+        <v>44632</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
+      <c r="F15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>431</v>
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="O15" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P15" t="s">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="Q15" t="s">
         <v>109</v>
@@ -2192,42 +2071,48 @@
         <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="T15">
-        <v>554700135</v>
+        <v>249221660</v>
       </c>
       <c r="U15">
-        <v>540329706</v>
+        <v>531739740</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>42207</v>
+        <v>43309</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
       <c r="N16" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="O16" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
       <c r="Q16" t="s">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2236,39 +2121,57 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>243774692</v>
+        <v>249428289</v>
       </c>
       <c r="U16">
-        <v>243774692</v>
+        <v>542364261</v>
+      </c>
+      <c r="V16" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
-        <v>44524</v>
+        <v>45131</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>437</v>
+      </c>
       <c r="N17" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="O17" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2277,36 +2180,45 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>243774692</v>
+        <v>548045399</v>
       </c>
       <c r="U17">
-        <v>243774692</v>
+        <v>537571044</v>
+      </c>
+      <c r="V17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>42989</v>
+        <v>45537</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>431</v>
+      </c>
       <c r="N18" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O18" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
@@ -2315,51 +2227,39 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="T18">
-        <v>243774692</v>
+        <v>554700135</v>
       </c>
       <c r="U18">
-        <v>243774692</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>42363</v>
+        <v>42207</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>424</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
       <c r="N19" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O19" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P19" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="Q19" t="s">
         <v>109</v>
@@ -2371,18 +2271,15 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>545350088</v>
+        <v>243774692</v>
       </c>
       <c r="U19">
-        <v>246956426</v>
-      </c>
-      <c r="V19" t="s">
-        <v>399</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B20" t="s">
         <v>263</v>
@@ -2391,31 +2288,19 @@
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>36558</v>
+        <v>44524</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
       <c r="N20" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O20" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P20" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="Q20" t="s">
         <v>109</v>
@@ -2427,54 +2312,39 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>545350088</v>
+        <v>243774692</v>
       </c>
       <c r="U20">
-        <v>246956426</v>
-      </c>
-      <c r="V20" t="s">
-        <v>399</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>36558</v>
+        <v>42989</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
       <c r="N21" t="s">
-        <v>251</v>
+        <v>426</v>
       </c>
       <c r="O21" t="s">
-        <v>252</v>
+        <v>427</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R21" t="s">
         <v>26</v>
@@ -2483,92 +2353,107 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>549821786</v>
+        <v>243774692</v>
       </c>
       <c r="U21">
-        <v>256242568</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>43025</v>
+        <v>42363</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="O22" t="s">
-        <v>358</v>
+        <v>397</v>
+      </c>
+      <c r="P22" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>109</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
       <c r="S22" t="s">
         <v>26</v>
       </c>
       <c r="T22">
-        <v>542199592</v>
+        <v>545350088</v>
       </c>
       <c r="U22">
-        <v>595947343</v>
+        <v>246956426</v>
+      </c>
+      <c r="V22" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>44294</v>
+        <v>36558</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>359</v>
-      </c>
-      <c r="G23" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" t="s">
-        <v>361</v>
-      </c>
-      <c r="M23" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="O23" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="P23" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="Q23" t="s">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
@@ -2577,33 +2462,33 @@
         <v>26</v>
       </c>
       <c r="T23">
-        <v>532461394</v>
+        <v>545350088</v>
       </c>
       <c r="U23">
-        <v>548850124</v>
+        <v>246956426</v>
+      </c>
+      <c r="V23" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>43594</v>
+        <v>36558</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>359</v>
-      </c>
-      <c r="G24" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
@@ -2615,16 +2500,16 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2633,84 +2518,63 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>532461394</v>
+        <v>549821786</v>
       </c>
       <c r="U24">
-        <v>548850124</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>43788</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>368</v>
-      </c>
-      <c r="G25" t="s">
-        <v>264</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N25" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="O25" t="s">
-        <v>370</v>
-      </c>
-      <c r="P25" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>109</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S25" t="s">
         <v>26</v>
       </c>
       <c r="T25">
-        <v>245449031</v>
+        <v>542199592</v>
       </c>
       <c r="U25">
-        <v>545891190</v>
-      </c>
-      <c r="V25" t="s">
-        <v>372</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>42898</v>
+        <v>44294</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
+      <c r="F26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" t="s">
+        <v>360</v>
+      </c>
       <c r="H26" t="s">
         <v>21</v>
       </c>
@@ -2718,22 +2582,28 @@
         <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>361</v>
+      </c>
+      <c r="M26" t="s">
+        <v>362</v>
       </c>
       <c r="N26" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O26" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="Q26" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2742,18 +2612,15 @@
         <v>26</v>
       </c>
       <c r="T26">
-        <v>249768747</v>
+        <v>532461394</v>
       </c>
       <c r="U26">
-        <v>245716161</v>
-      </c>
-      <c r="V26" t="s">
-        <v>377</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B27" t="s">
         <v>259</v>
@@ -2762,22 +2629,37 @@
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>43408</v>
+        <v>43594</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
+      <c r="F27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
       <c r="N27" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="O27" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="Q27" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2786,48 +2668,48 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>248076761</v>
+        <v>532461394</v>
       </c>
       <c r="U27">
-        <v>551424325</v>
-      </c>
-      <c r="V27" t="s">
-        <v>382</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43788</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" t="s">
         <v>264</v>
       </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43518</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>384</v>
-      </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="O28" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="P28" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="Q28" t="s">
         <v>109</v>
@@ -2839,51 +2721,54 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>249245434</v>
+        <v>245449031</v>
       </c>
       <c r="U28">
-        <v>558204488</v>
+        <v>545891190</v>
       </c>
       <c r="V28" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>42467</v>
+        <v>42898</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
-        <v>368</v>
-      </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>374</v>
+      </c>
+      <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="O29" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="P29" t="s">
-        <v>392</v>
+        <v>178</v>
       </c>
       <c r="Q29" t="s">
-        <v>393</v>
+        <v>178</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2892,48 +2777,42 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>247412669</v>
+        <v>249768747</v>
       </c>
       <c r="U29">
-        <v>245649230</v>
+        <v>245716161</v>
+      </c>
+      <c r="V29" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1">
-        <v>44295</v>
+        <v>43408</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
-        <v>368</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
       <c r="N30" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="O30" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="P30" t="s">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="Q30" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -2942,45 +2821,48 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>247412669</v>
+        <v>248076761</v>
       </c>
       <c r="U30">
-        <v>245649230</v>
+        <v>551424325</v>
+      </c>
+      <c r="V30" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>42738</v>
+        <v>43518</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
+      <c r="G31" t="s">
+        <v>384</v>
+      </c>
       <c r="H31" t="s">
         <v>37</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
       <c r="N31" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O31" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P31" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q31" t="s">
         <v>109</v>
@@ -2992,45 +2874,51 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>545350088</v>
+        <v>249245434</v>
       </c>
       <c r="U31">
-        <v>246956426</v>
+        <v>558204488</v>
       </c>
       <c r="V31" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>43644</v>
+        <v>42467</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
+      <c r="F32" t="s">
+        <v>368</v>
+      </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="K32" t="s">
-        <v>21</v>
+      <c r="N32" t="s">
+        <v>390</v>
       </c>
       <c r="O32" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="P32" t="s">
+        <v>392</v>
       </c>
       <c r="Q32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -3039,56 +2927,74 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>241656149</v>
+        <v>247412669</v>
       </c>
       <c r="U32">
-        <v>241656149</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>42581</v>
+        <v>44295</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
+      <c r="F33" t="s">
+        <v>368</v>
+      </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>390</v>
+      </c>
+      <c r="O33" t="s">
+        <v>391</v>
+      </c>
+      <c r="P33" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>393</v>
+      </c>
+      <c r="R33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" t="s">
+        <v>26</v>
       </c>
       <c r="T33">
-        <v>533254698</v>
+        <v>247412669</v>
       </c>
       <c r="U33">
-        <v>546589599</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>42617</v>
+        <v>42738</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -3102,11 +3008,17 @@
       <c r="K34" t="s">
         <v>21</v>
       </c>
+      <c r="N34" t="s">
+        <v>396</v>
+      </c>
       <c r="O34" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="P34" t="s">
+        <v>398</v>
       </c>
       <c r="Q34" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3115,30 +3027,33 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>241656149</v>
+        <v>545350088</v>
       </c>
       <c r="U34">
-        <v>241656149</v>
+        <v>246956426</v>
+      </c>
+      <c r="V34" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>44968</v>
+        <v>43644</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -3146,17 +3061,11 @@
       <c r="K35" t="s">
         <v>21</v>
       </c>
-      <c r="N35" t="s">
-        <v>406</v>
-      </c>
       <c r="O35" t="s">
-        <v>407</v>
-      </c>
-      <c r="P35" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q35" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3165,74 +3074,56 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>543469945</v>
+        <v>241656149</v>
       </c>
       <c r="U35">
-        <v>532807776</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>44351</v>
+        <v>42581</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
       </c>
-      <c r="N36" t="s">
-        <v>410</v>
-      </c>
-      <c r="O36" t="s">
-        <v>411</v>
-      </c>
-      <c r="P36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>412</v>
-      </c>
-      <c r="R36" t="s">
-        <v>26</v>
-      </c>
-      <c r="S36" t="s">
-        <v>26</v>
-      </c>
       <c r="T36">
-        <v>248754494</v>
+        <v>533254698</v>
       </c>
       <c r="U36">
-        <v>593082381</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>44238</v>
+        <v>42617</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
@@ -3246,17 +3137,11 @@
       <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="N37" t="s">
-        <v>414</v>
-      </c>
       <c r="O37" t="s">
-        <v>139</v>
-      </c>
-      <c r="P37" t="s">
-        <v>178</v>
+        <v>401</v>
       </c>
       <c r="Q37" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3265,27 +3150,24 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>245077487</v>
+        <v>241656149</v>
       </c>
       <c r="U37">
-        <v>543161188</v>
-      </c>
-      <c r="V37" t="s">
-        <v>140</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>41372</v>
+        <v>44968</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -3296,23 +3178,20 @@
       <c r="I38" t="s">
         <v>21</v>
       </c>
-      <c r="J38" t="s">
-        <v>169</v>
-      </c>
       <c r="K38" t="s">
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>406</v>
       </c>
       <c r="O38" t="s">
-        <v>290</v>
+        <v>407</v>
       </c>
       <c r="P38" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="Q38" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3321,45 +3200,48 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>243043900</v>
+        <v>543469945</v>
       </c>
       <c r="U38">
-        <v>549370765</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>44084</v>
+        <v>44351</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="O39" t="s">
-        <v>419</v>
+        <v>411</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>412</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3368,31 +3250,28 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>256596282</v>
+        <v>248754494</v>
       </c>
       <c r="U39">
-        <v>556006080</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>36558</v>
+        <v>44238</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="F40" t="s">
-        <v>164</v>
-      </c>
       <c r="H40" t="s">
         <v>37</v>
       </c>
@@ -3403,10 +3282,16 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>165</v>
+        <v>414</v>
       </c>
       <c r="O40" t="s">
-        <v>166</v>
+        <v>139</v>
+      </c>
+      <c r="P40" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>109</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3415,29 +3300,29 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>543784758</v>
+        <v>245077487</v>
       </c>
       <c r="U40">
-        <v>243307643</v>
+        <v>543161188</v>
       </c>
       <c r="V40" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E41" s="1" t="s">
+        <v>41372</v>
+      </c>
+      <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="H41" t="s">
@@ -3446,20 +3331,23 @@
       <c r="I41" t="s">
         <v>21</v>
       </c>
+      <c r="J41" t="s">
+        <v>169</v>
+      </c>
       <c r="K41" t="s">
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3467,58 +3355,46 @@
       <c r="S41" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="3">
-        <v>249891601</v>
+      <c r="T41">
+        <v>243043900</v>
       </c>
       <c r="U41">
-        <v>5414805333</v>
-      </c>
-      <c r="V41" t="s">
-        <v>28</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>44782</v>
+        <v>44084</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>418</v>
       </c>
       <c r="O42" t="s">
-        <v>39</v>
-      </c>
-      <c r="P42" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3527,30 +3403,30 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>554885693</v>
+        <v>256596282</v>
       </c>
       <c r="U42">
-        <v>542738888</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>44922</v>
+        <v>36558</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="G43" t="s">
-        <v>30</v>
+      <c r="F43" t="s">
+        <v>164</v>
       </c>
       <c r="H43" t="s">
         <v>37</v>
@@ -3562,16 +3438,10 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
-      </c>
-      <c r="P43" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3580,36 +3450,30 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>243081535</v>
+        <v>543784758</v>
       </c>
       <c r="U43">
-        <v>544479394</v>
+        <v>243307643</v>
       </c>
       <c r="V43" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>44691</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
+        <v>44852</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
@@ -3621,16 +3485,16 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P44" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3638,28 +3502,34 @@
       <c r="S44" t="s">
         <v>26</v>
       </c>
-      <c r="T44">
-        <v>543719591</v>
+      <c r="T44" s="3">
+        <v>249891601</v>
       </c>
       <c r="U44">
-        <v>541484405</v>
+        <v>5414805333</v>
+      </c>
+      <c r="V44" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>45040</v>
+        <v>44782</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
@@ -3671,25 +3541,19 @@
         <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L45" t="s">
-        <v>55</v>
-      </c>
-      <c r="M45" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="P45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Q45" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3698,39 +3562,33 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>548697421</v>
+        <v>554885693</v>
       </c>
       <c r="U45">
-        <v>549328229</v>
-      </c>
-      <c r="V45" t="s">
-        <v>61</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>45037</v>
+        <v>44922</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="F46" t="s">
-        <v>63</v>
-      </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3739,16 +3597,16 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3757,33 +3615,39 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>554246016</v>
+        <v>243081535</v>
       </c>
       <c r="U46">
-        <v>541473757</v>
+        <v>544479394</v>
+      </c>
+      <c r="V46" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>43551</v>
+        <v>44691</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3791,20 +3655,17 @@
       <c r="K47" t="s">
         <v>21</v>
       </c>
-      <c r="M47" t="s">
-        <v>67</v>
-      </c>
       <c r="N47" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q47" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3813,54 +3674,57 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>203218292</v>
+        <v>543719591</v>
       </c>
       <c r="U47">
-        <v>546407893</v>
-      </c>
-      <c r="V47" t="s">
-        <v>71</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>43536</v>
+        <v>45040</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>56</v>
       </c>
       <c r="N48" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="P48" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q48" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3869,33 +3733,39 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>544622299</v>
+        <v>548697421</v>
       </c>
       <c r="U48">
-        <v>241651317</v>
+        <v>549328229</v>
+      </c>
+      <c r="V48" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>43486</v>
+        <v>45037</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -3903,20 +3773,17 @@
       <c r="K49" t="s">
         <v>21</v>
       </c>
-      <c r="M49" t="s">
-        <v>78</v>
-      </c>
       <c r="N49" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P49" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q49" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -3925,36 +3792,33 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>241861382</v>
+        <v>554246016</v>
       </c>
       <c r="U49">
-        <v>547944747</v>
-      </c>
-      <c r="V49" t="s">
-        <v>83</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>43214</v>
+        <v>43551</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -3962,14 +3826,20 @@
       <c r="K50" t="s">
         <v>21</v>
       </c>
+      <c r="M50" t="s">
+        <v>67</v>
+      </c>
       <c r="N50" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="P50" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>32</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -3978,33 +3848,36 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>540750428</v>
+        <v>203218292</v>
       </c>
       <c r="U50">
-        <v>240127525</v>
+        <v>546407893</v>
       </c>
       <c r="V50" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>44390</v>
+        <v>43536</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -4013,16 +3886,16 @@
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="P51" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="Q51" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4031,30 +3904,30 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>248450590</v>
+        <v>544622299</v>
       </c>
       <c r="U51">
-        <v>548086355</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1">
-        <v>43582</v>
+        <v>43486</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
         <v>37</v>
@@ -4065,11 +3938,20 @@
       <c r="K52" t="s">
         <v>21</v>
       </c>
+      <c r="M52" t="s">
+        <v>78</v>
+      </c>
       <c r="N52" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="O52" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="P52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>82</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4078,36 +3960,36 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>542776117</v>
+        <v>241861382</v>
       </c>
       <c r="U52">
-        <v>556780997</v>
+        <v>547944747</v>
       </c>
       <c r="V52" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>42977</v>
+        <v>43214</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -4116,10 +3998,13 @@
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="O53" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="P53" t="s">
+        <v>88</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4128,27 +4013,27 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>246469841</v>
+        <v>540750428</v>
       </c>
       <c r="U53">
-        <v>244502858</v>
+        <v>240127525</v>
       </c>
       <c r="V53" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>44057</v>
+        <v>44390</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -4163,16 +4048,16 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O54" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Q54" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4181,33 +4066,30 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>246645496</v>
+        <v>248450590</v>
       </c>
       <c r="U54">
-        <v>240778774</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>41923</v>
+        <v>43582</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="F55" t="s">
-        <v>111</v>
-      </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
         <v>37</v>
@@ -4216,19 +4098,13 @@
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>37</v>
-      </c>
-      <c r="M55" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="O55" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4237,30 +4113,36 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>248675358</v>
+        <v>542776117</v>
       </c>
       <c r="U55">
-        <v>247790941</v>
+        <v>556780997</v>
+      </c>
+      <c r="V55" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>44796</v>
+        <v>42977</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
+      <c r="G56" t="s">
+        <v>96</v>
+      </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -4269,16 +4151,10 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O56" t="s">
-        <v>118</v>
-      </c>
-      <c r="P56" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4287,33 +4163,33 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>599634556</v>
+        <v>246469841</v>
       </c>
       <c r="U56">
-        <v>535220641</v>
+        <v>244502858</v>
       </c>
       <c r="V56" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>266</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>44890</v>
+        <v>44057</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="G57" t="s">
-        <v>122</v>
+      <c r="H57" t="s">
+        <v>37</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -4322,16 +4198,16 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="O57" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="P57" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4340,54 +4216,54 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>245864268</v>
+        <v>246645496</v>
       </c>
       <c r="U57">
-        <v>247823594</v>
-      </c>
-      <c r="V57" t="s">
-        <v>125</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>43652</v>
+        <v>41923</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M58" t="s">
+        <v>113</v>
       </c>
       <c r="N58" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="O58" t="s">
-        <v>129</v>
-      </c>
-      <c r="P58" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q58" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4396,27 +4272,24 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>543279537</v>
+        <v>248675358</v>
       </c>
       <c r="U58">
-        <v>241208687</v>
-      </c>
-      <c r="V58" t="s">
-        <v>132</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>42673</v>
+        <v>44796</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
@@ -4431,7 +4304,16 @@
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="O59" t="s">
+        <v>118</v>
+      </c>
+      <c r="P59" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>25</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4440,39 +4322,51 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>244423888</v>
+        <v>599634556</v>
+      </c>
+      <c r="U59">
+        <v>535220641</v>
+      </c>
+      <c r="V59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
+        <v>263</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="1">
-        <v>42691</v>
+        <v>44890</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="H60" t="s">
-        <v>37</v>
+      <c r="G60" t="s">
+        <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
+      <c r="N60" t="s">
+        <v>123</v>
+      </c>
       <c r="O60" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="P60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>25</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4481,48 +4375,54 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>245077487</v>
+        <v>245864268</v>
+      </c>
+      <c r="U60">
+        <v>247823594</v>
       </c>
       <c r="V60" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="2">
-        <v>42832</v>
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43652</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="G61" t="s">
-        <v>142</v>
-      </c>
       <c r="H61" t="s">
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
+        <v>127</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O61" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>131</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4531,27 +4431,27 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>245766735</v>
+        <v>543279537</v>
       </c>
       <c r="U61">
-        <v>245702914</v>
+        <v>241208687</v>
       </c>
       <c r="V61" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>42202</v>
+        <v>42673</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
@@ -4560,19 +4460,13 @@
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>150</v>
-      </c>
-      <c r="O62" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4581,18 +4475,12 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>248178775</v>
-      </c>
-      <c r="U62">
-        <v>550234225</v>
-      </c>
-      <c r="V62" t="s">
-        <v>152</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
         <v>267</v>
@@ -4601,34 +4489,25 @@
         <v>34</v>
       </c>
       <c r="D63" s="1">
-        <v>42695</v>
+        <v>42691</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
-      <c r="G63" t="s">
-        <v>142</v>
-      </c>
       <c r="H63" t="s">
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J63" t="s">
+        <v>138</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
-      <c r="N63" t="s">
-        <v>154</v>
-      </c>
       <c r="O63" t="s">
-        <v>155</v>
-      </c>
-      <c r="P63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4637,33 +4516,30 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>245424585</v>
-      </c>
-      <c r="U63">
-        <v>247566924</v>
+        <v>245077487</v>
       </c>
       <c r="V63" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="1">
-        <v>41794</v>
+        <v>34</v>
+      </c>
+      <c r="D64" s="2">
+        <v>42832</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="H64" t="s">
         <v>37</v>
@@ -4675,17 +4551,14 @@
         <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O64" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="P64" t="s">
         <v>146</v>
       </c>
-      <c r="Q64" t="s">
-        <v>160</v>
-      </c>
       <c r="R64" t="s">
         <v>26</v>
       </c>
@@ -4693,27 +4566,27 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>245980902</v>
+        <v>245766735</v>
       </c>
       <c r="U64">
-        <v>245272449</v>
+        <v>245702914</v>
       </c>
       <c r="V64" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>43093</v>
+        <v>42202</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -4722,22 +4595,19 @@
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>148</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N65" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O65" t="s">
-        <v>159</v>
-      </c>
-      <c r="P65" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4746,33 +4616,33 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>245980902</v>
+        <v>248178775</v>
       </c>
       <c r="U65">
-        <v>245272449</v>
+        <v>550234225</v>
       </c>
       <c r="V65" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>43165</v>
+        <v>42695</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="F66" t="s">
-        <v>164</v>
+      <c r="G66" t="s">
+        <v>142</v>
       </c>
       <c r="H66" t="s">
         <v>37</v>
@@ -4784,10 +4654,16 @@
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O66" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>109</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -4796,33 +4672,33 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>543784758</v>
+        <v>245424585</v>
       </c>
       <c r="U66">
-        <v>243307643</v>
+        <v>247566924</v>
       </c>
       <c r="V66" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>42564</v>
+        <v>41794</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
-      <c r="F67" t="s">
-        <v>164</v>
+      <c r="G67" t="s">
+        <v>112</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4830,17 +4706,20 @@
       <c r="I67" t="s">
         <v>21</v>
       </c>
-      <c r="J67" t="s">
-        <v>169</v>
-      </c>
       <c r="K67" t="s">
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O67" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P67" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>160</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -4849,34 +4728,31 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U67">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V67" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>43499</v>
+        <v>43093</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
       </c>
-      <c r="F68" t="s">
-        <v>171</v>
-      </c>
       <c r="H68" t="s">
         <v>37</v>
       </c>
@@ -4887,16 +4763,16 @@
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O68" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="P68" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -4905,33 +4781,33 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>595670927</v>
+        <v>245980902</v>
       </c>
       <c r="U68">
-        <v>553491903</v>
+        <v>245272449</v>
       </c>
       <c r="V68" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>42289</v>
+        <v>43165</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
-      <c r="G69" t="s">
-        <v>122</v>
+      <c r="F69" t="s">
+        <v>164</v>
       </c>
       <c r="H69" t="s">
         <v>37</v>
@@ -4943,16 +4819,10 @@
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O69" t="s">
-        <v>177</v>
-      </c>
-      <c r="P69" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -4961,45 +4831,51 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>547068449</v>
+        <v>543784758</v>
       </c>
       <c r="U69">
-        <v>547068449</v>
+        <v>243307643</v>
       </c>
       <c r="V69" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
         <v>267</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1">
-        <v>42839</v>
+        <v>42564</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
+      <c r="F70" t="s">
+        <v>164</v>
+      </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
       <c r="I70" t="s">
         <v>21</v>
       </c>
+      <c r="J70" t="s">
+        <v>169</v>
+      </c>
       <c r="K70" t="s">
         <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O70" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5008,63 +4884,54 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>244730682</v>
+        <v>543784758</v>
       </c>
       <c r="U70">
-        <v>249341294</v>
+        <v>243307643</v>
       </c>
       <c r="V70" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1">
-        <v>44495</v>
+        <v>43499</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>185</v>
-      </c>
-      <c r="G71" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>37</v>
-      </c>
-      <c r="L71" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="O71" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P71" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q71" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5073,60 +4940,54 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>532416380</v>
+        <v>595670927</v>
       </c>
       <c r="U71">
-        <v>543108512</v>
+        <v>553491903</v>
       </c>
       <c r="V71" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>43950</v>
+        <v>42289</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="F72" t="s">
-        <v>193</v>
-      </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H72" t="s">
         <v>37</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-      <c r="J72" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O72" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q72" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -5135,27 +4996,27 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>597661016</v>
+        <v>547068449</v>
       </c>
       <c r="U72">
-        <v>501213049</v>
+        <v>547068449</v>
       </c>
       <c r="V72" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>44383</v>
+        <v>42839</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
@@ -5170,16 +5031,10 @@
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O73" t="s">
-        <v>201</v>
-      </c>
-      <c r="P73" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5188,57 +5043,63 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>595670927</v>
+        <v>244730682</v>
       </c>
       <c r="U73">
-        <v>553491903</v>
+        <v>249341294</v>
       </c>
       <c r="V73" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>43524</v>
+        <v>44495</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H74" t="s">
         <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>186</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L74" t="s">
+        <v>187</v>
       </c>
       <c r="N74" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O74" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="P74" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="Q74" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5247,54 +5108,60 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>244678226</v>
+        <v>532416380</v>
       </c>
       <c r="U74">
-        <v>208455305</v>
+        <v>543108512</v>
       </c>
       <c r="V74" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="1">
-        <v>44364</v>
+        <v>43950</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
+      <c r="F75" t="s">
+        <v>193</v>
+      </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J75" t="s">
+        <v>194</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="O75" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="Q75" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5303,54 +5170,51 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>243352028</v>
+        <v>597661016</v>
       </c>
       <c r="U75">
-        <v>243088742</v>
+        <v>501213049</v>
       </c>
       <c r="V75" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
-        <v>44627</v>
+        <v>44383</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
-      <c r="G76" t="s">
-        <v>122</v>
-      </c>
       <c r="H76" t="s">
         <v>37</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
       </c>
-      <c r="M76" t="s">
-        <v>216</v>
+      <c r="K76" t="s">
+        <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O76" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="P76" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q76" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5359,33 +5223,36 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>241861382</v>
+        <v>595670927</v>
       </c>
       <c r="U76">
-        <v>547944747</v>
+        <v>553491903</v>
       </c>
       <c r="V76" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>44430</v>
+        <v>43524</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
+      <c r="F77" t="s">
+        <v>204</v>
+      </c>
       <c r="G77" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
         <v>37</v>
@@ -5397,16 +5264,16 @@
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O77" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="P77" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="Q77" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5415,54 +5282,54 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>555101040</v>
+        <v>244678226</v>
       </c>
       <c r="U77">
-        <v>537150359</v>
+        <v>208455305</v>
       </c>
       <c r="V77" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>43839</v>
+        <v>44364</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
-      <c r="F78" t="s">
-        <v>223</v>
-      </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="O78" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="P78" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>213</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5471,18 +5338,18 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>554845413</v>
+        <v>243352028</v>
       </c>
       <c r="U78">
-        <v>256786281</v>
+        <v>243088742</v>
       </c>
       <c r="V78" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
         <v>263</v>
@@ -5491,13 +5358,13 @@
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>44661</v>
+        <v>44627</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H79" t="s">
         <v>37</v>
@@ -5505,20 +5372,20 @@
       <c r="I79" t="s">
         <v>21</v>
       </c>
-      <c r="K79" t="s">
-        <v>21</v>
+      <c r="M79" t="s">
+        <v>216</v>
       </c>
       <c r="N79" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="O79" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5527,31 +5394,34 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>245424585</v>
+        <v>241861382</v>
       </c>
       <c r="U79">
-        <v>247566924</v>
+        <v>547944747</v>
       </c>
       <c r="V79" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>44459</v>
+        <v>44430</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
       <c r="H80" t="s">
         <v>37</v>
       </c>
@@ -5562,13 +5432,16 @@
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="O80" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>178</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>221</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5577,51 +5450,54 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>244446781</v>
+        <v>555101040</v>
       </c>
       <c r="U80">
-        <v>249251741</v>
+        <v>537150359</v>
       </c>
       <c r="V80" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1">
-        <v>44414</v>
+        <v>43839</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
+      <c r="F81" t="s">
+        <v>223</v>
+      </c>
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
       <c r="H81" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J81" t="s">
+        <v>224</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O81" t="s">
-        <v>236</v>
-      </c>
-      <c r="P81" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5630,33 +5506,33 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>246364382</v>
+        <v>554845413</v>
       </c>
       <c r="U81">
-        <v>242830458</v>
+        <v>256786281</v>
       </c>
       <c r="V81" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D82" s="1">
-        <v>45025</v>
+        <v>44661</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H82" t="s">
         <v>37</v>
@@ -5664,23 +5540,20 @@
       <c r="I82" t="s">
         <v>21</v>
       </c>
-      <c r="J82" t="s">
-        <v>169</v>
-      </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="O82" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="Q82" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5689,54 +5562,48 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>245902055</v>
+        <v>245424585</v>
       </c>
       <c r="U82">
-        <v>557566068</v>
+        <v>247566924</v>
+      </c>
+      <c r="V82" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="1">
-        <v>43792</v>
+        <v>44459</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
-      <c r="F83" t="s">
-        <v>244</v>
-      </c>
       <c r="H83" t="s">
         <v>37</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
-      </c>
-      <c r="J83" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="O83" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="P83" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5745,18 +5612,18 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>538984324</v>
+        <v>244446781</v>
       </c>
       <c r="U83">
-        <v>531766425</v>
+        <v>249251741</v>
       </c>
       <c r="V83" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
         <v>269</v>
@@ -5765,19 +5632,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>43785</v>
+        <v>44414</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
-      <c r="F84" t="s">
-        <v>250</v>
-      </c>
-      <c r="G84" t="s">
-        <v>133</v>
-      </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I84" t="s">
         <v>21</v>
@@ -5786,16 +5647,16 @@
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="O84" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="P84" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -5804,45 +5665,57 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>549821786</v>
+        <v>246364382</v>
       </c>
       <c r="U84">
-        <v>256242568</v>
+        <v>242830458</v>
+      </c>
+      <c r="V84" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>44687</v>
+        <v>45025</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
       <c r="G85" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H85" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
       </c>
+      <c r="J85" t="s">
+        <v>169</v>
+      </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="O85" t="s">
-        <v>256</v>
+        <v>240</v>
+      </c>
+      <c r="P85" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>242</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -5851,27 +5724,24 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>247633503</v>
+        <v>245902055</v>
       </c>
       <c r="U85">
-        <v>241690416</v>
-      </c>
-      <c r="V85" t="s">
-        <v>257</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1">
-        <v>42797</v>
+        <v>43792</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
@@ -5879,11 +5749,8 @@
       <c r="F86" t="s">
         <v>244</v>
       </c>
-      <c r="G86" t="s">
-        <v>259</v>
-      </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I86" t="s">
         <v>37</v>
@@ -5924,40 +5791,43 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>44663</v>
+        <v>43785</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
+      <c r="F87" t="s">
+        <v>250</v>
+      </c>
       <c r="G87" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O87" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P87" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q87" t="s">
         <v>25</v>
@@ -5969,60 +5839,45 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>538984324</v>
+        <v>549821786</v>
       </c>
       <c r="U87">
-        <v>531766425</v>
-      </c>
-      <c r="V87" t="s">
-        <v>248</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>42239</v>
+        <v>44687</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
-      <c r="F88" t="s">
-        <v>272</v>
+      <c r="G88" t="s">
+        <v>96</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I88" t="s">
-        <v>101</v>
-      </c>
-      <c r="J88" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>37</v>
-      </c>
-      <c r="L88" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="O88" t="s">
-        <v>275</v>
-      </c>
-      <c r="P88" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -6031,28 +5886,37 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>549605899</v>
+        <v>247633503</v>
       </c>
       <c r="U88">
-        <v>534014247</v>
+        <v>241690416</v>
+      </c>
+      <c r="V88" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>43231</v>
+        <v>42797</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
+      <c r="F89" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" t="s">
+        <v>259</v>
+      </c>
       <c r="H89" t="s">
         <v>21</v>
       </c>
@@ -6060,22 +5924,22 @@
         <v>37</v>
       </c>
       <c r="J89" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="O89" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Q89" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -6084,54 +5948,54 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>244077227</v>
+        <v>538984324</v>
       </c>
       <c r="U89">
-        <v>245173168</v>
+        <v>531766425</v>
+      </c>
+      <c r="V89" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>42088</v>
+        <v>44663</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
+      <c r="G90" t="s">
+        <v>96</v>
+      </c>
       <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
         <v>149</v>
       </c>
-      <c r="I90" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" t="s">
-        <v>138</v>
-      </c>
       <c r="K90" t="s">
-        <v>101</v>
-      </c>
-      <c r="L90" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="O90" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="P90" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="Q90" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R90" t="s">
         <v>26</v>
@@ -6140,51 +6004,57 @@
         <v>26</v>
       </c>
       <c r="T90">
-        <v>207900244</v>
+        <v>538984324</v>
       </c>
       <c r="U90">
-        <v>599397215</v>
+        <v>531766425</v>
       </c>
       <c r="V90" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B91" t="s">
         <v>265</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D91" s="1">
-        <v>43085</v>
+        <v>42239</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
+      <c r="F91" t="s">
+        <v>272</v>
+      </c>
       <c r="H91" t="s">
         <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J91" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="K91" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L91" t="s">
+        <v>273</v>
       </c>
       <c r="N91" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="O91" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="P91" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="Q91" t="s">
         <v>109</v>
@@ -6196,24 +6066,24 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>243043900</v>
+        <v>549605899</v>
       </c>
       <c r="U91">
-        <v>549370765</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B92" t="s">
         <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D92" s="1">
-        <v>43108</v>
+        <v>43231</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
@@ -6222,22 +6092,25 @@
         <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
       </c>
       <c r="K92" t="s">
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="O92" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P92" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q92" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R92" t="s">
         <v>26</v>
@@ -6246,51 +6119,54 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>533254698</v>
+        <v>244077227</v>
       </c>
       <c r="U92">
-        <v>546589599</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
         <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D93" s="1">
-        <v>43310</v>
+        <v>42088</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
-      <c r="F93" t="s">
-        <v>111</v>
-      </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I93" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J93" t="s">
+        <v>138</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L93" t="s">
+        <v>280</v>
       </c>
       <c r="N93" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="O93" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="P93" t="s">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="Q93" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R93" t="s">
         <v>26</v>
@@ -6299,18 +6175,18 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>249220522</v>
+        <v>207900244</v>
       </c>
       <c r="U93">
-        <v>241246842</v>
+        <v>599397215</v>
       </c>
       <c r="V93" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
         <v>265</v>
@@ -6319,7 +6195,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>43170</v>
+        <v>43085</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
@@ -6328,22 +6204,22 @@
         <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="K94" t="s">
         <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O94" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P94" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="Q94" t="s">
         <v>109</v>
@@ -6355,51 +6231,48 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>246861527</v>
+        <v>243043900</v>
       </c>
       <c r="U94">
-        <v>558286552</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B95" t="s">
         <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>43452</v>
+        <v>43108</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
-      </c>
-      <c r="J95" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K95" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="O95" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6408,51 +6281,51 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>246532233</v>
+        <v>533254698</v>
       </c>
       <c r="U95">
-        <v>247792191</v>
-      </c>
-      <c r="V95" t="s">
-        <v>307</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
         <v>265</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1">
-        <v>43118</v>
+        <v>43310</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
       <c r="H96" t="s">
         <v>37</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
       </c>
       <c r="N96" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="O96" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="P96" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="Q96" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R96" t="s">
         <v>26</v>
@@ -6461,51 +6334,54 @@
         <v>26</v>
       </c>
       <c r="T96">
-        <v>246951455</v>
+        <v>249220522</v>
       </c>
       <c r="U96">
-        <v>242684572</v>
+        <v>241246842</v>
       </c>
       <c r="V96" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
         <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1">
-        <v>43008</v>
+        <v>43170</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
       </c>
-      <c r="F97" t="s">
-        <v>312</v>
-      </c>
       <c r="H97" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" t="s">
+        <v>300</v>
+      </c>
+      <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="O97" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P97" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R97" t="s">
         <v>26</v>
@@ -6514,48 +6390,48 @@
         <v>26</v>
       </c>
       <c r="T97">
-        <v>246951455</v>
+        <v>246861527</v>
       </c>
       <c r="U97">
-        <v>242684572</v>
-      </c>
-      <c r="V97" t="s">
-        <v>310</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
         <v>34</v>
       </c>
       <c r="D98" s="1">
-        <v>44912</v>
+        <v>43452</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
       </c>
-      <c r="F98" t="s">
-        <v>312</v>
-      </c>
       <c r="H98" t="s">
         <v>37</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J98" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98" t="s">
+        <v>149</v>
       </c>
       <c r="N98" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O98" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q98" t="s">
         <v>25</v>
@@ -6567,34 +6443,31 @@
         <v>26</v>
       </c>
       <c r="T98">
-        <v>246951455</v>
+        <v>246532233</v>
       </c>
       <c r="U98">
-        <v>242684572</v>
+        <v>247792191</v>
       </c>
       <c r="V98" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D99" s="1">
-        <v>42540</v>
+        <v>43118</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
       </c>
-      <c r="F99" t="s">
-        <v>319</v>
-      </c>
       <c r="H99" t="s">
         <v>37</v>
       </c>
@@ -6605,16 +6478,16 @@
         <v>21</v>
       </c>
       <c r="N99" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P99" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="Q99" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -6623,51 +6496,51 @@
         <v>26</v>
       </c>
       <c r="T99">
-        <v>549223419</v>
+        <v>246951455</v>
       </c>
       <c r="U99">
-        <v>547981198</v>
+        <v>242684572</v>
       </c>
       <c r="V99" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D100" s="1">
-        <v>44839</v>
+        <v>43008</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
       </c>
+      <c r="F100" t="s">
+        <v>312</v>
+      </c>
       <c r="H100" t="s">
         <v>37</v>
       </c>
       <c r="I100" t="s">
         <v>21</v>
       </c>
-      <c r="K100" t="s">
-        <v>21</v>
-      </c>
       <c r="N100" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="O100" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="P100" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="Q100" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -6676,51 +6549,51 @@
         <v>26</v>
       </c>
       <c r="T100">
-        <v>249220522</v>
+        <v>246951455</v>
       </c>
       <c r="U100">
-        <v>241246842</v>
+        <v>242684572</v>
       </c>
       <c r="V100" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D101" s="1">
-        <v>43831</v>
+        <v>44912</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
       </c>
+      <c r="F101" t="s">
+        <v>312</v>
+      </c>
       <c r="H101" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I101" t="s">
         <v>21</v>
       </c>
-      <c r="K101" t="s">
-        <v>21</v>
-      </c>
       <c r="N101" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="O101" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="P101" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="Q101" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="R101" t="s">
         <v>26</v>
@@ -6729,57 +6602,54 @@
         <v>26</v>
       </c>
       <c r="T101">
-        <v>248076761</v>
+        <v>246951455</v>
       </c>
       <c r="U101">
-        <v>551424325</v>
+        <v>242684572</v>
       </c>
       <c r="V101" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>44017</v>
+        <v>42540</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H102" t="s">
         <v>37</v>
       </c>
       <c r="I102" t="s">
-        <v>37</v>
-      </c>
-      <c r="J102" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
         <v>21</v>
       </c>
       <c r="N102" t="s">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="O102" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="Q102" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -6788,36 +6658,51 @@
         <v>26</v>
       </c>
       <c r="T102">
-        <v>244446781</v>
+        <v>549223419</v>
       </c>
       <c r="U102">
-        <v>249251741</v>
+        <v>547981198</v>
       </c>
       <c r="V102" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>43774</v>
+        <v>44839</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
       </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>21</v>
+      </c>
       <c r="N103" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="O103" t="s">
-        <v>337</v>
+        <v>297</v>
+      </c>
+      <c r="P103" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>109</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -6826,45 +6711,51 @@
         <v>26</v>
       </c>
       <c r="T103">
-        <v>242715514</v>
+        <v>249220522</v>
       </c>
       <c r="U103">
-        <v>553488520</v>
+        <v>241246842</v>
+      </c>
+      <c r="V103" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>44112</v>
+        <v>43831</v>
       </c>
       <c r="E104" t="s">
         <v>26</v>
       </c>
-      <c r="F104" t="s">
-        <v>319</v>
-      </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I104" t="s">
         <v>21</v>
       </c>
+      <c r="K104" t="s">
+        <v>21</v>
+      </c>
       <c r="N104" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="O104" t="s">
-        <v>340</v>
+        <v>327</v>
+      </c>
+      <c r="P104" t="s">
+        <v>40</v>
       </c>
       <c r="Q104" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="R104" t="s">
         <v>26</v>
@@ -6873,28 +6764,58 @@
         <v>26</v>
       </c>
       <c r="T104">
-        <v>552503776</v>
+        <v>248076761</v>
       </c>
       <c r="U104">
-        <v>246922004</v>
+        <v>551424325</v>
+      </c>
+      <c r="V104" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
         <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D105" s="1">
-        <v>36558</v>
+        <v>44017</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
       </c>
+      <c r="F105" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s">
+        <v>331</v>
+      </c>
+      <c r="K105" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" t="s">
+        <v>231</v>
+      </c>
+      <c r="O105" t="s">
+        <v>332</v>
+      </c>
+      <c r="P105" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>333</v>
+      </c>
       <c r="R105" t="s">
         <v>26</v>
       </c>
@@ -6902,58 +6823,103 @@
         <v>26</v>
       </c>
       <c r="T105">
-        <v>543357761</v>
+        <v>244446781</v>
       </c>
       <c r="U105">
-        <v>543357761</v>
+        <v>249251741</v>
+      </c>
+      <c r="V105" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="1">
-        <v>36558</v>
+        <v>43774</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" t="s">
+        <v>336</v>
+      </c>
+      <c r="O106" t="s">
+        <v>337</v>
+      </c>
+      <c r="R106" t="s">
+        <v>26</v>
+      </c>
+      <c r="S106" t="s">
+        <v>26</v>
       </c>
       <c r="T106">
-        <v>530376302</v>
+        <v>242715514</v>
       </c>
       <c r="U106">
-        <v>530376302</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D107" s="1">
-        <v>36558</v>
+        <v>44112</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" t="s">
+        <v>319</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" t="s">
+        <v>339</v>
+      </c>
+      <c r="O107" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>32</v>
+      </c>
+      <c r="R107" t="s">
+        <v>26</v>
+      </c>
+      <c r="S107" t="s">
+        <v>26</v>
       </c>
       <c r="T107">
-        <v>559610656</v>
+        <v>552503776</v>
       </c>
       <c r="U107">
-        <v>559610656</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
         <v>34</v>
@@ -6961,16 +6927,25 @@
       <c r="D108" s="1">
         <v>36558</v>
       </c>
+      <c r="E108" t="s">
+        <v>26</v>
+      </c>
+      <c r="R108" t="s">
+        <v>26</v>
+      </c>
+      <c r="S108" t="s">
+        <v>26</v>
+      </c>
       <c r="T108">
-        <v>540901838</v>
+        <v>543357761</v>
       </c>
       <c r="U108">
-        <v>540901838</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s">
         <v>269</v>
@@ -6982,18 +6957,18 @@
         <v>36558</v>
       </c>
       <c r="T109">
-        <v>554246016</v>
+        <v>530376302</v>
       </c>
       <c r="U109">
-        <v>541473757</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -7002,18 +6977,18 @@
         <v>36558</v>
       </c>
       <c r="T110">
-        <v>256503657</v>
+        <v>559610656</v>
       </c>
       <c r="U110">
-        <v>256503657</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
         <v>34</v>
@@ -7022,55 +6997,55 @@
         <v>36558</v>
       </c>
       <c r="T111">
-        <v>240256100</v>
+        <v>540901838</v>
       </c>
       <c r="U111">
-        <v>240256100</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1">
         <v>36558</v>
       </c>
       <c r="T112">
-        <v>240256100</v>
+        <v>554246016</v>
       </c>
       <c r="U112">
-        <v>240256100</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D113" s="1">
         <v>36558</v>
       </c>
       <c r="T113">
-        <v>557544883</v>
+        <v>256503657</v>
       </c>
       <c r="U113">
-        <v>557544883</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B114" t="s">
         <v>122</v>
@@ -7082,18 +7057,18 @@
         <v>36558</v>
       </c>
       <c r="T114">
-        <v>540750426</v>
+        <v>240256100</v>
       </c>
       <c r="U114">
-        <v>540750426</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -7102,38 +7077,38 @@
         <v>36558</v>
       </c>
       <c r="T115">
-        <v>205669296</v>
+        <v>240256100</v>
       </c>
       <c r="U115">
-        <v>205669296</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D116" s="1">
         <v>36558</v>
       </c>
       <c r="T116">
-        <v>246898922</v>
+        <v>557544883</v>
       </c>
       <c r="U116">
-        <v>246898922</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
@@ -7142,32 +7117,92 @@
         <v>36558</v>
       </c>
       <c r="T117">
-        <v>246898922</v>
+        <v>540750426</v>
       </c>
       <c r="U117">
-        <v>246898922</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D118" s="1">
         <v>36558</v>
       </c>
-      <c r="E118" t="s">
-        <v>26</v>
-      </c>
       <c r="T118">
+        <v>205669296</v>
+      </c>
+      <c r="U118">
+        <v>205669296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T119">
+        <v>246898922</v>
+      </c>
+      <c r="U119">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="1">
+        <v>36558</v>
+      </c>
+      <c r="T120">
+        <v>246898922</v>
+      </c>
+      <c r="U120">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E121" t="s">
+        <v>26</v>
+      </c>
+      <c r="T121">
         <v>546312435</v>
       </c>
-      <c r="U118">
+      <c r="U121">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D835F6E-6614-4059-A9E4-169BAA523146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89492E7E-D52E-43E6-A33D-628F6253B0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="1845" windowWidth="17857" windowHeight="6713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="470">
   <si>
     <t>full_name</t>
   </si>
@@ -1440,6 +1440,12 @@
   </si>
   <si>
     <t xml:space="preserve">0543661177	</t>
+  </si>
+  <si>
+    <t>AIDOO EMMANUEl</t>
+  </si>
+  <si>
+    <t>aidoo baaba</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="R12" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2024,95 +2030,76 @@
         <v>543661177</v>
       </c>
     </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="T14">
+        <v>246875311</v>
+      </c>
+      <c r="U14">
+        <v>246875311</v>
+      </c>
+    </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44632</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G15" t="s">
-        <v>263</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" t="s">
-        <v>443</v>
-      </c>
-      <c r="O15" t="s">
-        <v>444</v>
-      </c>
-      <c r="P15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="T15">
-        <v>249221660</v>
+        <v>246875311</v>
       </c>
       <c r="U15">
-        <v>531739740</v>
+        <v>246875311</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>43309</v>
+        <v>44632</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" t="s">
-        <v>138</v>
+      <c r="F16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G16" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P16" t="s">
-        <v>447</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
-        <v>371</v>
+        <v>109</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -2121,57 +2108,45 @@
         <v>26</v>
       </c>
       <c r="T16">
-        <v>249428289</v>
+        <v>249221660</v>
       </c>
       <c r="U16">
-        <v>542364261</v>
-      </c>
-      <c r="V16" t="s">
-        <v>448</v>
+        <v>531739740</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>45131</v>
+        <v>43309</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
+      <c r="J17" t="s">
+        <v>138</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="M17" t="s">
-        <v>437</v>
-      </c>
       <c r="N17" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="O17" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="P17" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="Q17" t="s">
-        <v>242</v>
+        <v>371</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2180,18 +2155,18 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>548045399</v>
+        <v>249428289</v>
       </c>
       <c r="U17">
-        <v>537571044</v>
+        <v>542364261</v>
       </c>
       <c r="V17" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -2200,66 +2175,84 @@
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>45537</v>
+        <v>45131</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>431</v>
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>437</v>
       </c>
       <c r="N18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O18" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P18" t="s">
         <v>434</v>
       </c>
       <c r="Q18" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="T18">
-        <v>554700135</v>
+        <v>548045399</v>
       </c>
       <c r="U18">
-        <v>540329706</v>
+        <v>537571044</v>
+      </c>
+      <c r="V18" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>42207</v>
+        <v>45537</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>431</v>
+      </c>
       <c r="N19" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O19" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="Q19" t="s">
         <v>109</v>
@@ -2268,27 +2261,27 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="T19">
-        <v>243774692</v>
+        <v>554700135</v>
       </c>
       <c r="U19">
-        <v>243774692</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>44524</v>
+        <v>42207</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -2320,16 +2313,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>42989</v>
+        <v>44524</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -2361,7 +2354,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s">
         <v>267</v>
@@ -2370,31 +2363,19 @@
         <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>42363</v>
+        <v>42989</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
       <c r="N22" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O22" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P22" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="Q22" t="s">
         <v>109</v>
@@ -2406,27 +2387,24 @@
         <v>26</v>
       </c>
       <c r="T22">
-        <v>545350088</v>
+        <v>243774692</v>
       </c>
       <c r="U22">
-        <v>246956426</v>
-      </c>
-      <c r="V22" t="s">
-        <v>399</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>36558</v>
+        <v>42363</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -2473,10 +2451,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2488,10 +2466,10 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2500,16 +2478,16 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="O24" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2518,118 +2496,109 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>549821786</v>
+        <v>545350088</v>
       </c>
       <c r="U24">
-        <v>256242568</v>
+        <v>246956426</v>
+      </c>
+      <c r="V24" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>43025</v>
+        <v>36558</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s">
-        <v>358</v>
+        <v>252</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
       <c r="S25" t="s">
         <v>26</v>
       </c>
       <c r="T25">
-        <v>542199592</v>
+        <v>549821786</v>
       </c>
       <c r="U25">
-        <v>595947343</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>44294</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>359</v>
-      </c>
-      <c r="G26" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" t="s">
-        <v>361</v>
-      </c>
-      <c r="M26" t="s">
-        <v>362</v>
+        <v>43025</v>
       </c>
       <c r="N26" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="O26" t="s">
-        <v>363</v>
-      </c>
-      <c r="P26" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>365</v>
-      </c>
-      <c r="R26" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="S26" t="s">
         <v>26</v>
       </c>
       <c r="T26">
-        <v>532461394</v>
+        <v>542199592</v>
       </c>
       <c r="U26">
-        <v>548850124</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>43594</v>
+        <v>44294</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -2638,16 +2607,25 @@
         <v>359</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L27" t="s">
+        <v>361</v>
+      </c>
+      <c r="M27" t="s">
+        <v>362</v>
       </c>
       <c r="N27" t="s">
         <v>364</v>
@@ -2676,25 +2654,25 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
-        <v>43788</v>
+        <v>43594</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H28" t="s">
         <v>21</v>
@@ -2702,17 +2680,20 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O28" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P28" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2721,54 +2702,51 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>245449031</v>
+        <v>532461394</v>
       </c>
       <c r="U28">
-        <v>545891190</v>
-      </c>
-      <c r="V28" t="s">
-        <v>372</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>42898</v>
+        <v>43788</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" t="s">
+        <v>264</v>
+      </c>
       <c r="H29" t="s">
         <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" t="s">
-        <v>374</v>
-      </c>
-      <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O29" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="Q29" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2777,42 +2755,54 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>249768747</v>
+        <v>245449031</v>
       </c>
       <c r="U29">
-        <v>245716161</v>
+        <v>545891190</v>
       </c>
       <c r="V29" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>43408</v>
+        <v>42898</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>374</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
       <c r="N30" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O30" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="Q30" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -2821,51 +2811,42 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>248076761</v>
+        <v>249768747</v>
       </c>
       <c r="U30">
-        <v>551424325</v>
+        <v>245716161</v>
       </c>
       <c r="V30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>43518</v>
+        <v>43408</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="G31" t="s">
-        <v>384</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
       <c r="N31" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O31" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="P31" t="s">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="Q31" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -2874,33 +2855,33 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>249245434</v>
+        <v>248076761</v>
       </c>
       <c r="U31">
-        <v>558204488</v>
+        <v>551424325</v>
       </c>
       <c r="V31" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1">
-        <v>42467</v>
+        <v>43518</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="F32" t="s">
-        <v>368</v>
+      <c r="G32" t="s">
+        <v>384</v>
       </c>
       <c r="H32" t="s">
         <v>37</v>
@@ -2909,16 +2890,16 @@
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O32" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q32" t="s">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -2927,24 +2908,27 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>247412669</v>
+        <v>249245434</v>
       </c>
       <c r="U32">
-        <v>245649230</v>
+        <v>558204488</v>
+      </c>
+      <c r="V32" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>44295</v>
+        <v>42467</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -2985,40 +2969,40 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>42738</v>
+        <v>44295</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
+      <c r="F34" t="s">
+        <v>368</v>
+      </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
       <c r="N34" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O34" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P34" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q34" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3027,27 +3011,24 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>545350088</v>
+        <v>247412669</v>
       </c>
       <c r="U34">
-        <v>246956426</v>
-      </c>
-      <c r="V34" t="s">
-        <v>399</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
         <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>43644</v>
+        <v>42738</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -3061,11 +3042,17 @@
       <c r="K35" t="s">
         <v>21</v>
       </c>
+      <c r="N35" t="s">
+        <v>396</v>
+      </c>
       <c r="O35" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="P35" t="s">
+        <v>398</v>
       </c>
       <c r="Q35" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3074,47 +3061,62 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>241656149</v>
+        <v>545350088</v>
       </c>
       <c r="U35">
-        <v>241656149</v>
+        <v>246956426</v>
+      </c>
+      <c r="V35" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>42581</v>
+        <v>43644</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
       </c>
+      <c r="O36" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>402</v>
+      </c>
+      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" t="s">
+        <v>26</v>
+      </c>
       <c r="T36">
-        <v>533254698</v>
+        <v>241656149</v>
       </c>
       <c r="U36">
-        <v>546589599</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B37" t="s">
         <v>267</v>
@@ -3123,57 +3125,45 @@
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>42617</v>
+        <v>42581</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="O37" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>402</v>
-      </c>
-      <c r="R37" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37" t="s">
-        <v>26</v>
-      </c>
       <c r="T37">
-        <v>241656149</v>
+        <v>533254698</v>
       </c>
       <c r="U37">
-        <v>241656149</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
-        <v>44968</v>
+        <v>42617</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -3181,17 +3171,11 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="N38" t="s">
-        <v>406</v>
-      </c>
       <c r="O38" t="s">
-        <v>407</v>
-      </c>
-      <c r="P38" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q38" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3200,30 +3184,30 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>543469945</v>
+        <v>241656149</v>
       </c>
       <c r="U38">
-        <v>532807776</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>44351</v>
+        <v>44968</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -3232,16 +3216,16 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O39" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P39" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="Q39" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3250,30 +3234,30 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>248754494</v>
+        <v>543469945</v>
       </c>
       <c r="U39">
-        <v>593082381</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>44238</v>
+        <v>44351</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -3282,16 +3266,16 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>411</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3300,51 +3284,45 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>245077487</v>
+        <v>248754494</v>
       </c>
       <c r="U40">
-        <v>543161188</v>
-      </c>
-      <c r="V40" t="s">
-        <v>140</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>41372</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
       </c>
-      <c r="J41" t="s">
-        <v>169</v>
-      </c>
       <c r="K41" t="s">
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="O41" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="P41" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="Q41" t="s">
         <v>109</v>
@@ -3356,24 +3334,27 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>243043900</v>
+        <v>245077487</v>
       </c>
       <c r="U41">
-        <v>549370765</v>
+        <v>543161188</v>
+      </c>
+      <c r="V41" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1">
-        <v>44084</v>
+        <v>41372</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -3382,19 +3363,25 @@
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>418</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s">
-        <v>419</v>
+        <v>290</v>
+      </c>
+      <c r="P42" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>109</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3403,45 +3390,45 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>256596282</v>
+        <v>243043900</v>
       </c>
       <c r="U42">
-        <v>556006080</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>36558</v>
+        <v>44084</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="F43" t="s">
-        <v>164</v>
-      </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J43" t="s">
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="O43" t="s">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3450,33 +3437,33 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>543784758</v>
+        <v>256596282</v>
       </c>
       <c r="U43">
-        <v>243307643</v>
-      </c>
-      <c r="V43" t="s">
-        <v>167</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>36558</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3485,16 +3472,10 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
-      </c>
-      <c r="P44" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3502,40 +3483,34 @@
       <c r="S44" t="s">
         <v>26</v>
       </c>
-      <c r="T44" s="3">
-        <v>249891601</v>
+      <c r="T44">
+        <v>543784758</v>
       </c>
       <c r="U44">
-        <v>5414805333</v>
+        <v>243307643</v>
       </c>
       <c r="V44" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>44782</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
+        <v>44852</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3544,16 +3519,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3561,31 +3536,37 @@
       <c r="S45" t="s">
         <v>26</v>
       </c>
-      <c r="T45">
-        <v>554885693</v>
+      <c r="T45" s="3">
+        <v>249891601</v>
       </c>
       <c r="U45">
-        <v>542738888</v>
+        <v>5414805333</v>
+      </c>
+      <c r="V45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1">
-        <v>44922</v>
+        <v>44782</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
         <v>37</v>
@@ -3597,16 +3578,16 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3615,39 +3596,33 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>243081535</v>
+        <v>554885693</v>
       </c>
       <c r="U46">
-        <v>544479394</v>
-      </c>
-      <c r="V46" t="s">
-        <v>47</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>44691</v>
+        <v>44922</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3656,13 +3631,13 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q47" t="s">
         <v>46</v>
@@ -3674,57 +3649,57 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>543719591</v>
+        <v>243081535</v>
       </c>
       <c r="U47">
-        <v>541484405</v>
+        <v>544479394</v>
+      </c>
+      <c r="V47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1">
-        <v>45040</v>
+        <v>44691</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" t="s">
-        <v>55</v>
-      </c>
-      <c r="M48" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O48" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q48" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3733,57 +3708,57 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>548697421</v>
+        <v>543719591</v>
       </c>
       <c r="U48">
-        <v>549328229</v>
-      </c>
-      <c r="V48" t="s">
-        <v>61</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
-      </c>
-      <c r="F49" t="s">
-        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L49" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
+        <v>56</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P49" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -3792,33 +3767,39 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>554246016</v>
+        <v>548697421</v>
       </c>
       <c r="U49">
-        <v>541473757</v>
+        <v>549328229</v>
+      </c>
+      <c r="V49" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>43551</v>
+        <v>45037</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -3826,20 +3807,17 @@
       <c r="K50" t="s">
         <v>21</v>
       </c>
-      <c r="M50" t="s">
-        <v>67</v>
-      </c>
       <c r="N50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q50" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -3848,36 +3826,33 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>203218292</v>
+        <v>554246016</v>
       </c>
       <c r="U50">
-        <v>546407893</v>
-      </c>
-      <c r="V50" t="s">
-        <v>71</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>43536</v>
+        <v>43551</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3885,17 +3860,20 @@
       <c r="K51" t="s">
         <v>21</v>
       </c>
+      <c r="M51" t="s">
+        <v>67</v>
+      </c>
       <c r="N51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q51" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -3904,33 +3882,36 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>544622299</v>
+        <v>203218292</v>
       </c>
       <c r="U51">
-        <v>241651317</v>
+        <v>546407893</v>
+      </c>
+      <c r="V51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>43486</v>
+        <v>43536</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3938,20 +3919,17 @@
       <c r="K52" t="s">
         <v>21</v>
       </c>
-      <c r="M52" t="s">
-        <v>78</v>
-      </c>
       <c r="N52" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P52" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q52" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -3960,18 +3938,15 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>241861382</v>
+        <v>544622299</v>
       </c>
       <c r="U52">
-        <v>547944747</v>
-      </c>
-      <c r="V52" t="s">
-        <v>83</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>265</v>
@@ -3980,16 +3955,16 @@
         <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>43214</v>
+        <v>43486</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3997,14 +3972,20 @@
       <c r="K53" t="s">
         <v>21</v>
       </c>
+      <c r="M53" t="s">
+        <v>78</v>
+      </c>
       <c r="N53" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O53" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P53" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>82</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4013,33 +3994,36 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>540750428</v>
+        <v>241861382</v>
       </c>
       <c r="U53">
-        <v>240127525</v>
+        <v>547944747</v>
       </c>
       <c r="V53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>44390</v>
+        <v>43214</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -4048,16 +4032,13 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4066,31 +4047,31 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>248450590</v>
+        <v>540750428</v>
       </c>
       <c r="U54">
-        <v>548086355</v>
+        <v>240127525</v>
+      </c>
+      <c r="V54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>43582</v>
+        <v>44390</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="G55" t="s">
-        <v>96</v>
-      </c>
       <c r="H55" t="s">
         <v>37</v>
       </c>
@@ -4101,10 +4082,16 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O55" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="P55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>94</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4113,27 +4100,24 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>542776117</v>
+        <v>248450590</v>
       </c>
       <c r="U55">
-        <v>556780997</v>
-      </c>
-      <c r="V55" t="s">
-        <v>99</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>42977</v>
+        <v>43582</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
@@ -4142,7 +4126,7 @@
         <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -4151,10 +4135,10 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4163,33 +4147,36 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>246469841</v>
+        <v>542776117</v>
       </c>
       <c r="U56">
-        <v>244502858</v>
+        <v>556780997</v>
       </c>
       <c r="V56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1">
-        <v>44057</v>
+        <v>42977</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
+      <c r="G57" t="s">
+        <v>96</v>
+      </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -4198,16 +4185,10 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
-      </c>
-      <c r="P57" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4216,34 +4197,31 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>246645496</v>
+        <v>246469841</v>
       </c>
       <c r="U57">
-        <v>240778774</v>
+        <v>244502858</v>
+      </c>
+      <c r="V57" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>41923</v>
+        <v>44057</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
-      <c r="F58" t="s">
-        <v>111</v>
-      </c>
-      <c r="G58" t="s">
-        <v>112</v>
-      </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
@@ -4251,19 +4229,19 @@
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
-      </c>
-      <c r="M58" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O58" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="P58" t="s">
+        <v>108</v>
       </c>
       <c r="Q58" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4272,28 +4250,34 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>248675358</v>
+        <v>246645496</v>
       </c>
       <c r="U58">
-        <v>247790941</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>44796</v>
+        <v>41923</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" t="s">
+        <v>112</v>
+      </c>
       <c r="H59" t="s">
         <v>37</v>
       </c>
@@ -4301,19 +4285,19 @@
         <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
+        <v>113</v>
       </c>
       <c r="N59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O59" t="s">
-        <v>118</v>
-      </c>
-      <c r="P59" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4322,33 +4306,30 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>599634556</v>
+        <v>248675358</v>
       </c>
       <c r="U59">
-        <v>535220641</v>
-      </c>
-      <c r="V59" t="s">
-        <v>120</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
       </c>
       <c r="D60" s="1">
-        <v>44890</v>
+        <v>44796</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="G60" t="s">
-        <v>122</v>
+      <c r="H60" t="s">
+        <v>37</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
@@ -4357,13 +4338,13 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O60" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Q60" t="s">
         <v>25</v>
@@ -4375,54 +4356,51 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>245864268</v>
+        <v>599634556</v>
       </c>
       <c r="U60">
-        <v>247823594</v>
+        <v>535220641</v>
       </c>
       <c r="V60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
-      </c>
-      <c r="C61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>43652</v>
+        <v>44890</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="H61" t="s">
-        <v>37</v>
+      <c r="G61" t="s">
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="Q61" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4431,27 +4409,27 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>543279537</v>
+        <v>245864268</v>
       </c>
       <c r="U61">
-        <v>241208687</v>
+        <v>247823594</v>
       </c>
       <c r="V61" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>42673</v>
+        <v>43652</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
@@ -4460,13 +4438,25 @@
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>127</v>
       </c>
       <c r="K62" t="s">
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="O62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>131</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4475,21 +4465,27 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>244423888</v>
+        <v>543279537</v>
+      </c>
+      <c r="U62">
+        <v>241208687</v>
+      </c>
+      <c r="V62" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>42691</v>
+        <v>42673</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
@@ -4498,16 +4494,13 @@
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
-      <c r="O63" t="s">
-        <v>139</v>
+      <c r="N63" t="s">
+        <v>136</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4516,15 +4509,12 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>245077487</v>
-      </c>
-      <c r="V63" t="s">
-        <v>140</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
         <v>267</v>
@@ -4532,32 +4522,26 @@
       <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="2">
-        <v>42832</v>
+      <c r="D64" s="1">
+        <v>42691</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="G64" t="s">
-        <v>142</v>
-      </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>138</v>
       </c>
       <c r="K64" t="s">
         <v>21</v>
       </c>
-      <c r="N64" t="s">
-        <v>143</v>
-      </c>
       <c r="O64" t="s">
-        <v>144</v>
-      </c>
-      <c r="P64" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4566,48 +4550,48 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>245766735</v>
-      </c>
-      <c r="U64">
-        <v>245702914</v>
+        <v>245077487</v>
       </c>
       <c r="V64" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="1">
-        <v>42202</v>
+      <c r="D65" s="2">
+        <v>42832</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
       <c r="H65" t="s">
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-      <c r="J65" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O65" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="P65" t="s">
+        <v>146</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4616,54 +4600,48 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>248178775</v>
+        <v>245766735</v>
       </c>
       <c r="U65">
-        <v>550234225</v>
+        <v>245702914</v>
       </c>
       <c r="V65" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>42695</v>
+        <v>42202</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="G66" t="s">
-        <v>142</v>
-      </c>
       <c r="H66" t="s">
         <v>37</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>148</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O66" t="s">
-        <v>155</v>
-      </c>
-      <c r="P66" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -4672,33 +4650,33 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>245424585</v>
+        <v>248178775</v>
       </c>
       <c r="U66">
-        <v>247566924</v>
+        <v>550234225</v>
       </c>
       <c r="V66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>41794</v>
+        <v>42695</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4710,16 +4688,16 @@
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P67" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -4728,30 +4706,33 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>245980902</v>
+        <v>245424585</v>
       </c>
       <c r="U67">
-        <v>245272449</v>
+        <v>247566924</v>
       </c>
       <c r="V67" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1">
-        <v>43093</v>
+        <v>41794</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
@@ -4792,23 +4773,20 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>43165</v>
+        <v>43093</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
-      <c r="F69" t="s">
-        <v>164</v>
-      </c>
       <c r="H69" t="s">
         <v>37</v>
       </c>
@@ -4819,10 +4797,16 @@
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O69" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="P69" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>160</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -4831,27 +4815,27 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>543784758</v>
+        <v>245980902</v>
       </c>
       <c r="U69">
-        <v>243307643</v>
+        <v>245272449</v>
       </c>
       <c r="V69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="1">
-        <v>42564</v>
+        <v>43165</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
@@ -4865,9 +4849,6 @@
       <c r="I70" t="s">
         <v>21</v>
       </c>
-      <c r="J70" t="s">
-        <v>169</v>
-      </c>
       <c r="K70" t="s">
         <v>21</v>
       </c>
@@ -4895,22 +4876,22 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="1">
-        <v>43499</v>
+        <v>42564</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
@@ -4918,20 +4899,17 @@
       <c r="I71" t="s">
         <v>21</v>
       </c>
+      <c r="J71" t="s">
+        <v>169</v>
+      </c>
       <c r="K71" t="s">
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O71" t="s">
-        <v>173</v>
-      </c>
-      <c r="P71" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -4940,33 +4918,33 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>595670927</v>
+        <v>543784758</v>
       </c>
       <c r="U71">
-        <v>553491903</v>
+        <v>243307643</v>
       </c>
       <c r="V71" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>42289</v>
+        <v>43499</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="G72" t="s">
-        <v>122</v>
+      <c r="F72" t="s">
+        <v>171</v>
       </c>
       <c r="H72" t="s">
         <v>37</v>
@@ -4978,16 +4956,16 @@
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O72" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -4996,31 +4974,34 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>547068449</v>
+        <v>595670927</v>
       </c>
       <c r="U72">
-        <v>547068449</v>
+        <v>553491903</v>
       </c>
       <c r="V72" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D73" s="1">
-        <v>42839</v>
+        <v>42289</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
+      <c r="G73" t="s">
+        <v>122</v>
+      </c>
       <c r="H73" t="s">
         <v>37</v>
       </c>
@@ -5031,10 +5012,16 @@
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O73" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="P73" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>109</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5043,63 +5030,45 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>244730682</v>
+        <v>547068449</v>
       </c>
       <c r="U73">
-        <v>249341294</v>
+        <v>547068449</v>
       </c>
       <c r="V73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>44495</v>
+        <v>42839</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
-      <c r="F74" t="s">
-        <v>185</v>
-      </c>
-      <c r="G74" t="s">
-        <v>122</v>
-      </c>
       <c r="H74" t="s">
         <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>37</v>
-      </c>
-      <c r="L74" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O74" t="s">
-        <v>189</v>
-      </c>
-      <c r="P74" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5108,60 +5077,63 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>532416380</v>
+        <v>244730682</v>
       </c>
       <c r="U74">
-        <v>543108512</v>
+        <v>249341294</v>
       </c>
       <c r="V74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>43950</v>
+        <v>44495</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H75" t="s">
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J75" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L75" t="s">
+        <v>187</v>
       </c>
       <c r="N75" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O75" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="Q75" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5170,51 +5142,60 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>597661016</v>
+        <v>532416380</v>
       </c>
       <c r="U75">
-        <v>501213049</v>
+        <v>543108512</v>
       </c>
       <c r="V75" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
         <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D76" s="1">
-        <v>44383</v>
+        <v>43950</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
+      <c r="F76" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
       <c r="H76" t="s">
         <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>194</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O76" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P76" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5223,37 +5204,31 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>595670927</v>
+        <v>597661016</v>
       </c>
       <c r="U76">
-        <v>553491903</v>
+        <v>501213049</v>
       </c>
       <c r="V76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>43524</v>
+        <v>44383</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
-      <c r="F77" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" t="s">
-        <v>133</v>
-      </c>
       <c r="H77" t="s">
         <v>37</v>
       </c>
@@ -5264,16 +5239,16 @@
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="O77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P77" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="Q77" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5282,33 +5257,36 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>244678226</v>
+        <v>595670927</v>
       </c>
       <c r="U77">
-        <v>208455305</v>
+        <v>553491903</v>
       </c>
       <c r="V77" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>44364</v>
+        <v>43524</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
+      <c r="F78" t="s">
+        <v>204</v>
+      </c>
       <c r="G78" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
         <v>37</v>
@@ -5320,16 +5298,16 @@
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="Q78" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5338,27 +5316,27 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>243352028</v>
+        <v>244678226</v>
       </c>
       <c r="U78">
-        <v>243088742</v>
+        <v>208455305</v>
       </c>
       <c r="V78" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>44627</v>
+        <v>44364</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
@@ -5372,20 +5350,20 @@
       <c r="I79" t="s">
         <v>21</v>
       </c>
-      <c r="M79" t="s">
-        <v>216</v>
+      <c r="K79" t="s">
+        <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="O79" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="P79" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="Q79" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5394,33 +5372,33 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>241861382</v>
+        <v>243352028</v>
       </c>
       <c r="U79">
-        <v>547944747</v>
+        <v>243088742</v>
       </c>
       <c r="V79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1">
-        <v>44430</v>
+        <v>44627</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H80" t="s">
         <v>37</v>
@@ -5428,20 +5406,20 @@
       <c r="I80" t="s">
         <v>21</v>
       </c>
-      <c r="K80" t="s">
-        <v>21</v>
+      <c r="M80" t="s">
+        <v>216</v>
       </c>
       <c r="N80" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="O80" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="Q80" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5450,54 +5428,54 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>555101040</v>
+        <v>241861382</v>
       </c>
       <c r="U80">
-        <v>537150359</v>
+        <v>547944747</v>
       </c>
       <c r="V80" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1">
-        <v>43839</v>
+        <v>44430</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
-      </c>
-      <c r="F81" t="s">
-        <v>223</v>
       </c>
       <c r="G81" t="s">
         <v>96</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O81" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="P81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>221</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5506,54 +5484,54 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>554845413</v>
+        <v>555101040</v>
       </c>
       <c r="U81">
-        <v>256786281</v>
+        <v>537150359</v>
       </c>
       <c r="V81" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="1">
-        <v>44661</v>
+        <v>43839</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>223</v>
       </c>
       <c r="G82" t="s">
         <v>96</v>
       </c>
       <c r="H82" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J82" t="s">
+        <v>224</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="O82" t="s">
-        <v>155</v>
-      </c>
-      <c r="P82" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5562,18 +5540,18 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>245424585</v>
+        <v>554845413</v>
       </c>
       <c r="U82">
-        <v>247566924</v>
+        <v>256786281</v>
       </c>
       <c r="V82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
         <v>263</v>
@@ -5582,11 +5560,14 @@
         <v>34</v>
       </c>
       <c r="D83" s="1">
-        <v>44459</v>
+        <v>44661</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
+      <c r="G83" t="s">
+        <v>96</v>
+      </c>
       <c r="H83" t="s">
         <v>37</v>
       </c>
@@ -5597,13 +5578,16 @@
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="O83" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>146</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>25</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5612,27 +5596,27 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>244446781</v>
+        <v>245424585</v>
       </c>
       <c r="U83">
-        <v>249251741</v>
+        <v>247566924</v>
       </c>
       <c r="V83" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
-        <v>44414</v>
+        <v>44459</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
@@ -5647,16 +5631,13 @@
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O84" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -5665,10 +5646,10 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>246364382</v>
+        <v>244446781</v>
       </c>
       <c r="U84">
-        <v>242830458</v>
+        <v>249251741</v>
       </c>
       <c r="V84" t="s">
         <v>161</v>
@@ -5676,46 +5657,40 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>45025</v>
+        <v>44414</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
-      <c r="G85" t="s">
-        <v>122</v>
-      </c>
       <c r="H85" t="s">
         <v>37</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
       </c>
-      <c r="J85" t="s">
-        <v>169</v>
-      </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O85" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -5724,54 +5699,57 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>245902055</v>
+        <v>246364382</v>
       </c>
       <c r="U85">
-        <v>557566068</v>
+        <v>242830458</v>
+      </c>
+      <c r="V85" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>43792</v>
+        <v>45025</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
-      <c r="F86" t="s">
-        <v>244</v>
+      <c r="G86" t="s">
+        <v>122</v>
       </c>
       <c r="H86" t="s">
         <v>37</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
       </c>
       <c r="N86" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O86" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P86" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="R86" t="s">
         <v>26</v>
@@ -5780,54 +5758,51 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>538984324</v>
+        <v>245902055</v>
       </c>
       <c r="U86">
-        <v>531766425</v>
-      </c>
-      <c r="V86" t="s">
-        <v>248</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
         <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D87" s="1">
-        <v>43785</v>
+        <v>43792</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>250</v>
-      </c>
-      <c r="G87" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J87" t="s">
+        <v>245</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O87" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P87" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q87" t="s">
         <v>25</v>
@@ -5839,33 +5814,39 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>549821786</v>
+        <v>538984324</v>
       </c>
       <c r="U87">
-        <v>256242568</v>
+        <v>531766425</v>
+      </c>
+      <c r="V87" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>44687</v>
+        <v>43785</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
+      <c r="F88" t="s">
+        <v>250</v>
+      </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
         <v>21</v>
@@ -5874,10 +5855,16 @@
         <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O88" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="P88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>25</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -5886,60 +5873,45 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>247633503</v>
+        <v>549821786</v>
       </c>
       <c r="U88">
-        <v>241690416</v>
-      </c>
-      <c r="V88" t="s">
-        <v>257</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>42797</v>
+        <v>44687</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
-      <c r="F89" t="s">
-        <v>244</v>
-      </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O89" t="s">
-        <v>247</v>
-      </c>
-      <c r="P89" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -5948,39 +5920,45 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>538984324</v>
+        <v>247633503</v>
       </c>
       <c r="U89">
-        <v>531766425</v>
+        <v>241690416</v>
       </c>
       <c r="V89" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>44663</v>
+        <v>42797</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
+      <c r="F90" t="s">
+        <v>244</v>
+      </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J90" t="s">
+        <v>245</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
@@ -6015,49 +5993,43 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>42239</v>
+        <v>44663</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="F91" t="s">
-        <v>272</v>
+      <c r="G91" t="s">
+        <v>96</v>
       </c>
       <c r="H91" t="s">
         <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>101</v>
-      </c>
-      <c r="J91" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="K91" t="s">
-        <v>37</v>
-      </c>
-      <c r="L91" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N91" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O91" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Q91" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -6066,15 +6038,18 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>549605899</v>
+        <v>538984324</v>
       </c>
       <c r="U91">
-        <v>534014247</v>
+        <v>531766425</v>
+      </c>
+      <c r="V91" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
         <v>265</v>
@@ -6083,31 +6058,37 @@
         <v>34</v>
       </c>
       <c r="D92" s="1">
-        <v>43231</v>
+        <v>42239</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
+      <c r="F92" t="s">
+        <v>272</v>
+      </c>
       <c r="H92" t="s">
         <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J92" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="K92" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L92" t="s">
+        <v>273</v>
       </c>
       <c r="N92" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O92" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P92" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Q92" t="s">
         <v>109</v>
@@ -6119,15 +6100,15 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>244077227</v>
+        <v>549605899</v>
       </c>
       <c r="U92">
-        <v>245173168</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B93" t="s">
         <v>265</v>
@@ -6136,13 +6117,13 @@
         <v>34</v>
       </c>
       <c r="D93" s="1">
-        <v>42088</v>
+        <v>43231</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
         <v>37</v>
@@ -6151,19 +6132,16 @@
         <v>138</v>
       </c>
       <c r="K93" t="s">
-        <v>101</v>
-      </c>
-      <c r="L93" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O93" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q93" t="s">
         <v>109</v>
@@ -6175,51 +6153,51 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>207900244</v>
+        <v>244077227</v>
       </c>
       <c r="U93">
-        <v>599397215</v>
-      </c>
-      <c r="V93" t="s">
-        <v>284</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B94" t="s">
         <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D94" s="1">
-        <v>43085</v>
+        <v>42088</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J94" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="K94" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L94" t="s">
+        <v>280</v>
       </c>
       <c r="N94" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O94" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P94" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="Q94" t="s">
         <v>109</v>
@@ -6231,15 +6209,18 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>243043900</v>
+        <v>207900244</v>
       </c>
       <c r="U94">
-        <v>549370765</v>
+        <v>599397215</v>
+      </c>
+      <c r="V94" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
         <v>265</v>
@@ -6248,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>43108</v>
+        <v>43085</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -6257,22 +6238,25 @@
         <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>169</v>
       </c>
       <c r="K95" t="s">
         <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="Q95" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6281,15 +6265,15 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>533254698</v>
+        <v>243043900</v>
       </c>
       <c r="U95">
-        <v>546589599</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s">
         <v>265</v>
@@ -6298,16 +6282,13 @@
         <v>20</v>
       </c>
       <c r="D96" s="1">
-        <v>43310</v>
+        <v>43108</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
-      <c r="F96" t="s">
-        <v>111</v>
-      </c>
       <c r="H96" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
         <v>149</v>
@@ -6316,16 +6297,16 @@
         <v>21</v>
       </c>
       <c r="N96" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O96" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P96" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R96" t="s">
         <v>26</v>
@@ -6334,18 +6315,15 @@
         <v>26</v>
       </c>
       <c r="T96">
-        <v>249220522</v>
+        <v>533254698</v>
       </c>
       <c r="U96">
-        <v>241246842</v>
-      </c>
-      <c r="V96" t="s">
-        <v>298</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B97" t="s">
         <v>265</v>
@@ -6354,34 +6332,34 @@
         <v>20</v>
       </c>
       <c r="D97" s="1">
-        <v>43170</v>
+        <v>43310</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
       </c>
+      <c r="F97" t="s">
+        <v>111</v>
+      </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I97" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O97" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P97" t="s">
         <v>134</v>
       </c>
       <c r="Q97" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R97" t="s">
         <v>26</v>
@@ -6390,51 +6368,54 @@
         <v>26</v>
       </c>
       <c r="T97">
-        <v>246861527</v>
+        <v>249220522</v>
       </c>
       <c r="U97">
-        <v>558286552</v>
+        <v>241246842</v>
+      </c>
+      <c r="V97" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B98" t="s">
         <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D98" s="1">
-        <v>43452</v>
+        <v>43170</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
         <v>37</v>
       </c>
       <c r="J98" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="K98" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O98" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P98" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R98" t="s">
         <v>26</v>
@@ -6443,18 +6424,15 @@
         <v>26</v>
       </c>
       <c r="T98">
-        <v>246532233</v>
+        <v>246861527</v>
       </c>
       <c r="U98">
-        <v>247792191</v>
-      </c>
-      <c r="V98" t="s">
-        <v>307</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
         <v>265</v>
@@ -6463,7 +6441,7 @@
         <v>34</v>
       </c>
       <c r="D99" s="1">
-        <v>43118</v>
+        <v>43452</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
@@ -6472,22 +6450,25 @@
         <v>37</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J99" t="s">
+        <v>138</v>
       </c>
       <c r="K99" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N99" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O99" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P99" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q99" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -6496,18 +6477,18 @@
         <v>26</v>
       </c>
       <c r="T99">
-        <v>246951455</v>
+        <v>246532233</v>
       </c>
       <c r="U99">
-        <v>242684572</v>
+        <v>247792191</v>
       </c>
       <c r="V99" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
         <v>265</v>
@@ -6516,18 +6497,18 @@
         <v>34</v>
       </c>
       <c r="D100" s="1">
-        <v>43008</v>
+        <v>43118</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
       </c>
-      <c r="F100" t="s">
-        <v>312</v>
-      </c>
       <c r="H100" t="s">
         <v>37</v>
       </c>
       <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
         <v>21</v>
       </c>
       <c r="N100" t="s">
@@ -6537,10 +6518,10 @@
         <v>314</v>
       </c>
       <c r="P100" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -6560,16 +6541,16 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
         <v>34</v>
       </c>
       <c r="D101" s="1">
-        <v>44912</v>
+        <v>43008</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
@@ -6613,22 +6594,22 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D102" s="1">
-        <v>42540</v>
+        <v>44912</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H102" t="s">
         <v>37</v>
@@ -6636,20 +6617,17 @@
       <c r="I102" t="s">
         <v>21</v>
       </c>
-      <c r="K102" t="s">
-        <v>21</v>
-      </c>
       <c r="N102" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P102" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="Q102" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -6658,31 +6636,34 @@
         <v>26</v>
       </c>
       <c r="T102">
-        <v>549223419</v>
+        <v>246951455</v>
       </c>
       <c r="U102">
-        <v>547981198</v>
+        <v>242684572</v>
       </c>
       <c r="V102" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>44839</v>
+        <v>42540</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
       </c>
+      <c r="F103" t="s">
+        <v>319</v>
+      </c>
       <c r="H103" t="s">
         <v>37</v>
       </c>
@@ -6693,16 +6674,16 @@
         <v>21</v>
       </c>
       <c r="N103" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="O103" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="P103" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q103" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -6711,33 +6692,33 @@
         <v>26</v>
       </c>
       <c r="T103">
-        <v>249220522</v>
+        <v>549223419</v>
       </c>
       <c r="U103">
-        <v>241246842</v>
+        <v>547981198</v>
       </c>
       <c r="V103" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>43831</v>
+        <v>44839</v>
       </c>
       <c r="E104" t="s">
         <v>26</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I104" t="s">
         <v>21</v>
@@ -6746,16 +6727,16 @@
         <v>21</v>
       </c>
       <c r="N104" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="O104" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="P104" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Q104" t="s">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="R104" t="s">
         <v>26</v>
@@ -6764,57 +6745,51 @@
         <v>26</v>
       </c>
       <c r="T104">
-        <v>248076761</v>
+        <v>249220522</v>
       </c>
       <c r="U104">
-        <v>551424325</v>
+        <v>241246842</v>
       </c>
       <c r="V104" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="1">
-        <v>44017</v>
+        <v>43831</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
       </c>
-      <c r="F105" t="s">
-        <v>63</v>
-      </c>
       <c r="H105" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I105" t="s">
-        <v>37</v>
-      </c>
-      <c r="J105" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="K105" t="s">
         <v>21</v>
       </c>
       <c r="N105" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="O105" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="Q105" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="R105" t="s">
         <v>26</v>
@@ -6823,18 +6798,18 @@
         <v>26</v>
       </c>
       <c r="T105">
-        <v>244446781</v>
+        <v>248076761</v>
       </c>
       <c r="U105">
-        <v>249251741</v>
+        <v>551424325</v>
       </c>
       <c r="V105" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s">
         <v>264</v>
@@ -6843,16 +6818,37 @@
         <v>20</v>
       </c>
       <c r="D106" s="1">
-        <v>43774</v>
+        <v>44017</v>
       </c>
       <c r="E106" t="s">
         <v>26</v>
       </c>
+      <c r="F106" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s">
+        <v>331</v>
+      </c>
+      <c r="K106" t="s">
+        <v>21</v>
+      </c>
       <c r="N106" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="O106" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="P106" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>333</v>
       </c>
       <c r="R106" t="s">
         <v>26</v>
@@ -6861,45 +6857,36 @@
         <v>26</v>
       </c>
       <c r="T106">
-        <v>242715514</v>
+        <v>244446781</v>
       </c>
       <c r="U106">
-        <v>553488520</v>
+        <v>249251741</v>
+      </c>
+      <c r="V106" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>44112</v>
+        <v>43774</v>
       </c>
       <c r="E107" t="s">
         <v>26</v>
       </c>
-      <c r="F107" t="s">
-        <v>319</v>
-      </c>
-      <c r="H107" t="s">
-        <v>37</v>
-      </c>
-      <c r="I107" t="s">
-        <v>21</v>
-      </c>
       <c r="N107" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O107" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="R107" t="s">
         <v>26</v>
@@ -6908,28 +6895,46 @@
         <v>26</v>
       </c>
       <c r="T107">
-        <v>552503776</v>
+        <v>242715514</v>
       </c>
       <c r="U107">
-        <v>246922004</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="1">
-        <v>36558</v>
+        <v>44112</v>
       </c>
       <c r="E108" t="s">
         <v>26</v>
       </c>
+      <c r="F108" t="s">
+        <v>319</v>
+      </c>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" t="s">
+        <v>339</v>
+      </c>
+      <c r="O108" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>32</v>
+      </c>
       <c r="R108" t="s">
         <v>26</v>
       </c>
@@ -6937,38 +6942,47 @@
         <v>26</v>
       </c>
       <c r="T108">
-        <v>543357761</v>
+        <v>552503776</v>
       </c>
       <c r="U108">
-        <v>543357761</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D109" s="1">
         <v>36558</v>
       </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="R109" t="s">
+        <v>26</v>
+      </c>
+      <c r="S109" t="s">
+        <v>26</v>
+      </c>
       <c r="T109">
-        <v>530376302</v>
+        <v>543357761</v>
       </c>
       <c r="U109">
-        <v>530376302</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -6977,58 +6991,58 @@
         <v>36558</v>
       </c>
       <c r="T110">
-        <v>559610656</v>
+        <v>530376302</v>
       </c>
       <c r="U110">
-        <v>559610656</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D111" s="1">
         <v>36558</v>
       </c>
       <c r="T111">
-        <v>540901838</v>
+        <v>559610656</v>
       </c>
       <c r="U111">
-        <v>540901838</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s">
         <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D112" s="1">
         <v>36558</v>
       </c>
       <c r="T112">
-        <v>554246016</v>
+        <v>540901838</v>
       </c>
       <c r="U112">
-        <v>541473757</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
@@ -7037,38 +7051,38 @@
         <v>36558</v>
       </c>
       <c r="T113">
-        <v>256503657</v>
+        <v>554246016</v>
       </c>
       <c r="U113">
-        <v>256503657</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1">
         <v>36558</v>
       </c>
       <c r="T114">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
       <c r="U114">
-        <v>240256100</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -7085,10 +7099,10 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
@@ -7097,18 +7111,18 @@
         <v>36558</v>
       </c>
       <c r="T116">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
       <c r="U116">
-        <v>557544883</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
@@ -7117,15 +7131,15 @@
         <v>36558</v>
       </c>
       <c r="T117">
-        <v>540750426</v>
+        <v>557544883</v>
       </c>
       <c r="U117">
-        <v>540750426</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -7137,41 +7151,41 @@
         <v>36558</v>
       </c>
       <c r="T118">
-        <v>205669296</v>
+        <v>540750426</v>
       </c>
       <c r="U118">
-        <v>205669296</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D119" s="1">
         <v>36558</v>
       </c>
       <c r="T119">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
       <c r="U119">
-        <v>246898922</v>
+        <v>205669296</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D120" s="1">
         <v>36558</v>
@@ -7185,24 +7199,44 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D121" s="1">
         <v>36558</v>
       </c>
-      <c r="E121" t="s">
-        <v>26</v>
-      </c>
       <c r="T121">
+        <v>246898922</v>
+      </c>
+      <c r="U121">
+        <v>246898922</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="T122">
         <v>546312435</v>
       </c>
-      <c r="U121">
+      <c r="U122">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89492E7E-D52E-43E6-A33D-628F6253B0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB6FC96-728B-4467-877F-2256AA92BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="1845" windowWidth="17857" windowHeight="6713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="467">
   <si>
     <t>full_name</t>
   </si>
@@ -1092,15 +1092,6 @@
   </si>
   <si>
     <t>Henry Adamtey</t>
-  </si>
-  <si>
-    <t>Anabel Mensah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kojo Prah </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg 2 </t>
   </si>
   <si>
     <t>Naadom Yeboah</t>
@@ -1768,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R12" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1867,7 +1858,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>269</v>
@@ -1881,7 +1872,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>267</v>
@@ -1895,7 +1886,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
         <v>264</v>
@@ -1909,7 +1900,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>266</v>
@@ -1918,12 +1909,12 @@
         <v>244730682</v>
       </c>
       <c r="U5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -1937,13 +1928,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
         <v>267</v>
       </c>
       <c r="T7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="U7">
         <v>542364261</v>
@@ -1951,10 +1942,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="T8">
         <v>249428289</v>
@@ -1965,13 +1956,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>269</v>
       </c>
       <c r="T9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="U9">
         <v>598580720</v>
@@ -1979,21 +1970,21 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>269</v>
       </c>
       <c r="T10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="U10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>266</v>
@@ -2004,7 +1995,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
         <v>266</v>
@@ -2018,13 +2009,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
       </c>
       <c r="T13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="U13">
         <v>543661177</v>
@@ -2032,7 +2023,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
         <v>266</v>
@@ -2046,7 +2037,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -2060,7 +2051,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
         <v>263</v>
@@ -2075,7 +2066,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G16" t="s">
         <v>263</v>
@@ -2090,10 +2081,10 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P16" t="s">
         <v>40</v>
@@ -2116,7 +2107,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s">
         <v>265</v>
@@ -2137,16 +2128,16 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2161,12 +2152,12 @@
         <v>542364261</v>
       </c>
       <c r="V17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -2193,16 +2184,16 @@
         <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N18" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q18" t="s">
         <v>242</v>
@@ -2220,12 +2211,12 @@
         <v>537571044</v>
       </c>
       <c r="V18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -2243,16 +2234,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s">
+        <v>428</v>
+      </c>
+      <c r="N19" t="s">
+        <v>429</v>
+      </c>
+      <c r="O19" t="s">
+        <v>430</v>
+      </c>
+      <c r="P19" t="s">
         <v>431</v>
-      </c>
-      <c r="N19" t="s">
-        <v>432</v>
-      </c>
-      <c r="O19" t="s">
-        <v>433</v>
-      </c>
-      <c r="P19" t="s">
-        <v>434</v>
       </c>
       <c r="Q19" t="s">
         <v>109</v>
@@ -2261,7 +2252,7 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T19">
         <v>554700135</v>
@@ -2272,7 +2263,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
         <v>270</v>
@@ -2287,10 +2278,10 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P20" t="s">
         <v>109</v>
@@ -2313,7 +2304,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s">
         <v>263</v>
@@ -2328,10 +2319,10 @@
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P21" t="s">
         <v>109</v>
@@ -2354,7 +2345,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
         <v>267</v>
@@ -2369,10 +2360,10 @@
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P22" t="s">
         <v>109</v>
@@ -2395,7 +2386,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B23" t="s">
         <v>267</v>
@@ -2410,7 +2401,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H23" t="s">
         <v>37</v>
@@ -2422,13 +2413,13 @@
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O23" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q23" t="s">
         <v>109</v>
@@ -2446,12 +2437,12 @@
         <v>246956426</v>
       </c>
       <c r="V23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B24" t="s">
         <v>263</v>
@@ -2466,7 +2457,7 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H24" t="s">
         <v>37</v>
@@ -2478,13 +2469,13 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q24" t="s">
         <v>109</v>
@@ -2502,12 +2493,12 @@
         <v>246956426</v>
       </c>
       <c r="V24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
@@ -2560,7 +2551,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
         <v>259</v>
@@ -2572,10 +2563,10 @@
         <v>43025</v>
       </c>
       <c r="N26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O26" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S26" t="s">
         <v>26</v>
@@ -2589,7 +2580,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B27" t="s">
         <v>268</v>
@@ -2604,10 +2595,10 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
@@ -2622,22 +2613,22 @@
         <v>37</v>
       </c>
       <c r="L27" t="s">
+        <v>358</v>
+      </c>
+      <c r="M27" t="s">
+        <v>359</v>
+      </c>
+      <c r="N27" t="s">
         <v>361</v>
       </c>
-      <c r="M27" t="s">
-        <v>362</v>
-      </c>
-      <c r="N27" t="s">
-        <v>364</v>
-      </c>
       <c r="O27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P27" t="s">
         <v>315</v>
       </c>
       <c r="Q27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2654,7 +2645,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
         <v>259</v>
@@ -2669,7 +2660,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G28" t="s">
         <v>259</v>
@@ -2684,16 +2675,16 @@
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P28" t="s">
         <v>315</v>
       </c>
       <c r="Q28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2710,7 +2701,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
         <v>266</v>
@@ -2725,7 +2716,7 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G29" t="s">
         <v>264</v>
@@ -2737,13 +2728,13 @@
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q29" t="s">
         <v>109</v>
@@ -2761,12 +2752,12 @@
         <v>545891190</v>
       </c>
       <c r="V29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B30" t="s">
         <v>265</v>
@@ -2787,16 +2778,16 @@
         <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P30" t="s">
         <v>178</v>
@@ -2817,12 +2808,12 @@
         <v>245716161</v>
       </c>
       <c r="V30" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
         <v>259</v>
@@ -2837,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O31" t="s">
         <v>327</v>
@@ -2846,7 +2837,7 @@
         <v>40</v>
       </c>
       <c r="Q31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -2861,12 +2852,12 @@
         <v>551424325</v>
       </c>
       <c r="V31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B32" t="s">
         <v>264</v>
@@ -2881,22 +2872,22 @@
         <v>26</v>
       </c>
       <c r="G32" t="s">
+        <v>381</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>382</v>
+      </c>
+      <c r="O32" t="s">
+        <v>383</v>
+      </c>
+      <c r="P32" t="s">
         <v>384</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" t="s">
-        <v>385</v>
-      </c>
-      <c r="O32" t="s">
-        <v>386</v>
-      </c>
-      <c r="P32" t="s">
-        <v>387</v>
       </c>
       <c r="Q32" t="s">
         <v>109</v>
@@ -2914,12 +2905,12 @@
         <v>558204488</v>
       </c>
       <c r="V32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
         <v>318</v>
@@ -2934,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
@@ -2943,16 +2934,16 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
+        <v>387</v>
+      </c>
+      <c r="O33" t="s">
+        <v>388</v>
+      </c>
+      <c r="P33" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q33" t="s">
         <v>390</v>
-      </c>
-      <c r="O33" t="s">
-        <v>391</v>
-      </c>
-      <c r="P33" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>393</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -2969,7 +2960,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B34" t="s">
         <v>269</v>
@@ -2984,7 +2975,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
@@ -2993,16 +2984,16 @@
         <v>21</v>
       </c>
       <c r="N34" t="s">
+        <v>387</v>
+      </c>
+      <c r="O34" t="s">
+        <v>388</v>
+      </c>
+      <c r="P34" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q34" t="s">
         <v>390</v>
-      </c>
-      <c r="O34" t="s">
-        <v>391</v>
-      </c>
-      <c r="P34" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>393</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3019,7 +3010,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B35" t="s">
         <v>259</v>
@@ -3043,13 +3034,13 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O35" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q35" t="s">
         <v>109</v>
@@ -3067,12 +3058,12 @@
         <v>246956426</v>
       </c>
       <c r="V35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
         <v>259</v>
@@ -3096,10 +3087,10 @@
         <v>21</v>
       </c>
       <c r="O36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
@@ -3116,7 +3107,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B37" t="s">
         <v>267</v>
@@ -3148,7 +3139,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
         <v>267</v>
@@ -3172,10 +3163,10 @@
         <v>21</v>
       </c>
       <c r="O38" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3192,7 +3183,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s">
         <v>122</v>
@@ -3216,16 +3207,16 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="O39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P39" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q39" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3242,7 +3233,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B40" t="s">
         <v>268</v>
@@ -3266,16 +3257,16 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P40" t="s">
         <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3292,7 +3283,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s">
         <v>269</v>
@@ -3316,7 +3307,7 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O41" t="s">
         <v>139</v>
@@ -3345,7 +3336,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s">
         <v>270</v>
@@ -3398,7 +3389,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s">
         <v>269</v>
@@ -3419,16 +3410,16 @@
         <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K43" t="s">
         <v>149</v>
       </c>
       <c r="N43" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3445,7 +3436,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s">
         <v>263</v>
@@ -7182,7 +7173,7 @@
         <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C120" t="s">
         <v>20</v>
@@ -7190,53 +7181,13 @@
       <c r="D120" s="1">
         <v>36558</v>
       </c>
+      <c r="E120" t="s">
+        <v>26</v>
+      </c>
       <c r="T120">
-        <v>246898922</v>
+        <v>546312435</v>
       </c>
       <c r="U120">
-        <v>246898922</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>353</v>
-      </c>
-      <c r="B121" t="s">
-        <v>354</v>
-      </c>
-      <c r="C121" t="s">
-        <v>34</v>
-      </c>
-      <c r="D121" s="1">
-        <v>36558</v>
-      </c>
-      <c r="T121">
-        <v>246898922</v>
-      </c>
-      <c r="U121">
-        <v>246898922</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>355</v>
-      </c>
-      <c r="B122" t="s">
-        <v>270</v>
-      </c>
-      <c r="C122" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E122" t="s">
-        <v>26</v>
-      </c>
-      <c r="T122">
-        <v>546312435</v>
-      </c>
-      <c r="U122">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB6FC96-728B-4467-877F-2256AA92BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6C260E-15E9-4288-8BEC-FFA78F088E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="1845" windowWidth="17857" windowHeight="6713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1118" yWindow="2858" windowWidth="17857" windowHeight="6712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="462">
   <si>
     <t>full_name</t>
   </si>
@@ -1362,21 +1362,6 @@
   </si>
   <si>
     <t>Millicent Oduro</t>
-  </si>
-  <si>
-    <t>Samuel Adu-Marboah</t>
-  </si>
-  <si>
-    <t>Anita Adu-Marboah</t>
-  </si>
-  <si>
-    <t>Welder</t>
-  </si>
-  <si>
-    <t>MD 512-9</t>
-  </si>
-  <si>
-    <t>Nyame Adu Kontor</t>
   </si>
   <si>
     <t>Priscilla Mensah</t>
@@ -1759,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1858,7 +1843,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>269</v>
@@ -1872,7 +1857,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>267</v>
@@ -1886,7 +1871,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>264</v>
@@ -1900,7 +1885,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>266</v>
@@ -1909,12 +1894,12 @@
         <v>244730682</v>
       </c>
       <c r="U5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -1928,13 +1913,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>267</v>
       </c>
       <c r="T7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="U7">
         <v>542364261</v>
@@ -1942,10 +1927,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="T8">
         <v>249428289</v>
@@ -1956,13 +1941,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>269</v>
       </c>
       <c r="T9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="U9">
         <v>598580720</v>
@@ -1970,21 +1955,21 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
         <v>269</v>
       </c>
       <c r="T10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="U10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
         <v>266</v>
@@ -1995,7 +1980,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
         <v>266</v>
@@ -2009,13 +1994,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
       </c>
       <c r="T13" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="U13">
         <v>543661177</v>
@@ -2023,7 +2008,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>266</v>
@@ -2037,7 +2022,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -2107,37 +2092,46 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
-        <v>43309</v>
+        <v>45131</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="J17" t="s">
-        <v>138</v>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
+      <c r="M17" t="s">
+        <v>434</v>
+      </c>
       <c r="N17" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="O17" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P17" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="Q17" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2146,18 +2140,18 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>249428289</v>
+        <v>548045399</v>
       </c>
       <c r="U17">
-        <v>542364261</v>
+        <v>537571044</v>
       </c>
       <c r="V17" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -2166,84 +2160,66 @@
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>45131</v>
+        <v>45537</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
       <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>434</v>
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>428</v>
       </c>
       <c r="N18" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="O18" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P18" t="s">
         <v>431</v>
       </c>
       <c r="Q18" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
+        <v>432</v>
       </c>
       <c r="T18">
-        <v>548045399</v>
+        <v>554700135</v>
       </c>
       <c r="U18">
-        <v>537571044</v>
-      </c>
-      <c r="V18" t="s">
-        <v>437</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>45537</v>
+        <v>42207</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>428</v>
-      </c>
       <c r="N19" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P19" t="s">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="Q19" t="s">
         <v>109</v>
@@ -2252,27 +2228,27 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>432</v>
+        <v>26</v>
       </c>
       <c r="T19">
-        <v>554700135</v>
+        <v>243774692</v>
       </c>
       <c r="U19">
-        <v>540329706</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>42207</v>
+        <v>44524</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -2304,16 +2280,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>44524</v>
+        <v>42989</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -2345,7 +2321,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B22" t="s">
         <v>267</v>
@@ -2354,19 +2330,31 @@
         <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>42989</v>
+        <v>42363</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
       <c r="N22" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="O22" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="Q22" t="s">
         <v>109</v>
@@ -2378,24 +2366,27 @@
         <v>26</v>
       </c>
       <c r="T22">
-        <v>243774692</v>
+        <v>545350088</v>
       </c>
       <c r="U22">
-        <v>243774692</v>
+        <v>246956426</v>
+      </c>
+      <c r="V22" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>42363</v>
+        <v>36558</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -2442,10 +2433,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2457,10 +2448,10 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>421</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2469,16 +2460,16 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>393</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s">
-        <v>394</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2487,109 +2478,118 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>545350088</v>
+        <v>549821786</v>
       </c>
       <c r="U24">
-        <v>246956426</v>
-      </c>
-      <c r="V24" t="s">
-        <v>396</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="O25" t="s">
-        <v>252</v>
-      </c>
-      <c r="P25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>25</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="S25" t="s">
         <v>26</v>
       </c>
       <c r="T25">
-        <v>549821786</v>
+        <v>542199592</v>
       </c>
       <c r="U25">
-        <v>256242568</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>43025</v>
+        <v>44294</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>358</v>
+      </c>
+      <c r="M26" t="s">
+        <v>359</v>
       </c>
       <c r="N26" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="O26" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+      <c r="P26" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>362</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
       </c>
       <c r="S26" t="s">
         <v>26</v>
       </c>
       <c r="T26">
-        <v>542199592</v>
+        <v>532461394</v>
       </c>
       <c r="U26">
-        <v>595947343</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <v>44294</v>
+        <v>43594</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -2598,25 +2598,16 @@
         <v>356</v>
       </c>
       <c r="G27" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" t="s">
-        <v>358</v>
-      </c>
-      <c r="M27" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
         <v>361</v>
@@ -2645,25 +2636,25 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>43594</v>
+        <v>43788</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H28" t="s">
         <v>21</v>
@@ -2671,20 +2662,17 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
       <c r="N28" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O28" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="Q28" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2693,51 +2681,54 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>532461394</v>
+        <v>245449031</v>
       </c>
       <c r="U28">
-        <v>548850124</v>
+        <v>545891190</v>
+      </c>
+      <c r="V28" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>43788</v>
+        <v>42898</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
-        <v>365</v>
-      </c>
-      <c r="G29" t="s">
-        <v>264</v>
-      </c>
       <c r="H29" t="s">
         <v>21</v>
       </c>
       <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>371</v>
+      </c>
+      <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="O29" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P29" t="s">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="Q29" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2746,54 +2737,42 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>245449031</v>
+        <v>249768747</v>
       </c>
       <c r="U29">
-        <v>545891190</v>
+        <v>245716161</v>
       </c>
       <c r="V29" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1">
-        <v>42898</v>
+        <v>43408</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" t="s">
-        <v>371</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
       <c r="N30" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O30" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Q30" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -2802,42 +2781,51 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>249768747</v>
+        <v>248076761</v>
       </c>
       <c r="U30">
-        <v>245716161</v>
+        <v>551424325</v>
       </c>
       <c r="V30" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>43408</v>
+        <v>43518</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
+      <c r="G31" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
       <c r="N31" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="O31" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="P31" t="s">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="Q31" t="s">
-        <v>378</v>
+        <v>109</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -2846,33 +2834,33 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>248076761</v>
+        <v>249245434</v>
       </c>
       <c r="U31">
-        <v>551424325</v>
+        <v>558204488</v>
       </c>
       <c r="V31" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>43518</v>
+        <v>42467</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
-        <v>381</v>
+      <c r="F32" t="s">
+        <v>365</v>
       </c>
       <c r="H32" t="s">
         <v>37</v>
@@ -2881,16 +2869,16 @@
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="O32" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P32" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q32" t="s">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -2899,27 +2887,24 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>249245434</v>
+        <v>247412669</v>
       </c>
       <c r="U32">
-        <v>558204488</v>
-      </c>
-      <c r="V32" t="s">
-        <v>385</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>42467</v>
+        <v>44295</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -2960,40 +2945,40 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>44295</v>
+        <v>42738</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
-        <v>365</v>
-      </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
       <c r="N34" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="O34" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P34" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q34" t="s">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="R34" t="s">
         <v>26</v>
@@ -3002,24 +2987,27 @@
         <v>26</v>
       </c>
       <c r="T34">
-        <v>247412669</v>
+        <v>545350088</v>
       </c>
       <c r="U34">
-        <v>245649230</v>
+        <v>246956426</v>
+      </c>
+      <c r="V34" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B35" t="s">
         <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>42738</v>
+        <v>43644</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -3033,17 +3021,11 @@
       <c r="K35" t="s">
         <v>21</v>
       </c>
-      <c r="N35" t="s">
-        <v>393</v>
-      </c>
       <c r="O35" t="s">
-        <v>394</v>
-      </c>
-      <c r="P35" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q35" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
@@ -3052,62 +3034,47 @@
         <v>26</v>
       </c>
       <c r="T35">
-        <v>545350088</v>
+        <v>241656149</v>
       </c>
       <c r="U35">
-        <v>246956426</v>
-      </c>
-      <c r="V35" t="s">
-        <v>396</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>43644</v>
+        <v>42581</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
       </c>
-      <c r="O36" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>399</v>
-      </c>
-      <c r="R36" t="s">
-        <v>26</v>
-      </c>
-      <c r="S36" t="s">
-        <v>26</v>
-      </c>
       <c r="T36">
-        <v>241656149</v>
+        <v>533254698</v>
       </c>
       <c r="U36">
-        <v>241656149</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
         <v>267</v>
@@ -3116,45 +3083,57 @@
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>42581</v>
+        <v>42617</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
+      <c r="O37" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>399</v>
+      </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37" t="s">
+        <v>26</v>
+      </c>
       <c r="T37">
-        <v>533254698</v>
+        <v>241656149</v>
       </c>
       <c r="U37">
-        <v>546589599</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>42617</v>
+        <v>44968</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -3162,11 +3141,17 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
+      <c r="N38" t="s">
+        <v>403</v>
+      </c>
       <c r="O38" t="s">
-        <v>398</v>
+        <v>404</v>
+      </c>
+      <c r="P38" t="s">
+        <v>405</v>
       </c>
       <c r="Q38" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3175,30 +3160,30 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>241656149</v>
+        <v>543469945</v>
       </c>
       <c r="U38">
-        <v>241656149</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>44968</v>
+        <v>44351</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -3207,16 +3192,16 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O39" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P39" t="s">
-        <v>405</v>
+        <v>32</v>
       </c>
       <c r="Q39" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3225,30 +3210,30 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>543469945</v>
+        <v>248754494</v>
       </c>
       <c r="U39">
-        <v>532807776</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>44351</v>
+        <v>44238</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -3257,16 +3242,16 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O40" t="s">
-        <v>408</v>
+        <v>139</v>
       </c>
       <c r="P40" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="Q40" t="s">
-        <v>409</v>
+        <v>109</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3275,45 +3260,51 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>248754494</v>
+        <v>245077487</v>
       </c>
       <c r="U40">
-        <v>593082381</v>
+        <v>543161188</v>
+      </c>
+      <c r="V40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>44238</v>
+        <v>41372</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
       </c>
+      <c r="J41" t="s">
+        <v>169</v>
+      </c>
       <c r="K41" t="s">
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>411</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="Q41" t="s">
         <v>109</v>
@@ -3325,27 +3316,24 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>245077487</v>
+        <v>243043900</v>
       </c>
       <c r="U41">
-        <v>543161188</v>
-      </c>
-      <c r="V41" t="s">
-        <v>140</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>41372</v>
+        <v>44084</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -3354,25 +3342,19 @@
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N42" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="O42" t="s">
-        <v>290</v>
-      </c>
-      <c r="P42" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>109</v>
+        <v>416</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3381,45 +3363,45 @@
         <v>26</v>
       </c>
       <c r="T42">
-        <v>243043900</v>
+        <v>256596282</v>
       </c>
       <c r="U42">
-        <v>549370765</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>44084</v>
+        <v>36558</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s">
-        <v>414</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="O43" t="s">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3428,33 +3410,33 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>256596282</v>
+        <v>543784758</v>
       </c>
       <c r="U43">
-        <v>556006080</v>
+        <v>243307643</v>
+      </c>
+      <c r="V43" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>164</v>
+        <v>44852</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3463,10 +3445,16 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="O44" t="s">
-        <v>166</v>
+        <v>23</v>
+      </c>
+      <c r="P44" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>25</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3474,34 +3462,40 @@
       <c r="S44" t="s">
         <v>26</v>
       </c>
-      <c r="T44">
-        <v>543784758</v>
+      <c r="T44" s="3">
+        <v>249891601</v>
       </c>
       <c r="U44">
-        <v>243307643</v>
+        <v>5414805333</v>
       </c>
       <c r="V44" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>26</v>
+        <v>44782</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3510,16 +3504,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3527,37 +3521,31 @@
       <c r="S45" t="s">
         <v>26</v>
       </c>
-      <c r="T45" s="3">
-        <v>249891601</v>
+      <c r="T45">
+        <v>554885693</v>
       </c>
       <c r="U45">
-        <v>5414805333</v>
-      </c>
-      <c r="V45" t="s">
-        <v>28</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>44782</v>
+        <v>44922</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="F46" t="s">
-        <v>35</v>
-      </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
         <v>37</v>
@@ -3569,16 +3557,16 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3587,33 +3575,39 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>554885693</v>
+        <v>243081535</v>
       </c>
       <c r="U46">
-        <v>542738888</v>
+        <v>544479394</v>
+      </c>
+      <c r="V46" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>44922</v>
+        <v>44691</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3622,13 +3616,13 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O47" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q47" t="s">
         <v>46</v>
@@ -3640,57 +3634,57 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>243081535</v>
+        <v>543719591</v>
       </c>
       <c r="U47">
-        <v>544479394</v>
-      </c>
-      <c r="V47" t="s">
-        <v>47</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>44691</v>
+        <v>45040</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>56</v>
       </c>
       <c r="N48" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P48" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q48" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3699,57 +3693,57 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>543719591</v>
+        <v>548697421</v>
       </c>
       <c r="U48">
-        <v>541484405</v>
+        <v>549328229</v>
+      </c>
+      <c r="V48" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>45040</v>
+        <v>45037</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L49" t="s">
-        <v>55</v>
-      </c>
-      <c r="M49" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P49" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Q49" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -3758,39 +3752,33 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>548697421</v>
+        <v>554246016</v>
       </c>
       <c r="U49">
-        <v>549328229</v>
-      </c>
-      <c r="V49" t="s">
-        <v>61</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>45037</v>
+        <v>43551</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -3798,17 +3786,20 @@
       <c r="K50" t="s">
         <v>21</v>
       </c>
+      <c r="M50" t="s">
+        <v>67</v>
+      </c>
       <c r="N50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Q50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -3817,33 +3808,36 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>554246016</v>
+        <v>203218292</v>
       </c>
       <c r="U50">
-        <v>541473757</v>
+        <v>546407893</v>
+      </c>
+      <c r="V50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>43551</v>
+        <v>43536</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3851,20 +3845,17 @@
       <c r="K51" t="s">
         <v>21</v>
       </c>
-      <c r="M51" t="s">
-        <v>67</v>
-      </c>
       <c r="N51" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P51" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q51" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -3873,36 +3864,33 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>203218292</v>
+        <v>544622299</v>
       </c>
       <c r="U51">
-        <v>546407893</v>
-      </c>
-      <c r="V51" t="s">
-        <v>71</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1">
-        <v>43536</v>
+        <v>43486</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3910,17 +3898,20 @@
       <c r="K52" t="s">
         <v>21</v>
       </c>
+      <c r="M52" t="s">
+        <v>78</v>
+      </c>
       <c r="N52" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O52" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P52" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q52" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -3929,15 +3920,18 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>544622299</v>
+        <v>241861382</v>
       </c>
       <c r="U52">
-        <v>241651317</v>
+        <v>547944747</v>
+      </c>
+      <c r="V52" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
         <v>265</v>
@@ -3946,16 +3940,16 @@
         <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>43486</v>
+        <v>43214</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3963,20 +3957,14 @@
       <c r="K53" t="s">
         <v>21</v>
       </c>
-      <c r="M53" t="s">
-        <v>78</v>
-      </c>
       <c r="N53" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -3985,36 +3973,33 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>241861382</v>
+        <v>540750428</v>
       </c>
       <c r="U53">
-        <v>547944747</v>
+        <v>240127525</v>
       </c>
       <c r="V53" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>43214</v>
+        <v>44390</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
-      <c r="G54" t="s">
-        <v>85</v>
-      </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -4023,13 +4008,16 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>94</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4038,31 +4026,31 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>540750428</v>
+        <v>248450590</v>
       </c>
       <c r="U54">
-        <v>240127525</v>
-      </c>
-      <c r="V54" t="s">
-        <v>89</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>44390</v>
+        <v>43582</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
+      <c r="G55" t="s">
+        <v>96</v>
+      </c>
       <c r="H55" t="s">
         <v>37</v>
       </c>
@@ -4073,16 +4061,10 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O55" t="s">
-        <v>92</v>
-      </c>
-      <c r="P55" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4091,24 +4073,27 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>248450590</v>
+        <v>542776117</v>
       </c>
       <c r="U55">
-        <v>548086355</v>
+        <v>556780997</v>
+      </c>
+      <c r="V55" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>43582</v>
+        <v>42977</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
@@ -4117,7 +4102,7 @@
         <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -4126,10 +4111,10 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O56" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4138,36 +4123,33 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>542776117</v>
+        <v>246469841</v>
       </c>
       <c r="U56">
-        <v>556780997</v>
+        <v>244502858</v>
       </c>
       <c r="V56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>42977</v>
+        <v>44057</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="G57" t="s">
-        <v>96</v>
-      </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -4176,10 +4158,16 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O57" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="P57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>109</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4188,31 +4176,34 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>246469841</v>
+        <v>246645496</v>
       </c>
       <c r="U57">
-        <v>244502858</v>
-      </c>
-      <c r="V57" t="s">
-        <v>103</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>44057</v>
+        <v>41923</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
@@ -4220,19 +4211,19 @@
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M58" t="s">
+        <v>113</v>
       </c>
       <c r="N58" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O58" t="s">
-        <v>107</v>
-      </c>
-      <c r="P58" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q58" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4241,34 +4232,28 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>246645496</v>
+        <v>248675358</v>
       </c>
       <c r="U58">
-        <v>240778774</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>41923</v>
+        <v>44796</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="F59" t="s">
-        <v>111</v>
-      </c>
-      <c r="G59" t="s">
-        <v>112</v>
-      </c>
       <c r="H59" t="s">
         <v>37</v>
       </c>
@@ -4276,19 +4261,19 @@
         <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
-      </c>
-      <c r="M59" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O59" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="P59" t="s">
+        <v>119</v>
       </c>
       <c r="Q59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4297,31 +4282,34 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>248675358</v>
+        <v>599634556</v>
       </c>
       <c r="U59">
-        <v>247790941</v>
+        <v>535220641</v>
+      </c>
+      <c r="V59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44890</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
         <v>122</v>
       </c>
-      <c r="C60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="1">
-        <v>44796</v>
-      </c>
-      <c r="E60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" t="s">
-        <v>37</v>
-      </c>
       <c r="I60" t="s">
         <v>21</v>
       </c>
@@ -4329,13 +4317,13 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O60" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="Q60" t="s">
         <v>25</v>
@@ -4347,51 +4335,54 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>599634556</v>
+        <v>245864268</v>
       </c>
       <c r="U60">
-        <v>535220641</v>
+        <v>247823594</v>
       </c>
       <c r="V60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>44890</v>
+        <v>43652</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="G61" t="s">
-        <v>122</v>
+      <c r="H61" t="s">
+        <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
+        <v>127</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O61" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4400,27 +4391,27 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>245864268</v>
+        <v>543279537</v>
       </c>
       <c r="U61">
-        <v>247823594</v>
+        <v>241208687</v>
       </c>
       <c r="V61" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>43652</v>
+        <v>42673</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
@@ -4429,25 +4420,13 @@
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>128</v>
-      </c>
-      <c r="O62" t="s">
-        <v>129</v>
-      </c>
-      <c r="P62" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4456,27 +4435,21 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>543279537</v>
-      </c>
-      <c r="U62">
-        <v>241208687</v>
-      </c>
-      <c r="V62" t="s">
-        <v>132</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
         <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1">
-        <v>42673</v>
+        <v>42691</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
@@ -4485,13 +4458,16 @@
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J63" t="s">
+        <v>138</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
-      <c r="N63" t="s">
-        <v>136</v>
+      <c r="O63" t="s">
+        <v>139</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4500,12 +4476,15 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>244423888</v>
+        <v>245077487</v>
+      </c>
+      <c r="V63" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
         <v>267</v>
@@ -4513,26 +4492,32 @@
       <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="1">
-        <v>42691</v>
+      <c r="D64" s="2">
+        <v>42832</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
       </c>
+      <c r="G64" t="s">
+        <v>142</v>
+      </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
         <v>21</v>
       </c>
+      <c r="N64" t="s">
+        <v>143</v>
+      </c>
       <c r="O64" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="P64" t="s">
+        <v>146</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4541,48 +4526,48 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>245077487</v>
+        <v>245766735</v>
+      </c>
+      <c r="U64">
+        <v>245702914</v>
       </c>
       <c r="V64" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="2">
-        <v>42832</v>
+      <c r="D65" s="1">
+        <v>42202</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
-      <c r="G65" t="s">
-        <v>142</v>
-      </c>
       <c r="H65" t="s">
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>148</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N65" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O65" t="s">
-        <v>144</v>
-      </c>
-      <c r="P65" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4591,48 +4576,54 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>245766735</v>
+        <v>248178775</v>
       </c>
       <c r="U65">
-        <v>245702914</v>
+        <v>550234225</v>
       </c>
       <c r="V65" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>42202</v>
+        <v>42695</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
+      <c r="G66" t="s">
+        <v>142</v>
+      </c>
       <c r="H66" t="s">
         <v>37</v>
       </c>
       <c r="I66" t="s">
-        <v>101</v>
-      </c>
-      <c r="J66" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O66" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>109</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -4641,33 +4632,33 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>248178775</v>
+        <v>245424585</v>
       </c>
       <c r="U66">
-        <v>550234225</v>
+        <v>247566924</v>
       </c>
       <c r="V66" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>42695</v>
+        <v>41794</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4679,16 +4670,16 @@
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P67" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="Q67" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -4697,33 +4688,30 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>245424585</v>
+        <v>245980902</v>
       </c>
       <c r="U67">
-        <v>247566924</v>
+        <v>245272449</v>
       </c>
       <c r="V67" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>41794</v>
+        <v>43093</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>112</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
@@ -4764,20 +4752,23 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>43093</v>
+        <v>43165</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
+      <c r="F69" t="s">
+        <v>164</v>
+      </c>
       <c r="H69" t="s">
         <v>37</v>
       </c>
@@ -4788,16 +4779,10 @@
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O69" t="s">
-        <v>159</v>
-      </c>
-      <c r="P69" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -4806,27 +4791,27 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>245980902</v>
+        <v>543784758</v>
       </c>
       <c r="U69">
-        <v>245272449</v>
+        <v>243307643</v>
       </c>
       <c r="V69" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="1">
-        <v>43165</v>
+        <v>42564</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
@@ -4840,6 +4825,9 @@
       <c r="I70" t="s">
         <v>21</v>
       </c>
+      <c r="J70" t="s">
+        <v>169</v>
+      </c>
       <c r="K70" t="s">
         <v>21</v>
       </c>
@@ -4867,22 +4855,22 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="1">
-        <v>42564</v>
+        <v>43499</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
@@ -4890,17 +4878,20 @@
       <c r="I71" t="s">
         <v>21</v>
       </c>
-      <c r="J71" t="s">
-        <v>169</v>
-      </c>
       <c r="K71" t="s">
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O71" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="P71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>25</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -4909,33 +4900,33 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>543784758</v>
+        <v>595670927</v>
       </c>
       <c r="U71">
-        <v>243307643</v>
+        <v>553491903</v>
       </c>
       <c r="V71" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>43499</v>
+        <v>42289</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="F72" t="s">
-        <v>171</v>
+      <c r="G72" t="s">
+        <v>122</v>
       </c>
       <c r="H72" t="s">
         <v>37</v>
@@ -4947,16 +4938,16 @@
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O72" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -4965,34 +4956,31 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>595670927</v>
+        <v>547068449</v>
       </c>
       <c r="U72">
-        <v>553491903</v>
+        <v>547068449</v>
       </c>
       <c r="V72" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
         <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>42289</v>
+        <v>42839</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
-      <c r="G73" t="s">
-        <v>122</v>
-      </c>
       <c r="H73" t="s">
         <v>37</v>
       </c>
@@ -5003,16 +4991,10 @@
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O73" t="s">
-        <v>177</v>
-      </c>
-      <c r="P73" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5021,45 +5003,63 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>547068449</v>
+        <v>244730682</v>
       </c>
       <c r="U73">
-        <v>547068449</v>
+        <v>249341294</v>
       </c>
       <c r="V73" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>42839</v>
+        <v>44495</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
+      <c r="F74" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" t="s">
+        <v>122</v>
+      </c>
       <c r="H74" t="s">
         <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>186</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L74" t="s">
+        <v>187</v>
       </c>
       <c r="N74" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O74" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>190</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5068,63 +5068,60 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>244730682</v>
+        <v>532416380</v>
       </c>
       <c r="U74">
-        <v>249341294</v>
+        <v>543108512</v>
       </c>
       <c r="V74" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D75" s="1">
-        <v>44495</v>
+        <v>43950</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J75" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K75" t="s">
-        <v>37</v>
-      </c>
-      <c r="L75" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O75" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P75" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="Q75" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5133,60 +5130,51 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>532416380</v>
+        <v>597661016</v>
       </c>
       <c r="U75">
-        <v>543108512</v>
+        <v>501213049</v>
       </c>
       <c r="V75" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
         <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
-        <v>43950</v>
+        <v>44383</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
-      <c r="F76" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
       <c r="H76" t="s">
         <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-      <c r="J76" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="O76" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="Q76" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5195,31 +5183,37 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>597661016</v>
+        <v>595670927</v>
       </c>
       <c r="U76">
-        <v>501213049</v>
+        <v>553491903</v>
       </c>
       <c r="V76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>44383</v>
+        <v>43524</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
+      <c r="F77" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77" t="s">
+        <v>133</v>
+      </c>
       <c r="H77" t="s">
         <v>37</v>
       </c>
@@ -5230,16 +5224,16 @@
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="O77" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P77" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5248,36 +5242,33 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>595670927</v>
+        <v>244678226</v>
       </c>
       <c r="U77">
-        <v>553491903</v>
+        <v>208455305</v>
       </c>
       <c r="V77" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>43524</v>
+        <v>44364</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
-      <c r="F78" t="s">
-        <v>204</v>
-      </c>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H78" t="s">
         <v>37</v>
@@ -5289,16 +5280,16 @@
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O78" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P78" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="Q78" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5307,27 +5298,27 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>244678226</v>
+        <v>243352028</v>
       </c>
       <c r="U78">
-        <v>208455305</v>
+        <v>243088742</v>
       </c>
       <c r="V78" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>44364</v>
+        <v>44627</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
@@ -5341,20 +5332,20 @@
       <c r="I79" t="s">
         <v>21</v>
       </c>
-      <c r="K79" t="s">
-        <v>21</v>
+      <c r="M79" t="s">
+        <v>216</v>
       </c>
       <c r="N79" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="O79" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="Q79" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5363,33 +5354,33 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>243352028</v>
+        <v>241861382</v>
       </c>
       <c r="U79">
-        <v>243088742</v>
+        <v>547944747</v>
       </c>
       <c r="V79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>44627</v>
+        <v>44430</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
       <c r="G80" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H80" t="s">
         <v>37</v>
@@ -5397,20 +5388,20 @@
       <c r="I80" t="s">
         <v>21</v>
       </c>
-      <c r="M80" t="s">
-        <v>216</v>
+      <c r="K80" t="s">
+        <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="O80" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="P80" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="Q80" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5419,54 +5410,54 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>241861382</v>
+        <v>555101040</v>
       </c>
       <c r="U80">
-        <v>547944747</v>
+        <v>537150359</v>
       </c>
       <c r="V80" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1">
-        <v>44430</v>
+        <v>43839</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>223</v>
       </c>
       <c r="G81" t="s">
         <v>96</v>
       </c>
       <c r="H81" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J81" t="s">
+        <v>224</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O81" t="s">
-        <v>220</v>
-      </c>
-      <c r="P81" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5475,54 +5466,54 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>555101040</v>
+        <v>554845413</v>
       </c>
       <c r="U81">
-        <v>537150359</v>
+        <v>256786281</v>
       </c>
       <c r="V81" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="1">
-        <v>43839</v>
+        <v>44661</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
-      </c>
-      <c r="F82" t="s">
-        <v>223</v>
       </c>
       <c r="G82" t="s">
         <v>96</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
-      </c>
-      <c r="J82" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="O82" t="s">
-        <v>226</v>
+        <v>155</v>
+      </c>
+      <c r="P82" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>25</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5531,18 +5522,18 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>554845413</v>
+        <v>245424585</v>
       </c>
       <c r="U82">
-        <v>256786281</v>
+        <v>247566924</v>
       </c>
       <c r="V82" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
         <v>263</v>
@@ -5551,14 +5542,11 @@
         <v>34</v>
       </c>
       <c r="D83" s="1">
-        <v>44661</v>
+        <v>44459</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
-      <c r="G83" t="s">
-        <v>96</v>
-      </c>
       <c r="H83" t="s">
         <v>37</v>
       </c>
@@ -5569,16 +5557,13 @@
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="O83" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="P83" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5587,27 +5572,27 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>245424585</v>
+        <v>244446781</v>
       </c>
       <c r="U83">
-        <v>247566924</v>
+        <v>249251741</v>
       </c>
       <c r="V83" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>44459</v>
+        <v>44414</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
@@ -5622,13 +5607,16 @@
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O84" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>237</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -5637,10 +5625,10 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>244446781</v>
+        <v>246364382</v>
       </c>
       <c r="U84">
-        <v>249251741</v>
+        <v>242830458</v>
       </c>
       <c r="V84" t="s">
         <v>161</v>
@@ -5648,40 +5636,46 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>44414</v>
+        <v>45025</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
+      <c r="G85" t="s">
+        <v>122</v>
+      </c>
       <c r="H85" t="s">
         <v>37</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
       </c>
+      <c r="J85" t="s">
+        <v>169</v>
+      </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O85" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q85" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -5690,57 +5684,54 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>246364382</v>
+        <v>245902055</v>
       </c>
       <c r="U85">
-        <v>242830458</v>
-      </c>
-      <c r="V85" t="s">
-        <v>161</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1">
-        <v>45025</v>
+        <v>43792</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
-      <c r="G86" t="s">
-        <v>122</v>
+      <c r="F86" t="s">
+        <v>244</v>
       </c>
       <c r="H86" t="s">
         <v>37</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J86" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
       </c>
       <c r="N86" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O86" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="Q86" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="R86" t="s">
         <v>26</v>
@@ -5749,51 +5740,54 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>245902055</v>
+        <v>538984324</v>
       </c>
       <c r="U86">
-        <v>557566068</v>
+        <v>531766425</v>
+      </c>
+      <c r="V86" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B87" t="s">
         <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>43792</v>
+        <v>43785</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="G87" t="s">
+        <v>133</v>
       </c>
       <c r="H87" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O87" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P87" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q87" t="s">
         <v>25</v>
@@ -5805,39 +5799,33 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>538984324</v>
+        <v>549821786</v>
       </c>
       <c r="U87">
-        <v>531766425</v>
-      </c>
-      <c r="V87" t="s">
-        <v>248</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>43785</v>
+        <v>44687</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
       </c>
-      <c r="F88" t="s">
-        <v>250</v>
-      </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I88" t="s">
         <v>21</v>
@@ -5846,16 +5834,10 @@
         <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O88" t="s">
-        <v>252</v>
-      </c>
-      <c r="P88" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -5864,45 +5846,60 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>549821786</v>
+        <v>247633503</v>
       </c>
       <c r="U88">
-        <v>256242568</v>
+        <v>241690416</v>
+      </c>
+      <c r="V88" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>44687</v>
+        <v>42797</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
+      <c r="F89" t="s">
+        <v>244</v>
+      </c>
       <c r="G89" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J89" t="s">
+        <v>245</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O89" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="P89" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>25</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -5911,45 +5908,39 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>247633503</v>
+        <v>538984324</v>
       </c>
       <c r="U89">
-        <v>241690416</v>
+        <v>531766425</v>
       </c>
       <c r="V89" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>42797</v>
+        <v>44663</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
-      <c r="F90" t="s">
-        <v>244</v>
-      </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
@@ -5984,43 +5975,49 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D91" s="1">
-        <v>44663</v>
+        <v>42239</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="G91" t="s">
-        <v>96</v>
+      <c r="F91" t="s">
+        <v>272</v>
       </c>
       <c r="H91" t="s">
         <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>149</v>
+        <v>101</v>
+      </c>
+      <c r="J91" t="s">
+        <v>279</v>
       </c>
       <c r="K91" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L91" t="s">
+        <v>273</v>
       </c>
       <c r="N91" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="O91" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="P91" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -6029,18 +6026,15 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>538984324</v>
+        <v>549605899</v>
       </c>
       <c r="U91">
-        <v>531766425</v>
-      </c>
-      <c r="V91" t="s">
-        <v>248</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B92" t="s">
         <v>265</v>
@@ -6049,37 +6043,31 @@
         <v>34</v>
       </c>
       <c r="D92" s="1">
-        <v>42239</v>
+        <v>43231</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
-      <c r="F92" t="s">
-        <v>272</v>
-      </c>
       <c r="H92" t="s">
         <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J92" t="s">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="K92" t="s">
-        <v>37</v>
-      </c>
-      <c r="L92" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="O92" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q92" t="s">
         <v>109</v>
@@ -6091,15 +6079,15 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>549605899</v>
+        <v>244077227</v>
       </c>
       <c r="U92">
-        <v>534014247</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
         <v>265</v>
@@ -6108,13 +6096,13 @@
         <v>34</v>
       </c>
       <c r="D93" s="1">
-        <v>43231</v>
+        <v>42088</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I93" t="s">
         <v>37</v>
@@ -6123,16 +6111,19 @@
         <v>138</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="L93" t="s">
+        <v>280</v>
       </c>
       <c r="N93" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O93" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P93" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q93" t="s">
         <v>109</v>
@@ -6144,51 +6135,51 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>244077227</v>
+        <v>207900244</v>
       </c>
       <c r="U93">
-        <v>245173168</v>
+        <v>599397215</v>
+      </c>
+      <c r="V93" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
         <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>42088</v>
+        <v>43085</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="K94" t="s">
-        <v>101</v>
-      </c>
-      <c r="L94" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="O94" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="Q94" t="s">
         <v>109</v>
@@ -6200,18 +6191,15 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>207900244</v>
+        <v>243043900</v>
       </c>
       <c r="U94">
-        <v>599397215</v>
-      </c>
-      <c r="V94" t="s">
-        <v>284</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B95" t="s">
         <v>265</v>
@@ -6220,7 +6208,7 @@
         <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>43085</v>
+        <v>43108</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -6229,25 +6217,22 @@
         <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K95" t="s">
         <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O95" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P95" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="Q95" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6256,15 +6241,15 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>243043900</v>
+        <v>533254698</v>
       </c>
       <c r="U95">
-        <v>549370765</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
         <v>265</v>
@@ -6273,13 +6258,16 @@
         <v>20</v>
       </c>
       <c r="D96" s="1">
-        <v>43108</v>
+        <v>43310</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I96" t="s">
         <v>149</v>
@@ -6288,16 +6276,16 @@
         <v>21</v>
       </c>
       <c r="N96" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O96" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="Q96" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="R96" t="s">
         <v>26</v>
@@ -6306,15 +6294,18 @@
         <v>26</v>
       </c>
       <c r="T96">
-        <v>533254698</v>
+        <v>249220522</v>
       </c>
       <c r="U96">
-        <v>546589599</v>
+        <v>241246842</v>
+      </c>
+      <c r="V96" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
         <v>265</v>
@@ -6323,34 +6314,34 @@
         <v>20</v>
       </c>
       <c r="D97" s="1">
-        <v>43310</v>
+        <v>43170</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
       </c>
-      <c r="F97" t="s">
-        <v>111</v>
-      </c>
       <c r="H97" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J97" t="s">
+        <v>300</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O97" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P97" t="s">
         <v>134</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R97" t="s">
         <v>26</v>
@@ -6359,54 +6350,51 @@
         <v>26</v>
       </c>
       <c r="T97">
-        <v>249220522</v>
+        <v>246861527</v>
       </c>
       <c r="U97">
-        <v>241246842</v>
-      </c>
-      <c r="V97" t="s">
-        <v>298</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
         <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1">
-        <v>43170</v>
+        <v>43452</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I98" t="s">
         <v>37</v>
       </c>
       <c r="J98" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="K98" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N98" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O98" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P98" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="Q98" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R98" t="s">
         <v>26</v>
@@ -6415,15 +6403,18 @@
         <v>26</v>
       </c>
       <c r="T98">
-        <v>246861527</v>
+        <v>246532233</v>
       </c>
       <c r="U98">
-        <v>558286552</v>
+        <v>247792191</v>
+      </c>
+      <c r="V98" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
         <v>265</v>
@@ -6432,7 +6423,7 @@
         <v>34</v>
       </c>
       <c r="D99" s="1">
-        <v>43452</v>
+        <v>43118</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
@@ -6441,25 +6432,22 @@
         <v>37</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N99" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="O99" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -6468,18 +6456,18 @@
         <v>26</v>
       </c>
       <c r="T99">
-        <v>246532233</v>
+        <v>246951455</v>
       </c>
       <c r="U99">
-        <v>247792191</v>
+        <v>242684572</v>
       </c>
       <c r="V99" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B100" t="s">
         <v>265</v>
@@ -6488,18 +6476,18 @@
         <v>34</v>
       </c>
       <c r="D100" s="1">
-        <v>43118</v>
+        <v>43008</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
       </c>
+      <c r="F100" t="s">
+        <v>312</v>
+      </c>
       <c r="H100" t="s">
         <v>37</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" t="s">
         <v>21</v>
       </c>
       <c r="N100" t="s">
@@ -6509,10 +6497,10 @@
         <v>314</v>
       </c>
       <c r="P100" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q100" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -6532,16 +6520,16 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
         <v>34</v>
       </c>
       <c r="D101" s="1">
-        <v>43008</v>
+        <v>44912</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
@@ -6585,22 +6573,22 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>44912</v>
+        <v>42540</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H102" t="s">
         <v>37</v>
@@ -6608,17 +6596,20 @@
       <c r="I102" t="s">
         <v>21</v>
       </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
       <c r="N102" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="O102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P102" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -6627,34 +6618,31 @@
         <v>26</v>
       </c>
       <c r="T102">
-        <v>246951455</v>
+        <v>549223419</v>
       </c>
       <c r="U102">
-        <v>242684572</v>
+        <v>547981198</v>
       </c>
       <c r="V102" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>42540</v>
+        <v>44839</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
       </c>
-      <c r="F103" t="s">
-        <v>319</v>
-      </c>
       <c r="H103" t="s">
         <v>37</v>
       </c>
@@ -6665,16 +6653,16 @@
         <v>21</v>
       </c>
       <c r="N103" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O103" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="P103" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q103" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -6683,33 +6671,33 @@
         <v>26</v>
       </c>
       <c r="T103">
-        <v>549223419</v>
+        <v>249220522</v>
       </c>
       <c r="U103">
-        <v>547981198</v>
+        <v>241246842</v>
       </c>
       <c r="V103" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>44839</v>
+        <v>43831</v>
       </c>
       <c r="E104" t="s">
         <v>26</v>
       </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I104" t="s">
         <v>21</v>
@@ -6718,16 +6706,16 @@
         <v>21</v>
       </c>
       <c r="N104" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="O104" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="P104" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Q104" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="R104" t="s">
         <v>26</v>
@@ -6736,51 +6724,57 @@
         <v>26</v>
       </c>
       <c r="T104">
-        <v>249220522</v>
+        <v>248076761</v>
       </c>
       <c r="U104">
-        <v>241246842</v>
+        <v>551424325</v>
       </c>
       <c r="V104" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="1">
-        <v>43831</v>
+        <v>44017</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
       </c>
+      <c r="F105" t="s">
+        <v>63</v>
+      </c>
       <c r="H105" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J105" t="s">
+        <v>331</v>
       </c>
       <c r="K105" t="s">
         <v>21</v>
       </c>
       <c r="N105" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="O105" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P105" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="Q105" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="R105" t="s">
         <v>26</v>
@@ -6789,18 +6783,18 @@
         <v>26</v>
       </c>
       <c r="T105">
-        <v>248076761</v>
+        <v>244446781</v>
       </c>
       <c r="U105">
-        <v>551424325</v>
+        <v>249251741</v>
       </c>
       <c r="V105" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s">
         <v>264</v>
@@ -6809,37 +6803,16 @@
         <v>20</v>
       </c>
       <c r="D106" s="1">
-        <v>44017</v>
+        <v>43774</v>
       </c>
       <c r="E106" t="s">
         <v>26</v>
       </c>
-      <c r="F106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H106" t="s">
-        <v>37</v>
-      </c>
-      <c r="I106" t="s">
-        <v>37</v>
-      </c>
-      <c r="J106" t="s">
-        <v>331</v>
-      </c>
-      <c r="K106" t="s">
-        <v>21</v>
-      </c>
       <c r="N106" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="O106" t="s">
-        <v>332</v>
-      </c>
-      <c r="P106" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="R106" t="s">
         <v>26</v>
@@ -6848,36 +6821,45 @@
         <v>26</v>
       </c>
       <c r="T106">
-        <v>244446781</v>
+        <v>242715514</v>
       </c>
       <c r="U106">
-        <v>249251741</v>
-      </c>
-      <c r="V106" t="s">
-        <v>334</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D107" s="1">
-        <v>43774</v>
+        <v>44112</v>
       </c>
       <c r="E107" t="s">
         <v>26</v>
       </c>
+      <c r="F107" t="s">
+        <v>319</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
       <c r="N107" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O107" t="s">
-        <v>337</v>
+        <v>340</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>32</v>
       </c>
       <c r="R107" t="s">
         <v>26</v>
@@ -6886,46 +6868,28 @@
         <v>26</v>
       </c>
       <c r="T107">
-        <v>242715514</v>
+        <v>552503776</v>
       </c>
       <c r="U107">
-        <v>553488520</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="1">
-        <v>44112</v>
+        <v>36558</v>
       </c>
       <c r="E108" t="s">
         <v>26</v>
       </c>
-      <c r="F108" t="s">
-        <v>319</v>
-      </c>
-      <c r="H108" t="s">
-        <v>37</v>
-      </c>
-      <c r="I108" t="s">
-        <v>21</v>
-      </c>
-      <c r="N108" t="s">
-        <v>339</v>
-      </c>
-      <c r="O108" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>32</v>
-      </c>
       <c r="R108" t="s">
         <v>26</v>
       </c>
@@ -6933,47 +6897,38 @@
         <v>26</v>
       </c>
       <c r="T108">
-        <v>552503776</v>
+        <v>543357761</v>
       </c>
       <c r="U108">
-        <v>246922004</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D109" s="1">
         <v>36558</v>
       </c>
-      <c r="E109" t="s">
-        <v>26</v>
-      </c>
-      <c r="R109" t="s">
-        <v>26</v>
-      </c>
-      <c r="S109" t="s">
-        <v>26</v>
-      </c>
       <c r="T109">
-        <v>543357761</v>
+        <v>530376302</v>
       </c>
       <c r="U109">
-        <v>543357761</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -6982,58 +6937,58 @@
         <v>36558</v>
       </c>
       <c r="T110">
-        <v>530376302</v>
+        <v>559610656</v>
       </c>
       <c r="U110">
-        <v>530376302</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D111" s="1">
         <v>36558</v>
       </c>
       <c r="T111">
-        <v>559610656</v>
+        <v>540901838</v>
       </c>
       <c r="U111">
-        <v>559610656</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s">
         <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1">
         <v>36558</v>
       </c>
       <c r="T112">
-        <v>540901838</v>
+        <v>554246016</v>
       </c>
       <c r="U112">
-        <v>540901838</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
@@ -7042,38 +6997,38 @@
         <v>36558</v>
       </c>
       <c r="T113">
-        <v>554246016</v>
+        <v>256503657</v>
       </c>
       <c r="U113">
-        <v>541473757</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B114" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D114" s="1">
         <v>36558</v>
       </c>
       <c r="T114">
-        <v>256503657</v>
+        <v>240256100</v>
       </c>
       <c r="U114">
-        <v>256503657</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -7090,10 +7045,10 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
@@ -7102,18 +7057,18 @@
         <v>36558</v>
       </c>
       <c r="T116">
-        <v>240256100</v>
+        <v>557544883</v>
       </c>
       <c r="U116">
-        <v>240256100</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
@@ -7122,15 +7077,15 @@
         <v>36558</v>
       </c>
       <c r="T117">
-        <v>557544883</v>
+        <v>540750426</v>
       </c>
       <c r="U117">
-        <v>557544883</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -7142,52 +7097,32 @@
         <v>36558</v>
       </c>
       <c r="T118">
-        <v>540750426</v>
+        <v>205669296</v>
       </c>
       <c r="U118">
-        <v>540750426</v>
+        <v>205669296</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D119" s="1">
         <v>36558</v>
       </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
       <c r="T119">
-        <v>205669296</v>
+        <v>546312435</v>
       </c>
       <c r="U119">
-        <v>205669296</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>352</v>
-      </c>
-      <c r="B120" t="s">
-        <v>270</v>
-      </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E120" t="s">
-        <v>26</v>
-      </c>
-      <c r="T120">
-        <v>546312435</v>
-      </c>
-      <c r="U120">
         <v>546312435</v>
       </c>
     </row>

--- a/student/kogdata.xlsx
+++ b/student/kogdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheva\Desktop\dj\sms\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6C260E-15E9-4288-8BEC-FFA78F088E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E69D2-D53F-4C93-9B15-979039AC2E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1118" yWindow="2858" windowWidth="17857" windowHeight="6712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="460">
   <si>
     <t>full_name</t>
   </si>
@@ -1416,12 +1416,6 @@
   </si>
   <si>
     <t xml:space="preserve">0543661177	</t>
-  </si>
-  <si>
-    <t>AIDOO EMMANUEl</t>
-  </si>
-  <si>
-    <t>aidoo baaba</t>
   </si>
 </sst>
 </file>
@@ -1744,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2008,71 +2002,149 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44632</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>439</v>
+      </c>
+      <c r="G14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>440</v>
+      </c>
+      <c r="O14" t="s">
+        <v>441</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>26</v>
       </c>
       <c r="T14">
-        <v>246875311</v>
+        <v>249221660</v>
       </c>
       <c r="U14">
-        <v>246875311</v>
+        <v>531739740</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
       </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>434</v>
+      </c>
+      <c r="N15" t="s">
+        <v>435</v>
+      </c>
+      <c r="O15" t="s">
+        <v>436</v>
+      </c>
+      <c r="P15" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>242</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
       <c r="T15">
-        <v>246875311</v>
+        <v>548045399</v>
       </c>
       <c r="U15">
-        <v>246875311</v>
+        <v>537571044</v>
+      </c>
+      <c r="V15" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>44632</v>
+        <v>45537</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>439</v>
-      </c>
-      <c r="G16" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
       <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>428</v>
       </c>
       <c r="N16" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="O16" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="Q16" t="s">
         <v>109</v>
@@ -2081,57 +2153,42 @@
         <v>26</v>
       </c>
       <c r="S16" t="s">
-        <v>26</v>
+        <v>432</v>
       </c>
       <c r="T16">
-        <v>249221660</v>
+        <v>554700135</v>
       </c>
       <c r="U16">
-        <v>531739740</v>
+        <v>540329706</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>45131</v>
+        <v>42207</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>434</v>
-      </c>
       <c r="N17" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="O17" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P17" t="s">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -2140,45 +2197,36 @@
         <v>26</v>
       </c>
       <c r="T17">
-        <v>548045399</v>
+        <v>243774692</v>
       </c>
       <c r="U17">
-        <v>537571044</v>
-      </c>
-      <c r="V17" t="s">
-        <v>437</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>45537</v>
+        <v>44524</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>428</v>
-      </c>
       <c r="N18" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O18" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P18" t="s">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
@@ -2187,27 +2235,27 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>432</v>
+        <v>26</v>
       </c>
       <c r="T18">
-        <v>554700135</v>
+        <v>243774692</v>
       </c>
       <c r="U18">
-        <v>540329706</v>
+        <v>243774692</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>42207</v>
+        <v>42989</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -2239,28 +2287,40 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>44524</v>
+        <v>42363</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
+      <c r="F20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
       <c r="N20" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="O20" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="Q20" t="s">
         <v>109</v>
@@ -2272,36 +2332,51 @@
         <v>26</v>
       </c>
       <c r="T20">
-        <v>243774692</v>
+        <v>545350088</v>
       </c>
       <c r="U20">
-        <v>243774692</v>
+        <v>246956426</v>
+      </c>
+      <c r="V20" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>42989</v>
+        <v>36558</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
+      <c r="F21" t="s">
+        <v>421</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
       <c r="N21" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="O21" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="Q21" t="s">
         <v>109</v>
@@ -2313,33 +2388,36 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>243774692</v>
+        <v>545350088</v>
       </c>
       <c r="U21">
-        <v>243774692</v>
+        <v>246956426</v>
+      </c>
+      <c r="V21" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>42363</v>
+        <v>36558</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>421</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
@@ -2348,16 +2426,16 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>393</v>
+        <v>251</v>
       </c>
       <c r="O22" t="s">
-        <v>394</v>
+        <v>252</v>
       </c>
       <c r="P22" t="s">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
@@ -2366,110 +2444,92 @@
         <v>26</v>
       </c>
       <c r="T22">
-        <v>545350088</v>
+        <v>549821786</v>
       </c>
       <c r="U22">
-        <v>246956426</v>
-      </c>
-      <c r="V22" t="s">
-        <v>396</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>421</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
+        <v>43025</v>
       </c>
       <c r="N23" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="O23" t="s">
-        <v>394</v>
-      </c>
-      <c r="P23" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>109</v>
-      </c>
-      <c r="R23" t="s">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="S23" t="s">
         <v>26</v>
       </c>
       <c r="T23">
-        <v>545350088</v>
+        <v>542199592</v>
       </c>
       <c r="U23">
-        <v>246956426</v>
-      </c>
-      <c r="V23" t="s">
-        <v>396</v>
+        <v>595947343</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>36558</v>
+        <v>44294</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>356</v>
+      </c>
+      <c r="G24" t="s">
+        <v>357</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M24" t="s">
+        <v>359</v>
       </c>
       <c r="N24" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="O24" t="s">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
@@ -2478,15 +2538,15 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>549821786</v>
+        <v>532461394</v>
       </c>
       <c r="U24">
-        <v>256242568</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
         <v>259</v>
@@ -2495,75 +2555,90 @@
         <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>43025</v>
+        <v>43594</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G25" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="O25" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+      <c r="P25" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>362</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
       <c r="S25" t="s">
         <v>26</v>
       </c>
       <c r="T25">
-        <v>542199592</v>
+        <v>532461394</v>
       </c>
       <c r="U25">
-        <v>595947343</v>
+        <v>548850124</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>44294</v>
+        <v>43788</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G26" t="s">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" t="s">
-        <v>358</v>
-      </c>
-      <c r="M26" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O26" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P26" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="Q26" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
@@ -2572,54 +2647,54 @@
         <v>26</v>
       </c>
       <c r="T26">
-        <v>532461394</v>
+        <v>245449031</v>
       </c>
       <c r="U26">
-        <v>548850124</v>
+        <v>545891190</v>
+      </c>
+      <c r="V26" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>43594</v>
+        <v>42898</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" t="s">
-        <v>259</v>
-      </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>371</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="O27" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P27" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="Q27" t="s">
-        <v>362</v>
+        <v>178</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -2628,51 +2703,42 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <v>532461394</v>
+        <v>249768747</v>
       </c>
       <c r="U27">
-        <v>548850124</v>
+        <v>245716161</v>
+      </c>
+      <c r="V27" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
-        <v>43788</v>
+        <v>43408</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>365</v>
-      </c>
-      <c r="G28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
       <c r="N28" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="O28" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="P28" t="s">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>378</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -2681,54 +2747,51 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>245449031</v>
+        <v>248076761</v>
       </c>
       <c r="U28">
-        <v>545891190</v>
+        <v>551424325</v>
       </c>
       <c r="V28" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
-        <v>42898</v>
+        <v>43518</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
+      <c r="G29" t="s">
+        <v>381</v>
+      </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" t="s">
-        <v>371</v>
-      </c>
-      <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="O29" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="Q29" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
@@ -2737,42 +2800,51 @@
         <v>26</v>
       </c>
       <c r="T29">
-        <v>249768747</v>
+        <v>249245434</v>
       </c>
       <c r="U29">
-        <v>245716161</v>
+        <v>558204488</v>
       </c>
       <c r="V29" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>43408</v>
+        <v>42467</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
+      <c r="F30" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
       <c r="N30" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="O30" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>389</v>
       </c>
       <c r="Q30" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
@@ -2781,33 +2853,30 @@
         <v>26</v>
       </c>
       <c r="T30">
-        <v>248076761</v>
+        <v>247412669</v>
       </c>
       <c r="U30">
-        <v>551424325</v>
-      </c>
-      <c r="V30" t="s">
-        <v>379</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1">
-        <v>43518</v>
+        <v>44295</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="G31" t="s">
-        <v>381</v>
+      <c r="F31" t="s">
+        <v>365</v>
       </c>
       <c r="H31" t="s">
         <v>37</v>
@@ -2816,16 +2885,16 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="O31" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P31" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q31" t="s">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -2834,51 +2903,48 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>249245434</v>
+        <v>247412669</v>
       </c>
       <c r="U31">
-        <v>558204488</v>
-      </c>
-      <c r="V31" t="s">
-        <v>385</v>
+        <v>245649230</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>42467</v>
+        <v>42738</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="F32" t="s">
-        <v>365</v>
-      </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
       <c r="N32" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="O32" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P32" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q32" t="s">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="R32" t="s">
         <v>26</v>
@@ -2887,48 +2953,45 @@
         <v>26</v>
       </c>
       <c r="T32">
-        <v>247412669</v>
+        <v>545350088</v>
       </c>
       <c r="U32">
-        <v>245649230</v>
+        <v>246956426</v>
+      </c>
+      <c r="V32" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>44295</v>
+        <v>43644</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
-        <v>365</v>
-      </c>
       <c r="H33" t="s">
         <v>37</v>
       </c>
       <c r="I33" t="s">
         <v>21</v>
       </c>
-      <c r="N33" t="s">
-        <v>387</v>
+      <c r="K33" t="s">
+        <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>388</v>
-      </c>
-      <c r="P33" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q33" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="R33" t="s">
         <v>26</v>
@@ -2937,77 +3000,56 @@
         <v>26</v>
       </c>
       <c r="T33">
-        <v>247412669</v>
+        <v>241656149</v>
       </c>
       <c r="U33">
-        <v>245649230</v>
+        <v>241656149</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
-        <v>42738</v>
+        <v>42581</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="N34" t="s">
-        <v>393</v>
-      </c>
-      <c r="O34" t="s">
-        <v>394</v>
-      </c>
-      <c r="P34" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>109</v>
-      </c>
-      <c r="R34" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" t="s">
-        <v>26</v>
-      </c>
       <c r="T34">
-        <v>545350088</v>
+        <v>533254698</v>
       </c>
       <c r="U34">
-        <v>246956426</v>
-      </c>
-      <c r="V34" t="s">
-        <v>396</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>43644</v>
+        <v>42617</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -3042,16 +3084,16 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1">
-        <v>42581</v>
+        <v>44968</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -3060,36 +3102,54 @@
         <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
       </c>
+      <c r="N36" t="s">
+        <v>403</v>
+      </c>
+      <c r="O36" t="s">
+        <v>404</v>
+      </c>
+      <c r="P36" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>405</v>
+      </c>
+      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" t="s">
+        <v>26</v>
+      </c>
       <c r="T36">
-        <v>533254698</v>
+        <v>543469945</v>
       </c>
       <c r="U36">
-        <v>546589599</v>
+        <v>532807776</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>42617</v>
+        <v>44351</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -3097,11 +3157,17 @@
       <c r="K37" t="s">
         <v>21</v>
       </c>
+      <c r="N37" t="s">
+        <v>407</v>
+      </c>
       <c r="O37" t="s">
-        <v>398</v>
+        <v>408</v>
+      </c>
+      <c r="P37" t="s">
+        <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3110,30 +3176,30 @@
         <v>26</v>
       </c>
       <c r="T37">
-        <v>241656149</v>
+        <v>248754494</v>
       </c>
       <c r="U37">
-        <v>241656149</v>
+        <v>593082381</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>44968</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -3142,16 +3208,16 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="O38" t="s">
-        <v>404</v>
+        <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>405</v>
+        <v>178</v>
       </c>
       <c r="Q38" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
@@ -3160,48 +3226,54 @@
         <v>26</v>
       </c>
       <c r="T38">
-        <v>543469945</v>
+        <v>245077487</v>
       </c>
       <c r="U38">
-        <v>532807776</v>
+        <v>543161188</v>
+      </c>
+      <c r="V38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>44351</v>
+        <v>41372</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
       </c>
+      <c r="J39" t="s">
+        <v>169</v>
+      </c>
       <c r="K39" t="s">
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="O39" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="P39" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="Q39" t="s">
-        <v>409</v>
+        <v>109</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3210,15 +3282,15 @@
         <v>26</v>
       </c>
       <c r="T39">
-        <v>248754494</v>
+        <v>243043900</v>
       </c>
       <c r="U39">
-        <v>593082381</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
         <v>269</v>
@@ -3227,31 +3299,28 @@
         <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>44238</v>
+        <v>44084</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>414</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N40" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
-      </c>
-      <c r="P40" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>109</v>
+        <v>416</v>
       </c>
       <c r="R40" t="s">
         <v>26</v>
@@ -3260,54 +3329,45 @@
         <v>26</v>
       </c>
       <c r="T40">
-        <v>245077487</v>
+        <v>256596282</v>
       </c>
       <c r="U40">
-        <v>543161188</v>
-      </c>
-      <c r="V40" t="s">
-        <v>140</v>
+        <v>556006080</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="1">
-        <v>41372</v>
+        <v>36558</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
       </c>
-      <c r="J41" t="s">
-        <v>169</v>
-      </c>
       <c r="K41" t="s">
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="O41" t="s">
-        <v>290</v>
-      </c>
-      <c r="P41" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3316,45 +3376,51 @@
         <v>26</v>
       </c>
       <c r="T41">
-        <v>243043900</v>
+        <v>543784758</v>
       </c>
       <c r="U41">
-        <v>549370765</v>
+        <v>243307643</v>
+      </c>
+      <c r="V41" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>44084</v>
-      </c>
-      <c r="E42" t="s">
+        <v>44852</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s">
-        <v>414</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>415</v>
+        <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>416</v>
+        <v>23</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>25</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -3362,16 +3428,19 @@
       <c r="S42" t="s">
         <v>26</v>
       </c>
-      <c r="T42">
-        <v>256596282</v>
+      <c r="T42" s="3">
+        <v>249891601</v>
       </c>
       <c r="U42">
-        <v>556006080</v>
+        <v>5414805333</v>
+      </c>
+      <c r="V42" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>263</v>
@@ -3380,13 +3449,16 @@
         <v>34</v>
       </c>
       <c r="D43" s="1">
-        <v>36558</v>
+        <v>44782</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
       </c>
       <c r="H43" t="s">
         <v>37</v>
@@ -3398,10 +3470,16 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="O43" t="s">
-        <v>166</v>
+        <v>39</v>
+      </c>
+      <c r="P43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>41</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -3410,18 +3488,15 @@
         <v>26</v>
       </c>
       <c r="T43">
-        <v>543784758</v>
+        <v>554885693</v>
       </c>
       <c r="U43">
-        <v>243307643</v>
-      </c>
-      <c r="V43" t="s">
-        <v>167</v>
+        <v>542738888</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>122</v>
@@ -3430,13 +3505,16 @@
         <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>44852</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>44922</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3445,16 +3523,16 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -3462,40 +3540,40 @@
       <c r="S44" t="s">
         <v>26</v>
       </c>
-      <c r="T44" s="3">
-        <v>249891601</v>
+      <c r="T44">
+        <v>243081535</v>
       </c>
       <c r="U44">
-        <v>5414805333</v>
+        <v>544479394</v>
       </c>
       <c r="V44" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>44782</v>
+        <v>44691</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3504,16 +3582,16 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O45" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Q45" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -3522,15 +3600,15 @@
         <v>26</v>
       </c>
       <c r="T45">
-        <v>554885693</v>
+        <v>543719591</v>
       </c>
       <c r="U45">
-        <v>542738888</v>
+        <v>541484405</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
@@ -3539,13 +3617,13 @@
         <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>44922</v>
+        <v>45040</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
         <v>37</v>
@@ -3554,19 +3632,25 @@
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" t="s">
+        <v>56</v>
       </c>
       <c r="N46" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Q46" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -3575,18 +3659,18 @@
         <v>26</v>
       </c>
       <c r="T46">
-        <v>243081535</v>
+        <v>548697421</v>
       </c>
       <c r="U46">
-        <v>544479394</v>
+        <v>549328229</v>
       </c>
       <c r="V46" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>122</v>
@@ -3595,16 +3679,16 @@
         <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>44691</v>
+        <v>45037</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
@@ -3616,16 +3700,16 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q47" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -3634,24 +3718,24 @@
         <v>26</v>
       </c>
       <c r="T47">
-        <v>543719591</v>
+        <v>554246016</v>
       </c>
       <c r="U47">
-        <v>541484405</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>45040</v>
+        <v>43551</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
@@ -3666,25 +3750,22 @@
         <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M48" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N48" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O48" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P48" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q48" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="R48" t="s">
         <v>26</v>
@@ -3693,36 +3774,33 @@
         <v>26</v>
       </c>
       <c r="T48">
-        <v>548697421</v>
+        <v>203218292</v>
       </c>
       <c r="U48">
-        <v>549328229</v>
+        <v>546407893</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>45037</v>
+        <v>43536</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
-        <v>63</v>
-      </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
@@ -3734,16 +3812,16 @@
         <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="P49" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -3752,24 +3830,24 @@
         <v>26</v>
       </c>
       <c r="T49">
-        <v>554246016</v>
+        <v>544622299</v>
       </c>
       <c r="U49">
-        <v>541473757</v>
+        <v>241651317</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>43551</v>
+        <v>43486</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
@@ -3787,19 +3865,19 @@
         <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N50" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="O50" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q50" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -3808,33 +3886,33 @@
         <v>26</v>
       </c>
       <c r="T50">
-        <v>203218292</v>
+        <v>241861382</v>
       </c>
       <c r="U50">
-        <v>546407893</v>
+        <v>547944747</v>
       </c>
       <c r="V50" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1">
-        <v>43536</v>
+        <v>43214</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
@@ -3846,16 +3924,13 @@
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -3864,31 +3939,31 @@
         <v>26</v>
       </c>
       <c r="T51">
-        <v>544622299</v>
+        <v>540750428</v>
       </c>
       <c r="U51">
-        <v>241651317</v>
+        <v>240127525</v>
+      </c>
+      <c r="V51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="1">
-        <v>43486</v>
+        <v>44390</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
       <c r="H52" t="s">
         <v>37</v>
       </c>
@@ -3898,20 +3973,17 @@
       <c r="K52" t="s">
         <v>21</v>
       </c>
-      <c r="M52" t="s">
-        <v>78</v>
-      </c>
       <c r="N52" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="O52" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q52" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -3920,36 +3992,33 @@
         <v>26</v>
       </c>
       <c r="T52">
-        <v>241861382</v>
+        <v>248450590</v>
       </c>
       <c r="U52">
-        <v>547944747</v>
-      </c>
-      <c r="V52" t="s">
-        <v>83</v>
+        <v>548086355</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>43214</v>
+        <v>43582</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3958,13 +4027,10 @@
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="O53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P53" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -3973,33 +4039,36 @@
         <v>26</v>
       </c>
       <c r="T53">
-        <v>540750428</v>
+        <v>542776117</v>
       </c>
       <c r="U53">
-        <v>240127525</v>
+        <v>556780997</v>
       </c>
       <c r="V53" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>44390</v>
+        <v>42977</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
       </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -4008,16 +4077,10 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O54" t="s">
-        <v>92</v>
-      </c>
-      <c r="P54" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4026,31 +4089,31 @@
         <v>26</v>
       </c>
       <c r="T54">
-        <v>248450590</v>
+        <v>246469841</v>
       </c>
       <c r="U54">
-        <v>548086355</v>
+        <v>244502858</v>
+      </c>
+      <c r="V54" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
         <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>43582</v>
+        <v>44057</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="G55" t="s">
-        <v>96</v>
-      </c>
       <c r="H55" t="s">
         <v>37</v>
       </c>
@@ -4061,10 +4124,16 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O55" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="P55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>109</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4073,48 +4142,54 @@
         <v>26</v>
       </c>
       <c r="T55">
-        <v>542776117</v>
+        <v>246645496</v>
       </c>
       <c r="U55">
-        <v>556780997</v>
-      </c>
-      <c r="V55" t="s">
-        <v>99</v>
+        <v>240778774</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>42977</v>
+        <v>41923</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
+      <c r="F56" t="s">
+        <v>111</v>
+      </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="M56" t="s">
+        <v>113</v>
       </c>
       <c r="N56" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O56" t="s">
-        <v>102</v>
+        <v>115</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>32</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4123,27 +4198,24 @@
         <v>26</v>
       </c>
       <c r="T56">
-        <v>246469841</v>
+        <v>248675358</v>
       </c>
       <c r="U56">
-        <v>244502858</v>
-      </c>
-      <c r="V56" t="s">
-        <v>103</v>
+        <v>247790941</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>44057</v>
+        <v>44796</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
@@ -4158,16 +4230,16 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q57" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4176,54 +4248,51 @@
         <v>26</v>
       </c>
       <c r="T57">
-        <v>246645496</v>
+        <v>599634556</v>
       </c>
       <c r="U57">
-        <v>240778774</v>
+        <v>535220641</v>
+      </c>
+      <c r="V57" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
+        <v>263</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>41923</v>
+        <v>44890</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
-      <c r="F58" t="s">
-        <v>111</v>
-      </c>
       <c r="G58" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
-      </c>
-      <c r="M58" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O58" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="P58" t="s">
+        <v>40</v>
       </c>
       <c r="Q58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -4232,24 +4301,27 @@
         <v>26</v>
       </c>
       <c r="T58">
-        <v>248675358</v>
+        <v>245864268</v>
       </c>
       <c r="U58">
-        <v>247790941</v>
+        <v>247823594</v>
+      </c>
+      <c r="V58" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>44796</v>
+        <v>43652</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
@@ -4258,22 +4330,25 @@
         <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>127</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O59" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -4282,33 +4357,33 @@
         <v>26</v>
       </c>
       <c r="T59">
-        <v>599634556</v>
+        <v>543279537</v>
       </c>
       <c r="U59">
-        <v>535220641</v>
+        <v>241208687</v>
       </c>
       <c r="V59" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="1">
-        <v>44890</v>
+        <v>42673</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="G60" t="s">
-        <v>122</v>
+      <c r="H60" t="s">
+        <v>37</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
@@ -4317,16 +4392,7 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>123</v>
-      </c>
-      <c r="O60" t="s">
-        <v>124</v>
-      </c>
-      <c r="P60" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -4335,27 +4401,21 @@
         <v>26</v>
       </c>
       <c r="T60">
-        <v>245864268</v>
-      </c>
-      <c r="U60">
-        <v>247823594</v>
-      </c>
-      <c r="V60" t="s">
-        <v>125</v>
+        <v>244423888</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1">
-        <v>43652</v>
+        <v>42691</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
@@ -4367,22 +4427,13 @@
         <v>37</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
-      <c r="N61" t="s">
-        <v>128</v>
-      </c>
       <c r="O61" t="s">
-        <v>129</v>
-      </c>
-      <c r="P61" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -4391,31 +4442,31 @@
         <v>26</v>
       </c>
       <c r="T61">
-        <v>543279537</v>
-      </c>
-      <c r="U61">
-        <v>241208687</v>
+        <v>245077487</v>
       </c>
       <c r="V61" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
         <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="1">
-        <v>42673</v>
+        <v>34</v>
+      </c>
+      <c r="D62" s="2">
+        <v>42832</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
       </c>
+      <c r="G62" t="s">
+        <v>142</v>
+      </c>
       <c r="H62" t="s">
         <v>37</v>
       </c>
@@ -4426,7 +4477,13 @@
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="O62" t="s">
+        <v>144</v>
+      </c>
+      <c r="P62" t="s">
+        <v>146</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -4435,21 +4492,27 @@
         <v>26</v>
       </c>
       <c r="T62">
-        <v>244423888</v>
+        <v>245766735</v>
+      </c>
+      <c r="U62">
+        <v>245702914</v>
+      </c>
+      <c r="V62" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
         <v>34</v>
       </c>
       <c r="D63" s="1">
-        <v>42691</v>
+        <v>42202</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
@@ -4458,16 +4521,19 @@
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="N63" t="s">
+        <v>150</v>
       </c>
       <c r="O63" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -4476,15 +4542,18 @@
         <v>26</v>
       </c>
       <c r="T63">
-        <v>245077487</v>
+        <v>248178775</v>
+      </c>
+      <c r="U63">
+        <v>550234225</v>
       </c>
       <c r="V63" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
         <v>267</v>
@@ -4492,8 +4561,8 @@
       <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="2">
-        <v>42832</v>
+      <c r="D64" s="1">
+        <v>42695</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
@@ -4511,13 +4580,16 @@
         <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O64" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="P64" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>109</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -4526,48 +4598,54 @@
         <v>26</v>
       </c>
       <c r="T64">
-        <v>245766735</v>
+        <v>245424585</v>
       </c>
       <c r="U64">
-        <v>245702914</v>
+        <v>247566924</v>
       </c>
       <c r="V64" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
         <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>42202</v>
+        <v>41794</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
       </c>
+      <c r="G65" t="s">
+        <v>112</v>
+      </c>
       <c r="H65" t="s">
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-      <c r="J65" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="P65" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>160</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -4576,18 +4654,18 @@
         <v>26</v>
       </c>
       <c r="T65">
-        <v>248178775</v>
+        <v>245980902</v>
       </c>
       <c r="U65">
-        <v>550234225</v>
+        <v>245272449</v>
       </c>
       <c r="V65" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
         <v>267</v>
@@ -4596,14 +4674,11 @@
         <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>42695</v>
+        <v>43093</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="G66" t="s">
-        <v>142</v>
-      </c>
       <c r="H66" t="s">
         <v>37</v>
       </c>
@@ -4614,16 +4689,16 @@
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O66" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P66" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="Q66" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -4632,33 +4707,33 @@
         <v>26</v>
       </c>
       <c r="T66">
-        <v>245424585</v>
+        <v>245980902</v>
       </c>
       <c r="U66">
-        <v>247566924</v>
+        <v>245272449</v>
       </c>
       <c r="V66" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>41794</v>
+        <v>43165</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
-      <c r="G67" t="s">
-        <v>112</v>
+      <c r="F67" t="s">
+        <v>164</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4670,16 +4745,10 @@
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O67" t="s">
-        <v>159</v>
-      </c>
-      <c r="P67" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -4688,18 +4757,18 @@
         <v>26</v>
       </c>
       <c r="T67">
-        <v>245980902</v>
+        <v>543784758</v>
       </c>
       <c r="U67">
-        <v>245272449</v>
+        <v>243307643</v>
       </c>
       <c r="V67" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
         <v>267</v>
@@ -4708,31 +4777,31 @@
         <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>43093</v>
+        <v>42564</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
       </c>
+      <c r="F68" t="s">
+        <v>164</v>
+      </c>
       <c r="H68" t="s">
         <v>37</v>
       </c>
       <c r="I68" t="s">
         <v>21</v>
       </c>
+      <c r="J68" t="s">
+        <v>169</v>
+      </c>
       <c r="K68" t="s">
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O68" t="s">
-        <v>159</v>
-      </c>
-      <c r="P68" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -4741,33 +4810,33 @@
         <v>26</v>
       </c>
       <c r="T68">
-        <v>245980902</v>
+        <v>543784758</v>
       </c>
       <c r="U68">
-        <v>245272449</v>
+        <v>243307643</v>
       </c>
       <c r="V68" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>43165</v>
+        <v>43499</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
         <v>37</v>
@@ -4779,10 +4848,16 @@
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O69" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="P69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>25</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -4791,18 +4866,18 @@
         <v>26</v>
       </c>
       <c r="T69">
-        <v>543784758</v>
+        <v>595670927</v>
       </c>
       <c r="U69">
-        <v>243307643</v>
+        <v>553491903</v>
       </c>
       <c r="V69" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
         <v>267</v>
@@ -4811,13 +4886,13 @@
         <v>34</v>
       </c>
       <c r="D70" s="1">
-        <v>42564</v>
+        <v>42289</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
-      <c r="F70" t="s">
-        <v>164</v>
+      <c r="G70" t="s">
+        <v>122</v>
       </c>
       <c r="H70" t="s">
         <v>37</v>
@@ -4825,17 +4900,20 @@
       <c r="I70" t="s">
         <v>21</v>
       </c>
-      <c r="J70" t="s">
-        <v>169</v>
-      </c>
       <c r="K70" t="s">
         <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="O70" t="s">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="P70" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>109</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -4844,34 +4922,31 @@
         <v>26</v>
       </c>
       <c r="T70">
-        <v>543784758</v>
+        <v>547068449</v>
       </c>
       <c r="U70">
-        <v>243307643</v>
+        <v>547068449</v>
       </c>
       <c r="V70" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>43499</v>
+        <v>42839</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
-      <c r="F71" t="s">
-        <v>171</v>
-      </c>
       <c r="H71" t="s">
         <v>37</v>
       </c>
@@ -4882,16 +4957,10 @@
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O71" t="s">
-        <v>173</v>
-      </c>
-      <c r="P71" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -4900,30 +4969,33 @@
         <v>26</v>
       </c>
       <c r="T71">
-        <v>595670927</v>
+        <v>244730682</v>
       </c>
       <c r="U71">
-        <v>553491903</v>
+        <v>249341294</v>
       </c>
       <c r="V71" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1">
-        <v>42289</v>
+        <v>44495</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>185</v>
       </c>
       <c r="G72" t="s">
         <v>122</v>
@@ -4932,22 +5004,28 @@
         <v>37</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J72" t="s">
+        <v>186</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L72" t="s">
+        <v>187</v>
       </c>
       <c r="N72" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O72" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="Q72" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -4956,45 +5034,60 @@
         <v>26</v>
       </c>
       <c r="T72">
-        <v>547068449</v>
+        <v>532416380</v>
       </c>
       <c r="U72">
-        <v>547068449</v>
+        <v>543108512</v>
       </c>
       <c r="V72" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D73" s="1">
-        <v>42839</v>
+        <v>43950</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
       </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
       <c r="H73" t="s">
         <v>37</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="J73" t="s">
+        <v>194</v>
       </c>
       <c r="K73" t="s">
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="O73" t="s">
-        <v>182</v>
+        <v>196</v>
+      </c>
+      <c r="P73" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>198</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5003,63 +5096,51 @@
         <v>26</v>
       </c>
       <c r="T73">
-        <v>244730682</v>
+        <v>597661016</v>
       </c>
       <c r="U73">
-        <v>249341294</v>
+        <v>501213049</v>
       </c>
       <c r="V73" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>44495</v>
+        <v>44383</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
-      <c r="F74" t="s">
-        <v>185</v>
-      </c>
-      <c r="G74" t="s">
-        <v>122</v>
-      </c>
       <c r="H74" t="s">
         <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>37</v>
-      </c>
-      <c r="L74" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="O74" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="P74" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q74" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -5068,60 +5149,57 @@
         <v>26</v>
       </c>
       <c r="T74">
-        <v>532416380</v>
+        <v>595670927</v>
       </c>
       <c r="U74">
-        <v>543108512</v>
+        <v>553491903</v>
       </c>
       <c r="V74" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>43950</v>
+        <v>43524</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="H75" t="s">
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
-      </c>
-      <c r="J75" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O75" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="Q75" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -5130,31 +5208,34 @@
         <v>26</v>
       </c>
       <c r="T75">
-        <v>597661016</v>
+        <v>244678226</v>
       </c>
       <c r="U75">
-        <v>501213049</v>
+        <v>208455305</v>
       </c>
       <c r="V75" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D76" s="1">
-        <v>44383</v>
+        <v>44364</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
+      <c r="G76" t="s">
+        <v>122</v>
+      </c>
       <c r="H76" t="s">
         <v>37</v>
       </c>
@@ -5165,16 +5246,16 @@
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="O76" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="P76" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -5183,36 +5264,33 @@
         <v>26</v>
       </c>
       <c r="T76">
-        <v>595670927</v>
+        <v>243352028</v>
       </c>
       <c r="U76">
-        <v>553491903</v>
+        <v>243088742</v>
       </c>
       <c r="V76" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D77" s="1">
-        <v>43524</v>
+        <v>44627</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
-      <c r="F77" t="s">
-        <v>204</v>
-      </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H77" t="s">
         <v>37</v>
@@ -5220,20 +5298,20 @@
       <c r="I77" t="s">
         <v>21</v>
       </c>
-      <c r="K77" t="s">
-        <v>21</v>
+      <c r="M77" t="s">
+        <v>216</v>
       </c>
       <c r="N77" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="O77" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="Q77" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -5242,33 +5320,33 @@
         <v>26</v>
       </c>
       <c r="T77">
-        <v>244678226</v>
+        <v>241861382</v>
       </c>
       <c r="U77">
-        <v>208455305</v>
+        <v>547944747</v>
       </c>
       <c r="V77" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>44364</v>
+        <v>44430</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
       <c r="G78" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H78" t="s">
         <v>37</v>
@@ -5280,16 +5358,16 @@
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O78" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="Q78" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -5298,54 +5376,54 @@
         <v>26</v>
       </c>
       <c r="T78">
-        <v>243352028</v>
+        <v>555101040</v>
       </c>
       <c r="U78">
-        <v>243088742</v>
+        <v>537150359</v>
       </c>
       <c r="V78" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>44627</v>
+        <v>43839</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
       </c>
+      <c r="F79" t="s">
+        <v>223</v>
+      </c>
       <c r="G79" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H79" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M79" t="s">
-        <v>216</v>
+        <v>37</v>
+      </c>
+      <c r="J79" t="s">
+        <v>224</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="O79" t="s">
-        <v>80</v>
-      </c>
-      <c r="P79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -5354,27 +5432,27 @@
         <v>26</v>
       </c>
       <c r="T79">
-        <v>241861382</v>
+        <v>554845413</v>
       </c>
       <c r="U79">
-        <v>547944747</v>
+        <v>256786281</v>
       </c>
       <c r="V79" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1">
-        <v>44430</v>
+        <v>44661</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
@@ -5392,16 +5470,16 @@
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="O80" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="Q80" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -5410,54 +5488,48 @@
         <v>26</v>
       </c>
       <c r="T80">
-        <v>555101040</v>
+        <v>245424585</v>
       </c>
       <c r="U80">
-        <v>537150359</v>
+        <v>247566924</v>
       </c>
       <c r="V80" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="1">
-        <v>43839</v>
+        <v>44459</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
-      <c r="F81" t="s">
-        <v>223</v>
-      </c>
-      <c r="G81" t="s">
-        <v>96</v>
-      </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O81" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="P81" t="s">
+        <v>233</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -5466,34 +5538,31 @@
         <v>26</v>
       </c>
       <c r="T81">
-        <v>554845413</v>
+        <v>244446781</v>
       </c>
       <c r="U81">
-        <v>256786281</v>
+        <v>249251741</v>
       </c>
       <c r="V81" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D82" s="1">
-        <v>44661</v>
+        <v>44414</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
       <c r="H82" t="s">
         <v>37</v>
       </c>
@@ -5504,16 +5573,16 @@
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="O82" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="P82" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -5522,48 +5591,57 @@
         <v>26</v>
       </c>
       <c r="T82">
-        <v>245424585</v>
+        <v>246364382</v>
       </c>
       <c r="U82">
-        <v>247566924</v>
+        <v>242830458</v>
       </c>
       <c r="V82" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>44459</v>
+        <v>45025</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
+      <c r="G83" t="s">
+        <v>122</v>
+      </c>
       <c r="H83" t="s">
         <v>37</v>
       </c>
       <c r="I83" t="s">
         <v>21</v>
       </c>
+      <c r="J83" t="s">
+        <v>169</v>
+      </c>
       <c r="K83" t="s">
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="O83" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>241</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>242</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -5572,51 +5650,54 @@
         <v>26</v>
       </c>
       <c r="T83">
-        <v>244446781</v>
+        <v>245902055</v>
       </c>
       <c r="U83">
-        <v>249251741</v>
-      </c>
-      <c r="V83" t="s">
-        <v>161</v>
+        <v>557566068</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
         <v>269</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
-        <v>44414</v>
+        <v>43792</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
+      <c r="F84" t="s">
+        <v>244</v>
+      </c>
       <c r="H84" t="s">
         <v>37</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>245</v>
       </c>
       <c r="K84" t="s">
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="O84" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Q84" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -5625,57 +5706,57 @@
         <v>26</v>
       </c>
       <c r="T84">
-        <v>246364382</v>
+        <v>538984324</v>
       </c>
       <c r="U84">
-        <v>242830458</v>
+        <v>531766425</v>
       </c>
       <c r="V84" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>45025</v>
+        <v>43785</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
+      <c r="F85" t="s">
+        <v>250</v>
+      </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H85" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
       </c>
-      <c r="J85" t="s">
-        <v>169</v>
-      </c>
       <c r="K85" t="s">
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="O85" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="Q85" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -5684,54 +5765,45 @@
         <v>26</v>
       </c>
       <c r="T85">
-        <v>245902055</v>
+        <v>549821786</v>
       </c>
       <c r="U85">
-        <v>557566068</v>
+        <v>256242568</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>43792</v>
+        <v>44687</v>
       </c>
       <c r="E86" t="s">
         <v>26</v>
       </c>
-      <c r="F86" t="s">
-        <v>244</v>
+      <c r="G86" t="s">
+        <v>96</v>
       </c>
       <c r="H86" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
       </c>
       <c r="N86" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O86" t="s">
-        <v>247</v>
-      </c>
-      <c r="P86" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="R86" t="s">
         <v>26</v>
@@ -5740,54 +5812,57 @@
         <v>26</v>
       </c>
       <c r="T86">
-        <v>538984324</v>
+        <v>247633503</v>
       </c>
       <c r="U86">
-        <v>531766425</v>
+        <v>241690416</v>
       </c>
       <c r="V86" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>43785</v>
+        <v>42797</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J87" t="s">
+        <v>245</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O87" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P87" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q87" t="s">
         <v>25</v>
@@ -5799,15 +5874,18 @@
         <v>26</v>
       </c>
       <c r="T87">
-        <v>549821786</v>
+        <v>538984324</v>
       </c>
       <c r="U87">
-        <v>256242568</v>
+        <v>531766425</v>
+      </c>
+      <c r="V87" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
         <v>263</v>
@@ -5816,7 +5894,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>44687</v>
+        <v>44663</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
@@ -5825,19 +5903,25 @@
         <v>96</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="K88" t="s">
         <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O88" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="P88" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>25</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -5846,60 +5930,60 @@
         <v>26</v>
       </c>
       <c r="T88">
-        <v>247633503</v>
+        <v>538984324</v>
       </c>
       <c r="U88">
-        <v>241690416</v>
+        <v>531766425</v>
       </c>
       <c r="V88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D89" s="1">
-        <v>42797</v>
+        <v>42239</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>244</v>
-      </c>
-      <c r="G89" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H89" t="s">
         <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J89" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="K89" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="L89" t="s">
+        <v>273</v>
       </c>
       <c r="N89" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="O89" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="P89" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -5908,54 +5992,51 @@
         <v>26</v>
       </c>
       <c r="T89">
-        <v>538984324</v>
+        <v>549605899</v>
       </c>
       <c r="U89">
-        <v>531766425</v>
-      </c>
-      <c r="V89" t="s">
-        <v>248</v>
+        <v>534014247</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D90" s="1">
-        <v>44663</v>
+        <v>43231</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
-      <c r="G90" t="s">
-        <v>96</v>
-      </c>
       <c r="H90" t="s">
         <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J90" t="s">
+        <v>138</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="O90" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="P90" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R90" t="s">
         <v>26</v>
@@ -5964,18 +6045,15 @@
         <v>26</v>
       </c>
       <c r="T90">
-        <v>538984324</v>
+        <v>244077227</v>
       </c>
       <c r="U90">
-        <v>531766425</v>
-      </c>
-      <c r="V90" t="s">
-        <v>248</v>
+        <v>245173168</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
         <v>265</v>
@@ -5984,37 +6062,34 @@
         <v>34</v>
       </c>
       <c r="D91" s="1">
-        <v>42239</v>
+        <v>42088</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="F91" t="s">
-        <v>272</v>
-      </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I91" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K91" t="s">
         <v>101</v>
       </c>
-      <c r="J91" t="s">
-        <v>279</v>
-      </c>
-      <c r="K91" t="s">
-        <v>37</v>
-      </c>
       <c r="L91" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N91" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O91" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q91" t="s">
         <v>109</v>
@@ -6026,24 +6101,27 @@
         <v>26</v>
       </c>
       <c r="T91">
-        <v>549605899</v>
+        <v>207900244</v>
       </c>
       <c r="U91">
-        <v>534014247</v>
+        <v>599397215</v>
+      </c>
+      <c r="V91" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
         <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>43231</v>
+        <v>43085</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
@@ -6052,22 +6130,22 @@
         <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="K92" t="s">
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O92" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P92" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="Q92" t="s">
         <v>109</v>
@@ -6079,54 +6157,48 @@
         <v>26</v>
       </c>
       <c r="T92">
-        <v>244077227</v>
+        <v>243043900</v>
       </c>
       <c r="U92">
-        <v>245173168</v>
+        <v>549370765</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s">
         <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>42088</v>
+        <v>43108</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
       <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
         <v>149</v>
       </c>
-      <c r="I93" t="s">
-        <v>37</v>
-      </c>
-      <c r="J93" t="s">
-        <v>138</v>
-      </c>
       <c r="K93" t="s">
-        <v>101</v>
-      </c>
-      <c r="L93" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="O93" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q93" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="R93" t="s">
         <v>26</v>
@@ -6135,18 +6207,15 @@
         <v>26</v>
       </c>
       <c r="T93">
-        <v>207900244</v>
+        <v>533254698</v>
       </c>
       <c r="U93">
-        <v>599397215</v>
-      </c>
-      <c r="V93" t="s">
-        <v>284</v>
+        <v>546589599</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B94" t="s">
         <v>265</v>
@@ -6155,34 +6224,34 @@
         <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>43085</v>
+        <v>43310</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
+      <c r="F94" t="s">
+        <v>111</v>
+      </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K94" t="s">
         <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="O94" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P94" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="Q94" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R94" t="s">
         <v>26</v>
@@ -6191,15 +6260,18 @@
         <v>26</v>
       </c>
       <c r="T94">
-        <v>243043900</v>
+        <v>249220522</v>
       </c>
       <c r="U94">
-        <v>549370765</v>
+        <v>241246842</v>
+      </c>
+      <c r="V94" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
         <v>265</v>
@@ -6208,7 +6280,7 @@
         <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>43108</v>
+        <v>43170</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -6217,22 +6289,25 @@
         <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>149</v>
+        <v>37</v>
+      </c>
+      <c r="J95" t="s">
+        <v>300</v>
       </c>
       <c r="K95" t="s">
         <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="O95" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="Q95" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -6241,48 +6316,48 @@
         <v>26</v>
       </c>
       <c r="T95">
-        <v>533254698</v>
+        <v>246861527</v>
       </c>
       <c r="U95">
-        <v>546589599</v>
+        <v>558286552</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
         <v>265</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1">
-        <v>43310</v>
+        <v>43452</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
       </c>
-      <c r="F96" t="s">
-        <v>111</v>
-      </c>
       <c r="H96" t="s">
         <v>37</v>
       </c>
       <c r="I96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+      <c r="K96" t="s">
         <v>149</v>
       </c>
-      <c r="K96" t="s">
-        <v>21</v>
-      </c>
       <c r="N96" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="O96" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P96" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="Q96" t="s">
         <v>25</v>
@@ -6294,51 +6369,48 @@
         <v>26</v>
       </c>
       <c r="T96">
-        <v>249220522</v>
+        <v>246532233</v>
       </c>
       <c r="U96">
-        <v>241246842</v>
+        <v>247792191</v>
       </c>
       <c r="V96" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B97" t="s">
         <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D97" s="1">
-        <v>43170</v>
+        <v>43118</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I97" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="O97" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P97" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="Q97" t="s">
         <v>109</v>
@@ -6350,15 +6422,18 @@
         <v>26</v>
       </c>
       <c r="T97">
-        <v>246861527</v>
+        <v>246951455</v>
       </c>
       <c r="U97">
-        <v>558286552</v>
+        <v>242684572</v>
+      </c>
+      <c r="V97" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
         <v>265</v>
@@ -6367,31 +6442,28 @@
         <v>34</v>
       </c>
       <c r="D98" s="1">
-        <v>43452</v>
+        <v>43008</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
       </c>
+      <c r="F98" t="s">
+        <v>312</v>
+      </c>
       <c r="H98" t="s">
         <v>37</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
-      </c>
-      <c r="J98" t="s">
-        <v>138</v>
-      </c>
-      <c r="K98" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="N98" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="O98" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P98" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q98" t="s">
         <v>25</v>
@@ -6403,38 +6475,38 @@
         <v>26</v>
       </c>
       <c r="T98">
-        <v>246532233</v>
+        <v>246951455</v>
       </c>
       <c r="U98">
-        <v>247792191</v>
+        <v>242684572</v>
       </c>
       <c r="V98" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
         <v>34</v>
       </c>
       <c r="D99" s="1">
-        <v>43118</v>
+        <v>44912</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
       </c>
+      <c r="F99" t="s">
+        <v>312</v>
+      </c>
       <c r="H99" t="s">
         <v>37</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s">
         <v>21</v>
       </c>
       <c r="N99" t="s">
@@ -6444,10 +6516,10 @@
         <v>314</v>
       </c>
       <c r="P99" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q99" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -6467,22 +6539,22 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1">
-        <v>43008</v>
+        <v>42540</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H100" t="s">
         <v>37</v>
@@ -6490,17 +6562,20 @@
       <c r="I100" t="s">
         <v>21</v>
       </c>
+      <c r="K100" t="s">
+        <v>21</v>
+      </c>
       <c r="N100" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="O100" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P100" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -6509,51 +6584,51 @@
         <v>26</v>
       </c>
       <c r="T100">
-        <v>246951455</v>
+        <v>549223419</v>
       </c>
       <c r="U100">
-        <v>242684572</v>
+        <v>547981198</v>
       </c>
       <c r="V100" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>44912</v>
+        <v>44839</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
       </c>
-      <c r="F101" t="s">
-        <v>312</v>
-      </c>
       <c r="H101" t="s">
         <v>37</v>
       </c>
       <c r="I101" t="s">
         <v>21</v>
       </c>
+      <c r="K101" t="s">
+        <v>21</v>
+      </c>
       <c r="N101" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="O101" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="P101" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="R101" t="s">
         <v>26</v>
@@ -6562,36 +6637,33 @@
         <v>26</v>
       </c>
       <c r="T101">
-        <v>246951455</v>
+        <v>249220522</v>
       </c>
       <c r="U101">
-        <v>242684572</v>
+        <v>241246842</v>
       </c>
       <c r="V101" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="C102" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>42540</v>
+        <v>43831</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
       </c>
-      <c r="F102" t="s">
-        <v>319</v>
-      </c>
       <c r="H102" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I102" t="s">
         <v>21</v>
@@ -6600,16 +6672,16 @@
         <v>21</v>
       </c>
       <c r="N102" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="O102" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P102" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Q102" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -6618,51 +6690,57 @@
         <v>26</v>
       </c>
       <c r="T102">
-        <v>549223419</v>
+        <v>248076761</v>
       </c>
       <c r="U102">
-        <v>547981198</v>
+        <v>551424325</v>
       </c>
       <c r="V102" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>44839</v>
+        <v>44017</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
       </c>
+      <c r="F103" t="s">
+        <v>63</v>
+      </c>
       <c r="H103" t="s">
         <v>37</v>
       </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="J103" t="s">
+        <v>331</v>
       </c>
       <c r="K103" t="s">
         <v>21</v>
       </c>
       <c r="N103" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="O103" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P103" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="Q103" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -6671,51 +6749,36 @@
         <v>26</v>
       </c>
       <c r="T103">
-        <v>249220522</v>
+        <v>244446781</v>
       </c>
       <c r="U103">
-        <v>241246842</v>
+        <v>249251741</v>
       </c>
       <c r="V103" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>43831</v>
+        <v>43774</v>
       </c>
       <c r="E104" t="s">
         <v>26</v>
       </c>
-      <c r="H104" t="s">
-        <v>149</v>
-      </c>
-      <c r="I104" t="s">
-        <v>21</v>
-      </c>
-      <c r="K104" t="s">
-        <v>21</v>
-      </c>
       <c r="N104" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="O104" t="s">
-        <v>327</v>
-      </c>
-      <c r="P104" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="R104" t="s">
         <v>26</v>
@@ -6724,57 +6787,45 @@
         <v>26</v>
       </c>
       <c r="T104">
-        <v>248076761</v>
+        <v>242715514</v>
       </c>
       <c r="U104">
-        <v>551424325</v>
-      </c>
-      <c r="V104" t="s">
-        <v>329</v>
+        <v>553488520</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D105" s="1">
-        <v>44017</v>
+        <v>44112</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H105" t="s">
         <v>37</v>
       </c>
       <c r="I105" t="s">
-        <v>37</v>
-      </c>
-      <c r="J105" t="s">
-        <v>331</v>
-      </c>
-      <c r="K105" t="s">
         <v>21</v>
       </c>
       <c r="N105" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="O105" t="s">
-        <v>332</v>
-      </c>
-      <c r="P105" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="Q105" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="R105" t="s">
         <v>26</v>
@@ -6783,37 +6834,28 @@
         <v>26</v>
       </c>
       <c r="T105">
-        <v>244446781</v>
+        <v>552503776</v>
       </c>
       <c r="U105">
-        <v>249251741</v>
-      </c>
-      <c r="V105" t="s">
-        <v>334</v>
+        <v>246922004</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s">
         <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D106" s="1">
-        <v>43774</v>
+        <v>36558</v>
       </c>
       <c r="E106" t="s">
         <v>26</v>
       </c>
-      <c r="N106" t="s">
-        <v>336</v>
-      </c>
-      <c r="O106" t="s">
-        <v>337</v>
-      </c>
       <c r="R106" t="s">
         <v>26</v>
       </c>
@@ -6821,114 +6863,78 @@
         <v>26</v>
       </c>
       <c r="T106">
-        <v>242715514</v>
+        <v>543357761</v>
       </c>
       <c r="U106">
-        <v>553488520</v>
+        <v>543357761</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B107" t="s">
         <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>44112</v>
-      </c>
-      <c r="E107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" t="s">
-        <v>319</v>
-      </c>
-      <c r="H107" t="s">
-        <v>37</v>
-      </c>
-      <c r="I107" t="s">
-        <v>21</v>
-      </c>
-      <c r="N107" t="s">
-        <v>339</v>
-      </c>
-      <c r="O107" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>32</v>
-      </c>
-      <c r="R107" t="s">
-        <v>26</v>
-      </c>
-      <c r="S107" t="s">
-        <v>26</v>
+        <v>36558</v>
       </c>
       <c r="T107">
-        <v>552503776</v>
+        <v>530376302</v>
       </c>
       <c r="U107">
-        <v>246922004</v>
+        <v>530376302</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s">
         <v>264</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D108" s="1">
         <v>36558</v>
       </c>
-      <c r="E108" t="s">
-        <v>26</v>
-      </c>
-      <c r="R108" t="s">
-        <v>26</v>
-      </c>
-      <c r="S108" t="s">
-        <v>26</v>
-      </c>
       <c r="T108">
-        <v>543357761</v>
+        <v>559610656</v>
       </c>
       <c r="U108">
-        <v>543357761</v>
+        <v>559610656</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B109" t="s">
         <v>269</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D109" s="1">
         <v>36558</v>
       </c>
       <c r="T109">
-        <v>530376302</v>
+        <v>540901838</v>
       </c>
       <c r="U109">
-        <v>530376302</v>
+        <v>540901838</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -6937,78 +6943,78 @@
         <v>36558</v>
       </c>
       <c r="T110">
-        <v>559610656</v>
+        <v>554246016</v>
       </c>
       <c r="U110">
-        <v>559610656</v>
+        <v>541473757</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D111" s="1">
         <v>36558</v>
       </c>
       <c r="T111">
-        <v>540901838</v>
+        <v>256503657</v>
       </c>
       <c r="U111">
-        <v>540901838</v>
+        <v>256503657</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D112" s="1">
         <v>36558</v>
       </c>
       <c r="T112">
-        <v>554246016</v>
+        <v>240256100</v>
       </c>
       <c r="U112">
-        <v>541473757</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D113" s="1">
         <v>36558</v>
       </c>
       <c r="T113">
-        <v>256503657</v>
+        <v>240256100</v>
       </c>
       <c r="U113">
-        <v>256503657</v>
+        <v>240256100</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
@@ -7017,18 +7023,18 @@
         <v>36558</v>
       </c>
       <c r="T114">
-        <v>240256100</v>
+        <v>557544883</v>
       </c>
       <c r="U114">
-        <v>240256100</v>
+        <v>557544883</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -7037,18 +7043,18 @@
         <v>36558</v>
       </c>
       <c r="T115">
-        <v>240256100</v>
+        <v>540750426</v>
       </c>
       <c r="U115">
-        <v>240256100</v>
+        <v>540750426</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
@@ -7057,72 +7063,32 @@
         <v>36558</v>
       </c>
       <c r="T116">
-        <v>557544883</v>
+        <v>205669296</v>
       </c>
       <c r="U116">
-        <v>557544883</v>
+        <v>205669296</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1">
         <v>36558</v>
       </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
       <c r="T117">
-        <v>540750426</v>
+        <v>546312435</v>
       </c>
       <c r="U117">
-        <v>540750426</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>351</v>
-      </c>
-      <c r="B118" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" t="s">
-        <v>34</v>
-      </c>
-      <c r="D118" s="1">
-        <v>36558</v>
-      </c>
-      <c r="T118">
-        <v>205669296</v>
-      </c>
-      <c r="U118">
-        <v>205669296</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>352</v>
-      </c>
-      <c r="B119" t="s">
-        <v>270</v>
-      </c>
-      <c r="C119" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="1">
-        <v>36558</v>
-      </c>
-      <c r="E119" t="s">
-        <v>26</v>
-      </c>
-      <c r="T119">
-        <v>546312435</v>
-      </c>
-      <c r="U119">
         <v>546312435</v>
       </c>
     </row>
